--- a/request.xlsx
+++ b/request.xlsx
@@ -1,42 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19024"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="171026"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="777">
+  <si>
+    <t>town</t>
+  </si>
   <si>
     <t>requestName</t>
   </si>
   <si>
+    <t>requestName_kr</t>
+  </si>
+  <si>
     <t>condition</t>
   </si>
   <si>
     <t>reward</t>
   </si>
   <si>
+    <t>베르나 마을(ベルナ村)</t>
+  </si>
+  <si>
     <t>調査隊の隊長の依頼</t>
   </si>
   <si>
-    <t>納品
-マレコガネ x5ユクモの堅木 x5上質なねじれた角 x2</t>
-  </si>
-  <si>
-    <t>装備開放
-ウィズダムシリーズウィズダムＸシリーズ</t>
+    <t>조사대 대장의 의뢰</t>
+  </si>
+  <si>
+    <t>납품 마레코가네(マレコガネ) x5 단단한 유쿠모 나무(ユクモの堅木) x5 상질의 뒤틀린 뿔(上質なねじれた角) x2</t>
+  </si>
+  <si>
+    <t>装備開放ウィズダムシリーズウィズダムＸシリーズ</t>
   </si>
   <si>
     <t>龍識船の受付嬢の依頼</t>
+  </si>
+  <si>
+    <t>용식선 여성 접수원의 의뢰</t>
   </si>
   <si>
     <t>村★9空路を阻む電竜退治！</t>
@@ -51,6 +64,9 @@
     <t>タンジアの大会担当の依頼</t>
   </si>
   <si>
+    <t>탄지아 대회담당의 의뢰</t>
+  </si>
+  <si>
     <t>G★4感動の生まれる瞬間</t>
   </si>
   <si>
@@ -63,6 +79,9 @@
     <t>モガの農場アイルーの依頼</t>
   </si>
   <si>
+    <t>모가 농장 아이루의 의뢰</t>
+  </si>
+  <si>
     <t>村★8珍肥料を手に入れるのニャ！</t>
   </si>
   <si>
@@ -71,6 +90,9 @@
   </si>
   <si>
     <t>タルアイルーの依頼</t>
+  </si>
+  <si>
+    <t>나무통 아이루의 의뢰</t>
   </si>
   <si>
     <t>G★1罪深きタルの食材探訪</t>
@@ -87,6 +109,9 @@
     <t>狩猟船団・赤槍の依頼1</t>
   </si>
   <si>
+    <t>수렵선단・적창의 의뢰1</t>
+  </si>
+  <si>
     <t>村★9空の家族・メシを作るッス</t>
   </si>
   <si>
@@ -95,6 +120,9 @@
   </si>
   <si>
     <t>狩猟船団・赤槍の依頼2</t>
+  </si>
+  <si>
+    <t>수렵선단・적창의 의뢰2</t>
   </si>
   <si>
     <t>G★2空の家族・空路を守るッス</t>
@@ -110,6 +138,9 @@
     <t>タンジアの銅鑼担当の依頼1</t>
   </si>
   <si>
+    <t>탄지아 징담당의 의뢰1</t>
+  </si>
+  <si>
     <t>村★9……求めるならば力を示して</t>
   </si>
   <si>
@@ -120,6 +151,9 @@
   </si>
   <si>
     <t>タンジアの銅鑼担当の依頼2</t>
+  </si>
+  <si>
+    <t>탄지아 징담당의 의뢰2</t>
   </si>
   <si>
     <t>G★2……欲するならば資格を示して</t>
@@ -135,6 +169,9 @@
     <t>ベルナ村の村長の依頼</t>
   </si>
   <si>
+    <t>베르나 마을 촌장의 의뢰</t>
+  </si>
+  <si>
     <t>村★10高難度：古代林に現る２頭の影</t>
   </si>
   <si>
@@ -147,6 +184,9 @@
     <t>ベルナ村の受付嬢の依頼1</t>
   </si>
   <si>
+    <t>베르나 마을 여성 접수원의 의뢰1</t>
+  </si>
+  <si>
     <t>村★3観光客の旅路を守れ！</t>
   </si>
   <si>
@@ -159,6 +199,9 @@
     <t>ベルナ村の受付嬢の依頼2</t>
   </si>
   <si>
+    <t>베르나 마을 여성 접수원의 의뢰2</t>
+  </si>
+  <si>
     <t>村★4とびきりのゼンマイティー作り</t>
   </si>
   <si>
@@ -167,6 +210,9 @@
   </si>
   <si>
     <t>ベルナ村の受付嬢の依頼3</t>
+  </si>
+  <si>
+    <t>베르나 마을 여성 접수원의 의뢰3</t>
   </si>
   <si>
     <t>集★6夜鳥の会・危機一髪！</t>
@@ -181,6 +227,9 @@
     <t>ベルナ村の受付嬢の依頼4</t>
   </si>
   <si>
+    <t>베르나 마을 여성 접수원의 의뢰4</t>
+  </si>
+  <si>
     <t>G★3ベルナ村の観光業が大炎上！</t>
   </si>
   <si>
@@ -193,6 +242,9 @@
     <t>しっかり者の村人の依頼1</t>
   </si>
   <si>
+    <t>착실한 마을사람의 의뢰1</t>
+  </si>
+  <si>
     <t>村★2古代林の暴れん坊</t>
   </si>
   <si>
@@ -205,6 +257,9 @@
     <t>しっかり者の村人の依頼2</t>
   </si>
   <si>
+    <t>착실한 마을사람의 의뢰2</t>
+  </si>
+  <si>
     <t>村★3ムーファたちのふんわり毛玉</t>
   </si>
   <si>
@@ -215,6 +270,9 @@
     <t>しっかり者の村人の依頼3</t>
   </si>
   <si>
+    <t>착실한 마을사람의 의뢰3</t>
+  </si>
+  <si>
     <t>村★6高難度：天地征服せし強者</t>
   </si>
   <si>
@@ -225,6 +283,9 @@
     <t>チコ村の村長の依頼1</t>
   </si>
   <si>
+    <t>치코 마을 촌장의 의뢰1</t>
+  </si>
+  <si>
     <t>村★3ステキなお魚、錦魚</t>
   </si>
   <si>
@@ -235,6 +296,9 @@
     <t>チコ村の村長の依頼2</t>
   </si>
   <si>
+    <t>치코 마을 촌장의 의뢰2</t>
+  </si>
+  <si>
     <t>村★4チコ村のヒーロー伝説</t>
   </si>
   <si>
@@ -243,6 +307,9 @@
   </si>
   <si>
     <t>キャラバンの団長の依頼1</t>
+  </si>
+  <si>
+    <t>캐러밴 단장의 의뢰1</t>
   </si>
   <si>
     <t>村★4厄介者のドスゲネポス</t>
@@ -259,6 +326,9 @@
     <t>キャラバンの団長の依頼2</t>
   </si>
   <si>
+    <t>캐러밴 단장의 의뢰2</t>
+  </si>
+  <si>
     <t>村★6高難度：廻帰せし災厄の古龍</t>
   </si>
   <si>
@@ -271,6 +341,9 @@
     <t>キャラバンの団長の依頼3</t>
   </si>
   <si>
+    <t>캐러밴 단장의 의뢰3</t>
+  </si>
+  <si>
     <t>集★7原生林の平和を守れ</t>
   </si>
   <si>
@@ -283,6 +356,9 @@
     <t>キャラバンの団長の依頼4</t>
   </si>
   <si>
+    <t>캐러밴 단장의 의뢰4</t>
+  </si>
+  <si>
     <t>G★3グラビモス連続狩猟</t>
   </si>
   <si>
@@ -293,6 +369,9 @@
   </si>
   <si>
     <t>キャラバンの看板娘の依頼1</t>
+  </si>
+  <si>
+    <t>캐러밴 간판아가씨의 의뢰1</t>
   </si>
   <si>
     <t>集★4超☆メモ帳～跳狗竜狩猟編～</t>
@@ -309,6 +388,9 @@
     <t>キャラバンの看板娘の依頼2</t>
   </si>
   <si>
+    <t>캐러밴 간판아가씨의 의뢰2</t>
+  </si>
+  <si>
     <t>集★5超☆メモ帳～奇猿狐狩猟編～</t>
   </si>
   <si>
@@ -319,6 +401,9 @@
     <t>キャラバンの看板娘の依頼3</t>
   </si>
   <si>
+    <t>캐러밴 간판아가씨의 의뢰3</t>
+  </si>
+  <si>
     <t>集★7超☆メモ帳～千刃竜捕獲編～</t>
   </si>
   <si>
@@ -326,6 +411,9 @@
   </si>
   <si>
     <t>キャラバンの看板娘の依頼4</t>
+  </si>
+  <si>
+    <t>캐러밴 간판아가씨의 의뢰4</t>
   </si>
   <si>
     <t>G★2超☆メモ帳～獰猛化盾蟹編～</t>
@@ -338,6 +426,9 @@
   </si>
   <si>
     <t>筆頭リーダーの依頼1</t>
+  </si>
+  <si>
+    <t>필두 리더의 의뢰1</t>
   </si>
   <si>
     <t>集★6遺跡平原の黒蝕竜調査</t>
@@ -353,6 +444,9 @@
     <t>筆頭リーダーの依頼2</t>
   </si>
   <si>
+    <t>필두 리더의 의뢰2</t>
+  </si>
+  <si>
     <t>集★7顕現せし黒蝕竜</t>
   </si>
   <si>
@@ -361,6 +455,9 @@
   </si>
   <si>
     <t>筆頭リーダーの依頼3</t>
+  </si>
+  <si>
+    <t>필두 리더의 의뢰3</t>
   </si>
   <si>
     <t>G★2密林のナルガクルガと対峙せよ</t>
@@ -376,6 +473,9 @@
     <t>筆頭リーダーの依頼4</t>
   </si>
   <si>
+    <t>필두 리더의 의뢰4</t>
+  </si>
+  <si>
     <t>G★4原生林にて呻くは渾沌の竜</t>
   </si>
   <si>
@@ -386,6 +486,9 @@
   </si>
   <si>
     <t>筆頭ランサーの依頼1</t>
+  </si>
+  <si>
+    <t>필두 랜서의 의뢰1</t>
   </si>
   <si>
     <t>G★2依頼委託：火山の岩竜</t>
@@ -401,6 +504,9 @@
     <t>筆頭ランサーの依頼2</t>
   </si>
   <si>
+    <t>필두 랜서의 의뢰2</t>
+  </si>
+  <si>
     <t>G★2調査委託：獰猛な奇猿狐</t>
   </si>
   <si>
@@ -413,6 +519,9 @@
     <t>筆頭ルーキーの依頼1</t>
   </si>
   <si>
+    <t>필두 루키의 의뢰1</t>
+  </si>
+  <si>
     <t>集★5２頭のドスランポス</t>
   </si>
   <si>
@@ -423,6 +532,9 @@
   </si>
   <si>
     <t>筆頭ルーキーの依頼2</t>
+  </si>
+  <si>
+    <t>필두 루키의 의뢰2</t>
   </si>
   <si>
     <t>G★2二人で特訓、成果は山分け</t>
@@ -438,6 +550,9 @@
     <t>大老殿の大臣の依頼</t>
   </si>
   <si>
+    <t>대노전 대신의 의뢰</t>
+  </si>
+  <si>
     <t>G★4所により獰猛なセルレギオス</t>
   </si>
   <si>
@@ -450,6 +565,9 @@
     <t>伝説の職人の依頼</t>
   </si>
   <si>
+    <t>전설의 장인의 의뢰</t>
+  </si>
+  <si>
     <t>G★4鎧・砕・斬の包囲網を越えて</t>
   </si>
   <si>
@@ -462,6 +580,9 @@
     <t>ベルナ村の加工屋の依頼1</t>
   </si>
   <si>
+    <t>베르나 마을 가공점의 의뢰1</t>
+  </si>
+  <si>
     <t>集★7容赦なき、金獅子相手に用心棒</t>
   </si>
   <si>
@@ -472,6 +593,9 @@
     <t>ベルナ村の加工屋の依頼2</t>
   </si>
   <si>
+    <t>베르나 마을 가공점의 의뢰2</t>
+  </si>
+  <si>
     <t>集★7凶賊ゲリョス狩り</t>
   </si>
   <si>
@@ -482,6 +606,9 @@
     <t>ネコ嬢の依頼1</t>
   </si>
   <si>
+    <t>고양이 아가씨의 의뢰1</t>
+  </si>
+  <si>
     <t>村★1ネコ嬢のジャギィ討伐依頼</t>
   </si>
   <si>
@@ -490,6 +617,9 @@
   </si>
   <si>
     <t>ネコ嬢の依頼2</t>
+  </si>
+  <si>
+    <t>고양이 아가씨의 의뢰2</t>
   </si>
   <si>
     <t>村★8宣伝ネコの受難</t>
@@ -504,6 +634,9 @@
     <t>ネコ嬢の依頼3</t>
   </si>
   <si>
+    <t>고양이 아가씨의 의뢰3</t>
+  </si>
+  <si>
     <t>G★1毒怪鳥が盗んだものを追って</t>
   </si>
   <si>
@@ -514,6 +647,9 @@
   </si>
   <si>
     <t>酒場の看板娘の依頼(1)</t>
+  </si>
+  <si>
+    <t>주점 간판 아가씨의 의뢰(1)</t>
   </si>
   <si>
     <t>G★3妹奮闘記～夜鳥退治～</t>
@@ -530,6 +666,9 @@
     <t>酒場の看板娘の依頼(2)</t>
   </si>
   <si>
+    <t>주점 간판 아가씨의 의뢰(2)</t>
+  </si>
+  <si>
     <t>龍識船研究員ネコに話しかける</t>
   </si>
   <si>
@@ -538,6 +677,9 @@
   </si>
   <si>
     <t>ニャント様の依頼</t>
+  </si>
+  <si>
+    <t>냥트님의 의뢰</t>
   </si>
   <si>
     <t>G★3トラウマガンキンを退治せよ</t>
@@ -549,7 +691,13 @@
 ルーツォ＝スーロ</t>
   </si>
   <si>
+    <t>코코트 마을(ココット村)</t>
+  </si>
+  <si>
     <t>ココット村の村長の依頼1</t>
+  </si>
+  <si>
+    <t>코코트 마을 촌장의 의뢰1</t>
   </si>
   <si>
     <t>村★2ランポスたちを討伐せよ！</t>
@@ -560,6 +708,9 @@
   </si>
   <si>
     <t>ココット村の村長の依頼2</t>
+  </si>
+  <si>
+    <t>코코트 마을 촌장의 의뢰2</t>
   </si>
   <si>
     <t>村★2ドスランポスを狩猟せよ！</t>
@@ -574,10 +725,16 @@
     <t>ココット村の村長の依頼3</t>
   </si>
   <si>
+    <t>코코트 마을 촌장의 의뢰3</t>
+  </si>
+  <si>
     <t>村★3大怪鳥イャンクックを倒せ！</t>
   </si>
   <si>
     <t>ココット村の村長の依頼4</t>
+  </si>
+  <si>
+    <t>코코트 마을 촌장의 의뢰4</t>
   </si>
   <si>
     <t>村★3潜入！飛竜の巣！</t>
@@ -588,6 +745,9 @@
   </si>
   <si>
     <t>ココット村の村長の依頼5</t>
+  </si>
+  <si>
+    <t>코코트 마을 촌장의 의뢰5</t>
   </si>
   <si>
     <t>村★5翠玉の閃電</t>
@@ -603,6 +763,9 @@
     <t>ココット村の村長の依頼6</t>
   </si>
   <si>
+    <t>코코트 마을 촌장의 의뢰6</t>
+  </si>
+  <si>
     <t>村★6高難度：天と地の怒り</t>
   </si>
   <si>
@@ -613,16 +776,19 @@
     <t>ココット村の村長の依頼7</t>
   </si>
   <si>
+    <t>코코트 마을 촌장의 의뢰7</t>
+  </si>
+  <si>
     <t>村★10高難度：森丘にて火竜は旋廻す</t>
   </si>
   <si>
-    <t>入手
-ココットチケットG
-オトモ装備開放
-ハントＸネコナイフハントＸネコヘルムハントＸネコメイル</t>
+    <t>入手ココットチケットGオトモ装備開放ハントＸネコナイフハントＸネコヘルムハントＸネコメイル</t>
   </si>
   <si>
     <t>ココット村の受付嬢の依頼1</t>
+  </si>
+  <si>
+    <t>코코트 마을 여성 접수원의 의뢰1</t>
   </si>
   <si>
     <t>納品
@@ -638,6 +804,9 @@
     <t>ココット村の受付嬢の依頼2</t>
   </si>
   <si>
+    <t>코코트 마을 여성 접수원의 의뢰2</t>
+  </si>
+  <si>
     <t>納品
 鬼蛙の厚鱗 x5盾蟹の重殻 x5影蜘蛛の剛爪 x2</t>
   </si>
@@ -651,6 +820,9 @@
     <t>ミナガルデの看板娘の依頼1</t>
   </si>
   <si>
+    <t>미나가르데 간판 아가씨의 의뢰1</t>
+  </si>
+  <si>
     <t>集★7獰にして猛だが火でもある</t>
   </si>
   <si>
@@ -663,6 +835,9 @@
     <t>ミナガルデの看板娘の依頼2</t>
   </si>
   <si>
+    <t>미나가르데 간판 아가씨의 의뢰2</t>
+  </si>
+  <si>
     <t>村★9割り込み受注：卵納品</t>
   </si>
   <si>
@@ -673,6 +848,9 @@
     <t>ミナガルデの看板娘の依頼3</t>
   </si>
   <si>
+    <t>미나가르데 간판 아가씨의 의뢰3</t>
+  </si>
+  <si>
     <t>G★2割り込み受注：2頭の桃毛獣</t>
   </si>
   <si>
@@ -681,6 +859,9 @@
   </si>
   <si>
     <t>休息中のハンターの依頼</t>
+  </si>
+  <si>
+    <t>휴식중인 헌터의 의뢰</t>
   </si>
   <si>
     <t>G★2閃きへの1ピースを求めて</t>
@@ -696,6 +877,9 @@
     <t>トレジィの依頼1</t>
   </si>
   <si>
+    <t>트레지의 의뢰1</t>
+  </si>
+  <si>
     <t>村★3古代林のトレジャー！蛙の巻</t>
   </si>
   <si>
@@ -706,6 +890,9 @@
     <t>トレジィの依頼2</t>
   </si>
   <si>
+    <t>트레지의 의뢰2</t>
+  </si>
+  <si>
     <t>村★4古代林のトレジャー！虫の巻</t>
   </si>
   <si>
@@ -714,6 +901,9 @@
   </si>
   <si>
     <t>トレジィの依頼3</t>
+  </si>
+  <si>
+    <t>트레지의 의뢰3</t>
   </si>
   <si>
     <t>村★6高難度：古代林のトレジャー！</t>
@@ -728,6 +918,9 @@
     <t>トレジィの依頼4</t>
   </si>
   <si>
+    <t>트레지의 의뢰4</t>
+  </si>
+  <si>
     <t>G★2遺群嶺のトレジャー！米の巻</t>
   </si>
   <si>
@@ -738,6 +931,9 @@
     <t>ヘルブラザーズ・赤鬼の依頼(1)</t>
   </si>
   <si>
+    <t>헬 브라더스・적귀의 의뢰(1)</t>
+  </si>
+  <si>
     <t>村★6高難度：一対の巨影</t>
   </si>
   <si>
@@ -748,6 +944,9 @@
     <t>ヘルブラザーズ・赤鬼の依頼(2)</t>
   </si>
   <si>
+    <t>헬 브라더스・적귀의 의뢰(2)</t>
+  </si>
+  <si>
     <t>集★7空の飛竜と陸の飛竜</t>
   </si>
   <si>
@@ -758,6 +957,9 @@
     <t>ヘルブラザーズ・赤鬼の依頼2</t>
   </si>
   <si>
+    <t>헬 브라더스・적귀의 의뢰2</t>
+  </si>
+  <si>
     <t>村★9轟竜の狩猟をさせてやるぜ！</t>
   </si>
   <si>
@@ -766,6 +968,9 @@
   </si>
   <si>
     <t>ヘルブラザーズ・赤鬼の依頼3</t>
+  </si>
+  <si>
+    <t>헬 브라더스・적귀의 의뢰3</t>
   </si>
   <si>
     <t>G★2鎌蟹の狩猟をさせてやるぜ！</t>
@@ -781,6 +986,9 @@
     <t>ドンドルマの守護兵の依頼1</t>
   </si>
   <si>
+    <t>돈도르마 수호병의 의뢰1</t>
+  </si>
+  <si>
     <t>村★6高難度：黒狼鳥は舞い降りた</t>
   </si>
   <si>
@@ -789,6 +997,9 @@
   </si>
   <si>
     <t>ドンドルマの守護兵の依頼2</t>
+  </si>
+  <si>
+    <t>돈도르마 수호병의 의뢰2</t>
   </si>
   <si>
     <t>村★6高難度：対霞龍防衛作戦！</t>
@@ -803,6 +1014,9 @@
     <t>ドンドルマの守護兵の依頼3</t>
   </si>
   <si>
+    <t>돈도르마 수호병의 의뢰3</t>
+  </si>
+  <si>
     <t>G★1森丘の迷惑な怪鳥さん</t>
   </si>
   <si>
@@ -813,6 +1027,9 @@
     <t>シナト村の長老の依頼</t>
   </si>
   <si>
+    <t>시나토 마을 장로의 의뢰</t>
+  </si>
+  <si>
     <t>集★4肴のキモはホワイトレバー</t>
   </si>
   <si>
@@ -823,6 +1040,9 @@
     <t>キャラバンの料理長の依頼1</t>
   </si>
   <si>
+    <t>캐러밴 요리장의 의뢰1</t>
+  </si>
+  <si>
     <t>集★1新たな食材ハンターの誕生！？</t>
   </si>
   <si>
@@ -833,6 +1053,9 @@
     <t>キャラバンの料理長の依頼2</t>
   </si>
   <si>
+    <t>캐러밴 요리장의 의뢰2</t>
+  </si>
+  <si>
     <t>村★9雪山、雪玉、雪合戦！！</t>
   </si>
   <si>
@@ -843,6 +1066,9 @@
     <t>キャラバンの料理長の依頼3</t>
   </si>
   <si>
+    <t>캐러밴 요리장의 의뢰3</t>
+  </si>
+  <si>
     <t>G★2チコ村を脅かす水竜を狩れ！</t>
   </si>
   <si>
@@ -853,6 +1079,9 @@
     <t>キャラバンの娘の依頼1</t>
   </si>
   <si>
+    <t>캐러밴 아가씨의 의뢰1</t>
+  </si>
+  <si>
     <t>ナグリ村の村長と会話</t>
   </si>
   <si>
@@ -863,6 +1092,9 @@
     <t>キャラバンの娘の依頼2</t>
   </si>
   <si>
+    <t>캐러밴 아가씨의 의뢰2</t>
+  </si>
+  <si>
     <t>集★6心を燃やせ、燃石炭！</t>
   </si>
   <si>
@@ -873,10 +1105,16 @@
     <t>キャラバンの娘の依頼3</t>
   </si>
   <si>
+    <t>캐러밴 아가씨의 의뢰3</t>
+  </si>
+  <si>
     <t>村★8熱地に現る、ウラガンキン！</t>
   </si>
   <si>
     <t>キャラバンの竜人商人の依頼1</t>
+  </si>
+  <si>
+    <t>캐러밴 용인상인의 의뢰1</t>
   </si>
   <si>
     <t>村★5ゲリョスな季節</t>
@@ -889,6 +1127,9 @@
     <t>キャラバンの竜人商人の依頼2</t>
   </si>
   <si>
+    <t>캐러밴 용인상인의 의뢰2</t>
+  </si>
+  <si>
     <t>集★3化石に眠る太古の記憶</t>
   </si>
   <si>
@@ -899,6 +1140,9 @@
     <t>キャラバンの竜人商人の依頼3</t>
   </si>
   <si>
+    <t>캐러밴 용인상인의 의뢰3</t>
+  </si>
+  <si>
     <t>集★5雪山の主、ドドブランゴ</t>
   </si>
   <si>
@@ -909,6 +1153,9 @@
     <t>キャラバンの竜人商人の依頼4</t>
   </si>
   <si>
+    <t>캐러밴 용인상인의 의뢰4</t>
+  </si>
+  <si>
     <t>村★10遺群嶺を塞ぐ恐暴竜</t>
   </si>
   <si>
@@ -917,6 +1164,9 @@
   </si>
   <si>
     <t>交易船の船長の依頼1</t>
+  </si>
+  <si>
+    <t>교역선 선장의 의뢰1</t>
   </si>
   <si>
     <t>集★2輸送中！水獣の追従！</t>
@@ -931,6 +1181,9 @@
     <t>交易船の船長の依頼2</t>
   </si>
   <si>
+    <t>교역선 선장의 의뢰2</t>
+  </si>
+  <si>
     <t>村★6予想外！つがいの妨害！</t>
   </si>
   <si>
@@ -941,6 +1194,9 @@
     <t>交易船の船長の依頼3</t>
   </si>
   <si>
+    <t>교역선 선장의 의뢰3</t>
+  </si>
+  <si>
     <t>納品
 ユクモの木 x5泡立つ滑液 x2海綿質の上皮 x1</t>
   </si>
@@ -952,6 +1208,9 @@
     <t>交易船の船長の依頼4</t>
   </si>
   <si>
+    <t>교역선 선장의 의뢰4</t>
+  </si>
+  <si>
     <t>集★7蒼く渦巻く登竜門</t>
   </si>
   <si>
@@ -962,6 +1221,9 @@
     <t>バルバレの仕切り役の依頼1</t>
   </si>
   <si>
+    <t>바르바레 회담 진행자의 의뢰1</t>
+  </si>
+  <si>
     <t>村★6高難度：重甲虫と腕試し！</t>
   </si>
   <si>
@@ -970,6 +1232,9 @@
   </si>
   <si>
     <t>バルバレの仕切り役の依頼2</t>
+  </si>
+  <si>
+    <t>바르바레 회담 진행자의 의뢰2</t>
   </si>
   <si>
     <t>集★7試練の帰結点</t>
@@ -987,6 +1252,9 @@
     <t>バルバレの仕切り役の依頼3</t>
   </si>
   <si>
+    <t>바르바레 회담 진행자의 의뢰3</t>
+  </si>
+  <si>
     <t>G★4絆の証！孤島の大決戦</t>
   </si>
   <si>
@@ -994,7 +1262,13 @@
 忍・極天/忍・極地シリーズ</t>
   </si>
   <si>
+    <t>폿케 마을(ポッケ村)</t>
+  </si>
+  <si>
     <t>ポッケ村の村長の依頼1</t>
+  </si>
+  <si>
+    <t>폿케 마을 촌장의 의뢰1</t>
   </si>
   <si>
     <t>村★2ギアノスたちを討伐せよ！</t>
@@ -1005,6 +1279,9 @@
   </si>
   <si>
     <t>ポッケ村の村長の依頼2</t>
+  </si>
+  <si>
+    <t>폿케 마을 촌장의 의뢰2</t>
   </si>
   <si>
     <t>村★2雪山の荒くれ者</t>
@@ -1019,10 +1296,16 @@
     <t>ポッケ村の村長の依頼3</t>
   </si>
   <si>
+    <t>폿케 마을 촌장의 의뢰3</t>
+  </si>
+  <si>
     <t>村★3雪山に潜む影</t>
   </si>
   <si>
     <t>ポッケ村の村長の依頼4</t>
+  </si>
+  <si>
+    <t>폿케 마을 촌장의 의뢰4</t>
   </si>
   <si>
     <t>村★3忍び寄る気配</t>
@@ -1033,6 +1316,9 @@
   </si>
   <si>
     <t>ポッケ村の村長の依頼5</t>
+  </si>
+  <si>
+    <t>폿케 마을 촌장의 의뢰5</t>
   </si>
   <si>
     <t>村★5峨々たる巨獣</t>
@@ -1049,6 +1335,9 @@
     <t>ポッケ村の村長の依頼6</t>
   </si>
   <si>
+    <t>폿케 마을 촌장의 의뢰6</t>
+  </si>
+  <si>
     <t>村★6高難度：最後の招待状</t>
   </si>
   <si>
@@ -1057,6 +1346,9 @@
   </si>
   <si>
     <t>ポッケ村の村長の依頼7</t>
+  </si>
+  <si>
+    <t>폿케 마을 촌장의 의뢰7</t>
   </si>
   <si>
     <t>村★10高難度：雪山に佇む轟竜</t>
@@ -1071,6 +1363,9 @@
     <t>ポッケ村の受付嬢の依頼1</t>
   </si>
   <si>
+    <t>폿케 마을 여성 접수원의 의뢰1</t>
+  </si>
+  <si>
     <t>納品
 ユクモの木 x4ガウシカの角 x2巨獣の鼻棘 x1</t>
   </si>
@@ -1084,6 +1379,9 @@
     <t>ポッケ村の受付嬢の依頼2</t>
   </si>
   <si>
+    <t>폿케 마을 여성 접수원의 의뢰2</t>
+  </si>
+  <si>
     <t>村★10高難度：喧嘩の仲裁は村を救う</t>
   </si>
   <si>
@@ -1096,6 +1394,9 @@
     <t>ジャンボ村の看板娘の依頼</t>
   </si>
   <si>
+    <t>점보 마을 간판 아가씨의 의뢰</t>
+  </si>
+  <si>
     <t>集★6ドドドドブランゴ！</t>
   </si>
   <si>
@@ -1108,6 +1409,9 @@
     <t>トレニャーの依頼1</t>
   </si>
   <si>
+    <t>트레냐의 의뢰1</t>
+  </si>
+  <si>
     <t>村★3旧砂漠の縄張り争いニャ！！</t>
   </si>
   <si>
@@ -1118,6 +1422,9 @@
     <t>トレニャーの依頼2</t>
   </si>
   <si>
+    <t>트레냐의 의뢰2</t>
+  </si>
+  <si>
     <t>村★4森丘の静寂を守るのニャ！！</t>
   </si>
   <si>
@@ -1128,6 +1435,9 @@
     <t>トレニャーの依頼3</t>
   </si>
   <si>
+    <t>트레냐의 의뢰3</t>
+  </si>
+  <si>
     <t>村★6渓流の覇権争いニャ！！</t>
   </si>
   <si>
@@ -1136,6 +1446,9 @@
   </si>
   <si>
     <t>ネコートの依頼1</t>
+  </si>
+  <si>
+    <t>네코트의 의뢰1</t>
   </si>
   <si>
     <t>集★6極秘依頼！獰猛なる溶岩竜！</t>
@@ -1150,6 +1463,9 @@
     <t>ネコートの依頼2</t>
   </si>
   <si>
+    <t>네코트의 의뢰2</t>
+  </si>
+  <si>
     <t>集★7轟虎馮海</t>
   </si>
   <si>
@@ -1160,6 +1476,9 @@
   </si>
   <si>
     <t>ネコートの依頼3</t>
+  </si>
+  <si>
+    <t>네코트의 의뢰3</t>
   </si>
   <si>
     <t>村★6高難度：異常震域</t>
@@ -1176,6 +1495,9 @@
     <t>ネコートの依頼4</t>
   </si>
   <si>
+    <t>네코트의 의뢰4</t>
+  </si>
+  <si>
     <t>G★4極天より来たる、崩せし神</t>
   </si>
   <si>
@@ -1184,6 +1506,9 @@
   </si>
   <si>
     <t>ポッケ村の看板娘の依頼</t>
+  </si>
+  <si>
+    <t>폿케 마을 간판 아가씨의 의뢰</t>
   </si>
   <si>
     <t>集★5疾き迅竜の狩猟披露</t>
@@ -1199,6 +1524,9 @@
     <t>カリスマ美容師ネコの依頼1</t>
   </si>
   <si>
+    <t>카리스마 미용사 고양이의 의뢰1</t>
+  </si>
+  <si>
     <t>集★3パッション炸裂☆究極アフロ</t>
   </si>
   <si>
@@ -1209,10 +1537,16 @@
     <t>カリスマ美容師ネコの依頼2</t>
   </si>
   <si>
+    <t>카리스마 미용사 고양이의 의뢰2</t>
+  </si>
+  <si>
     <t>G★2ぶつけろ生き様☆アフロソウル</t>
   </si>
   <si>
     <t>さすらいのコックの依頼1</t>
+  </si>
+  <si>
+    <t>방랑자 콕의 의뢰1</t>
   </si>
   <si>
     <t>集★1伝説のメニューに不可欠なモノ</t>
@@ -1227,6 +1561,9 @@
     <t>さすらいのコックの依頼2</t>
   </si>
   <si>
+    <t>방랑자 콕의 의뢰2</t>
+  </si>
+  <si>
     <t>G★1アツアツ砂漠の盾蟹狩猟</t>
   </si>
   <si>
@@ -1237,6 +1574,9 @@
     <t>工房のばあちゃんの依頼1</t>
   </si>
   <si>
+    <t>공방 할머니의 의뢰1</t>
+  </si>
+  <si>
     <t>村★6英雄への道</t>
   </si>
   <si>
@@ -1245,6 +1585,9 @@
   </si>
   <si>
     <t>工房のばあちゃんの依頼2</t>
+  </si>
+  <si>
+    <t>공방 할머니의 의뢰2</t>
   </si>
   <si>
     <t>納品
@@ -1260,10 +1603,16 @@
     <t>工房のばあちゃんの依頼3</t>
   </si>
   <si>
+    <t>공방 할머니의 의뢰3</t>
+  </si>
+  <si>
     <t>村★6高難度：炎王の帰還</t>
   </si>
   <si>
     <t>工房のばあちゃんの依頼4</t>
+  </si>
+  <si>
+    <t>공방 할머니의 의뢰4</t>
   </si>
   <si>
     <t>G★3強い防具は素材から！</t>
@@ -1276,6 +1625,9 @@
     <t>チャチャの依頼1</t>
   </si>
   <si>
+    <t>챠챠의 의뢰1</t>
+  </si>
+  <si>
     <t>集★4ライバルの激突！！</t>
   </si>
   <si>
@@ -1286,6 +1638,9 @@
     <t>チャチャの依頼2</t>
   </si>
   <si>
+    <t>챠챠의 의뢰2</t>
+  </si>
+  <si>
     <t>集★6子分・取り分・イイ気分♪</t>
   </si>
   <si>
@@ -1294,6 +1649,9 @@
   </si>
   <si>
     <t>チャチャの依頼3</t>
+  </si>
+  <si>
+    <t>챠챠의 의뢰3</t>
   </si>
   <si>
     <t>集★7汝ノチカラヲ、見セテミヨ</t>
@@ -1309,6 +1667,9 @@
     <t>チャチャの依頼4</t>
   </si>
   <si>
+    <t>챠챠의 의뢰4</t>
+  </si>
+  <si>
     <t>G★2子分の自覚が足りないっチャ！</t>
   </si>
   <si>
@@ -1317,6 +1678,9 @@
   </si>
   <si>
     <t>チャチャの依頼5</t>
+  </si>
+  <si>
+    <t>챠챠의 의뢰5</t>
   </si>
   <si>
     <t>G★3闘技場での最終テストっチャ！</t>
@@ -1333,6 +1697,9 @@
     <t>ギルドマネージャーの依頼1</t>
   </si>
   <si>
+    <t>길드 매니저의 의뢰1</t>
+  </si>
+  <si>
     <t>村★6高難度：青の連撃！</t>
   </si>
   <si>
@@ -1343,6 +1710,9 @@
     <t>ギルドマネージャーの依頼2</t>
   </si>
   <si>
+    <t>길드 매니저의 의뢰2</t>
+  </si>
+  <si>
     <t>村★6高難度：赤の猛攻！</t>
   </si>
   <si>
@@ -1353,6 +1723,9 @@
     <t>ギルドマネージャーの依頼3</t>
   </si>
   <si>
+    <t>길드 매니저의 의뢰3</t>
+  </si>
+  <si>
     <t>G★4絆の証？雪山の獰猛大決戦</t>
   </si>
   <si>
@@ -1360,7 +1733,13 @@
 Ｇ・ガードＸ蒼シリーズＧ・ガードＸ紅シリーズ</t>
   </si>
   <si>
+    <t>유쿠모 마을(ユクモ村)</t>
+  </si>
+  <si>
     <t>ナグリ村の村長の依頼</t>
+  </si>
+  <si>
+    <t>나구리 마을 촌장의 의뢰</t>
   </si>
   <si>
     <t>集★6３頭寄れば獰猛蛙</t>
@@ -1373,6 +1752,9 @@
     <t>ユクモ村の村長の依頼1</t>
   </si>
   <si>
+    <t>유쿠모 마을 촌장의 의뢰1</t>
+  </si>
+  <si>
     <t>村★2渓流のジャギィノス退治</t>
   </si>
   <si>
@@ -1381,6 +1763,9 @@
   </si>
   <si>
     <t>ユクモ村の村長の依頼2</t>
+  </si>
+  <si>
+    <t>유쿠모 마을 촌장의 의뢰2</t>
   </si>
   <si>
     <t>村★2青熊獣アオアシラ</t>
@@ -1395,10 +1780,16 @@
     <t>ユクモ村の村長の依頼3</t>
   </si>
   <si>
+    <t>유쿠모 마을 촌장의 의뢰3</t>
+  </si>
+  <si>
     <t>村★3ロアルドロスを狩猟せよ！</t>
   </si>
   <si>
     <t>ユクモ村の村長の依頼4</t>
+  </si>
+  <si>
+    <t>유쿠모 마을 촌장의 의뢰4</t>
   </si>
   <si>
     <t>村★3ざわめく森</t>
@@ -1409,6 +1800,9 @@
   </si>
   <si>
     <t>ユクモ村の村長の依頼5</t>
+  </si>
+  <si>
+    <t>유쿠모 마을 촌장의 의뢰5</t>
   </si>
   <si>
     <t>村★5淡紅の泡狐がたゆたうか</t>
@@ -1424,6 +1818,9 @@
     <t>ユクモ村の村長の依頼6</t>
   </si>
   <si>
+    <t>유쿠모 마을 촌장의 의뢰6</t>
+  </si>
+  <si>
     <t>村★6高難度：終焉を喰らう者</t>
   </si>
   <si>
@@ -1432,6 +1829,9 @@
   </si>
   <si>
     <t>ユクモ村の村長の依頼7</t>
+  </si>
+  <si>
+    <t>유쿠모 마을 촌장의 의뢰7</t>
   </si>
   <si>
     <t>村★10高難度：月夜を仰ぐ雷狼竜</t>
@@ -1446,6 +1846,9 @@
     <t>ユクモ村の受付嬢の依頼1</t>
   </si>
   <si>
+    <t>유쿠모 마을 여성 접수원의 의뢰1</t>
+  </si>
+  <si>
     <t>村★5ビリビリするらしいです×？？</t>
   </si>
   <si>
@@ -1458,6 +1861,9 @@
     <t>ユクモ村の受付嬢の依頼2</t>
   </si>
   <si>
+    <t>유쿠모 마을 여성 접수원의 의뢰2</t>
+  </si>
+  <si>
     <t>G★2グルグルするらしいです</t>
   </si>
   <si>
@@ -1470,6 +1876,9 @@
     <t>ユクモ村の看板娘の依頼1</t>
   </si>
   <si>
+    <t>유쿠모 마을 간판 아가씨의 의뢰1</t>
+  </si>
+  <si>
     <t>集★7受付嬢オススメ！雷狼竜×２</t>
   </si>
   <si>
@@ -1482,6 +1891,9 @@
     <t>ユクモ村の看板娘の依頼2</t>
   </si>
   <si>
+    <t>유쿠모 마을 간판 아가씨의 의뢰2</t>
+  </si>
+  <si>
     <t>G★1看板娘セレクト：遺群嶺の水獣</t>
   </si>
   <si>
@@ -1492,6 +1904,9 @@
     <t>オトモ武具屋の依頼1</t>
   </si>
   <si>
+    <t>오토모 무구점의 의뢰1</t>
+  </si>
+  <si>
     <t>納品
 マカライト鉱石 x2大猪の皮 x1</t>
   </si>
@@ -1503,6 +1918,9 @@
     <t>オトモ武具屋の依頼2</t>
   </si>
   <si>
+    <t>오토모 무구점의 의뢰2</t>
+  </si>
+  <si>
     <t>集★2無謀な弟子の、後始末</t>
   </si>
   <si>
@@ -1513,6 +1931,9 @@
     <t>オトモ武具屋の依頼3</t>
   </si>
   <si>
+    <t>오토모 무구점의 의뢰3</t>
+  </si>
+  <si>
     <t>集★7無理した弟子の、後始末</t>
   </si>
   <si>
@@ -1523,6 +1944,9 @@
     <t>オトモ武具屋の依頼4</t>
   </si>
   <si>
+    <t>오토모 무구점의 의뢰4</t>
+  </si>
+  <si>
     <t>G★3月下雷鳴の記憶</t>
   </si>
   <si>
@@ -1531,6 +1955,9 @@
   </si>
   <si>
     <t>集会浴場の番台さんの依頼1</t>
+  </si>
+  <si>
+    <t>집회욕장 카운터의 의뢰1</t>
   </si>
   <si>
     <t>集★7ユクモノ足湯と雷狼竜</t>
@@ -1545,6 +1972,9 @@
     <t>集会浴場の番台さんの依頼2</t>
   </si>
   <si>
+    <t>집회욕장 카운터의 의뢰2</t>
+  </si>
+  <si>
     <t>集★7湯けむりと噴煙と</t>
   </si>
   <si>
@@ -1555,6 +1985,9 @@
   </si>
   <si>
     <t>集会浴場の番台さんの依頼3</t>
+  </si>
+  <si>
+    <t>집회욕장 카운터의 의뢰3</t>
   </si>
   <si>
     <t>集★7まだ見ぬ秘湯をもとめて</t>
@@ -1570,6 +2003,9 @@
     <t>集会浴場の番台さんの依頼4</t>
   </si>
   <si>
+    <t>집회욕장 카운터의 의뢰4</t>
+  </si>
+  <si>
     <t>G★2身体の芯までビッリビリ</t>
   </si>
   <si>
@@ -1580,6 +2016,9 @@
     <t>モガの村の農場長の依頼1</t>
   </si>
   <si>
+    <t>모가 마을 농장장의 의뢰1</t>
+  </si>
+  <si>
     <t>村★3ロイヤルハニーハント</t>
   </si>
   <si>
@@ -1590,6 +2029,9 @@
     <t>モガの村の農場長の依頼2</t>
   </si>
   <si>
+    <t>모가 마을 농장장의 의뢰2</t>
+  </si>
+  <si>
     <t>村★4スプラッシュ・ストリーム</t>
   </si>
   <si>
@@ -1600,6 +2042,9 @@
     <t>モガの村の農場長の依頼3</t>
   </si>
   <si>
+    <t>모가 마을 농장장의 의뢰3</t>
+  </si>
+  <si>
     <t>村★5エレクトリカル・バトル</t>
   </si>
   <si>
@@ -1610,6 +2055,9 @@
     <t>モガの村の農場長の依頼4</t>
   </si>
   <si>
+    <t>모가 마을 농장장의 의뢰4</t>
+  </si>
+  <si>
     <t>村★9ジャングル・フェロモン</t>
   </si>
   <si>
@@ -1620,6 +2068,9 @@
     <t>モガの村長の息子の依頼1</t>
   </si>
   <si>
+    <t>모가 촌장 아들의 의뢰1</t>
+  </si>
+  <si>
     <t>納品
 生肉 x3</t>
   </si>
@@ -1631,6 +2082,9 @@
     <t>モガの村長の息子の依頼2</t>
   </si>
   <si>
+    <t>모가 촌장 아들의 의뢰2</t>
+  </si>
+  <si>
     <t>村★4孤島の鳥</t>
   </si>
   <si>
@@ -1641,6 +2095,9 @@
     <t>モガの村長の息子の依頼3</t>
   </si>
   <si>
+    <t>모가 촌장 아들의 의뢰3</t>
+  </si>
+  <si>
     <t>集★3孤島に渦巻く恐怖</t>
   </si>
   <si>
@@ -1651,6 +2108,9 @@
     <t>モガの村長の息子の依頼4</t>
   </si>
   <si>
+    <t>모가 촌장 아들의 의뢰4</t>
+  </si>
+  <si>
     <t>集★3孤島を揺るがす剛音</t>
   </si>
   <si>
@@ -1659,6 +2119,9 @@
   </si>
   <si>
     <t>モガの村長の息子の依頼5</t>
+  </si>
+  <si>
+    <t>모가 촌장 아들의 의뢰5</t>
   </si>
   <si>
     <t>G★4孤島で遭遇！獰猛な雷狼竜</t>
@@ -1673,6 +2136,9 @@
     <t>漁港の女主人の依頼1</t>
   </si>
   <si>
+    <t>어항 여주인의 의뢰1</t>
+  </si>
+  <si>
     <t>納品
 はじけイワシ x5シンドイワシ x2</t>
   </si>
@@ -1684,6 +2150,9 @@
     <t>漁港の女主人の依頼2</t>
   </si>
   <si>
+    <t>어항 여주인의 의뢰2</t>
+  </si>
+  <si>
     <t>G★1川辺のアオアシラ退治</t>
   </si>
   <si>
@@ -1694,10 +2163,16 @@
     <t>モガの村の看板娘の依頼1</t>
   </si>
   <si>
+    <t>모가 마을 간판 아가씨의 의뢰1</t>
+  </si>
+  <si>
     <t>村★3ほいっ！キノコ納品ですよ！</t>
   </si>
   <si>
     <t>モガの村の看板娘の依頼2</t>
+  </si>
+  <si>
+    <t>모가 마을 간판 아가씨의 의뢰2</t>
   </si>
   <si>
     <t>集★5孤島の迷惑客</t>
@@ -1712,6 +2187,9 @@
     <t>モガの村の看板娘の依頼3</t>
   </si>
   <si>
+    <t>모가 마을 간판 아가씨의 의뢰3</t>
+  </si>
+  <si>
     <t>G★3氷牙竜が大発明のカギ？</t>
   </si>
   <si>
@@ -1724,6 +2202,9 @@
     <t>タンジアの港の看板娘の依頼1</t>
   </si>
   <si>
+    <t>탄지아 항구 간판 아가씨의 의뢰1</t>
+  </si>
+  <si>
     <t>集★5キモ・キモ・キモ！！！</t>
   </si>
   <si>
@@ -1736,10 +2217,16 @@
     <t>タンジアの港の看板娘の依頼2</t>
   </si>
   <si>
+    <t>탄지아 항구 간판 아가씨의 의뢰2</t>
+  </si>
+  <si>
     <t>村★6高難度：食は渓流にあり！</t>
   </si>
   <si>
     <t>タンジアの港の看板娘の依頼3</t>
+  </si>
+  <si>
+    <t>탄지아 항구 간판 아가씨의 의뢰3</t>
   </si>
   <si>
     <t>納品
@@ -1755,6 +2242,9 @@
     <t>ロックラックの宿屋の依頼</t>
   </si>
   <si>
+    <t>록락 여관의 의뢰</t>
+  </si>
+  <si>
     <t>納品
 なぞの骨 x5</t>
   </si>
@@ -1766,6 +2256,9 @@
     <t>孤高の教官の依頼</t>
   </si>
   <si>
+    <t>고고한 교관의 의뢰</t>
+  </si>
+  <si>
     <t>村★6雷狼竜はかく吠えり</t>
   </si>
   <si>
@@ -1776,6 +2269,9 @@
     <t>ぽかぽか島の管理人の依頼1</t>
   </si>
   <si>
+    <t>따끈따끈섬 관리인의 의뢰1</t>
+  </si>
+  <si>
     <t>村★2ぽかぽかタケノコ納品</t>
   </si>
   <si>
@@ -1786,10 +2282,16 @@
     <t>ぽかぽか島の管理人の依頼2</t>
   </si>
   <si>
+    <t>따끈따끈섬 관리인의 의뢰2</t>
+  </si>
+  <si>
     <t>村★3ぽかぽかレスキュー隊出動！</t>
   </si>
   <si>
     <t>モガの村の村長の依頼1</t>
+  </si>
+  <si>
+    <t>모가 마을 촌장의 의뢰1</t>
   </si>
   <si>
     <t>村★3盾蟹と貝と狩り</t>
@@ -1800,6 +2302,9 @@
   </si>
   <si>
     <t>モガの村の村長の依頼2</t>
+  </si>
+  <si>
+    <t>모가 마을 촌장의 의뢰2</t>
   </si>
   <si>
     <t>G★4獰猛な砕竜は、孤島で何を思う</t>
@@ -1814,6 +2319,9 @@
     <t>ジャンボ村の村長の依頼1</t>
   </si>
   <si>
+    <t>점보 마을 촌장의 의뢰1</t>
+  </si>
+  <si>
     <t>納品
 ユクモ温泉たまご x1特産キノコキムチ x1氷結晶イチゴ x1</t>
   </si>
@@ -1827,6 +2335,9 @@
     <t>ジャンボ村の村長の依頼2</t>
   </si>
   <si>
+    <t>점보 마을 촌장의 의뢰2</t>
+  </si>
+  <si>
     <t>村★6高難度：吹雪の召還者</t>
   </si>
   <si>
@@ -1837,6 +2348,9 @@
     <t>食材屋の女将の依頼1</t>
   </si>
   <si>
+    <t>식재점  여주인의 의뢰1</t>
+  </si>
+  <si>
     <t>集★2食材の価値は鮮度なり</t>
   </si>
   <si>
@@ -1847,6 +2361,9 @@
     <t>食材屋の女将の依頼2</t>
   </si>
   <si>
+    <t>식재점  여주인의 의뢰2</t>
+  </si>
+  <si>
     <t>村★7旬な食材を採らせておくれ！</t>
   </si>
   <si>
@@ -1857,6 +2374,9 @@
     <t>調合屋のあるじの依頼</t>
   </si>
   <si>
+    <t>조합점 주인의 의뢰</t>
+  </si>
+  <si>
     <t>納品
 サシミウオ x5とがった牙 x3極彩色の体液 x1</t>
   </si>
@@ -1866,6 +2386,9 @@
   </si>
   <si>
     <t>ドンドルマの道具屋の依頼1</t>
+  </si>
+  <si>
+    <t>돈도르마 무구점의 의뢰1</t>
   </si>
   <si>
     <t>集★6幻のハップル？</t>
@@ -1880,6 +2403,9 @@
     <t>ドンドルマの道具屋の依頼2</t>
   </si>
   <si>
+    <t>돈도르마 무구점의 의뢰2</t>
+  </si>
+  <si>
     <t>G★2至宝の林檎王？</t>
   </si>
   <si>
@@ -1888,6 +2414,9 @@
   </si>
   <si>
     <t>船大工の親方の依頼</t>
+  </si>
+  <si>
+    <t>조선공 감독의 의뢰</t>
   </si>
   <si>
     <t>集★6ガノトトス冒険記</t>
@@ -1902,6 +2431,9 @@
     <t>シナト村の女の子の依頼</t>
   </si>
   <si>
+    <t>시나토 마을 여자아이의 의뢰</t>
+  </si>
+  <si>
     <t>村★4ぎょーしょーしゅぎょー</t>
   </si>
   <si>
@@ -1910,6 +2442,9 @@
   </si>
   <si>
     <t>まったりアイルーの依頼</t>
+  </si>
+  <si>
+    <t>한가한 아이루의 의뢰</t>
   </si>
   <si>
     <t>村★5赤いおひさまアッチッチ</t>
@@ -1925,6 +2460,9 @@
     <t>ロックラックガイドの依頼</t>
   </si>
   <si>
+    <t>록락 가이드의 의뢰</t>
+  </si>
+  <si>
     <t>村★3おいしい卵は誰のため？</t>
   </si>
   <si>
@@ -1935,6 +2473,9 @@
     <t>タンジアの港のカシラの依頼</t>
   </si>
   <si>
+    <t>탄지아 항구 우두머리의 의뢰</t>
+  </si>
+  <si>
     <t>村★6高難度：渾身のドボルベルク</t>
   </si>
   <si>
@@ -1943,6 +2484,9 @@
   </si>
   <si>
     <t>ギルドマネージャーの依頼</t>
+  </si>
+  <si>
+    <t>길드 매니저의 의뢰</t>
   </si>
   <si>
     <t>集★7沼地酔夢譚</t>
@@ -1958,6 +2502,9 @@
     <t>ミナガルデのご隠居の依頼</t>
   </si>
   <si>
+    <t>미나가르데 영감님의 의뢰</t>
+  </si>
+  <si>
     <t>集★7森丘の黒い霧</t>
   </si>
   <si>
@@ -1971,6 +2518,9 @@
     <t>ロックラックの長の依頼1</t>
   </si>
   <si>
+    <t>록락 우두머리의 의뢰1</t>
+  </si>
+  <si>
     <t>集★7憤怒の雄叫び</t>
   </si>
   <si>
@@ -1984,6 +2534,9 @@
     <t>ロックラックの長の依頼2</t>
   </si>
   <si>
+    <t>록락 우두머리의 의뢰2</t>
+  </si>
+  <si>
     <t>G★4絆の証！闘技場の大決戦</t>
   </si>
   <si>
@@ -1994,6 +2547,9 @@
     <t>モガの村の老職人の依頼1</t>
   </si>
   <si>
+    <t>모가 마을 늙은 장인의 의뢰1</t>
+  </si>
+  <si>
     <t>集★5熱砂の喧嘩は武器の素</t>
   </si>
   <si>
@@ -2002,6 +2558,9 @@
   </si>
   <si>
     <t>モガの村の老職人の依頼2</t>
+  </si>
+  <si>
+    <t>모가 마을 늙은 장인의 의뢰2</t>
   </si>
   <si>
     <t>G★4獰猛な海の王者は武器の素</t>
@@ -2016,6 +2575,9 @@
     <t>ユクモ村の加工屋の依頼</t>
   </si>
   <si>
+    <t>유쿠모 마을 가공점의 의뢰</t>
+  </si>
+  <si>
     <t>集★6たんと掘れ燃石炭</t>
   </si>
   <si>
@@ -2023,7 +2585,13 @@
 マスターネコブレイドマスターネコヘルムマスターネコメイル</t>
   </si>
   <si>
+    <t>그 외(その他)</t>
+  </si>
+  <si>
     <t>その他1</t>
+  </si>
+  <si>
+    <t>그 외1</t>
   </si>
   <si>
     <t>村★6高難度：四天王の凱歌</t>
@@ -2036,6 +2604,9 @@
     <t>その他2</t>
   </si>
   <si>
+    <t>그 외2</t>
+  </si>
+  <si>
     <t>MHXの全ての闘技大会をクリア</t>
   </si>
   <si>
@@ -2046,6 +2617,9 @@
     <t>その他3</t>
   </si>
   <si>
+    <t>그 외3</t>
+  </si>
+  <si>
     <t>MHXの全ての闘技大会をAランク以上でクリア</t>
   </si>
   <si>
@@ -2056,6 +2630,9 @@
     <t>その他4</t>
   </si>
   <si>
+    <t>그 외4</t>
+  </si>
+  <si>
     <t>MHXXの全ての闘技大会をクリア</t>
   </si>
   <si>
@@ -2066,6 +2643,9 @@
     <t>その他5</t>
   </si>
   <si>
+    <t>그 외5</t>
+  </si>
+  <si>
     <t>MHXXの全ての闘技大会をAランク以上でクリア</t>
   </si>
   <si>
@@ -2076,6 +2656,9 @@
     <t>その他6</t>
   </si>
   <si>
+    <t>그 외6</t>
+  </si>
+  <si>
     <t>村★10高難度：ギルドからの試練</t>
   </si>
   <si>
@@ -2086,6 +2669,9 @@
     <t>その他7</t>
   </si>
   <si>
+    <t>그 외7</t>
+  </si>
+  <si>
     <t>村★10高難度：覇者の証明</t>
   </si>
   <si>
@@ -2096,6 +2682,9 @@
     <t>その他8</t>
   </si>
   <si>
+    <t>그 외8</t>
+  </si>
+  <si>
     <t>村★10高難度：モンスターハンター</t>
   </si>
   <si>
@@ -2106,6 +2695,9 @@
     <t>その他9</t>
   </si>
   <si>
+    <t>그 외9</t>
+  </si>
+  <si>
     <t>村★10高難度：龍歴院からの挑戦状</t>
   </si>
   <si>
@@ -2116,6 +2708,9 @@
     <t>その他10</t>
   </si>
   <si>
+    <t>그 외10</t>
+  </si>
+  <si>
     <t>【特殊許可】鏖魔狩猟依頼G1</t>
   </si>
   <si>
@@ -2124,6 +2719,9 @@
   </si>
   <si>
     <t>その他11</t>
+  </si>
+  <si>
+    <t>그 외11</t>
   </si>
   <si>
     <t>村★10恐れ見よ、赤き災厄の彗星を</t>
@@ -2136,7 +2734,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -2170,10 +2768,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2220,7 +2826,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2252,9 +2858,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2286,6 +2910,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2461,14 +3103,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C197"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="37.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="4" max="4" width="100.7109375" customWidth="1"/>
+    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2478,2158 +3129,3306 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>71</v>
+      </c>
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>79</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>83</v>
+      </c>
+      <c r="D21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>91</v>
+      </c>
+      <c r="D23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>146</v>
+      </c>
+      <c r="C37" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" t="s">
+        <v>148</v>
+      </c>
+      <c r="E37" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" t="s">
+        <v>152</v>
+      </c>
+      <c r="E38" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39" t="s">
+        <v>156</v>
+      </c>
+      <c r="E39" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" t="s">
+        <v>159</v>
+      </c>
+      <c r="D40" t="s">
+        <v>160</v>
+      </c>
+      <c r="E40" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>162</v>
+      </c>
+      <c r="C41" t="s">
+        <v>163</v>
+      </c>
+      <c r="D41" t="s">
+        <v>164</v>
+      </c>
+      <c r="E41" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>166</v>
+      </c>
+      <c r="C42" t="s">
+        <v>167</v>
+      </c>
+      <c r="D42" t="s">
+        <v>168</v>
+      </c>
+      <c r="E42" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" t="s">
+        <v>171</v>
+      </c>
+      <c r="D43" t="s">
+        <v>172</v>
+      </c>
+      <c r="E43" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>174</v>
+      </c>
+      <c r="C44" t="s">
+        <v>175</v>
+      </c>
+      <c r="D44" t="s">
+        <v>176</v>
+      </c>
+      <c r="E44" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>178</v>
+      </c>
+      <c r="C45" t="s">
+        <v>179</v>
+      </c>
+      <c r="D45" t="s">
+        <v>180</v>
+      </c>
+      <c r="E45" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>182</v>
+      </c>
+      <c r="C46" t="s">
+        <v>183</v>
+      </c>
+      <c r="D46" t="s">
+        <v>184</v>
+      </c>
+      <c r="E46" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>186</v>
+      </c>
+      <c r="B47" t="s">
+        <v>187</v>
+      </c>
+      <c r="C47" t="s">
+        <v>188</v>
+      </c>
+      <c r="D47" t="s">
+        <v>189</v>
+      </c>
+      <c r="E47" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>186</v>
+      </c>
+      <c r="B48" t="s">
+        <v>191</v>
+      </c>
+      <c r="C48" t="s">
+        <v>192</v>
+      </c>
+      <c r="D48" t="s">
+        <v>193</v>
+      </c>
+      <c r="E48" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>186</v>
+      </c>
+      <c r="B49" t="s">
+        <v>195</v>
+      </c>
+      <c r="C49" t="s">
+        <v>196</v>
+      </c>
+      <c r="D49" t="s">
+        <v>197</v>
+      </c>
+      <c r="E49" t="s">
         <v>69</v>
       </c>
-      <c r="B24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>96</v>
-      </c>
-      <c r="B33" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>105</v>
-      </c>
-      <c r="B36" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>108</v>
-      </c>
-      <c r="B37" t="s">
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>186</v>
+      </c>
+      <c r="B50" t="s">
+        <v>198</v>
+      </c>
+      <c r="C50" t="s">
+        <v>199</v>
+      </c>
+      <c r="D50" t="s">
+        <v>200</v>
+      </c>
+      <c r="E50" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>186</v>
+      </c>
+      <c r="B51" t="s">
+        <v>202</v>
+      </c>
+      <c r="C51" t="s">
+        <v>203</v>
+      </c>
+      <c r="D51" t="s">
+        <v>204</v>
+      </c>
+      <c r="E51" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>186</v>
+      </c>
+      <c r="B52" t="s">
+        <v>206</v>
+      </c>
+      <c r="C52" t="s">
+        <v>207</v>
+      </c>
+      <c r="D52" t="s">
+        <v>208</v>
+      </c>
+      <c r="E52" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>186</v>
+      </c>
+      <c r="B53" t="s">
+        <v>210</v>
+      </c>
+      <c r="C53" t="s">
+        <v>211</v>
+      </c>
+      <c r="D53" t="s">
+        <v>212</v>
+      </c>
+      <c r="E53" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>186</v>
+      </c>
+      <c r="B54" t="s">
+        <v>214</v>
+      </c>
+      <c r="C54" t="s">
+        <v>215</v>
+      </c>
+      <c r="D54" t="s">
+        <v>216</v>
+      </c>
+      <c r="E54" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>186</v>
+      </c>
+      <c r="B55" t="s">
+        <v>218</v>
+      </c>
+      <c r="C55" t="s">
+        <v>219</v>
+      </c>
+      <c r="D55" t="s">
+        <v>220</v>
+      </c>
+      <c r="E55" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>186</v>
+      </c>
+      <c r="B56" t="s">
+        <v>222</v>
+      </c>
+      <c r="C56" t="s">
+        <v>223</v>
+      </c>
+      <c r="D56" t="s">
+        <v>224</v>
+      </c>
+      <c r="E56" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>186</v>
+      </c>
+      <c r="B57" t="s">
+        <v>226</v>
+      </c>
+      <c r="C57" t="s">
+        <v>227</v>
+      </c>
+      <c r="D57" t="s">
+        <v>228</v>
+      </c>
+      <c r="E57" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>186</v>
+      </c>
+      <c r="B58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C58" t="s">
+        <v>231</v>
+      </c>
+      <c r="D58" t="s">
+        <v>232</v>
+      </c>
+      <c r="E58" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>186</v>
+      </c>
+      <c r="B59" t="s">
+        <v>234</v>
+      </c>
+      <c r="C59" t="s">
+        <v>235</v>
+      </c>
+      <c r="D59" t="s">
+        <v>236</v>
+      </c>
+      <c r="E59" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>186</v>
+      </c>
+      <c r="B60" t="s">
+        <v>238</v>
+      </c>
+      <c r="C60" t="s">
+        <v>239</v>
+      </c>
+      <c r="D60" t="s">
+        <v>240</v>
+      </c>
+      <c r="E60" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>186</v>
+      </c>
+      <c r="B61" t="s">
+        <v>242</v>
+      </c>
+      <c r="C61" t="s">
+        <v>243</v>
+      </c>
+      <c r="D61" t="s">
+        <v>244</v>
+      </c>
+      <c r="E61" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>186</v>
+      </c>
+      <c r="B62" t="s">
+        <v>246</v>
+      </c>
+      <c r="C62" t="s">
+        <v>247</v>
+      </c>
+      <c r="D62" t="s">
+        <v>248</v>
+      </c>
+      <c r="E62" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>186</v>
+      </c>
+      <c r="B63" t="s">
+        <v>250</v>
+      </c>
+      <c r="C63" t="s">
+        <v>251</v>
+      </c>
+      <c r="D63" t="s">
+        <v>252</v>
+      </c>
+      <c r="E63" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>186</v>
+      </c>
+      <c r="B64" t="s">
+        <v>254</v>
+      </c>
+      <c r="C64" t="s">
+        <v>255</v>
+      </c>
+      <c r="D64" t="s">
+        <v>256</v>
+      </c>
+      <c r="E64" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>186</v>
+      </c>
+      <c r="B65" t="s">
+        <v>258</v>
+      </c>
+      <c r="C65" t="s">
+        <v>259</v>
+      </c>
+      <c r="D65" t="s">
+        <v>260</v>
+      </c>
+      <c r="E65" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>186</v>
+      </c>
+      <c r="B66" t="s">
+        <v>262</v>
+      </c>
+      <c r="C66" t="s">
+        <v>263</v>
+      </c>
+      <c r="D66" t="s">
+        <v>264</v>
+      </c>
+      <c r="E66" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>186</v>
+      </c>
+      <c r="B67" t="s">
+        <v>266</v>
+      </c>
+      <c r="C67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D67" t="s">
+        <v>268</v>
+      </c>
+      <c r="E67" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>186</v>
+      </c>
+      <c r="B68" t="s">
+        <v>270</v>
+      </c>
+      <c r="C68" t="s">
+        <v>271</v>
+      </c>
+      <c r="D68" t="s">
+        <v>272</v>
+      </c>
+      <c r="E68" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>186</v>
+      </c>
+      <c r="B69" t="s">
+        <v>274</v>
+      </c>
+      <c r="C69" t="s">
+        <v>275</v>
+      </c>
+      <c r="D69" t="s">
+        <v>276</v>
+      </c>
+      <c r="E69" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>186</v>
+      </c>
+      <c r="B70" t="s">
+        <v>278</v>
+      </c>
+      <c r="C70" t="s">
+        <v>279</v>
+      </c>
+      <c r="D70" t="s">
+        <v>280</v>
+      </c>
+      <c r="E70" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>186</v>
+      </c>
+      <c r="B71" t="s">
+        <v>282</v>
+      </c>
+      <c r="C71" t="s">
+        <v>283</v>
+      </c>
+      <c r="D71" t="s">
+        <v>284</v>
+      </c>
+      <c r="E71" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>186</v>
+      </c>
+      <c r="B72" t="s">
+        <v>286</v>
+      </c>
+      <c r="C72" t="s">
+        <v>287</v>
+      </c>
+      <c r="D72" t="s">
+        <v>288</v>
+      </c>
+      <c r="E72" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>186</v>
+      </c>
+      <c r="B73" t="s">
+        <v>290</v>
+      </c>
+      <c r="C73" t="s">
+        <v>291</v>
+      </c>
+      <c r="D73" t="s">
+        <v>292</v>
+      </c>
+      <c r="E73" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>186</v>
+      </c>
+      <c r="B74" t="s">
+        <v>294</v>
+      </c>
+      <c r="C74" t="s">
+        <v>295</v>
+      </c>
+      <c r="D74" t="s">
+        <v>296</v>
+      </c>
+      <c r="E74" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>186</v>
+      </c>
+      <c r="B75" t="s">
+        <v>298</v>
+      </c>
+      <c r="C75" t="s">
+        <v>299</v>
+      </c>
+      <c r="D75" t="s">
+        <v>300</v>
+      </c>
+      <c r="E75" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>186</v>
+      </c>
+      <c r="B76" t="s">
+        <v>302</v>
+      </c>
+      <c r="C76" t="s">
+        <v>303</v>
+      </c>
+      <c r="D76" t="s">
+        <v>304</v>
+      </c>
+      <c r="E76" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>186</v>
+      </c>
+      <c r="B77" t="s">
+        <v>306</v>
+      </c>
+      <c r="C77" t="s">
+        <v>307</v>
+      </c>
+      <c r="D77" t="s">
+        <v>308</v>
+      </c>
+      <c r="E77" t="s">
         <v>109</v>
       </c>
-      <c r="C37" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>111</v>
-      </c>
-      <c r="B38" t="s">
-        <v>112</v>
-      </c>
-      <c r="C38" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>114</v>
-      </c>
-      <c r="B39" t="s">
-        <v>115</v>
-      </c>
-      <c r="C39" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>117</v>
-      </c>
-      <c r="B40" t="s">
-        <v>118</v>
-      </c>
-      <c r="C40" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>120</v>
-      </c>
-      <c r="B41" t="s">
-        <v>121</v>
-      </c>
-      <c r="C41" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>123</v>
-      </c>
-      <c r="B42" t="s">
-        <v>124</v>
-      </c>
-      <c r="C42" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>126</v>
-      </c>
-      <c r="B43" t="s">
-        <v>127</v>
-      </c>
-      <c r="C43" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>129</v>
-      </c>
-      <c r="B44" t="s">
-        <v>130</v>
-      </c>
-      <c r="C44" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>132</v>
-      </c>
-      <c r="B45" t="s">
-        <v>133</v>
-      </c>
-      <c r="C45" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>135</v>
-      </c>
-      <c r="B46" t="s">
-        <v>136</v>
-      </c>
-      <c r="C46" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>138</v>
-      </c>
-      <c r="B47" t="s">
-        <v>139</v>
-      </c>
-      <c r="C47" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>141</v>
-      </c>
-      <c r="B48" t="s">
-        <v>142</v>
-      </c>
-      <c r="C48" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>144</v>
-      </c>
-      <c r="B49" t="s">
-        <v>145</v>
-      </c>
-      <c r="C49" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>146</v>
-      </c>
-      <c r="B50" t="s">
-        <v>147</v>
-      </c>
-      <c r="C50" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>149</v>
-      </c>
-      <c r="B51" t="s">
-        <v>150</v>
-      </c>
-      <c r="C51" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>152</v>
-      </c>
-      <c r="B52" t="s">
-        <v>153</v>
-      </c>
-      <c r="C52" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>155</v>
-      </c>
-      <c r="B53" t="s">
-        <v>156</v>
-      </c>
-      <c r="C53" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>158</v>
-      </c>
-      <c r="B54" t="s">
-        <v>159</v>
-      </c>
-      <c r="C54" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>161</v>
-      </c>
-      <c r="B55" t="s">
-        <v>162</v>
-      </c>
-      <c r="C55" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>164</v>
-      </c>
-      <c r="B56" t="s">
-        <v>165</v>
-      </c>
-      <c r="C56" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>167</v>
-      </c>
-      <c r="B57" t="s">
-        <v>168</v>
-      </c>
-      <c r="C57" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>170</v>
-      </c>
-      <c r="B58" t="s">
-        <v>171</v>
-      </c>
-      <c r="C58" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>173</v>
-      </c>
-      <c r="B59" t="s">
-        <v>174</v>
-      </c>
-      <c r="C59" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>176</v>
-      </c>
-      <c r="B60" t="s">
-        <v>177</v>
-      </c>
-      <c r="C60" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>179</v>
-      </c>
-      <c r="B61" t="s">
-        <v>180</v>
-      </c>
-      <c r="C61" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>182</v>
-      </c>
-      <c r="B62" t="s">
-        <v>183</v>
-      </c>
-      <c r="C62" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>185</v>
-      </c>
-      <c r="B63" t="s">
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
         <v>186</v>
       </c>
-      <c r="C63" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>188</v>
-      </c>
-      <c r="B64" t="s">
-        <v>189</v>
-      </c>
-      <c r="C64" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>191</v>
-      </c>
-      <c r="B65" t="s">
-        <v>192</v>
-      </c>
-      <c r="C65" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>194</v>
-      </c>
-      <c r="B66" t="s">
-        <v>195</v>
-      </c>
-      <c r="C66" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>197</v>
-      </c>
-      <c r="B67" t="s">
-        <v>198</v>
-      </c>
-      <c r="C67" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>200</v>
-      </c>
-      <c r="B68" t="s">
-        <v>201</v>
-      </c>
-      <c r="C68" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>203</v>
-      </c>
-      <c r="B69" t="s">
-        <v>204</v>
-      </c>
-      <c r="C69" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>206</v>
-      </c>
-      <c r="B70" t="s">
-        <v>207</v>
-      </c>
-      <c r="C70" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>209</v>
-      </c>
-      <c r="B71" t="s">
-        <v>210</v>
-      </c>
-      <c r="C71" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>212</v>
-      </c>
-      <c r="B72" t="s">
-        <v>213</v>
-      </c>
-      <c r="C72" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>215</v>
-      </c>
-      <c r="B73" t="s">
-        <v>216</v>
-      </c>
-      <c r="C73" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>218</v>
-      </c>
-      <c r="B74" t="s">
-        <v>219</v>
-      </c>
-      <c r="C74" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>221</v>
-      </c>
-      <c r="B75" t="s">
-        <v>222</v>
-      </c>
-      <c r="C75" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>224</v>
-      </c>
-      <c r="B76" t="s">
-        <v>225</v>
-      </c>
-      <c r="C76" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>227</v>
-      </c>
-      <c r="B77" t="s">
-        <v>228</v>
-      </c>
-      <c r="C77" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>229</v>
-      </c>
       <c r="B78" t="s">
-        <v>230</v>
+        <v>309</v>
       </c>
       <c r="C78" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>310</v>
+      </c>
+      <c r="D78" t="s">
+        <v>311</v>
+      </c>
+      <c r="E78" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c r="B79" t="s">
-        <v>233</v>
+        <v>313</v>
       </c>
       <c r="C79" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>314</v>
+      </c>
+      <c r="D79" t="s">
+        <v>315</v>
+      </c>
+      <c r="E79" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>235</v>
+        <v>186</v>
       </c>
       <c r="B80" t="s">
-        <v>236</v>
+        <v>317</v>
       </c>
       <c r="C80" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>318</v>
+      </c>
+      <c r="D80" t="s">
+        <v>319</v>
+      </c>
+      <c r="E80" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>238</v>
+        <v>186</v>
       </c>
       <c r="B81" t="s">
-        <v>239</v>
+        <v>321</v>
       </c>
       <c r="C81" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>322</v>
+      </c>
+      <c r="D81" t="s">
+        <v>323</v>
+      </c>
+      <c r="E81" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="B82" t="s">
-        <v>242</v>
+        <v>325</v>
       </c>
       <c r="C82" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>326</v>
+      </c>
+      <c r="D82" t="s">
+        <v>327</v>
+      </c>
+      <c r="E82" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>244</v>
+        <v>186</v>
       </c>
       <c r="B83" t="s">
-        <v>245</v>
+        <v>329</v>
       </c>
       <c r="C83" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>330</v>
+      </c>
+      <c r="D83" t="s">
+        <v>331</v>
+      </c>
+      <c r="E83" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>247</v>
+        <v>186</v>
       </c>
       <c r="B84" t="s">
-        <v>248</v>
+        <v>333</v>
       </c>
       <c r="C84" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>334</v>
+      </c>
+      <c r="D84" t="s">
+        <v>335</v>
+      </c>
+      <c r="E84" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>250</v>
+        <v>186</v>
       </c>
       <c r="B85" t="s">
-        <v>251</v>
+        <v>337</v>
       </c>
       <c r="C85" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>338</v>
+      </c>
+      <c r="D85" t="s">
+        <v>339</v>
+      </c>
+      <c r="E85" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="B86" t="s">
-        <v>254</v>
+        <v>341</v>
       </c>
       <c r="C86" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>342</v>
+      </c>
+      <c r="D86" t="s">
+        <v>343</v>
+      </c>
+      <c r="E86" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>256</v>
+        <v>186</v>
       </c>
       <c r="B87" t="s">
-        <v>257</v>
+        <v>345</v>
       </c>
       <c r="C87" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>346</v>
+      </c>
+      <c r="D87" t="s">
+        <v>347</v>
+      </c>
+      <c r="E87" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>259</v>
+        <v>186</v>
       </c>
       <c r="B88" t="s">
-        <v>260</v>
+        <v>349</v>
       </c>
       <c r="C88" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>350</v>
+      </c>
+      <c r="D88" t="s">
+        <v>351</v>
+      </c>
+      <c r="E88" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="B89" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="C89" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>355</v>
+      </c>
+      <c r="D89" t="s">
+        <v>356</v>
+      </c>
+      <c r="E89" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>265</v>
+        <v>353</v>
       </c>
       <c r="B90" t="s">
-        <v>266</v>
+        <v>358</v>
       </c>
       <c r="C90" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>359</v>
+      </c>
+      <c r="D90" t="s">
+        <v>360</v>
+      </c>
+      <c r="E90" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>268</v>
+        <v>353</v>
       </c>
       <c r="B91" t="s">
-        <v>269</v>
+        <v>362</v>
       </c>
       <c r="C91" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>363</v>
+      </c>
+      <c r="D91" t="s">
+        <v>364</v>
+      </c>
+      <c r="E91" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>270</v>
+        <v>353</v>
       </c>
       <c r="B92" t="s">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="C92" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>366</v>
+      </c>
+      <c r="D92" t="s">
+        <v>367</v>
+      </c>
+      <c r="E92" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>273</v>
+        <v>353</v>
       </c>
       <c r="B93" t="s">
-        <v>274</v>
+        <v>369</v>
       </c>
       <c r="C93" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>370</v>
+      </c>
+      <c r="D93" t="s">
+        <v>371</v>
+      </c>
+      <c r="E93" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>276</v>
+        <v>353</v>
       </c>
       <c r="B94" t="s">
-        <v>277</v>
+        <v>373</v>
       </c>
       <c r="C94" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>374</v>
+      </c>
+      <c r="D94" t="s">
+        <v>375</v>
+      </c>
+      <c r="E94" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>279</v>
+        <v>353</v>
       </c>
       <c r="B95" t="s">
-        <v>280</v>
+        <v>377</v>
       </c>
       <c r="C95" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>378</v>
+      </c>
+      <c r="D95" t="s">
+        <v>379</v>
+      </c>
+      <c r="E95" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>282</v>
+        <v>353</v>
       </c>
       <c r="B96" t="s">
-        <v>283</v>
+        <v>381</v>
       </c>
       <c r="C96" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>382</v>
+      </c>
+      <c r="D96" t="s">
+        <v>383</v>
+      </c>
+      <c r="E96" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>285</v>
+        <v>353</v>
       </c>
       <c r="B97" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="C97" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>386</v>
+      </c>
+      <c r="D97" t="s">
+        <v>387</v>
+      </c>
+      <c r="E97" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>288</v>
+        <v>353</v>
       </c>
       <c r="B98" t="s">
-        <v>289</v>
+        <v>389</v>
       </c>
       <c r="C98" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>390</v>
+      </c>
+      <c r="D98" t="s">
+        <v>391</v>
+      </c>
+      <c r="E98" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>291</v>
+        <v>353</v>
       </c>
       <c r="B99" t="s">
-        <v>292</v>
+        <v>393</v>
       </c>
       <c r="C99" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>394</v>
+      </c>
+      <c r="D99" t="s">
+        <v>395</v>
+      </c>
+      <c r="E99" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>294</v>
+        <v>353</v>
       </c>
       <c r="B100" t="s">
-        <v>295</v>
+        <v>397</v>
       </c>
       <c r="C100" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>398</v>
+      </c>
+      <c r="D100" t="s">
+        <v>399</v>
+      </c>
+      <c r="E100" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>297</v>
+        <v>353</v>
       </c>
       <c r="B101" t="s">
-        <v>298</v>
+        <v>401</v>
       </c>
       <c r="C101" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>402</v>
+      </c>
+      <c r="D101" t="s">
+        <v>403</v>
+      </c>
+      <c r="E101" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>300</v>
+        <v>353</v>
       </c>
       <c r="B102" t="s">
-        <v>301</v>
+        <v>405</v>
       </c>
       <c r="C102" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>406</v>
+      </c>
+      <c r="D102" t="s">
+        <v>407</v>
+      </c>
+      <c r="E102" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>303</v>
+        <v>353</v>
       </c>
       <c r="B103" t="s">
-        <v>304</v>
+        <v>409</v>
       </c>
       <c r="C103" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <v>410</v>
+      </c>
+      <c r="D103" t="s">
+        <v>411</v>
+      </c>
+      <c r="E103" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>306</v>
+        <v>353</v>
       </c>
       <c r="B104" t="s">
-        <v>307</v>
+        <v>413</v>
       </c>
       <c r="C104" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D104" t="s">
+        <v>415</v>
+      </c>
+      <c r="E104" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>309</v>
+        <v>353</v>
       </c>
       <c r="B105" t="s">
-        <v>310</v>
+        <v>417</v>
       </c>
       <c r="C105" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>418</v>
+      </c>
+      <c r="D105" t="s">
+        <v>419</v>
+      </c>
+      <c r="E105" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>312</v>
+        <v>353</v>
       </c>
       <c r="B106" t="s">
-        <v>313</v>
+        <v>421</v>
       </c>
       <c r="C106" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>422</v>
+      </c>
+      <c r="D106" t="s">
+        <v>423</v>
+      </c>
+      <c r="E106" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="B107" t="s">
-        <v>316</v>
+        <v>425</v>
       </c>
       <c r="C107" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <v>426</v>
+      </c>
+      <c r="D107" t="s">
+        <v>427</v>
+      </c>
+      <c r="E107" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="B108" t="s">
-        <v>319</v>
+        <v>429</v>
       </c>
       <c r="C108" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+        <v>430</v>
+      </c>
+      <c r="D108" t="s">
+        <v>431</v>
+      </c>
+      <c r="E108" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="B109" t="s">
-        <v>321</v>
+        <v>432</v>
       </c>
       <c r="C109" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+        <v>433</v>
+      </c>
+      <c r="D109" t="s">
+        <v>434</v>
+      </c>
+      <c r="E109" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>323</v>
+        <v>353</v>
       </c>
       <c r="B110" t="s">
-        <v>324</v>
+        <v>436</v>
       </c>
       <c r="C110" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+        <v>437</v>
+      </c>
+      <c r="D110" t="s">
+        <v>438</v>
+      </c>
+      <c r="E110" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="B111" t="s">
-        <v>327</v>
+        <v>440</v>
       </c>
       <c r="C111" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+        <v>441</v>
+      </c>
+      <c r="D111" t="s">
+        <v>442</v>
+      </c>
+      <c r="E111" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="B112" t="s">
-        <v>330</v>
+        <v>444</v>
       </c>
       <c r="C112" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <v>445</v>
+      </c>
+      <c r="D112" t="s">
+        <v>446</v>
+      </c>
+      <c r="E112" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="B113" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+        <v>448</v>
+      </c>
+      <c r="C113" t="s">
+        <v>449</v>
+      </c>
+      <c r="D113" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="B114" t="s">
-        <v>335</v>
+        <v>451</v>
       </c>
       <c r="C114" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+        <v>452</v>
+      </c>
+      <c r="D114" t="s">
+        <v>453</v>
+      </c>
+      <c r="E114" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="B115" t="s">
-        <v>338</v>
+        <v>455</v>
       </c>
       <c r="C115" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>456</v>
+      </c>
+      <c r="D115" t="s">
+        <v>457</v>
+      </c>
+      <c r="E115" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="B116" t="s">
-        <v>341</v>
+        <v>459</v>
       </c>
       <c r="C116" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+        <v>460</v>
+      </c>
+      <c r="D116" t="s">
+        <v>461</v>
+      </c>
+      <c r="E116" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="B117" t="s">
-        <v>344</v>
+        <v>463</v>
       </c>
       <c r="C117" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+        <v>464</v>
+      </c>
+      <c r="D117" t="s">
+        <v>465</v>
+      </c>
+      <c r="E117" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B118" t="s">
-        <v>347</v>
+        <v>467</v>
       </c>
       <c r="C118" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+        <v>468</v>
+      </c>
+      <c r="D118" t="s">
+        <v>469</v>
+      </c>
+      <c r="E118" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B119" t="s">
-        <v>350</v>
+        <v>471</v>
       </c>
       <c r="C119" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+        <v>472</v>
+      </c>
+      <c r="D119" t="s">
+        <v>473</v>
+      </c>
+      <c r="E119" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B120" t="s">
+        <v>475</v>
+      </c>
+      <c r="C120" t="s">
+        <v>476</v>
+      </c>
+      <c r="D120" t="s">
+        <v>477</v>
+      </c>
+      <c r="E120" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
         <v>353</v>
       </c>
-      <c r="C120" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" t="s">
-        <v>355</v>
-      </c>
       <c r="B121" t="s">
-        <v>356</v>
+        <v>479</v>
       </c>
       <c r="C121" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+        <v>480</v>
+      </c>
+      <c r="D121" t="s">
+        <v>481</v>
+      </c>
+      <c r="E121" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B122" t="s">
-        <v>359</v>
+        <v>483</v>
       </c>
       <c r="C122" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+        <v>484</v>
+      </c>
+      <c r="D122" t="s">
+        <v>485</v>
+      </c>
+      <c r="E122" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>361</v>
+        <v>487</v>
       </c>
       <c r="B123" t="s">
-        <v>362</v>
+        <v>488</v>
       </c>
       <c r="C123" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+        <v>489</v>
+      </c>
+      <c r="D123" t="s">
+        <v>490</v>
+      </c>
+      <c r="E123" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>364</v>
+        <v>487</v>
       </c>
       <c r="B124" t="s">
-        <v>365</v>
+        <v>492</v>
       </c>
       <c r="C124" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+        <v>493</v>
+      </c>
+      <c r="D124" t="s">
+        <v>494</v>
+      </c>
+      <c r="E124" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>367</v>
+        <v>487</v>
       </c>
       <c r="B125" t="s">
-        <v>368</v>
+        <v>496</v>
       </c>
       <c r="C125" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+        <v>497</v>
+      </c>
+      <c r="D125" t="s">
+        <v>498</v>
+      </c>
+      <c r="E125" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>370</v>
+        <v>487</v>
       </c>
       <c r="B126" t="s">
-        <v>371</v>
+        <v>500</v>
       </c>
       <c r="C126" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+        <v>501</v>
+      </c>
+      <c r="D126" t="s">
+        <v>502</v>
+      </c>
+      <c r="E126" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>372</v>
+        <v>487</v>
       </c>
       <c r="B127" t="s">
-        <v>373</v>
+        <v>503</v>
       </c>
       <c r="C127" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
+        <v>504</v>
+      </c>
+      <c r="D127" t="s">
+        <v>505</v>
+      </c>
+      <c r="E127" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>375</v>
+        <v>487</v>
       </c>
       <c r="B128" t="s">
-        <v>376</v>
+        <v>507</v>
       </c>
       <c r="C128" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
+        <v>508</v>
+      </c>
+      <c r="D128" t="s">
+        <v>509</v>
+      </c>
+      <c r="E128" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>378</v>
+        <v>487</v>
       </c>
       <c r="B129" t="s">
-        <v>379</v>
+        <v>511</v>
       </c>
       <c r="C129" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+        <v>512</v>
+      </c>
+      <c r="D129" t="s">
+        <v>513</v>
+      </c>
+      <c r="E129" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>381</v>
+        <v>487</v>
       </c>
       <c r="B130" t="s">
-        <v>382</v>
+        <v>515</v>
       </c>
       <c r="C130" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+        <v>516</v>
+      </c>
+      <c r="D130" t="s">
+        <v>517</v>
+      </c>
+      <c r="E130" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>384</v>
+        <v>487</v>
       </c>
       <c r="B131" t="s">
-        <v>385</v>
+        <v>519</v>
       </c>
       <c r="C131" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+        <v>520</v>
+      </c>
+      <c r="D131" t="s">
+        <v>521</v>
+      </c>
+      <c r="E131" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>387</v>
+        <v>487</v>
       </c>
       <c r="B132" t="s">
-        <v>388</v>
+        <v>523</v>
       </c>
       <c r="C132" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+        <v>524</v>
+      </c>
+      <c r="D132" t="s">
+        <v>525</v>
+      </c>
+      <c r="E132" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>390</v>
+        <v>487</v>
       </c>
       <c r="B133" t="s">
-        <v>391</v>
+        <v>527</v>
       </c>
       <c r="C133" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+        <v>528</v>
+      </c>
+      <c r="D133" t="s">
+        <v>529</v>
+      </c>
+      <c r="E133" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>393</v>
+        <v>487</v>
       </c>
       <c r="B134" t="s">
-        <v>394</v>
+        <v>531</v>
       </c>
       <c r="C134" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+        <v>532</v>
+      </c>
+      <c r="D134" t="s">
+        <v>533</v>
+      </c>
+      <c r="E134" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>396</v>
+        <v>487</v>
       </c>
       <c r="B135" t="s">
-        <v>397</v>
+        <v>535</v>
       </c>
       <c r="C135" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
+        <v>536</v>
+      </c>
+      <c r="D135" t="s">
+        <v>537</v>
+      </c>
+      <c r="E135" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>399</v>
+        <v>487</v>
       </c>
       <c r="B136" t="s">
-        <v>400</v>
+        <v>539</v>
       </c>
       <c r="C136" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
+        <v>540</v>
+      </c>
+      <c r="D136" t="s">
+        <v>541</v>
+      </c>
+      <c r="E136" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>402</v>
+        <v>487</v>
       </c>
       <c r="B137" t="s">
-        <v>403</v>
+        <v>543</v>
       </c>
       <c r="C137" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+        <v>544</v>
+      </c>
+      <c r="D137" t="s">
+        <v>545</v>
+      </c>
+      <c r="E137" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>405</v>
+        <v>487</v>
       </c>
       <c r="B138" t="s">
-        <v>406</v>
+        <v>547</v>
       </c>
       <c r="C138" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+        <v>548</v>
+      </c>
+      <c r="D138" t="s">
+        <v>549</v>
+      </c>
+      <c r="E138" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>408</v>
+        <v>487</v>
       </c>
       <c r="B139" t="s">
-        <v>409</v>
+        <v>551</v>
       </c>
       <c r="C139" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
+        <v>552</v>
+      </c>
+      <c r="D139" t="s">
+        <v>553</v>
+      </c>
+      <c r="E139" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>411</v>
+        <v>487</v>
       </c>
       <c r="B140" t="s">
-        <v>412</v>
+        <v>555</v>
       </c>
       <c r="C140" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
+        <v>556</v>
+      </c>
+      <c r="D140" t="s">
+        <v>557</v>
+      </c>
+      <c r="E140" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>414</v>
+        <v>487</v>
       </c>
       <c r="B141" t="s">
-        <v>415</v>
+        <v>559</v>
       </c>
       <c r="C141" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+        <v>560</v>
+      </c>
+      <c r="D141" t="s">
+        <v>561</v>
+      </c>
+      <c r="E141" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>417</v>
+        <v>487</v>
       </c>
       <c r="B142" t="s">
-        <v>418</v>
+        <v>563</v>
       </c>
       <c r="C142" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+        <v>564</v>
+      </c>
+      <c r="D142" t="s">
+        <v>565</v>
+      </c>
+      <c r="E142" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>420</v>
+        <v>487</v>
       </c>
       <c r="B143" t="s">
-        <v>421</v>
+        <v>567</v>
       </c>
       <c r="C143" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+        <v>568</v>
+      </c>
+      <c r="D143" t="s">
+        <v>569</v>
+      </c>
+      <c r="E143" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>423</v>
+        <v>487</v>
       </c>
       <c r="B144" t="s">
-        <v>424</v>
+        <v>571</v>
       </c>
       <c r="C144" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
+        <v>572</v>
+      </c>
+      <c r="D144" t="s">
+        <v>573</v>
+      </c>
+      <c r="E144" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>426</v>
+        <v>487</v>
       </c>
       <c r="B145" t="s">
-        <v>427</v>
+        <v>575</v>
       </c>
       <c r="C145" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+        <v>576</v>
+      </c>
+      <c r="D145" t="s">
+        <v>577</v>
+      </c>
+      <c r="E145" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>429</v>
+        <v>487</v>
       </c>
       <c r="B146" t="s">
-        <v>430</v>
+        <v>579</v>
       </c>
       <c r="C146" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
+        <v>580</v>
+      </c>
+      <c r="D146" t="s">
+        <v>581</v>
+      </c>
+      <c r="E146" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>432</v>
+        <v>487</v>
       </c>
       <c r="B147" t="s">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="C147" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
+        <v>584</v>
+      </c>
+      <c r="D147" t="s">
+        <v>585</v>
+      </c>
+      <c r="E147" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>435</v>
+        <v>487</v>
       </c>
       <c r="B148" t="s">
-        <v>436</v>
+        <v>587</v>
       </c>
       <c r="C148" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+        <v>588</v>
+      </c>
+      <c r="D148" t="s">
+        <v>589</v>
+      </c>
+      <c r="E148" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="B149" t="s">
-        <v>439</v>
+        <v>591</v>
       </c>
       <c r="C149" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
+        <v>592</v>
+      </c>
+      <c r="D149" t="s">
+        <v>593</v>
+      </c>
+      <c r="E149" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>441</v>
+        <v>487</v>
       </c>
       <c r="B150" t="s">
-        <v>442</v>
+        <v>595</v>
       </c>
       <c r="C150" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+        <v>596</v>
+      </c>
+      <c r="D150" t="s">
+        <v>597</v>
+      </c>
+      <c r="E150" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>444</v>
+        <v>487</v>
       </c>
       <c r="B151" t="s">
-        <v>445</v>
+        <v>599</v>
       </c>
       <c r="C151" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+        <v>600</v>
+      </c>
+      <c r="D151" t="s">
+        <v>601</v>
+      </c>
+      <c r="E151" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="B152" t="s">
-        <v>448</v>
+        <v>603</v>
       </c>
       <c r="C152" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+        <v>604</v>
+      </c>
+      <c r="D152" t="s">
+        <v>605</v>
+      </c>
+      <c r="E152" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>450</v>
+        <v>487</v>
       </c>
       <c r="B153" t="s">
-        <v>451</v>
+        <v>607</v>
       </c>
       <c r="C153" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+        <v>608</v>
+      </c>
+      <c r="D153" t="s">
+        <v>609</v>
+      </c>
+      <c r="E153" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>453</v>
+        <v>487</v>
       </c>
       <c r="B154" t="s">
-        <v>454</v>
+        <v>611</v>
       </c>
       <c r="C154" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
+        <v>612</v>
+      </c>
+      <c r="D154" t="s">
+        <v>613</v>
+      </c>
+      <c r="E154" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>455</v>
+        <v>487</v>
       </c>
       <c r="B155" t="s">
-        <v>456</v>
+        <v>614</v>
       </c>
       <c r="C155" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
+        <v>615</v>
+      </c>
+      <c r="D155" t="s">
+        <v>616</v>
+      </c>
+      <c r="E155" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>458</v>
+        <v>487</v>
       </c>
       <c r="B156" t="s">
-        <v>459</v>
+        <v>618</v>
       </c>
       <c r="C156" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
+        <v>619</v>
+      </c>
+      <c r="D156" t="s">
+        <v>620</v>
+      </c>
+      <c r="E156" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>461</v>
+        <v>487</v>
       </c>
       <c r="B157" t="s">
-        <v>462</v>
+        <v>622</v>
       </c>
       <c r="C157" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
+        <v>623</v>
+      </c>
+      <c r="D157" t="s">
+        <v>624</v>
+      </c>
+      <c r="E157" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
       <c r="B158" t="s">
-        <v>465</v>
+        <v>626</v>
       </c>
       <c r="C158" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
+        <v>627</v>
+      </c>
+      <c r="D158" t="s">
+        <v>628</v>
+      </c>
+      <c r="E158" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>466</v>
+        <v>487</v>
       </c>
       <c r="B159" t="s">
-        <v>467</v>
+        <v>629</v>
       </c>
       <c r="C159" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
+        <v>630</v>
+      </c>
+      <c r="D159" t="s">
+        <v>631</v>
+      </c>
+      <c r="E159" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="B160" t="s">
-        <v>470</v>
+        <v>633</v>
       </c>
       <c r="C160" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
+        <v>634</v>
+      </c>
+      <c r="D160" t="s">
+        <v>635</v>
+      </c>
+      <c r="E160" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="B161" t="s">
-        <v>473</v>
+        <v>637</v>
       </c>
       <c r="C161" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
+        <v>638</v>
+      </c>
+      <c r="D161" t="s">
+        <v>639</v>
+      </c>
+      <c r="E161" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="B162" t="s">
-        <v>476</v>
+        <v>641</v>
       </c>
       <c r="C162" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
+        <v>642</v>
+      </c>
+      <c r="D162" t="s">
+        <v>643</v>
+      </c>
+      <c r="E162" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="B163" t="s">
-        <v>479</v>
+        <v>645</v>
       </c>
       <c r="C163" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
+        <v>646</v>
+      </c>
+      <c r="D163" t="s">
+        <v>647</v>
+      </c>
+      <c r="E163" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="B164" t="s">
-        <v>481</v>
+        <v>648</v>
       </c>
       <c r="C164" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
+        <v>649</v>
+      </c>
+      <c r="D164" t="s">
+        <v>650</v>
+      </c>
+      <c r="E164" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B165" t="s">
-        <v>484</v>
+        <v>652</v>
       </c>
       <c r="C165" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
+        <v>653</v>
+      </c>
+      <c r="D165" t="s">
+        <v>654</v>
+      </c>
+      <c r="E165" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B166" t="s">
+        <v>656</v>
+      </c>
+      <c r="C166" t="s">
+        <v>657</v>
+      </c>
+      <c r="D166" t="s">
+        <v>658</v>
+      </c>
+      <c r="E166" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
         <v>487</v>
       </c>
-      <c r="C166" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" t="s">
-        <v>489</v>
-      </c>
       <c r="B167" t="s">
-        <v>490</v>
+        <v>660</v>
       </c>
       <c r="C167" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
+        <v>661</v>
+      </c>
+      <c r="D167" t="s">
+        <v>662</v>
+      </c>
+      <c r="E167" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B168" t="s">
-        <v>493</v>
+        <v>664</v>
       </c>
       <c r="C168" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
+        <v>665</v>
+      </c>
+      <c r="D168" t="s">
+        <v>666</v>
+      </c>
+      <c r="E168" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B169" t="s">
-        <v>496</v>
+        <v>668</v>
       </c>
       <c r="C169" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
+        <v>669</v>
+      </c>
+      <c r="D169" t="s">
+        <v>670</v>
+      </c>
+      <c r="E169" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="B170" t="s">
-        <v>499</v>
+        <v>672</v>
       </c>
       <c r="C170" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
+        <v>673</v>
+      </c>
+      <c r="D170" t="s">
+        <v>674</v>
+      </c>
+      <c r="E170" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="B171" t="s">
-        <v>502</v>
+        <v>676</v>
       </c>
       <c r="C171" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
+        <v>677</v>
+      </c>
+      <c r="D171" t="s">
+        <v>678</v>
+      </c>
+      <c r="E171" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="B172" t="s">
-        <v>505</v>
+        <v>680</v>
       </c>
       <c r="C172" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
+        <v>681</v>
+      </c>
+      <c r="D172" t="s">
+        <v>682</v>
+      </c>
+      <c r="E172" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="B173" t="s">
-        <v>508</v>
+        <v>684</v>
       </c>
       <c r="C173" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
+        <v>685</v>
+      </c>
+      <c r="D173" t="s">
+        <v>686</v>
+      </c>
+      <c r="E173" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="B174" t="s">
-        <v>505</v>
+        <v>688</v>
       </c>
       <c r="C174" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
+        <v>689</v>
+      </c>
+      <c r="D174" t="s">
+        <v>690</v>
+      </c>
+      <c r="E174" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="B175" t="s">
-        <v>508</v>
+        <v>692</v>
       </c>
       <c r="C175" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
+        <v>693</v>
+      </c>
+      <c r="D175" t="s">
+        <v>694</v>
+      </c>
+      <c r="E175" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>510</v>
+        <v>487</v>
       </c>
       <c r="B176" t="s">
-        <v>511</v>
+        <v>696</v>
       </c>
       <c r="C176" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
+        <v>697</v>
+      </c>
+      <c r="D176" t="s">
+        <v>698</v>
+      </c>
+      <c r="E176" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>513</v>
+        <v>487</v>
       </c>
       <c r="B177" t="s">
-        <v>514</v>
+        <v>700</v>
       </c>
       <c r="C177" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
+        <v>701</v>
+      </c>
+      <c r="D177" t="s">
+        <v>702</v>
+      </c>
+      <c r="E177" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>516</v>
+        <v>487</v>
       </c>
       <c r="B178" t="s">
-        <v>517</v>
+        <v>704</v>
       </c>
       <c r="C178" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
+        <v>705</v>
+      </c>
+      <c r="D178" t="s">
+        <v>706</v>
+      </c>
+      <c r="E178" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
       <c r="B179" t="s">
-        <v>520</v>
+        <v>708</v>
       </c>
       <c r="C179" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
+        <v>709</v>
+      </c>
+      <c r="D179" t="s">
+        <v>710</v>
+      </c>
+      <c r="E179" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>522</v>
+        <v>487</v>
       </c>
       <c r="B180" t="s">
-        <v>523</v>
+        <v>712</v>
       </c>
       <c r="C180" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
+        <v>713</v>
+      </c>
+      <c r="D180" t="s">
+        <v>714</v>
+      </c>
+      <c r="E180" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>525</v>
+        <v>487</v>
       </c>
       <c r="B181" t="s">
-        <v>526</v>
+        <v>716</v>
       </c>
       <c r="C181" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
+        <v>717</v>
+      </c>
+      <c r="D181" t="s">
+        <v>718</v>
+      </c>
+      <c r="E181" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>528</v>
+        <v>487</v>
       </c>
       <c r="B182" t="s">
-        <v>529</v>
+        <v>720</v>
       </c>
       <c r="C182" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
+        <v>721</v>
+      </c>
+      <c r="D182" t="s">
+        <v>722</v>
+      </c>
+      <c r="E182" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="B183" t="s">
-        <v>532</v>
+        <v>724</v>
       </c>
       <c r="C183" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
+        <v>725</v>
+      </c>
+      <c r="D183" t="s">
+        <v>726</v>
+      </c>
+      <c r="E183" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>534</v>
+        <v>487</v>
       </c>
       <c r="B184" t="s">
-        <v>535</v>
+        <v>728</v>
       </c>
       <c r="C184" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
+        <v>729</v>
+      </c>
+      <c r="D184" t="s">
+        <v>730</v>
+      </c>
+      <c r="E184" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>537</v>
+        <v>732</v>
       </c>
       <c r="B185" t="s">
-        <v>538</v>
+        <v>733</v>
       </c>
       <c r="C185" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
+        <v>734</v>
+      </c>
+      <c r="D185" t="s">
+        <v>735</v>
+      </c>
+      <c r="E185" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>540</v>
+        <v>732</v>
       </c>
       <c r="B186" t="s">
-        <v>541</v>
+        <v>737</v>
       </c>
       <c r="C186" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
+        <v>738</v>
+      </c>
+      <c r="D186" t="s">
+        <v>739</v>
+      </c>
+      <c r="E186" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>543</v>
+        <v>732</v>
       </c>
       <c r="B187" t="s">
-        <v>544</v>
+        <v>741</v>
       </c>
       <c r="C187" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
+        <v>742</v>
+      </c>
+      <c r="D187" t="s">
+        <v>743</v>
+      </c>
+      <c r="E187" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>546</v>
+        <v>732</v>
       </c>
       <c r="B188" t="s">
-        <v>547</v>
+        <v>745</v>
       </c>
       <c r="C188" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
+        <v>746</v>
+      </c>
+      <c r="D188" t="s">
+        <v>747</v>
+      </c>
+      <c r="E188" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>549</v>
+        <v>732</v>
       </c>
       <c r="B189" t="s">
-        <v>550</v>
+        <v>749</v>
       </c>
       <c r="C189" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
+        <v>750</v>
+      </c>
+      <c r="D189" t="s">
+        <v>751</v>
+      </c>
+      <c r="E189" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>552</v>
+        <v>732</v>
       </c>
       <c r="B190" t="s">
-        <v>553</v>
+        <v>753</v>
       </c>
       <c r="C190" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
+        <v>754</v>
+      </c>
+      <c r="D190" t="s">
+        <v>755</v>
+      </c>
+      <c r="E190" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>555</v>
+        <v>732</v>
       </c>
       <c r="B191" t="s">
-        <v>556</v>
+        <v>757</v>
       </c>
       <c r="C191" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
+        <v>758</v>
+      </c>
+      <c r="D191" t="s">
+        <v>759</v>
+      </c>
+      <c r="E191" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>558</v>
+        <v>732</v>
       </c>
       <c r="B192" t="s">
-        <v>559</v>
+        <v>761</v>
       </c>
       <c r="C192" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
+        <v>762</v>
+      </c>
+      <c r="D192" t="s">
+        <v>763</v>
+      </c>
+      <c r="E192" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>561</v>
+        <v>732</v>
       </c>
       <c r="B193" t="s">
-        <v>562</v>
+        <v>765</v>
       </c>
       <c r="C193" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
+        <v>766</v>
+      </c>
+      <c r="D193" t="s">
+        <v>767</v>
+      </c>
+      <c r="E193" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>564</v>
+        <v>732</v>
       </c>
       <c r="B194" t="s">
-        <v>565</v>
+        <v>769</v>
       </c>
       <c r="C194" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
+        <v>770</v>
+      </c>
+      <c r="D194" t="s">
+        <v>771</v>
+      </c>
+      <c r="E194" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>567</v>
+        <v>732</v>
       </c>
       <c r="B195" t="s">
-        <v>568</v>
+        <v>773</v>
       </c>
       <c r="C195" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" t="s">
-        <v>570</v>
-      </c>
-      <c r="B196" t="s">
-        <v>571</v>
-      </c>
-      <c r="C196" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" t="s">
-        <v>573</v>
-      </c>
-      <c r="B197" t="s">
-        <v>574</v>
-      </c>
-      <c r="C197" t="s">
-        <v>575</v>
+        <v>774</v>
+      </c>
+      <c r="D195" t="s">
+        <v>775</v>
+      </c>
+      <c r="E195" t="s">
+        <v>776</v>
       </c>
     </row>
   </sheetData>

--- a/request.xlsx
+++ b/request.xlsx
@@ -52,7 +52,7 @@
     <t>용식선 여성 접수원의 의뢰</t>
   </si>
   <si>
-    <t>村★9空路を阻む電竜退治！</t>
+    <t>마을★9 항공로를 방해하는 전룡퇴치!(空路を阻む電竜退治！)</t>
   </si>
   <si>
     <t>装備開放
@@ -67,7 +67,7 @@
     <t>탄지아 대회담당의 의뢰</t>
   </si>
   <si>
-    <t>G★4感動の生まれる瞬間</t>
+    <t>G★4 감동적인 탄생의 순간(感動の生まれる瞬間)</t>
   </si>
   <si>
     <t>クエスト報酬
@@ -82,7 +82,7 @@
     <t>모가 농장 아이루의 의뢰</t>
   </si>
   <si>
-    <t>村★8珍肥料を手に入れるのニャ！</t>
+    <t>마을★8 진비료를 손에 넣는거다냐!(珍肥料を手に入れるのニャ！)</t>
   </si>
   <si>
     <t>食材
@@ -95,7 +95,7 @@
     <t>나무통 아이루의 의뢰</t>
   </si>
   <si>
-    <t>G★1罪深きタルの食材探訪</t>
+    <t>G★1 죄 많은 나무 통의 식재탐방(罪深きタルの食材探訪)</t>
   </si>
   <si>
     <t>食材
@@ -112,7 +112,7 @@
     <t>수렵선단・적창의 의뢰1</t>
   </si>
   <si>
-    <t>村★9空の家族・メシを作るッス</t>
+    <t>마을★9 하늘의 가족・밥을 만들겠습니다(空の家族・メシを作るッス)</t>
   </si>
   <si>
     <t>食材
@@ -125,7 +125,7 @@
     <t>수렵선단・적창의 의뢰2</t>
   </si>
   <si>
-    <t>G★2空の家族・空路を守るッス</t>
+    <t>G★2 하늘의 가족・공로를 지킵니다(空の家族・空路を守るッス)</t>
   </si>
   <si>
     <t>狩技開放
@@ -141,7 +141,7 @@
     <t>탄지아 징담당의 의뢰1</t>
   </si>
   <si>
-    <t>村★9……求めるならば力を示して</t>
+    <t>마을★9 ......원한다면 힘을 보여라(……求めるならば力を示して)</t>
   </si>
   <si>
     <t>装備開放
@@ -156,7 +156,7 @@
     <t>탄지아 징담당의 의뢰2</t>
   </si>
   <si>
-    <t>G★2……欲するならば資格を示して</t>
+    <t>G★2 ......원한다면 자격을 보여라(……欲するならば資格を示して)</t>
   </si>
   <si>
     <t>狩技開放
@@ -172,7 +172,7 @@
     <t>베르나 마을 촌장의 의뢰</t>
   </si>
   <si>
-    <t>村★10高難度：古代林に現る２頭の影</t>
+    <t>마을★10 고난도 : 고대림에 나타난 두마리의 그림자(高難度：古代林に現る２頭の影)</t>
   </si>
   <si>
     <t>装備開放
@@ -187,7 +187,7 @@
     <t>베르나 마을 여성 접수원의 의뢰1</t>
   </si>
   <si>
-    <t>村★3観光客の旅路を守れ！</t>
+    <t>마을★3 관광객의 여행길을 지켜라!(観光客の旅路を守れ！)</t>
   </si>
   <si>
     <t>装備開放
@@ -202,7 +202,7 @@
     <t>베르나 마을 여성 접수원의 의뢰2</t>
   </si>
   <si>
-    <t>村★4とびきりのゼンマイティー作り</t>
+    <t>마을★4 특별한 고비차 만들기(とびきりのゼンマイティー作り)</t>
   </si>
   <si>
     <t>食材
@@ -215,7 +215,7 @@
     <t>베르나 마을 여성 접수원의 의뢰3</t>
   </si>
   <si>
-    <t>集★6夜鳥の会・危機一髪！</t>
+    <t>집회소★6 야조의 모임・위기일발!(夜鳥の会・危機一髪！)</t>
   </si>
   <si>
     <t>装備開放
@@ -230,7 +230,7 @@
     <t>베르나 마을 여성 접수원의 의뢰4</t>
   </si>
   <si>
-    <t>G★3ベルナ村の観光業が大炎上！</t>
+    <t>G★3 베르나마을의 관광업이 대염상!(ベルナ村の観光業が大炎上！)</t>
   </si>
   <si>
     <t>装備開放
@@ -245,7 +245,7 @@
     <t>착실한 마을사람의 의뢰1</t>
   </si>
   <si>
-    <t>村★2古代林の暴れん坊</t>
+    <t>마을★2 고대림의 망나니(古代林の暴れん坊)</t>
   </si>
   <si>
     <t>入手
@@ -260,7 +260,7 @@
     <t>착실한 마을사람의 의뢰2</t>
   </si>
   <si>
-    <t>村★3ムーファたちのふんわり毛玉</t>
+    <t>마을★3 무파들의 폭신폭신 털뭉치(ムーファたちのふんわり毛玉)</t>
   </si>
   <si>
     <t>入手
@@ -273,7 +273,7 @@
     <t>착실한 마을사람의 의뢰3</t>
   </si>
   <si>
-    <t>村★6高難度：天地征服せし強者</t>
+    <t>마을★6 고난도 : 천지를 정복한 강자(高難度：天地征服せし強者)</t>
   </si>
   <si>
     <t>装備開放
@@ -286,7 +286,7 @@
     <t>치코 마을 촌장의 의뢰1</t>
   </si>
   <si>
-    <t>村★3ステキなお魚、錦魚</t>
+    <t>마을★3 멋진 물고기, 금어(비단물고기)(ステキなお魚、錦魚)</t>
   </si>
   <si>
     <t>装備開放
@@ -299,7 +299,7 @@
     <t>치코 마을 촌장의 의뢰2</t>
   </si>
   <si>
-    <t>村★4チコ村のヒーロー伝説</t>
+    <t>마을★4 치코마을의 히어로 전설(チコ村のヒーロー伝説)</t>
   </si>
   <si>
     <t>装備開放
@@ -312,7 +312,7 @@
     <t>캐러밴 단장의 의뢰1</t>
   </si>
   <si>
-    <t>村★4厄介者のドスゲネポス</t>
+    <t>마을★4 골칫거리 도스게네포스(厄介者のドスゲネポス)</t>
   </si>
   <si>
     <t>装備開放
@@ -329,7 +329,7 @@
     <t>캐러밴 단장의 의뢰2</t>
   </si>
   <si>
-    <t>村★6高難度：廻帰せし災厄の古龍</t>
+    <t>마을★6 고난도 : 회귀하다 재앙의 고룡(高難度：廻帰せし災厄の古龍)</t>
   </si>
   <si>
     <t>クエスト報酬
@@ -344,7 +344,7 @@
     <t>캐러밴 단장의 의뢰3</t>
   </si>
   <si>
-    <t>集★7原生林の平和を守れ</t>
+    <t>집회소★7 원시림의 평화를 지켜라(原生林の平和を守れ)</t>
   </si>
   <si>
     <t>装備開放
@@ -359,7 +359,7 @@
     <t>캐러밴 단장의 의뢰4</t>
   </si>
   <si>
-    <t>G★3グラビモス連続狩猟</t>
+    <t>G★3 그라비모스 연속 수렵(グラビモス連続狩猟)</t>
   </si>
   <si>
     <t>装備開放
@@ -374,7 +374,7 @@
     <t>캐러밴 간판아가씨의 의뢰1</t>
   </si>
   <si>
-    <t>集★4超☆メモ帳～跳狗竜狩猟編～</t>
+    <t>집회소★4 초☆메모장 ~도구룡수렵편~(超☆メモ帳～跳狗竜狩猟編～)</t>
   </si>
   <si>
     <t>装備開放
@@ -391,7 +391,7 @@
     <t>캐러밴 간판아가씨의 의뢰2</t>
   </si>
   <si>
-    <t>集★5超☆メモ帳～奇猿狐狩猟編～</t>
+    <t>집회소★5 초☆메모장 ~기원호수렵편~(超☆メモ帳～奇猿狐狩猟編～)</t>
   </si>
   <si>
     <t>装備開放
@@ -404,7 +404,7 @@
     <t>캐러밴 간판아가씨의 의뢰3</t>
   </si>
   <si>
-    <t>集★7超☆メモ帳～千刃竜捕獲編～</t>
+    <t>집회소★7 초☆메모장 ~천인룡포획편~(超☆メモ帳～千刃竜捕獲編～)</t>
   </si>
   <si>
     <t>ルームサービス変更可能</t>
@@ -416,7 +416,7 @@
     <t>캐러밴 간판아가씨의 의뢰4</t>
   </si>
   <si>
-    <t>G★2超☆メモ帳～獰猛化盾蟹編～</t>
+    <t>G★2 초☆메모장 ~영맹화순해편~(超☆メモ帳～獰猛化盾蟹編～)</t>
   </si>
   <si>
     <t>装備開放
@@ -431,7 +431,7 @@
     <t>필두 리더의 의뢰1</t>
   </si>
   <si>
-    <t>集★6遺跡平原の黒蝕竜調査</t>
+    <t>집회소★6 유적평원의 흑식룡조사(遺跡平原の黒蝕竜調査)</t>
   </si>
   <si>
     <t>クエスト報酬
@@ -447,7 +447,7 @@
     <t>필두 리더의 의뢰2</t>
   </si>
   <si>
-    <t>集★7顕現せし黒蝕竜</t>
+    <t>집회소★7 현현한 흑식룡(顕現せし黒蝕竜)</t>
   </si>
   <si>
     <t>装備開放
@@ -460,7 +460,7 @@
     <t>필두 리더의 의뢰3</t>
   </si>
   <si>
-    <t>G★2密林のナルガクルガと対峙せよ</t>
+    <t>G★2 밀림의 나르가쿠르가와 대치해라(密林のナルガクルガと対峙せよ)</t>
   </si>
   <si>
     <t>狩技開放
@@ -476,7 +476,7 @@
     <t>필두 리더의 의뢰4</t>
   </si>
   <si>
-    <t>G★4原生林にて呻くは渾沌の竜</t>
+    <t>G★4 원시림에서 신음하는 혼돈의 용(原生林にて呻くは渾沌の竜)</t>
   </si>
   <si>
     <t>クエスト報酬
@@ -491,7 +491,7 @@
     <t>필두 랜서의 의뢰1</t>
   </si>
   <si>
-    <t>G★2依頼委託：火山の岩竜</t>
+    <t>G★2 의뢰위탁 : 화산의 암룡(依頼委託：火山の岩竜)</t>
   </si>
   <si>
     <t>狩技開放
@@ -507,7 +507,7 @@
     <t>필두 랜서의 의뢰2</t>
   </si>
   <si>
-    <t>G★2調査委託：獰猛な奇猿狐</t>
+    <t>G★2 조사위탁 : 영맹한 기원호(調査委託：獰猛な奇猿狐)</t>
   </si>
   <si>
     <t>クエスト報酬
@@ -522,7 +522,7 @@
     <t>필두 루키의 의뢰1</t>
   </si>
   <si>
-    <t>集★5２頭のドスランポス</t>
+    <t>집회소★5 2마리의 도스란포스(２頭のドスランポス)</t>
   </si>
   <si>
     <t>クエスト報酬
@@ -537,7 +537,7 @@
     <t>필두 루키의 의뢰2</t>
   </si>
   <si>
-    <t>G★2二人で特訓、成果は山分け</t>
+    <t>G★2 둘이서 특훈, 성과는 반분(二人で特訓、成果は山分け)</t>
   </si>
   <si>
     <t>狩技開放
@@ -553,7 +553,7 @@
     <t>대노전 대신의 의뢰</t>
   </si>
   <si>
-    <t>G★4所により獰猛なセルレギオス</t>
+    <t>G★4 장소에 따라 영맹한 셀레기오스(所により獰猛なセルレギオス)</t>
   </si>
   <si>
     <t>装備開放
@@ -568,7 +568,7 @@
     <t>전설의 장인의 의뢰</t>
   </si>
   <si>
-    <t>G★4鎧・砕・斬の包囲網を越えて</t>
+    <t>G★4 개・쇄・참의 포위망을 넘어서(鎧・砕・斬の包囲網を越えて)</t>
   </si>
   <si>
     <t>入手
@@ -583,7 +583,7 @@
     <t>베르나 마을 가공점의 의뢰1</t>
   </si>
   <si>
-    <t>集★7容赦なき、金獅子相手に用心棒</t>
+    <t>집회소★7 용서없는, 금사자 상대로 경호원(容赦なき、金獅子相手に用心棒)</t>
   </si>
   <si>
     <t>装備開放
@@ -596,7 +596,7 @@
     <t>베르나 마을 가공점의 의뢰2</t>
   </si>
   <si>
-    <t>集★7凶賊ゲリョス狩り</t>
+    <t>집회소★7 흉적 게료스 사냥(凶賊ゲリョス狩り)</t>
   </si>
   <si>
     <t>装備開放
@@ -609,7 +609,7 @@
     <t>고양이 아가씨의 의뢰1</t>
   </si>
   <si>
-    <t>村★1ネコ嬢のジャギィ討伐依頼</t>
+    <t>마을★1 네코죠의 쟈기 토벌의뢰(ネコ嬢のジャギィ討伐依頼)</t>
   </si>
   <si>
     <t>入手
@@ -622,7 +622,7 @@
     <t>고양이 아가씨의 의뢰2</t>
   </si>
   <si>
-    <t>村★8宣伝ネコの受難</t>
+    <t>마을★8 선전고양이의 수난(宣伝ネコの受難)</t>
   </si>
   <si>
     <t>クエスト報酬
@@ -637,7 +637,7 @@
     <t>고양이 아가씨의 의뢰3</t>
   </si>
   <si>
-    <t>G★1毒怪鳥が盗んだものを追って</t>
+    <t>G★1 독괴조가 훔친물건을 쫓아서(毒怪鳥が盗んだものを追って)</t>
   </si>
   <si>
     <t>装備開放
@@ -652,7 +652,7 @@
     <t>주점 간판 아가씨의 의뢰(1)</t>
   </si>
   <si>
-    <t>G★3妹奮闘記～夜鳥退治～</t>
+    <t>G★3 여동생 분투기 ~야조퇴치~(妹奮闘記～夜鳥退治～)</t>
   </si>
   <si>
     <t>クエスト報酬
@@ -669,7 +669,7 @@
     <t>주점 간판 아가씨의 의뢰(2)</t>
   </si>
   <si>
-    <t>龍識船研究員ネコに話しかける</t>
+    <t>용식선 연구원 고양이에게 말을 건다</t>
   </si>
   <si>
     <t>入手
@@ -682,7 +682,7 @@
     <t>냥트님의 의뢰</t>
   </si>
   <si>
-    <t>G★3トラウマガンキンを退治せよ</t>
+    <t>G★3 트라우마간킨을 퇴치해라(トラウマガンキンを退治せよ)</t>
   </si>
   <si>
     <t>クエスト報酬
@@ -700,7 +700,7 @@
     <t>코코트 마을 촌장의 의뢰1</t>
   </si>
   <si>
-    <t>村★2ランポスたちを討伐せよ！</t>
+    <t>마을★2 란포스들을 토벌해라!(ランポスたちを討伐せよ！)</t>
   </si>
   <si>
     <t>入手
@@ -713,7 +713,7 @@
     <t>코코트 마을 촌장의 의뢰2</t>
   </si>
   <si>
-    <t>村★2ドスランポスを狩猟せよ！</t>
+    <t>마을★2 도스란포스를 수렵해라!(ドスランポスを狩猟せよ！)</t>
   </si>
   <si>
     <t>装備開放
@@ -728,7 +728,7 @@
     <t>코코트 마을 촌장의 의뢰3</t>
   </si>
   <si>
-    <t>村★3大怪鳥イャンクックを倒せ！</t>
+    <t>마을★3 대괴조 얀쿡을 쓰러뜨려라!(大怪鳥イャンクックを倒せ！)</t>
   </si>
   <si>
     <t>ココット村の村長の依頼4</t>
@@ -737,7 +737,7 @@
     <t>코코트 마을 촌장의 의뢰4</t>
   </si>
   <si>
-    <t>村★3潜入！飛竜の巣！</t>
+    <t>마을★3 잠입! 비룡의 둥지!(潜入！飛竜の巣！)</t>
   </si>
   <si>
     <t>入手
@@ -750,7 +750,7 @@
     <t>코코트 마을 촌장의 의뢰5</t>
   </si>
   <si>
-    <t>村★5翠玉の閃電</t>
+    <t>마을★5 취옥의 섬전(翠玉の閃電)</t>
   </si>
   <si>
     <t>入手
@@ -766,7 +766,7 @@
     <t>코코트 마을 촌장의 의뢰6</t>
   </si>
   <si>
-    <t>村★6高難度：天と地の怒り</t>
+    <t>마을★6 고난도 : 하늘과 땅의 분노(高難度：天と地の怒り)</t>
   </si>
   <si>
     <t>入手
@@ -779,7 +779,7 @@
     <t>코코트 마을 촌장의 의뢰7</t>
   </si>
   <si>
-    <t>村★10高難度：森丘にて火竜は旋廻す</t>
+    <t>마을★10 고난도 : 숲과언덕에서 화룡은 선회한다(高難度：森丘にて火竜は旋廻す)</t>
   </si>
   <si>
     <t>入手ココットチケットGオトモ装備開放ハントＸネコナイフハントＸネコヘルムハントＸネコメイル</t>
@@ -791,8 +791,7 @@
     <t>코코트 마을 여성 접수원의 의뢰1</t>
   </si>
   <si>
-    <t>納品
-イーオスの皮 x3盾蟹の小殻 x3鬼蛙の鱗 x1</t>
+    <t>납품 이오스의 가죽(イーオスの皮) x3 순해의 작은 껍질(盾蟹の小殻) x3 귀와의 비늘(鬼蛙の鱗) x1</t>
   </si>
   <si>
     <t>装備開放
@@ -807,8 +806,7 @@
     <t>코코트 마을 여성 접수원의 의뢰2</t>
   </si>
   <si>
-    <t>納品
-鬼蛙の厚鱗 x5盾蟹の重殻 x5影蜘蛛の剛爪 x2</t>
+    <t>납품 귀와의 두꺼운 비늘(鬼蛙の厚鱗) x5 순해의 무거운 껍질(盾蟹の重殻) x5 영지주의 단단한 손톱(影蜘蛛の剛爪) x2</t>
   </si>
   <si>
     <t>装備開放
@@ -823,7 +821,7 @@
     <t>미나가르데 간판 아가씨의 의뢰1</t>
   </si>
   <si>
-    <t>集★7獰にして猛だが火でもある</t>
+    <t>집회소★7 영에 맹이지만 불이기도 하다(獰にして猛だが火でもある)</t>
   </si>
   <si>
     <t>装備開放
@@ -838,7 +836,7 @@
     <t>미나가르데 간판 아가씨의 의뢰2</t>
   </si>
   <si>
-    <t>村★9割り込み受注：卵納品</t>
+    <t>마을★9 새치기수주 : 알납품(割り込み受注：卵納品)</t>
   </si>
   <si>
     <t>入手
@@ -851,7 +849,7 @@
     <t>미나가르데 간판 아가씨의 의뢰3</t>
   </si>
   <si>
-    <t>G★2割り込み受注：2頭の桃毛獣</t>
+    <t>G★2 새치기수주 : 2마리의 도모수(割り込み受注：2頭の桃毛獣)</t>
   </si>
   <si>
     <t>クエスト報酬
@@ -864,7 +862,7 @@
     <t>휴식중인 헌터의 의뢰</t>
   </si>
   <si>
-    <t>G★2閃きへの1ピースを求めて</t>
+    <t>G★2 번뜩임의 한 조각을 찾아서(閃きへの1ピースを求めて)</t>
   </si>
   <si>
     <t>狩技開放
@@ -880,7 +878,7 @@
     <t>트레지의 의뢰1</t>
   </si>
   <si>
-    <t>村★3古代林のトレジャー！蛙の巻</t>
+    <t>마을★3 고대림의 트레져! 개구리편(古代林のトレジャー！蛙の巻)</t>
   </si>
   <si>
     <t>クエスト報酬
@@ -893,7 +891,7 @@
     <t>트레지의 의뢰2</t>
   </si>
   <si>
-    <t>村★4古代林のトレジャー！虫の巻</t>
+    <t>마을★4 고대림의 트레져! 벌레편(古代林のトレジャー！虫の巻)</t>
   </si>
   <si>
     <t>クエスト報酬
@@ -906,7 +904,7 @@
     <t>트레지의 의뢰3</t>
   </si>
   <si>
-    <t>村★6高難度：古代林のトレジャー！</t>
+    <t>마을★6 고난도 : 고대림의 트레져!(高難度：古代林のトレジャー！)</t>
   </si>
   <si>
     <t>クエスト報酬
@@ -921,7 +919,7 @@
     <t>트레지의 의뢰4</t>
   </si>
   <si>
-    <t>G★2遺群嶺のトレジャー！米の巻</t>
+    <t>G★2 유군령의 트레져! 쌀편(遺群嶺のトレジャー！米の巻)</t>
   </si>
   <si>
     <t>食材
@@ -934,7 +932,7 @@
     <t>헬 브라더스・적귀의 의뢰(1)</t>
   </si>
   <si>
-    <t>村★6高難度：一対の巨影</t>
+    <t>마을★6 고난도 : 한쌍의 거대한 그림자(高難度：一対の巨影)</t>
   </si>
   <si>
     <t>クエスト報酬
@@ -947,7 +945,7 @@
     <t>헬 브라더스・적귀의 의뢰(2)</t>
   </si>
   <si>
-    <t>集★7空の飛竜と陸の飛竜</t>
+    <t>집회소★7 하늘의 비룡과 육지의 비룡(空の飛竜と陸の飛竜)</t>
   </si>
   <si>
     <t>クエスト報酬
@@ -960,7 +958,7 @@
     <t>헬 브라더스・적귀의 의뢰2</t>
   </si>
   <si>
-    <t>村★9轟竜の狩猟をさせてやるぜ！</t>
+    <t>마을★9 굉룡 수렵을 시켜주지!(轟竜の狩猟をさせてやるぜ！)</t>
   </si>
   <si>
     <t>装備開放
@@ -973,7 +971,7 @@
     <t>헬 브라더스・적귀의 의뢰3</t>
   </si>
   <si>
-    <t>G★2鎌蟹の狩猟をさせてやるぜ！</t>
+    <t>G★2 겸해의 수렵을 시켜주지!(鎌蟹の狩猟をさせてやるぜ！)</t>
   </si>
   <si>
     <t>狩技開放
@@ -989,7 +987,7 @@
     <t>돈도르마 수호병의 의뢰1</t>
   </si>
   <si>
-    <t>村★6高難度：黒狼鳥は舞い降りた</t>
+    <t>마을★6 고난도 : 흑랑조는 내려앉았다(高難度：黒狼鳥は舞い降りた)</t>
   </si>
   <si>
     <t>装備開放
@@ -1002,7 +1000,7 @@
     <t>돈도르마 수호병의 의뢰2</t>
   </si>
   <si>
-    <t>村★6高難度：対霞龍防衛作戦！</t>
+    <t>마을★6 고난도 : 대하룡방위작전!(高難度：対霞龍防衛作戦！)</t>
   </si>
   <si>
     <t>装備開放
@@ -1017,7 +1015,7 @@
     <t>돈도르마 수호병의 의뢰3</t>
   </si>
   <si>
-    <t>G★1森丘の迷惑な怪鳥さん</t>
+    <t>G★1 숲과언덕의 성가신 괴조씨(森丘の迷惑な怪鳥さん)</t>
   </si>
   <si>
     <t>食材
@@ -1030,7 +1028,7 @@
     <t>시나토 마을 장로의 의뢰</t>
   </si>
   <si>
-    <t>集★4肴のキモはホワイトレバー</t>
+    <t>집회소★4 안주로 쓸 간은 하얀간(肴のキモはホワイトレバー)</t>
   </si>
   <si>
     <t>食材
@@ -1043,7 +1041,7 @@
     <t>캐러밴 요리장의 의뢰1</t>
   </si>
   <si>
-    <t>集★1新たな食材ハンターの誕生！？</t>
+    <t>집회소★1 새로운 식재헌터의 탄생!?(新たな食材ハンターの誕生！？)</t>
   </si>
   <si>
     <t>食材
@@ -1056,7 +1054,7 @@
     <t>캐러밴 요리장의 의뢰2</t>
   </si>
   <si>
-    <t>村★9雪山、雪玉、雪合戦！！</t>
+    <t>마을★9 설산, 설옥, 설합전!!(雪山、雪玉、雪合戦！！)</t>
   </si>
   <si>
     <t>食材
@@ -1069,7 +1067,7 @@
     <t>캐러밴 요리장의 의뢰3</t>
   </si>
   <si>
-    <t>G★2チコ村を脅かす水竜を狩れ！</t>
+    <t>G★2 치코마을을 위협하는 수룡을 사냥해라!(チコ村を脅かす水竜を狩れ！)</t>
   </si>
   <si>
     <t>食材
@@ -1082,7 +1080,7 @@
     <t>캐러밴 아가씨의 의뢰1</t>
   </si>
   <si>
-    <t>ナグリ村の村長と会話</t>
+    <t>나구리 마을(ナグリ村) 촌장과 대화</t>
   </si>
   <si>
     <t>食材
@@ -1095,7 +1093,7 @@
     <t>캐러밴 아가씨의 의뢰2</t>
   </si>
   <si>
-    <t>集★6心を燃やせ、燃石炭！</t>
+    <t>집회소★6 마음을 불태워라, 연석탄!(心を燃やせ、燃石炭！)</t>
   </si>
   <si>
     <t>食材
@@ -1108,7 +1106,7 @@
     <t>캐러밴 아가씨의 의뢰3</t>
   </si>
   <si>
-    <t>村★8熱地に現る、ウラガンキン！</t>
+    <t>마을★8 열대에 나타나다, 우라간킨!(熱地に現る、ウラガンキン！)</t>
   </si>
   <si>
     <t>キャラバンの竜人商人の依頼1</t>
@@ -1117,7 +1115,7 @@
     <t>캐러밴 용인상인의 의뢰1</t>
   </si>
   <si>
-    <t>村★5ゲリョスな季節</t>
+    <t>마을★5 게료스한 계절(ゲリョスな季節)</t>
   </si>
   <si>
     <t>クエスト報酬
@@ -1130,7 +1128,7 @@
     <t>캐러밴 용인상인의 의뢰2</t>
   </si>
   <si>
-    <t>集★3化石に眠る太古の記憶</t>
+    <t>집회소★3 화석에 잠든 태고의 기억(化石に眠る太古の記憶)</t>
   </si>
   <si>
     <t>クエスト報酬
@@ -1143,7 +1141,7 @@
     <t>캐러밴 용인상인의 의뢰3</t>
   </si>
   <si>
-    <t>集★5雪山の主、ドドブランゴ</t>
+    <t>집회소★5 설산의 주인, 도도블랑고(雪山の主、ドドブランゴ)</t>
   </si>
   <si>
     <t>クエスト報酬
@@ -1156,7 +1154,7 @@
     <t>캐러밴 용인상인의 의뢰4</t>
   </si>
   <si>
-    <t>村★10遺群嶺を塞ぐ恐暴竜</t>
+    <t>마을★10 유군령을 가로막는 공폭룡(遺群嶺を塞ぐ恐暴竜)</t>
   </si>
   <si>
     <t>装備開放
@@ -1169,7 +1167,7 @@
     <t>교역선 선장의 의뢰1</t>
   </si>
   <si>
-    <t>集★2輸送中！水獣の追従！</t>
+    <t>집회소★2 수송중! 수수의 추종!(輸送中！水獣の追従！)</t>
   </si>
   <si>
     <t>入手
@@ -1184,7 +1182,7 @@
     <t>교역선 선장의 의뢰2</t>
   </si>
   <si>
-    <t>村★6予想外！つがいの妨害！</t>
+    <t>마을★6 예상외! 부부의 방해!(予想外！つがいの妨害！)</t>
   </si>
   <si>
     <t>入手
@@ -1197,8 +1195,7 @@
     <t>교역선 선장의 의뢰3</t>
   </si>
   <si>
-    <t>納品
-ユクモの木 x5泡立つ滑液 x2海綿質の上皮 x1</t>
+    <t>납품 유쿠모 나무(ユクモの木) x5 거품이 이는 활액(泡立つ滑液) x2 해면질의 상피(海綿質の上皮) x1</t>
   </si>
   <si>
     <t>装備開放
@@ -1211,7 +1208,7 @@
     <t>교역선 선장의 의뢰4</t>
   </si>
   <si>
-    <t>集★7蒼く渦巻く登竜門</t>
+    <t>집회소★7 파랗게 소용돌이치는 등용문(蒼く渦巻く登竜門)</t>
   </si>
   <si>
     <t>入手
@@ -1224,7 +1221,7 @@
     <t>바르바레 회담 진행자의 의뢰1</t>
   </si>
   <si>
-    <t>村★6高難度：重甲虫と腕試し！</t>
+    <t>마을★6 고난도 : 중갑충과 실력시험!(高難度：重甲虫と腕試し！)</t>
   </si>
   <si>
     <t>入手
@@ -1237,7 +1234,7 @@
     <t>바르바레 회담 진행자의 의뢰2</t>
   </si>
   <si>
-    <t>集★7試練の帰結点</t>
+    <t>집회소★7 시련의 귀결점(試練の帰結点)</t>
   </si>
   <si>
     <t>入手
@@ -1255,7 +1252,7 @@
     <t>바르바레 회담 진행자의 의뢰3</t>
   </si>
   <si>
-    <t>G★4絆の証！孤島の大決戦</t>
+    <t>G★4 인연의 증거! 고도의 대결전(絆の証！孤島の大決戦)</t>
   </si>
   <si>
     <t>装備開放
@@ -1271,7 +1268,7 @@
     <t>폿케 마을 촌장의 의뢰1</t>
   </si>
   <si>
-    <t>村★2ギアノスたちを討伐せよ！</t>
+    <t>마을★2 기아노스들을 토벌해라!(ギアノスたちを討伐せよ！)</t>
   </si>
   <si>
     <t>入手
@@ -1284,7 +1281,7 @@
     <t>폿케 마을 촌장의 의뢰2</t>
   </si>
   <si>
-    <t>村★2雪山の荒くれ者</t>
+    <t>마을★2 설산의 난폭한 사나이(雪山の荒くれ者)</t>
   </si>
   <si>
     <t>装備開放
@@ -1299,7 +1296,7 @@
     <t>폿케 마을 촌장의 의뢰3</t>
   </si>
   <si>
-    <t>村★3雪山に潜む影</t>
+    <t>마을★3 설산에 숨어있는 그림자(雪山に潜む影)</t>
   </si>
   <si>
     <t>ポッケ村の村長の依頼4</t>
@@ -1308,7 +1305,7 @@
     <t>폿케 마을 촌장의 의뢰4</t>
   </si>
   <si>
-    <t>村★3忍び寄る気配</t>
+    <t>마을★3 살며시 다가오는 기척(忍び寄る気配)</t>
   </si>
   <si>
     <t>入手
@@ -1321,7 +1318,7 @@
     <t>폿케 마을 촌장의 의뢰5</t>
   </si>
   <si>
-    <t>村★5峨々たる巨獣</t>
+    <t>마을★5 우뚝 솟은 거수(峨々たる巨獣)</t>
   </si>
   <si>
     <t>入手
@@ -1338,7 +1335,7 @@
     <t>폿케 마을 촌장의 의뢰6</t>
   </si>
   <si>
-    <t>村★6高難度：最後の招待状</t>
+    <t>마을★6 고난도 : 최후의 초대장(高難度：最後の招待状)</t>
   </si>
   <si>
     <t>入手
@@ -1351,7 +1348,7 @@
     <t>폿케 마을 촌장의 의뢰7</t>
   </si>
   <si>
-    <t>村★10高難度：雪山に佇む轟竜</t>
+    <t>마을★10 고난도 : 설산에 서성이는 굉룡(高難度：雪山に佇む轟竜)</t>
   </si>
   <si>
     <t>入手
@@ -1366,8 +1363,7 @@
     <t>폿케 마을 여성 접수원의 의뢰1</t>
   </si>
   <si>
-    <t>納品
-ユクモの木 x4ガウシカの角 x2巨獣の鼻棘 x1</t>
+    <t>납품 유쿠모 나무(ユクモの木) x4 가우시카의 뿔(ガウシカの角) x2 거수의 코 가시(巨獣の鼻棘) x1</t>
   </si>
   <si>
     <t>装備開放
@@ -1382,7 +1378,7 @@
     <t>폿케 마을 여성 접수원의 의뢰2</t>
   </si>
   <si>
-    <t>村★10高難度：喧嘩の仲裁は村を救う</t>
+    <t>마을★10 고난도 : 싸움의 중재는 마을을 구한다(高難度：喧嘩の仲裁は村を救う)</t>
   </si>
   <si>
     <t>装備開放
@@ -1397,7 +1393,7 @@
     <t>점보 마을 간판 아가씨의 의뢰</t>
   </si>
   <si>
-    <t>集★6ドドドドブランゴ！</t>
+    <t>집회소★6 도도도도블랑고!(ドドドドブランゴ！)</t>
   </si>
   <si>
     <t>装備開放
@@ -1412,7 +1408,7 @@
     <t>트레냐의 의뢰1</t>
   </si>
   <si>
-    <t>村★3旧砂漠の縄張り争いニャ！！</t>
+    <t>마을★3 구사막의 영역다툼이다냐!!(旧砂漠の縄張り争いニャ！！)</t>
   </si>
   <si>
     <t>クエスト報酬
@@ -1425,7 +1421,7 @@
     <t>트레냐의 의뢰2</t>
   </si>
   <si>
-    <t>村★4森丘の静寂を守るのニャ！！</t>
+    <t>마을★4 숲과언덕의 정적을 지키는거다냐!!(森丘の静寂を守るのニャ！！)</t>
   </si>
   <si>
     <t>クエスト報酬
@@ -1438,7 +1434,7 @@
     <t>트레냐의 의뢰3</t>
   </si>
   <si>
-    <t>村★6渓流の覇権争いニャ！！</t>
+    <t>마을★6 계류의 패권다툼이다냐!!(渓流の覇権争いニャ！！)</t>
   </si>
   <si>
     <t>クエスト報酬
@@ -1451,7 +1447,7 @@
     <t>네코트의 의뢰1</t>
   </si>
   <si>
-    <t>集★6極秘依頼！獰猛なる溶岩竜！</t>
+    <t>집회소★6 극비의뢰! 영맹한 용암룡!(極秘依頼！獰猛なる溶岩竜！)</t>
   </si>
   <si>
     <t>クエスト報酬
@@ -1466,7 +1462,7 @@
     <t>네코트의 의뢰2</t>
   </si>
   <si>
-    <t>集★7轟虎馮海</t>
+    <t>집회소★7 굉호풍해(轟虎馮海)</t>
   </si>
   <si>
     <t>クエスト報酬
@@ -1481,7 +1477,7 @@
     <t>네코트의 의뢰3</t>
   </si>
   <si>
-    <t>村★6高難度：異常震域</t>
+    <t>마을★6 고난도 : 이상진역(高難度：異常震域)</t>
   </si>
   <si>
     <t>クエスト報酬
@@ -1498,7 +1494,7 @@
     <t>네코트의 의뢰4</t>
   </si>
   <si>
-    <t>G★4極天より来たる、崩せし神</t>
+    <t>G★4 극천으로부터 온, 무너뜨린 신(極天より来たる、崩せし神)</t>
   </si>
   <si>
     <t>オトモ装備開放
@@ -1511,7 +1507,7 @@
     <t>폿케 마을 간판 아가씨의 의뢰</t>
   </si>
   <si>
-    <t>集★5疾き迅竜の狩猟披露</t>
+    <t>집회소★5 빠른 신룡의 수렵피로(疾き迅竜の狩猟披露)</t>
   </si>
   <si>
     <t>食材
@@ -1527,7 +1523,7 @@
     <t>카리스마 미용사 고양이의 의뢰1</t>
   </si>
   <si>
-    <t>集★3パッション炸裂☆究極アフロ</t>
+    <t>집회소★3 패션 작렬☆궁극 아프로(パッション炸裂☆究極アフロ)</t>
   </si>
   <si>
     <t>プーギーの服
@@ -1540,7 +1536,7 @@
     <t>카리스마 미용사 고양이의 의뢰2</t>
   </si>
   <si>
-    <t>G★2ぶつけろ生き様☆アフロソウル</t>
+    <t>G★2 부딪혀라 삶☆아프로 소울(ぶつけろ生き様☆アフロソウル)</t>
   </si>
   <si>
     <t>さすらいのコックの依頼1</t>
@@ -1549,7 +1545,7 @@
     <t>방랑자 콕의 의뢰1</t>
   </si>
   <si>
-    <t>集★1伝説のメニューに不可欠なモノ</t>
+    <t>집회소★1 전설의 메뉴에 빼먹어선 안되는 것(伝説のメニューに不可欠なモノ)</t>
   </si>
   <si>
     <t>食材
@@ -1564,7 +1560,7 @@
     <t>방랑자 콕의 의뢰2</t>
   </si>
   <si>
-    <t>G★1アツアツ砂漠の盾蟹狩猟</t>
+    <t>G★1 앗뜨앗뜨 사막의 순해수렵(アツアツ砂漠の盾蟹狩猟)</t>
   </si>
   <si>
     <t>食材
@@ -1577,7 +1573,7 @@
     <t>공방 할머니의 의뢰1</t>
   </si>
   <si>
-    <t>村★6英雄への道</t>
+    <t>마을★6 영웅의 길(英雄への道)</t>
   </si>
   <si>
     <t>装備開放
@@ -1590,8 +1586,7 @@
     <t>공방 할머니의 의뢰2</t>
   </si>
   <si>
-    <t>納品
-獰猛化エキス</t>
+    <t>납품 영맹화엑스(獰猛化エキス)</t>
   </si>
   <si>
     <t>入手
@@ -1606,7 +1601,7 @@
     <t>공방 할머니의 의뢰3</t>
   </si>
   <si>
-    <t>村★6高難度：炎王の帰還</t>
+    <t>마을★6 고난도 : 염왕의 귀환(高難度：炎王の帰還)</t>
   </si>
   <si>
     <t>工房のばあちゃんの依頼4</t>
@@ -1615,7 +1610,7 @@
     <t>공방 할머니의 의뢰4</t>
   </si>
   <si>
-    <t>G★3強い防具は素材から！</t>
+    <t>G★3 강한 방어구는 소재부터!(強い防具は素材から！)</t>
   </si>
   <si>
     <t>クエスト報酬
@@ -1628,7 +1623,7 @@
     <t>챠챠의 의뢰1</t>
   </si>
   <si>
-    <t>集★4ライバルの激突！！</t>
+    <t>집회소★4 라이벌의 격돌!!(ライバルの激突！！)</t>
   </si>
   <si>
     <t>装備開放
@@ -1641,7 +1636,7 @@
     <t>챠챠의 의뢰2</t>
   </si>
   <si>
-    <t>集★6子分・取り分・イイ気分♪</t>
+    <t>집회소★6 부하・몫・좋은기분♪(子分・取り分・イイ気分♪)</t>
   </si>
   <si>
     <t>オトモ装備開放
@@ -1654,7 +1649,7 @@
     <t>챠챠의 의뢰3</t>
   </si>
   <si>
-    <t>集★7汝ノチカラヲ、見セテミヨ</t>
+    <t>집회소★7 그대의 힘을, 보여주어보아라(汝ノチカラヲ、見セテミヨ)</t>
   </si>
   <si>
     <t>オトモ装備開放
@@ -1670,7 +1665,7 @@
     <t>챠챠의 의뢰4</t>
   </si>
   <si>
-    <t>G★2子分の自覚が足りないっチャ！</t>
+    <t>G★2 부하의 자각이 부족하다!(子分の自覚が足りないっチャ！)</t>
   </si>
   <si>
     <t>オトモ装備開放
@@ -1683,7 +1678,7 @@
     <t>챠챠의 의뢰5</t>
   </si>
   <si>
-    <t>G★3闘技場での最終テストっチャ！</t>
+    <t>G★3 투기장에서의 최후 테스트!(闘技場での最終テストっチャ！)</t>
   </si>
   <si>
     <t>クエスト報酬
@@ -1700,7 +1695,7 @@
     <t>길드 매니저의 의뢰1</t>
   </si>
   <si>
-    <t>村★6高難度：青の連撃！</t>
+    <t>마을★6 고난도 : 파랑의 연격!(高難度：青の連撃！)</t>
   </si>
   <si>
     <t>装備開放
@@ -1713,7 +1708,7 @@
     <t>길드 매니저의 의뢰2</t>
   </si>
   <si>
-    <t>村★6高難度：赤の猛攻！</t>
+    <t>마을★6 고난도 : 빨강의 맹공!(高難度：赤の猛攻！)</t>
   </si>
   <si>
     <t>装備開放
@@ -1726,7 +1721,7 @@
     <t>길드 매니저의 의뢰3</t>
   </si>
   <si>
-    <t>G★4絆の証？雪山の獰猛大決戦</t>
+    <t>G★4 인연의 증거? 설산의 영맹대결전(絆の証？雪山の獰猛大決戦)</t>
   </si>
   <si>
     <t>装備開放
@@ -1742,7 +1737,7 @@
     <t>나구리 마을 촌장의 의뢰</t>
   </si>
   <si>
-    <t>集★6３頭寄れば獰猛蛙</t>
+    <t>집회소★6 3마리 모이면 영맹와(３頭寄れば獰猛蛙)</t>
   </si>
   <si>
     <t>装備開放
@@ -1755,7 +1750,7 @@
     <t>유쿠모 마을 촌장의 의뢰1</t>
   </si>
   <si>
-    <t>村★2渓流のジャギィノス退治</t>
+    <t>마을★2 계류의 쟈기노스 퇴치(渓流のジャギィノス退治)</t>
   </si>
   <si>
     <t>入手
@@ -1768,7 +1763,7 @@
     <t>유쿠모 마을 촌장의 의뢰2</t>
   </si>
   <si>
-    <t>村★2青熊獣アオアシラ</t>
+    <t>마을★2 청웅수 아오아시라(青熊獣アオアシラ)</t>
   </si>
   <si>
     <t>装備開放
@@ -1783,7 +1778,7 @@
     <t>유쿠모 마을 촌장의 의뢰3</t>
   </si>
   <si>
-    <t>村★3ロアルドロスを狩猟せよ！</t>
+    <t>마을★3 로아루도로스를 수렵해라!(ロアルドロスを狩猟せよ！)</t>
   </si>
   <si>
     <t>ユクモ村の村長の依頼4</t>
@@ -1792,7 +1787,7 @@
     <t>유쿠모 마을 촌장의 의뢰4</t>
   </si>
   <si>
-    <t>村★3ざわめく森</t>
+    <t>마을★3 술렁거리는 숲(ざわめく森)</t>
   </si>
   <si>
     <t>入手
@@ -1805,7 +1800,7 @@
     <t>유쿠모 마을 촌장의 의뢰5</t>
   </si>
   <si>
-    <t>村★5淡紅の泡狐がたゆたうか</t>
+    <t>마을★5 담홍의 포호가 흔들거리는가(淡紅の泡狐がたゆたうか)</t>
   </si>
   <si>
     <t>入手
@@ -1821,7 +1816,7 @@
     <t>유쿠모 마을 촌장의 의뢰6</t>
   </si>
   <si>
-    <t>村★6高難度：終焉を喰らう者</t>
+    <t>마을★6 고난도 : 종언을 먹는 자(高難度：終焉を喰らう者)</t>
   </si>
   <si>
     <t>入手
@@ -1834,7 +1829,7 @@
     <t>유쿠모 마을 촌장의 의뢰7</t>
   </si>
   <si>
-    <t>村★10高難度：月夜を仰ぐ雷狼竜</t>
+    <t>마을★10 고난도 : 달밤을 우러르는 뇌랑룡(高難度：月夜を仰ぐ雷狼竜)</t>
   </si>
   <si>
     <t>入手
@@ -1849,7 +1844,7 @@
     <t>유쿠모 마을 여성 접수원의 의뢰1</t>
   </si>
   <si>
-    <t>村★5ビリビリするらしいです×？？</t>
+    <t>마을★5 찌릿찌릿하는듯합니다×??(ビリビリするらしいです×？？)</t>
   </si>
   <si>
     <t>装備開放
@@ -1864,7 +1859,7 @@
     <t>유쿠모 마을 여성 접수원의 의뢰2</t>
   </si>
   <si>
-    <t>G★2グルグルするらしいです</t>
+    <t>G★2 빙글빙글 한다는 듯 합니다(グルグルするらしいです)</t>
   </si>
   <si>
     <t>装備開放
@@ -1879,7 +1874,7 @@
     <t>유쿠모 마을 간판 아가씨의 의뢰1</t>
   </si>
   <si>
-    <t>集★7受付嬢オススメ！雷狼竜×２</t>
+    <t>집회소★7 여성 접수원의 추천! 뇌랑룡×2(受付嬢オススメ！雷狼竜×２)</t>
   </si>
   <si>
     <t>装備開放
@@ -1894,7 +1889,7 @@
     <t>유쿠모 마을 간판 아가씨의 의뢰2</t>
   </si>
   <si>
-    <t>G★1看板娘セレクト：遺群嶺の水獣</t>
+    <t>G★1 간판 아가씨 셀렉트 : 유군령의 수수(看板娘セレクト：遺群嶺の水獣)</t>
   </si>
   <si>
     <t>入手
@@ -1907,8 +1902,7 @@
     <t>오토모 무구점의 의뢰1</t>
   </si>
   <si>
-    <t>納品
-マカライト鉱石 x2大猪の皮 x1</t>
+    <t>납품 마카라이트 광석(マカライト鉱石) x2 큰 멧돼지의 가죽(大猪の皮) x1</t>
   </si>
   <si>
     <t>オトモ装備開放
@@ -1921,7 +1915,7 @@
     <t>오토모 무구점의 의뢰2</t>
   </si>
   <si>
-    <t>集★2無謀な弟子の、後始末</t>
+    <t>집회소★2 무모한 제자의, 뒤처리(無謀な弟子の、後始末)</t>
   </si>
   <si>
     <t>オトモ装備開放
@@ -1934,7 +1928,7 @@
     <t>오토모 무구점의 의뢰3</t>
   </si>
   <si>
-    <t>集★7無理した弟子の、後始末</t>
+    <t>집회소★7 무리해버린 제자의, 뒤처리(無理した弟子の、後始末)</t>
   </si>
   <si>
     <t>オトモ装備開放
@@ -1947,7 +1941,7 @@
     <t>오토모 무구점의 의뢰4</t>
   </si>
   <si>
-    <t>G★3月下雷鳴の記憶</t>
+    <t>G★3 월하뇌명의 기억(月下雷鳴の記憶)</t>
   </si>
   <si>
     <t>オトモ装備開放
@@ -1960,7 +1954,7 @@
     <t>집회욕장 카운터의 의뢰1</t>
   </si>
   <si>
-    <t>集★7ユクモノ足湯と雷狼竜</t>
+    <t>집회소★7 유쿠모의 족욕과 뇌랑룡(ユクモノ足湯と雷狼竜)</t>
   </si>
   <si>
     <t>クエスト報酬
@@ -1975,7 +1969,7 @@
     <t>집회욕장 카운터의 의뢰2</t>
   </si>
   <si>
-    <t>集★7湯けむりと噴煙と</t>
+    <t>집회소★7 수증기와 분연과(湯けむりと噴煙と)</t>
   </si>
   <si>
     <t>クエスト報酬
@@ -1990,7 +1984,7 @@
     <t>집회욕장 카운터의 의뢰3</t>
   </si>
   <si>
-    <t>集★7まだ見ぬ秘湯をもとめて</t>
+    <t>집회소★7 아직 보지 못한 비탕을 찾아서(まだ見ぬ秘湯をもとめて)</t>
   </si>
   <si>
     <t>装備開放
@@ -2006,7 +2000,7 @@
     <t>집회욕장 카운터의 의뢰4</t>
   </si>
   <si>
-    <t>G★2身体の芯までビッリビリ</t>
+    <t>G★2 몸의 뼛속까지 찌릿찌릿(身体の芯までビッリビリ)</t>
   </si>
   <si>
     <t>装備開放
@@ -2019,7 +2013,7 @@
     <t>모가 마을 농장장의 의뢰1</t>
   </si>
   <si>
-    <t>村★3ロイヤルハニーハント</t>
+    <t>마을★3 로열 허니문트(ロイヤルハニーハント)</t>
   </si>
   <si>
     <t>クエスト報酬
@@ -2032,7 +2026,7 @@
     <t>모가 마을 농장장의 의뢰2</t>
   </si>
   <si>
-    <t>村★4スプラッシュ・ストリーム</t>
+    <t>마을★4 스플래쉬・스트림(スプラッシュ・ストリーム)</t>
   </si>
   <si>
     <t>クエスト報酬
@@ -2045,7 +2039,7 @@
     <t>모가 마을 농장장의 의뢰3</t>
   </si>
   <si>
-    <t>村★5エレクトリカル・バトル</t>
+    <t>마을★5 일렉트리컬・배틀(エレクトリカル・バトル)</t>
   </si>
   <si>
     <t>クエスト報酬
@@ -2058,7 +2052,7 @@
     <t>모가 마을 농장장의 의뢰4</t>
   </si>
   <si>
-    <t>村★9ジャングル・フェロモン</t>
+    <t>마을★9 정글・페로몬(ジャングル・フェロモン)</t>
   </si>
   <si>
     <t>食材
@@ -2071,8 +2065,7 @@
     <t>모가 촌장 아들의 의뢰1</t>
   </si>
   <si>
-    <t>納品
-生肉 x3</t>
+    <t>납품 생고기(生肉) x3</t>
   </si>
   <si>
     <t>食材
@@ -2085,7 +2078,7 @@
     <t>모가 촌장 아들의 의뢰2</t>
   </si>
   <si>
-    <t>村★4孤島の鳥</t>
+    <t>마을★4 고도의 새(孤島の鳥)</t>
   </si>
   <si>
     <t>クエスト報酬
@@ -2098,7 +2091,7 @@
     <t>모가 촌장 아들의 의뢰3</t>
   </si>
   <si>
-    <t>集★3孤島に渦巻く恐怖</t>
+    <t>집회소★3 고도에 소용돌이치는 공포(孤島に渦巻く恐怖)</t>
   </si>
   <si>
     <t>クエスト報酬
@@ -2111,7 +2104,7 @@
     <t>모가 촌장 아들의 의뢰4</t>
   </si>
   <si>
-    <t>集★3孤島を揺るがす剛音</t>
+    <t>집회소★3 고도를 뒤흔드는 강음(孤島を揺るがす剛音)</t>
   </si>
   <si>
     <t>クエスト報酬
@@ -2124,7 +2117,7 @@
     <t>모가 촌장 아들의 의뢰5</t>
   </si>
   <si>
-    <t>G★4孤島で遭遇！獰猛な雷狼竜</t>
+    <t>G★4 고도에서 조우! 영맹한 뇌랑룡(孤島で遭遇！獰猛な雷狼竜)</t>
   </si>
   <si>
     <t>クエスト報酬
@@ -2139,8 +2132,7 @@
     <t>어항 여주인의 의뢰1</t>
   </si>
   <si>
-    <t>納品
-はじけイワシ x5シンドイワシ x2</t>
+    <t>납품 튀는정어리(はじけイワシ) x5 지친정어리(シンドイワシ) x2</t>
   </si>
   <si>
     <t>食材
@@ -2153,7 +2145,7 @@
     <t>어항 여주인의 의뢰2</t>
   </si>
   <si>
-    <t>G★1川辺のアオアシラ退治</t>
+    <t>G★1 강변의 아오아시라 퇴치(川辺のアオアシラ退治)</t>
   </si>
   <si>
     <t>食材
@@ -2166,7 +2158,7 @@
     <t>모가 마을 간판 아가씨의 의뢰1</t>
   </si>
   <si>
-    <t>村★3ほいっ！キノコ納品ですよ！</t>
+    <t>마을★3 엿차! 버섯납품입니다요!(ほいっ！キノコ納品ですよ！)</t>
   </si>
   <si>
     <t>モガの村の看板娘の依頼2</t>
@@ -2175,7 +2167,7 @@
     <t>모가 마을 간판 아가씨의 의뢰2</t>
   </si>
   <si>
-    <t>集★5孤島の迷惑客</t>
+    <t>집회소★5 고도의 불청객(孤島の迷惑客)</t>
   </si>
   <si>
     <t>装備開放
@@ -2190,7 +2182,7 @@
     <t>모가 마을 간판 아가씨의 의뢰3</t>
   </si>
   <si>
-    <t>G★3氷牙竜が大発明のカギ？</t>
+    <t>G★3 빙아룡이 대발명의 열쇠?(氷牙竜が大発明のカギ？)</t>
   </si>
   <si>
     <t>装備開放
@@ -2205,7 +2197,7 @@
     <t>탄지아 항구 간판 아가씨의 의뢰1</t>
   </si>
   <si>
-    <t>集★5キモ・キモ・キモ！！！</t>
+    <t>집회소★5 간・간・간!!!(キモ・キモ・キモ！！！)</t>
   </si>
   <si>
     <t>装備開放
@@ -2220,7 +2212,7 @@
     <t>탄지아 항구 간판 아가씨의 의뢰2</t>
   </si>
   <si>
-    <t>村★6高難度：食は渓流にあり！</t>
+    <t>마을★6 고난도 : 음식은 계류에 있다!(高難度：食は渓流にあり！)</t>
   </si>
   <si>
     <t>タンジアの港の看板娘の依頼3</t>
@@ -2229,8 +2221,7 @@
     <t>탄지아 항구 간판 아가씨의 의뢰3</t>
   </si>
   <si>
-    <t>納品
-溶岩竜の特上ヒレ x4冥カイコ x5金剛魚 x5</t>
+    <t>납품 용암룡의 특상 지느러미(溶岩竜の特上ヒレ) x4 어두운 누에(冥カイコ) x5 금강어(金剛魚) x5</t>
   </si>
   <si>
     <t>装備開放
@@ -2245,8 +2236,7 @@
     <t>록락 여관의 의뢰</t>
   </si>
   <si>
-    <t>納品
-なぞの骨 x5</t>
+    <t>납품 수수께끼의 뼈(なぞの骨) x5</t>
   </si>
   <si>
     <t>食材
@@ -2259,7 +2249,7 @@
     <t>고고한 교관의 의뢰</t>
   </si>
   <si>
-    <t>村★6雷狼竜はかく吠えり</t>
+    <t>마을★6 뇌랑룡은 이렇게 울었다(雷狼竜はかく吠えり)</t>
   </si>
   <si>
     <t>食材
@@ -2272,7 +2262,7 @@
     <t>따끈따끈섬 관리인의 의뢰1</t>
   </si>
   <si>
-    <t>村★2ぽかぽかタケノコ納品</t>
+    <t>마을★2 따끈따끈 죽순 납품(ぽかぽかタケノコ納品)</t>
   </si>
   <si>
     <t>食材
@@ -2285,7 +2275,7 @@
     <t>따끈따끈섬 관리인의 의뢰2</t>
   </si>
   <si>
-    <t>村★3ぽかぽかレスキュー隊出動！</t>
+    <t>마을★3 따끈따끈 레스큐대 출동!(ぽかぽかレスキュー隊出動！)</t>
   </si>
   <si>
     <t>モガの村の村長の依頼1</t>
@@ -2294,7 +2284,7 @@
     <t>모가 마을 촌장의 의뢰1</t>
   </si>
   <si>
-    <t>村★3盾蟹と貝と狩り</t>
+    <t>마을★3 순해와 조개와 사냥(盾蟹と貝と狩り)</t>
   </si>
   <si>
     <t>食材
@@ -2307,7 +2297,7 @@
     <t>모가 마을 촌장의 의뢰2</t>
   </si>
   <si>
-    <t>G★4獰猛な砕竜は、孤島で何を思う</t>
+    <t>G★4 영맹한 쇄룡은, 고도에서 무엇을 생각하나(獰猛な砕竜は、孤島で何を思う)</t>
   </si>
   <si>
     <t>クエスト報酬
@@ -2322,8 +2312,7 @@
     <t>점보 마을 촌장의 의뢰1</t>
   </si>
   <si>
-    <t>納品
-ユクモ温泉たまご x1特産キノコキムチ x1氷結晶イチゴ x1</t>
+    <t>납품 유쿠모 온천 달걀(ユクモ温泉たまご) x1 특산 버섯 김치(特産キノコキムチ) x1 빙결정 딸기(氷結晶イチゴ) x1</t>
   </si>
   <si>
     <t>食材
@@ -2338,7 +2327,7 @@
     <t>점보 마을 촌장의 의뢰2</t>
   </si>
   <si>
-    <t>村★6高難度：吹雪の召還者</t>
+    <t>마을★6 고난도 : 눈보라의 소환자(高難度：吹雪の召還者)</t>
   </si>
   <si>
     <t>入手
@@ -2351,7 +2340,7 @@
     <t>식재점  여주인의 의뢰1</t>
   </si>
   <si>
-    <t>集★2食材の価値は鮮度なり</t>
+    <t>집회소★2 식재의 가치는 신선도이다(食材の価値は鮮度なり)</t>
   </si>
   <si>
     <t>食材
@@ -2364,7 +2353,7 @@
     <t>식재점  여주인의 의뢰2</t>
   </si>
   <si>
-    <t>村★7旬な食材を採らせておくれ！</t>
+    <t>마을★7 제철 식재를 채집해주게!(旬な食材を採らせておくれ！)</t>
   </si>
   <si>
     <t>食材
@@ -2377,8 +2366,7 @@
     <t>조합점 주인의 의뢰</t>
   </si>
   <si>
-    <t>納品
-サシミウオ x5とがった牙 x3極彩色の体液 x1</t>
+    <t>납품 회어(サシミウオ) x5 뾰족한 이빨(とがった牙) x3 극채색의 체액(極彩色の体液) x1</t>
   </si>
   <si>
     <t>食材
@@ -2391,7 +2379,7 @@
     <t>돈도르마 무구점의 의뢰1</t>
   </si>
   <si>
-    <t>集★6幻のハップル？</t>
+    <t>집회소★6 환상의 핫플?(幻のハップル？)</t>
   </si>
   <si>
     <t>食材
@@ -2406,7 +2394,7 @@
     <t>돈도르마 무구점의 의뢰2</t>
   </si>
   <si>
-    <t>G★2至宝の林檎王？</t>
+    <t>G★2 지보는 사과왕?(至宝の林檎王？)</t>
   </si>
   <si>
     <t>食材
@@ -2419,7 +2407,7 @@
     <t>조선공 감독의 의뢰</t>
   </si>
   <si>
-    <t>集★6ガノトトス冒険記</t>
+    <t>집회소★6 가노토토스 모험기(ガノトトス冒険記)</t>
   </si>
   <si>
     <t>食材
@@ -2434,7 +2422,7 @@
     <t>시나토 마을 여자아이의 의뢰</t>
   </si>
   <si>
-    <t>村★4ぎょーしょーしゅぎょー</t>
+    <t>마을★4 해앵사앙수해앵(행상수행)(ぎょーしょーしゅぎょー)</t>
   </si>
   <si>
     <t>食材
@@ -2447,7 +2435,7 @@
     <t>한가한 아이루의 의뢰</t>
   </si>
   <si>
-    <t>村★5赤いおひさまアッチッチ</t>
+    <t>마을★5 빨간 해님 아뜨뜨(赤いおひさまアッチッチ)</t>
   </si>
   <si>
     <t>食材
@@ -2463,7 +2451,7 @@
     <t>록락 가이드의 의뢰</t>
   </si>
   <si>
-    <t>村★3おいしい卵は誰のため？</t>
+    <t>마을★3 맛있는 알은 누구를 위해?(おいしい卵は誰のため？)</t>
   </si>
   <si>
     <t>食材
@@ -2476,7 +2464,7 @@
     <t>탄지아 항구 우두머리의 의뢰</t>
   </si>
   <si>
-    <t>村★6高難度：渾身のドボルベルク</t>
+    <t>마을★6 고난도 : 혼신의 도볼베르크(高難度：渾身のドボルベルク)</t>
   </si>
   <si>
     <t>装備開放
@@ -2489,7 +2477,7 @@
     <t>길드 매니저의 의뢰</t>
   </si>
   <si>
-    <t>集★7沼地酔夢譚</t>
+    <t>집회소★7 늪지취몽담(沼地酔夢譚)</t>
   </si>
   <si>
     <t>装備開放
@@ -2505,7 +2493,7 @@
     <t>미나가르데 영감님의 의뢰</t>
   </si>
   <si>
-    <t>集★7森丘の黒い霧</t>
+    <t>집회소★7 숲과언덕의 검은 안개(森丘の黒い霧)</t>
   </si>
   <si>
     <t>装備開放
@@ -2521,7 +2509,7 @@
     <t>록락 우두머리의 의뢰1</t>
   </si>
   <si>
-    <t>集★7憤怒の雄叫び</t>
+    <t>집회소★7 분노의 포효(憤怒の雄叫び)</t>
   </si>
   <si>
     <t>装備開放
@@ -2537,7 +2525,7 @@
     <t>록락 우두머리의 의뢰2</t>
   </si>
   <si>
-    <t>G★4絆の証！闘技場の大決戦</t>
+    <t>G★4 인연의 증거! 투기장의 대결전(絆の証！闘技場の大決戦)</t>
   </si>
   <si>
     <t>装備開放
@@ -2550,7 +2538,7 @@
     <t>모가 마을 늙은 장인의 의뢰1</t>
   </si>
   <si>
-    <t>集★5熱砂の喧嘩は武器の素</t>
+    <t>집회소★5 열사의 싸움은 무기의 소재(熱砂の喧嘩は武器の素)</t>
   </si>
   <si>
     <t>装備開放
@@ -2563,7 +2551,7 @@
     <t>모가 마을 늙은 장인의 의뢰2</t>
   </si>
   <si>
-    <t>G★4獰猛な海の王者は武器の素</t>
+    <t>G★4 영맹한 바다의 왕은 무기의 소재(獰猛な海の王者は武器の素)</t>
   </si>
   <si>
     <t>クエスト報酬
@@ -2578,7 +2566,7 @@
     <t>유쿠모 마을 가공점의 의뢰</t>
   </si>
   <si>
-    <t>集★6たんと掘れ燃石炭</t>
+    <t>집회소★6 잔뜩 파라 연석탄(たんと掘れ燃石炭)</t>
   </si>
   <si>
     <t>オトモ装備開放
@@ -2594,7 +2582,7 @@
     <t>그 외1</t>
   </si>
   <si>
-    <t>村★6高難度：四天王の凱歌</t>
+    <t>마을★6 고난도 : 사천왕의 개가(高難度：四天王の凱歌)</t>
   </si>
   <si>
     <t>入手
@@ -2607,7 +2595,7 @@
     <t>그 외2</t>
   </si>
   <si>
-    <t>MHXの全ての闘技大会をクリア</t>
+    <t>MHX의 모든 투기대회를 클리어</t>
   </si>
   <si>
     <t>入手
@@ -2620,7 +2608,7 @@
     <t>그 외3</t>
   </si>
   <si>
-    <t>MHXの全ての闘技大会をAランク以上でクリア</t>
+    <t>MHX의 모든 투기대회를 A랭크 이상으로 클리어</t>
   </si>
   <si>
     <t>入手
@@ -2633,7 +2621,7 @@
     <t>그 외4</t>
   </si>
   <si>
-    <t>MHXXの全ての闘技大会をクリア</t>
+    <t>MHXX의 모든 투기대회를 클리어</t>
   </si>
   <si>
     <t>入手
@@ -2646,7 +2634,7 @@
     <t>그 외5</t>
   </si>
   <si>
-    <t>MHXXの全ての闘技大会をAランク以上でクリア</t>
+    <t>MHXX의 모든 투기대회를 A랭크 이상으로 클리어</t>
   </si>
   <si>
     <t>入手
@@ -2659,7 +2647,7 @@
     <t>그 외6</t>
   </si>
   <si>
-    <t>村★10高難度：ギルドからの試練</t>
+    <t>마을★10 고난도 : 길드로부터의 시련(高難度：ギルドからの試練)</t>
   </si>
   <si>
     <t>入手
@@ -2672,7 +2660,7 @@
     <t>그 외7</t>
   </si>
   <si>
-    <t>村★10高難度：覇者の証明</t>
+    <t>마을★10 고난도 : 패자의 증명(高難度：覇者の証明)</t>
   </si>
   <si>
     <t>入手
@@ -2685,7 +2673,7 @@
     <t>그 외8</t>
   </si>
   <si>
-    <t>村★10高難度：モンスターハンター</t>
+    <t>마을★10 고난도 : 몬스터 헌터(高難度：モンスターハンター)</t>
   </si>
   <si>
     <t>入手
@@ -2698,7 +2686,7 @@
     <t>그 외9</t>
   </si>
   <si>
-    <t>村★10高難度：龍歴院からの挑戦状</t>
+    <t>마을★10 고난도 : 용역원으로부터의 도전장(高難度：龍歴院からの挑戦状)</t>
   </si>
   <si>
     <t>入手
@@ -2711,7 +2699,7 @@
     <t>그 외10</t>
   </si>
   <si>
-    <t>【特殊許可】鏖魔狩猟依頼G1</t>
+    <t>【특수허가】오마수렵의뢰G1(【特殊許可】鏖魔狩猟依頼G1)</t>
   </si>
   <si>
     <t>入手
@@ -2724,7 +2712,7 @@
     <t>그 외11</t>
   </si>
   <si>
-    <t>村★10恐れ見よ、赤き災厄の彗星を</t>
+    <t>마을★10 두려워하라, 붉은 재액의 혜성을(恐れ見よ、赤き災厄の彗星を)</t>
   </si>
   <si>
     <t>入手
@@ -3106,8 +3094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="D196" sqref="D196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/request.xlsx
+++ b/request.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="780">
   <si>
     <t>town</t>
   </si>
@@ -40,10 +40,15 @@
     <t>조사대 대장의 의뢰</t>
   </si>
   <si>
-    <t>납품 마레코가네(マレコガネ) x5 단단한 유쿠모 나무(ユクモの堅木) x5 상질의 뒤틀린 뿔(上質なねじれた角) x2</t>
-  </si>
-  <si>
-    <t>装備開放ウィズダムシリーズウィズダムＸシリーズ</t>
+    <t>납품
+마레코가네(マレコガネ) x5_x000D_
+단단한 유쿠모 나무(ユクモの堅木) x5_x000D_
+상질의 뒤틀린 뿔(上質なねじれた角) x2</t>
+  </si>
+  <si>
+    <t>장비개방
+ウィズダムシリーズ
+ウィズダムＸシリーズ</t>
   </si>
   <si>
     <t>龍識船の受付嬢の依頼</t>
@@ -55,10 +60,12 @@
     <t>마을★9 항공로를 방해하는 전룡퇴치!(空路を阻む電竜退治！)</t>
   </si>
   <si>
-    <t>装備開放
-チアフルシリーズチアフルＸシリーズ
-オトモ装備開放
-チアフルネコフートチアフルネコスーツ</t>
+    <t>장비개방
+チアフルシリーズ_x000D_
+チアフルＸシリーズ
+오토모 장비개방
+チアフルネコフート_x000D_
+チアフルネコスーツ</t>
   </si>
   <si>
     <t>タンジアの大会担当の依頼</t>
@@ -70,9 +77,9 @@
     <t>G★4 감동적인 탄생의 순간(感動の生まれる瞬間)</t>
   </si>
   <si>
-    <t>クエスト報酬
+    <t>퀘스트 보수
 太古の注連縄
-装備開放
+장비개방
 夜叉/修羅シリーズ</t>
   </si>
   <si>
@@ -85,8 +92,8 @@
     <t>마을★8 진비료를 손에 넣는거다냐!(珍肥料を手に入れるのニャ！)</t>
   </si>
   <si>
-    <t>食材
-          砲丸レタス</t>
+    <t>식재_x000D_
+砲丸レタス</t>
   </si>
   <si>
     <t>タルアイルーの依頼</t>
@@ -98,11 +105,11 @@
     <t>G★1 죄 많은 나무 통의 식재탐방(罪深きタルの食材探訪)</t>
   </si>
   <si>
-    <t>食材
-          ポッカウォッカ
-クエスト報酬
+    <t>식재
+ポッカウォッカ
+퀘스트 보수
 タル用特製木材
-オトモ装備開放
+오토모장비개방
 タルネコボディ</t>
   </si>
   <si>
@@ -115,8 +122,8 @@
     <t>마을★9 하늘의 가족・밥을 만들겠습니다(空の家族・メシを作るッス)</t>
   </si>
   <si>
-    <t>食材
-          珍味・甲冑魚</t>
+    <t>식재_x000D_
+珍味・甲冑魚</t>
   </si>
   <si>
     <t>狩猟船団・赤槍の依頼2</t>
@@ -128,11 +135,9 @@
     <t>G★2 하늘의 가족・공로를 지킵니다(空の家族・空路を守るッス)</t>
   </si>
   <si>
-    <t>狩技開放
-妖刀羅刹
-LV2
-射突型裂孔弾
-LV2</t>
+    <t>수기개방
+妖刀羅刹LV2
+射突型裂孔弾LV2</t>
   </si>
   <si>
     <t>タンジアの銅鑼担当の依頼1</t>
@@ -144,10 +149,12 @@
     <t>마을★9 ......원한다면 힘을 보여라(……求めるならば力を示して)</t>
   </si>
   <si>
-    <t>装備開放
-マリネロシリーズマリネロＸシリーズ
-オトモ装備開放
-マリネロネコフードマリネロネコスーツ</t>
+    <t>장비개방
+マリネロシリーズ_x000D_
+マリネロＸシリーズ
+오토모 장비개방
+マリネロネコフード_x000D_
+マリネロネコスーツ</t>
   </si>
   <si>
     <t>タンジアの銅鑼担当の依頼2</t>
@@ -159,11 +166,9 @@
     <t>G★2 ......원한다면 자격을 보여라(……欲するならば資格を示して)</t>
   </si>
   <si>
-    <t>狩技開放
-インパクトプルス
-LV2
-アニマートハイ
-LV2</t>
+    <t>수기개방_x000D_
+インパクトプルスLV2
+アニマートハイLV2</t>
   </si>
   <si>
     <t>ベルナ村の村長の依頼</t>
@@ -175,10 +180,12 @@
     <t>마을★10 고난도 : 고대림에 나타난 두마리의 그림자(高難度：古代林に現る２頭の影)</t>
   </si>
   <si>
-    <t>装備開放
+    <t>장비개방
 龍歴士Ｘシリーズ
-オトモ装備開放
-エーデルＸネコロッドエーデルＸネコツインエーデルＸネコフリル</t>
+오토모 장비개방
+エーデルＸネコロッド_x000D_
+エーデルＸネコツイン_x000D_
+エーデルＸネコフリル</t>
   </si>
   <si>
     <t>ベルナ村の受付嬢の依頼1</t>
@@ -190,10 +197,12 @@
     <t>마을★3 관광객의 여행길을 지켜라!(観光客の旅路を守れ！)</t>
   </si>
   <si>
-    <t>装備開放
+    <t>장비개방
 サージュシリーズ
-オトモ装備開放
-サージュネコブックサージュネコフートサージュネコスーツ</t>
+오토모 장비개방
+サージュネコブック_x000D_
+サージュネコフート_x000D_
+サージュネコスーツ</t>
   </si>
   <si>
     <t>ベルナ村の受付嬢の依頼2</t>
@@ -205,8 +214,8 @@
     <t>마을★4 특별한 고비차 만들기(とびきりのゼンマイティー作り)</t>
   </si>
   <si>
-    <t>食材
-          ゼンマイ米</t>
+    <t>식재_x000D_
+ゼンマイ米</t>
   </si>
   <si>
     <t>ベルナ村の受付嬢の依頼3</t>
@@ -218,10 +227,12 @@
     <t>집회소★6 야조의 모임・위기일발!(夜鳥の会・危機一髪！)</t>
   </si>
   <si>
-    <t>装備開放
+    <t>장비개방
 サージュSシリーズ
-オトモ装備開放
-サージュＳネコブックサージュＳネコフートサージュＳネコスーツ</t>
+오토모 장비개방
+サージュＳネコブック_x000D_
+サージュＳネコフート_x000D_
+サージュＳネコスーツ</t>
   </si>
   <si>
     <t>ベルナ村の受付嬢の依頼4</t>
@@ -233,9 +244,9 @@
     <t>G★3 베르나마을의 관광업이 대염상!(ベルナ村の観光業が大炎上！)</t>
   </si>
   <si>
-    <t>装備開放
+    <t>장비개방
 サージュＸシリーズ
-オトモ装備開放
+오토모 장비개방
 サージュＸネコブックサージュＸネコフートサージュＸネコスーツ</t>
   </si>
   <si>
@@ -248,9 +259,9 @@
     <t>마을★2 고대림의 망나니(古代林の暴れん坊)</t>
   </si>
   <si>
-    <t>入手
+    <t>입수
 星見の花 x1
-クエスト報酬
+퀘스트 보수
 星見の花</t>
   </si>
   <si>
@@ -263,8 +274,8 @@
     <t>마을★3 무파들의 폭신폭신 털뭉치(ムーファたちのふんわり毛玉)</t>
   </si>
   <si>
-    <t>入手
-          龍歴院ポイント500pts</t>
+    <t>입수_x000D_
+歴院ポイント500pts</t>
   </si>
   <si>
     <t>しっかり者の村人の依頼3</t>
@@ -276,7 +287,7 @@
     <t>마을★6 고난도 : 천지를 정복한 강자(高難度：天地征服せし強者)</t>
   </si>
   <si>
-    <t>装備開放
+    <t>장비개방
 龍歴士シリーズ</t>
   </si>
   <si>
@@ -289,7 +300,7 @@
     <t>마을★3 멋진 물고기, 금어(비단물고기)(ステキなお魚、錦魚)</t>
   </si>
   <si>
-    <t>装備開放
+    <t>장비개방
 しろねこスタンプ</t>
   </si>
   <si>
@@ -302,8 +313,9 @@
     <t>마을★4 치코마을의 히어로 전설(チコ村のヒーロー伝説)</t>
   </si>
   <si>
-    <t>装備開放
-アイルーラグドールメラルーラグドール</t>
+    <t>장비개방
+アイルーラグドール_x000D_
+メラルーラグドール</t>
   </si>
   <si>
     <t>キャラバンの団長の依頼1</t>
@@ -315,12 +327,14 @@
     <t>마을★4 골칫거리 도스게네포스(厄介者のドスゲネポス)</t>
   </si>
   <si>
-    <t>装備開放
+    <t>장비개방
 ブレイブシリーズ
-オトモ装備開放
-ブレイブネコランスブレイブネコガレアブレイブネコロリカ
-プーギーの服
-          夢追いアミーゴ</t>
+오토모 장비개방
+ブレイブネコランス
+ブレイブネコガレア
+ブレイブネコロリカ
+푸기의 옷_x000D_
+夢追いアミーゴ</t>
   </si>
   <si>
     <t>キャラバンの団長の依頼2</t>
@@ -332,10 +346,13 @@
     <t>마을★6 고난도 : 회귀하다 재앙의 고룡(高難度：廻帰せし災厄の古龍)</t>
   </si>
   <si>
-    <t>クエスト報酬
+    <t>퀘스트 보수
 EX天廻龍チケット
-装備開放
-イサナ船ハンマー！ホークシリーズ団長の腕輪団長の腕輪Ｘ</t>
+장비개방
+イサナ船ハンマー！_x000D_
+ホークシリーズ_x000D_
+団長の腕輪_x000D_
+団長の腕輪Ｘ</t>
   </si>
   <si>
     <t>キャラバンの団長の依頼3</t>
@@ -347,10 +364,13 @@
     <t>집회소★7 원시림의 평화를 지켜라(原生林の平和を守れ)</t>
   </si>
   <si>
-    <t>装備開放
-ブレイブSシリーズブレイブＸシリーズ
-オトモ装備開放
-ブレイブＳネコランスブレイブＳネコガレアブレイブＳネコロリカ</t>
+    <t>장비개방
+ブレイブSシリーズ_x000D_
+ブレイブＸシリーズ
+오토모 장비개방
+ブレイブＳネコランス_x000D_
+ブレイブＳネコガレア_x000D_
+ブレイブＳネコロリカ</t>
   </si>
   <si>
     <t>キャラバンの団長の依頼4</t>
@@ -362,9 +382,9 @@
     <t>G★3 그라비모스 연속 수렵(グラビモス連続狩猟)</t>
   </si>
   <si>
-    <t>装備開放
+    <t>장비개방
 ホークＸシリーズ
-オトモ装備開放
+오토모 장비개방
 ブレイブＸネコランスブレイブＸネコガレアブレイブＸネコロリカ</t>
   </si>
   <si>
@@ -377,12 +397,13 @@
     <t>집회소★4 초☆메모장 ~도구룡수렵편~(超☆メモ帳～跳狗竜狩猟編～)</t>
   </si>
   <si>
-    <t>装備開放
+    <t>장비개방
 エコールシリーズ
-オトモ装備開放
-エコールネコフードエコールネコスーツ
-プーギーの服
-          いやされムーチョ</t>
+오토모 장비개방
+エコールネコフード
+エコールネコスーツ
+푸기의 옷
+いやされムーチョ</t>
   </si>
   <si>
     <t>キャラバンの看板娘の依頼2</t>
@@ -394,8 +415,9 @@
     <t>집회소★5 초☆메모장 ~기원호수렵편~(超☆メモ帳～奇猿狐狩猟編～)</t>
   </si>
   <si>
-    <t>装備開放
-知略の眼鏡知略の眼鏡Ｘ</t>
+    <t>장비개방
+知略の眼鏡_x000D_
+知略の眼鏡Ｘ</t>
   </si>
   <si>
     <t>キャラバンの看板娘の依頼3</t>
@@ -419,10 +441,11 @@
     <t>G★2 초☆메모장 ~영맹화순해편~(超☆メモ帳～獰猛化盾蟹編～)</t>
   </si>
   <si>
-    <t>装備開放
+    <t>장비개방
 エコールＸシリーズ
-オトモ装備開放
-エコールＸネコフードエコールＸネコスーツ</t>
+오토모 장비개방
+エコールＸネコフード_x000D_
+エコールＸネコスーツ</t>
   </si>
   <si>
     <t>筆頭リーダーの依頼1</t>
@@ -434,11 +457,10 @@
     <t>집회소★6 유적평원의 흑식룡조사(遺跡平原の黒蝕竜調査)</t>
   </si>
   <si>
-    <t>クエスト報酬
+    <t>퀘스트 보수
 EX黒蝕竜チケット
-狩技開放
-狂竜身
-                  (共通)</t>
+수기개방
+狂竜身(共通)</t>
   </si>
   <si>
     <t>筆頭リーダーの依頼2</t>
@@ -450,8 +472,9 @@
     <t>집회소★7 현현한 흑식룡(顕現せし黒蝕竜)</t>
   </si>
   <si>
-    <t>装備開放
-エースシリーズクイーンシリーズ</t>
+    <t>장비개방
+エースシリーズ_x000D_
+クイーンシリーズ</t>
   </si>
   <si>
     <t>筆頭リーダーの依頼3</t>
@@ -463,11 +486,9 @@
     <t>G★2 밀림의 나르가쿠르가와 대치해라(密林のナルガクルガと対峙せよ)</t>
   </si>
   <si>
-    <t>狩技開放
-混沌の刃薬
-LV2
-ラセンザン
-LV2</t>
+    <t>수기개방_x000D_
+混沌の刃薬LV2
+ラセンザンLV2</t>
   </si>
   <si>
     <t>筆頭リーダーの依頼4</t>
@@ -479,10 +500,13 @@
     <t>G★4 원시림에서 신음하는 혼돈의 용(原生林にて呻くは渾沌の竜)</t>
   </si>
   <si>
-    <t>クエスト報酬
+    <t>퀘스트 보수
 混濁した欠片
-装備開放
-ザッツオールウェルエースＸシリーズクイーンＸシリーズ</t>
+장비개방
+ザッツオール_x000D_
+ウェル_x000D_
+エースＸシリーズ_x000D_
+クイーンＸシリーズ</t>
   </si>
   <si>
     <t>筆頭ランサーの依頼1</t>
@@ -494,11 +518,9 @@
     <t>G★2 의뢰위탁 : 화산의 암룡(依頼委託：火山の岩竜)</t>
   </si>
   <si>
-    <t>狩技開放
-治癒の盾
-LV2
-AAフレア
-LV2</t>
+    <t>수기개방
+治癒の盾LV2
+AAフレアLV2</t>
   </si>
   <si>
     <t>筆頭ランサーの依頼2</t>
@@ -510,9 +532,9 @@
     <t>G★2 조사위탁 : 영맹한 기원호(調査委託：獰猛な奇猿狐)</t>
   </si>
   <si>
-    <t>クエスト報酬
+    <t>퀘스트 보수
 蝕まれた琥珀
-装備開放
+장비개방
 ハイハロウ</t>
   </si>
   <si>
@@ -525,10 +547,14 @@
     <t>집회소★5 2마리의 도스란포스(２頭のドスランポス)</t>
   </si>
   <si>
-    <t>クエスト報酬
+    <t>퀘스트 보수
 虹色鉱石
-装備開放
-EXイーオスシリーズEXゲネポスシリーズEXタロスシリーズEXガレオスシリーズEXランゴシリーズ</t>
+장비개방
+EXイーオスシリーズ_x000D_
+EXゲネポスシリーズ_x000D_
+EXタロスシリーズ_x000D_
+EXガレオスシリーズ_x000D_
+EXランゴシリーズ</t>
   </si>
   <si>
     <t>筆頭ルーキーの依頼2</t>
@@ -540,11 +566,9 @@
     <t>G★2 둘이서 특훈, 성과는 반분(二人で特訓、成果は山分け)</t>
   </si>
   <si>
-    <t>狩技開放
-テンペストアクス
-LV2
-チェインソーサー
-LV2</t>
+    <t>수기개방
+テンペストアクスLV2
+チェインソーサーLV2</t>
   </si>
   <si>
     <t>大老殿の大臣の依頼</t>
@@ -556,10 +580,13 @@
     <t>G★4 장소에 따라 영맹한 셀레기오스(所により獰猛なセルレギオス)</t>
   </si>
   <si>
-    <t>装備開放
-ガーディアンＸシリーズガーディアンＺシリーズ
-オトモ装備開放
-悠久に輝く龍頭琴精霊を宿す髪飾りまほろばの極衣</t>
+    <t>장비개방
+ガーディアンＸシリーズ_x000D_
+ガーディアンＺシリーズ
+오토모 장비개방
+悠久に輝く龍頭琴_x000D_
+精霊を宿す髪飾り_x000D_
+まほろばの極衣</t>
   </si>
   <si>
     <t>伝説の職人の依頼</t>
@@ -571,10 +598,11 @@
     <t>G★4 개・쇄・참의 포위망을 넘어서(鎧・砕・斬の包囲網を越えて)</t>
   </si>
   <si>
-    <t>入手
+    <t>입수
 カイゼリンシリーズ
-装備開放
-マスターＸシリーズ桐花・真/三葵・真シリーズ</t>
+장비개방
+マスターＸシリーズ_x000D_
+桐花・真/三葵・真シリーズ</t>
   </si>
   <si>
     <t>ベルナ村の加工屋の依頼1</t>
@@ -586,7 +614,7 @@
     <t>집회소★7 용서없는, 금사자 상대로 경호원(容赦なき、金獅子相手に用心棒)</t>
   </si>
   <si>
-    <t>装備開放
+    <t>장비개방
 マスターシリーズ</t>
   </si>
   <si>
@@ -599,7 +627,7 @@
     <t>집회소★7 흉적 게료스 사냥(凶賊ゲリョス狩り)</t>
   </si>
   <si>
-    <t>装備開放
+    <t>장비개방
 工房謹製・オオナグリ</t>
   </si>
   <si>
@@ -612,8 +640,9 @@
     <t>마을★1 네코죠의 쟈기 토벌의뢰(ネコ嬢のジャギィ討伐依頼)</t>
   </si>
   <si>
-    <t>入手
-ハチミツ x10龍歴院ポイント200pts</t>
+    <t>입수
+ハチミツ x10
+龍歴院ポイント200pts</t>
   </si>
   <si>
     <t>ネコ嬢の依頼2</t>
@@ -625,10 +654,11 @@
     <t>마을★8 선전고양이의 수난(宣伝ネコの受難)</t>
   </si>
   <si>
-    <t>クエスト報酬
+    <t>퀘스트 보수
 ふんわり白毛玉
-オトモ装備開放
-プリティネコリボンプリティネコワンピ</t>
+오토모 장비개방
+プリティネコリボン_x000D_
+プリティネコワンピ</t>
   </si>
   <si>
     <t>ネコ嬢の依頼3</t>
@@ -640,10 +670,12 @@
     <t>G★1 독괴조가 훔친물건을 쫓아서(毒怪鳥が盗んだものを追って)</t>
   </si>
   <si>
-    <t>装備開放
+    <t>장비개방
 ムーファＸシリーズ
-オトモ装備開放
-ムーファＸネコウールムーファＸネコヘッドムーファＸネコスーツ</t>
+오토모 장비개방
+ムーファＸネコウール_x000D_
+ムーファＸネコヘッド_x000D_
+ムーファＸネコスーツ</t>
   </si>
   <si>
     <t>酒場の看板娘の依頼(1)</t>
@@ -655,12 +687,13 @@
     <t>G★3 여동생 분투기 ~야조퇴치~(妹奮闘記～夜鳥退治～)</t>
   </si>
   <si>
-    <t>クエスト報酬
+    <t>퀘스트 보수
 ふんわり黒毛玉
-オトモ装備開放
-キュートネコリボンキュートネコワンピ
-プーギーの服
-          フェニーの服：麗しのフロイライン</t>
+오토모 장비개방
+キュートネコリボン_x000D_
+キュートネコワンピ
+푸기의 옷
+フェニーの服：麗しのフロイライン</t>
   </si>
   <si>
     <t>酒場の看板娘の依頼(2)</t>
@@ -672,7 +705,7 @@
     <t>용식선 연구원 고양이에게 말을 건다</t>
   </si>
   <si>
-    <t>入手
+    <t>입수
 防具合成材・頭 x2</t>
   </si>
   <si>
@@ -685,9 +718,9 @@
     <t>G★3 트라우마간킨을 퇴치해라(トラウマガンキンを退治せよ)</t>
   </si>
   <si>
-    <t>クエスト報酬
+    <t>퀘스트 보수
 サンマージ結晶
-装備開放
+장비개방
 ルーツォ＝スーロ</t>
   </si>
   <si>
@@ -703,8 +736,8 @@
     <t>마을★2 란포스들을 토벌해라!(ランポスたちを討伐せよ！)</t>
   </si>
   <si>
-    <t>入手
-          ココット村の村貢献度100pts</t>
+    <t>입수_x000D_
+ココット村の村貢献度100pts</t>
   </si>
   <si>
     <t>ココット村の村長の依頼2</t>
@@ -716,10 +749,12 @@
     <t>마을★2 도스란포스를 수렵해라!(ドスランポスを狩猟せよ！)</t>
   </si>
   <si>
-    <t>装備開放
+    <t>장비개방
 ハントシリーズ
-オトモ装備開放
-ハントネコナイフハントネコヘルムハントネコメイル</t>
+오토모 장비개방
+ハントネコナイフ_x000D_
+ハントネコヘルム_x000D_
+ハントネコメイル</t>
   </si>
   <si>
     <t>ココット村の村長の依頼3</t>
@@ -731,6 +766,10 @@
     <t>마을★3 대괴조 얀쿡을 쓰러뜨려라!(大怪鳥イャンクックを倒せ！)</t>
   </si>
   <si>
+    <t>입수_x000D_
+ 龍歴院ポイント500pts</t>
+  </si>
+  <si>
     <t>ココット村の村長の依頼4</t>
   </si>
   <si>
@@ -740,7 +779,7 @@
     <t>마을★3 잠입! 비룡의 둥지!(潜入！飛竜の巣！)</t>
   </si>
   <si>
-    <t>入手
+    <t>입수
 ココットチケット x2</t>
   </si>
   <si>
@@ -753,11 +792,11 @@
     <t>마을★5 취옥의 섬전(翠玉の閃電)</t>
   </si>
   <si>
-    <t>入手
-ココットチケット x5ココット村のヒーローブレイド
-狩技開放
-バレットゲイザー
-LV2</t>
+    <t>입수
+ココットチケット x5_x000D_
+ココット村のヒーローブレイド
+수기개방
+バレットゲイザーLV2</t>
   </si>
   <si>
     <t>ココット村の村長の依頼6</t>
@@ -769,7 +808,7 @@
     <t>마을★6 고난도 : 하늘과 땅의 분노(高難度：天と地の怒り)</t>
   </si>
   <si>
-    <t>入手
+    <t>입수
 煌竜剣</t>
   </si>
   <si>
@@ -782,7 +821,12 @@
     <t>마을★10 고난도 : 숲과언덕에서 화룡은 선회한다(高難度：森丘にて火竜は旋廻す)</t>
   </si>
   <si>
-    <t>入手ココットチケットGオトモ装備開放ハントＸネコナイフハントＸネコヘルムハントＸネコメイル</t>
+    <t>입수_x000D_
+ココットチケットG_x000D_
+오토모 장비개방_x000D_
+ハントＸネコナイフ_x000D_
+ハントＸネコヘルム_x000D_
+ハントＸネコメイル</t>
   </si>
   <si>
     <t>ココット村の受付嬢の依頼1</t>
@@ -791,13 +835,19 @@
     <t>코코트 마을 여성 접수원의 의뢰1</t>
   </si>
   <si>
-    <t>납품 이오스의 가죽(イーオスの皮) x3 순해의 작은 껍질(盾蟹の小殻) x3 귀와의 비늘(鬼蛙の鱗) x1</t>
-  </si>
-  <si>
-    <t>装備開放
-ほろ酔いビーアメイド/プライベートシリーズ
-オトモ装備開放
-ココットネコビーアメイドネコフードメイドネコメイル</t>
+    <t>납품_x000D_
+이오스의 가죽(イーオスの皮) x3_x000D_
+순해의 작은 껍질(盾蟹の小殻) x3_x000D_
+귀와의 비늘(鬼蛙の鱗) x1</t>
+  </si>
+  <si>
+    <t>장비개방
+ほろ酔いビーア_x000D_
+メイド/プライベートシリーズ
+오토모 장비개방
+ココットネコビーア_x000D_
+メイドネコフード_x000D_
+メイドネコメイル</t>
   </si>
   <si>
     <t>ココット村の受付嬢の依頼2</t>
@@ -806,13 +856,18 @@
     <t>코코트 마을 여성 접수원의 의뢰2</t>
   </si>
   <si>
-    <t>납품 귀와의 두꺼운 비늘(鬼蛙の厚鱗) x5 순해의 무거운 껍질(盾蟹の重殻) x5 영지주의 단단한 손톱(影蜘蛛の剛爪) x2</t>
-  </si>
-  <si>
-    <t>装備開放
+    <t>납품_x000D_
+귀와의 두꺼운 비늘(鬼蛙の厚鱗) x5_x000D_
+순해의 무거운 껍질(盾蟹の重殻) x5_x000D_
+영지주의 단단한 손톱(影蜘蛛の剛爪) x2</t>
+  </si>
+  <si>
+    <t>장비개방
 メイドＸ/プライベートＸシリーズ
-オトモ装備開放
-ココットＸネコビーアメイドＸネコフードメイドＸネコメイル</t>
+오토모 장비개방
+ココットＸネコビーア_x000D_
+メイドＸネコフード_x000D_
+メイドＸネコメイル</t>
   </si>
   <si>
     <t>ミナガルデの看板娘の依頼1</t>
@@ -824,10 +879,11 @@
     <t>집회소★7 영에 맹이지만 불이기도 하다(獰にして猛だが火でもある)</t>
   </si>
   <si>
-    <t>装備開放
+    <t>장비개방
 メイドS/プライベートSシリーズ
-オトモ装備開放
-メイドＳネコフードメイドＳネコメイル</t>
+오토모 장비개방
+メイドＳネコフード_x000D_
+メイドＳネコメイル</t>
   </si>
   <si>
     <t>ミナガルデの看板娘の依頼2</t>
@@ -839,8 +895,8 @@
     <t>마을★9 새치기수주 : 알납품(割り込み受注：卵納品)</t>
   </si>
   <si>
-    <t>入手
-          ココット村の村貢献度300pts</t>
+    <t>입수_x000D_
+ココット村の村貢献度300pts</t>
   </si>
   <si>
     <t>ミナガルデの看板娘の依頼3</t>
@@ -852,7 +908,7 @@
     <t>G★2 새치기수주 : 2마리의 도모수(割り込み受注：2頭の桃毛獣)</t>
   </si>
   <si>
-    <t>クエスト報酬
+    <t>퀘스트 보수
 EX桃毛獣チケット</t>
   </si>
   <si>
@@ -865,11 +921,9 @@
     <t>G★2 번뜩임의 한 조각을 찾아서(閃きへの1ピースを求めて)</t>
   </si>
   <si>
-    <t>狩技開放
-チャージショット
-LV2
-身躱し射法
-LV2</t>
+    <t>수기개방
+チャージショットLV2
+身躱し射法LV2</t>
   </si>
   <si>
     <t>トレジィの依頼1</t>
@@ -881,7 +935,7 @@
     <t>마을★3 고대림의 트레져! 개구리편(古代林のトレジャー！蛙の巻)</t>
   </si>
   <si>
-    <t>クエスト報酬
+    <t>퀘스트 보수
 オオシッポガエル</t>
   </si>
   <si>
@@ -894,7 +948,7 @@
     <t>마을★4 고대림의 트레져! 벌레편(古代林のトレジャー！虫の巻)</t>
   </si>
   <si>
-    <t>クエスト報酬
+    <t>퀘스트 보수
 ハナスズムシ</t>
   </si>
   <si>
@@ -907,9 +961,9 @@
     <t>마을★6 고난도 : 고대림의 트레져!(高難度：古代林のトレジャー！)</t>
   </si>
   <si>
-    <t>クエスト報酬
+    <t>퀘스트 보수
 キングミート
-装備開放
+장비개방
 グレイトフルハム</t>
   </si>
   <si>
@@ -922,8 +976,8 @@
     <t>G★2 유군령의 트레져! 쌀편(遺群嶺のトレジャー！米の巻)</t>
   </si>
   <si>
-    <t>食材
-          チョモラン米</t>
+    <t>식재
+チョモラン米</t>
   </si>
   <si>
     <t>ヘルブラザーズ・赤鬼の依頼(1)</t>
@@ -935,7 +989,7 @@
     <t>마을★6 고난도 : 한쌍의 거대한 그림자(高難度：一対の巨影)</t>
   </si>
   <si>
-    <t>クエスト報酬
+    <t>퀘스트 보수
 EX火竜チケット</t>
   </si>
   <si>
@@ -948,7 +1002,7 @@
     <t>집회소★7 하늘의 비룡과 육지의 비룡(空の飛竜と陸の飛竜)</t>
   </si>
   <si>
-    <t>クエスト報酬
+    <t>퀘스트 보수
 EX火竜チケットS</t>
   </si>
   <si>
@@ -961,8 +1015,9 @@
     <t>마을★9 굉룡 수렵을 시켜주지!(轟竜の狩猟をさせてやるぜ！)</t>
   </si>
   <si>
-    <t>装備開放
-クリスタルロックアルバレッド</t>
+    <t>장비개방
+クリスタルロック_x000D_
+アルバレッド</t>
   </si>
   <si>
     <t>ヘルブラザーズ・赤鬼の依頼3</t>
@@ -974,11 +1029,9 @@
     <t>G★2 겸해의 수렵을 시켜주지!(鎌蟹の狩猟をさせてやるぜ！)</t>
   </si>
   <si>
-    <t>狩技開放
-ムーンブレイク
-LV2
-覚蟲強化
-LV2</t>
+    <t>수기개방
+ムーンブレイクLV2
+覚蟲強化LV2</t>
   </si>
   <si>
     <t>ドンドルマの守護兵の依頼1</t>
@@ -990,8 +1043,10 @@
     <t>마을★6 고난도 : 흑랑조는 내려앉았다(高難度：黒狼鳥は舞い降りた)</t>
   </si>
   <si>
-    <t>装備開放
-ガーディアンシリーズガーディアンUシリーズガーディアンランス</t>
+    <t>장비개방
+ガーディアンシリーズ_x000D_
+ガーディアンUシリーズ_x000D_
+ガーディアンランス</t>
   </si>
   <si>
     <t>ドンドルマの守護兵の依頼2</t>
@@ -1003,10 +1058,12 @@
     <t>마을★6 고난도 : 대하룡방위작전!(高難度：対霞龍防衛作戦！)</t>
   </si>
   <si>
-    <t>装備開放
+    <t>장비개방
 龍頭琴
-オトモ装備開放
-悠久の龍頭琴魂を宿す髪飾りまほろばの衣</t>
+오토모 장비개방
+悠久の龍頭琴_x000D_
+魂を宿す髪飾り_x000D_
+まほろばの衣</t>
   </si>
   <si>
     <t>ドンドルマの守護兵の依頼3</t>
@@ -1018,8 +1075,8 @@
     <t>G★1 숲과언덕의 성가신 괴조씨(森丘の迷惑な怪鳥さん)</t>
   </si>
   <si>
-    <t>食材
-          大ドンドル豆</t>
+    <t>식재
+大ドンドル豆</t>
   </si>
   <si>
     <t>シナト村の長老の依頼</t>
@@ -1031,8 +1088,8 @@
     <t>집회소★4 안주로 쓸 간은 하얀간(肴のキモはホワイトレバー)</t>
   </si>
   <si>
-    <t>食材
-          シナトビウオ</t>
+    <t>식재_x000D_
+シナトビウオ</t>
   </si>
   <si>
     <t>キャラバンの料理長の依頼1</t>
@@ -1044,8 +1101,8 @@
     <t>집회소★1 새로운 식재헌터의 탄생!?(新たな食材ハンターの誕生！？)</t>
   </si>
   <si>
-    <t>食材
-          チココーン</t>
+    <t>식재_x000D_
+チココーン</t>
   </si>
   <si>
     <t>キャラバンの料理長の依頼2</t>
@@ -1057,8 +1114,8 @@
     <t>마을★9 설산, 설옥, 설합전!!(雪山、雪玉、雪合戦！！)</t>
   </si>
   <si>
-    <t>食材
-          大吟醸・龍ころし</t>
+    <t>식재_x000D_
+大吟醸・龍ころし</t>
   </si>
   <si>
     <t>キャラバンの料理長の依頼3</t>
@@ -1070,8 +1127,8 @@
     <t>G★2 치코마을을 위협하는 수룡을 사냥해라!(チコ村を脅かす水竜を狩れ！)</t>
   </si>
   <si>
-    <t>食材
-          天然チコフグ</t>
+    <t>식재_x000D_
+天然チコフグ</t>
   </si>
   <si>
     <t>キャラバンの娘の依頼1</t>
@@ -1083,8 +1140,8 @@
     <t>나구리 마을(ナグリ村) 촌장과 대화</t>
   </si>
   <si>
-    <t>食材
-          アツアツハツ</t>
+    <t>식재_x000D_
+アツアツハツ</t>
   </si>
   <si>
     <t>キャラバンの娘の依頼2</t>
@@ -1096,8 +1153,8 @@
     <t>집회소★6 마음을 불태워라, 연석탄!(心を燃やせ、燃石炭！)</t>
   </si>
   <si>
-    <t>食材
-          マグマトン</t>
+    <t>식재_x000D_
+マグマトン</t>
   </si>
   <si>
     <t>キャラバンの娘の依頼3</t>
@@ -1118,7 +1175,7 @@
     <t>마을★5 게료스한 계절(ゲリョスな季節)</t>
   </si>
   <si>
-    <t>クエスト報酬
+    <t>퀘스트 보수
 ユクモ白玉粉</t>
   </si>
   <si>
@@ -1131,7 +1188,7 @@
     <t>집회소★3 화석에 잠든 태고의 기억(化石に眠る太古の記憶)</t>
   </si>
   <si>
-    <t>クエスト報酬
+    <t>퀘스트 보수
 ぬいぐるみセット</t>
   </si>
   <si>
@@ -1144,7 +1201,7 @@
     <t>집회소★5 설산의 주인, 도도블랑고(雪山の主、ドドブランゴ)</t>
   </si>
   <si>
-    <t>クエスト報酬
+    <t>퀘스트 보수
 オオナナホシ</t>
   </si>
   <si>
@@ -1157,8 +1214,11 @@
     <t>마을★10 유군령을 가로막는 공폭룡(遺群嶺を塞ぐ恐暴竜)</t>
   </si>
   <si>
-    <t>装備開放
-エルドラジェズルエルドラカノーネジャギィフェイクジャギィＸフェイク</t>
+    <t>장비개방
+エルドラジェズル_x000D_
+エルドラカノーネ_x000D_
+ジャギィフェイク_x000D_
+ジャギィＸフェイク</t>
   </si>
   <si>
     <t>交易船の船長の依頼1</t>
@@ -1170,10 +1230,10 @@
     <t>집회소★2 수송중! 수수의 추종!(輸送中！水獣の追従！)</t>
   </si>
   <si>
-    <t>入手
+    <t>입수
 謎の武器の秘伝書 x1
-プーギーの服
-          カエルのマーチ</t>
+푸기의 옷_x000D_
+カエルのマーチ</t>
   </si>
   <si>
     <t>交易船の船長の依頼2</t>
@@ -1185,7 +1245,7 @@
     <t>마을★6 예상외! 부부의 방해!(予想外！つがいの妨害！)</t>
   </si>
   <si>
-    <t>入手
+    <t>입수
 謎の重弩の秘伝書 x1</t>
   </si>
   <si>
@@ -1195,11 +1255,15 @@
     <t>교역선 선장의 의뢰3</t>
   </si>
   <si>
-    <t>납품 유쿠모 나무(ユクモの木) x5 거품이 이는 활액(泡立つ滑液) x2 해면질의 상피(海綿質の上皮) x1</t>
-  </si>
-  <si>
-    <t>装備開放
-ホクシン/カイエンシリーズGXホクシン/GXカイエンシリーズ</t>
+    <t>납품
+유쿠모 나무(ユクモの木) x5_x000D_
+거품이 이는 활액(泡立つ滑液) x2_x000D_
+해면질의 상피(海綿質の上皮) x1</t>
+  </si>
+  <si>
+    <t>장비개방
+ホクシン/カイエンシリーズ_x000D_
+GXホクシン/GXカイエンシリーズ</t>
   </si>
   <si>
     <t>交易船の船長の依頼4</t>
@@ -1211,7 +1275,7 @@
     <t>집회소★7 파랗게 소용돌이치는 등용문(蒼く渦巻く登竜門)</t>
   </si>
   <si>
-    <t>入手
+    <t>입수
 南蛮刀</t>
   </si>
   <si>
@@ -1224,7 +1288,7 @@
     <t>마을★6 고난도 : 중갑충과 실력시험!(高難度：重甲虫と腕試し！)</t>
   </si>
   <si>
-    <t>入手
+    <t>입수
 ギルドチケット x5</t>
   </si>
   <si>
@@ -1237,13 +1301,14 @@
     <t>집회소★7 시련의 귀결점(試練の帰結点)</t>
   </si>
   <si>
-    <t>入手
+    <t>입수
 ギルドチケット x5
-装備開放
-ニンジャソード忍・天/忍・地シリーズ忍・空/忍・海シリーズ
-狩技開放
-音撃震
-LV3</t>
+장비개방
+ニンジャソード_x000D_
+忍・天/忍・地シリーズ_x000D_
+忍・空/忍・海シリーズ
+수기개방
+音撃震LV3</t>
   </si>
   <si>
     <t>バルバレの仕切り役の依頼3</t>
@@ -1255,7 +1320,7 @@
     <t>G★4 인연의 증거! 고도의 대결전(絆の証！孤島の大決戦)</t>
   </si>
   <si>
-    <t>装備開放
+    <t>장비개방
 忍・極天/忍・極地シリーズ</t>
   </si>
   <si>
@@ -1271,8 +1336,8 @@
     <t>마을★2 기아노스들을 토벌해라!(ギアノスたちを討伐せよ！)</t>
   </si>
   <si>
-    <t>入手
-          ポッケ村の村貢献度100pts</t>
+    <t>입수_x000D_
+ポッケ村の村貢献度100pts</t>
   </si>
   <si>
     <t>ポッケ村の村長の依頼2</t>
@@ -1284,10 +1349,11 @@
     <t>마을★2 설산의 난폭한 사나이(雪山の荒くれ者)</t>
   </si>
   <si>
-    <t>装備開放
+    <t>장비개방
 マフモフシリーズ
-オトモ装備開放
-マフモフネコフードマフモフネコベスト</t>
+오토모 장비개방
+マフモフネコフード_x000D_
+マフモフネコベスト</t>
   </si>
   <si>
     <t>ポッケ村の村長の依頼3</t>
@@ -1299,6 +1365,10 @@
     <t>마을★3 설산에 숨어있는 그림자(雪山に潜む影)</t>
   </si>
   <si>
+    <t>입수_x000D_
+龍歴院ポイント500pts</t>
+  </si>
+  <si>
     <t>ポッケ村の村長の依頼4</t>
   </si>
   <si>
@@ -1308,7 +1378,7 @@
     <t>마을★3 살며시 다가오는 기척(忍び寄る気配)</t>
   </si>
   <si>
-    <t>入手
+    <t>입수
 ポッケチケット x2</t>
   </si>
   <si>
@@ -1321,12 +1391,11 @@
     <t>마을★5 우뚝 솟은 거수(峨々たる巨獣)</t>
   </si>
   <si>
-    <t>入手
-ポッケチケット x5
-          洞窟の巨大剣が採掘可能
-狩技開放
-タイフーントリガー
-LV2</t>
+    <t>입수
+ポッケチケット x5_x000D_
+洞窟の巨大剣が採掘可能
+수기개방_x000D_
+タイフーントリガーLV2</t>
   </si>
   <si>
     <t>ポッケ村の村長の依頼6</t>
@@ -1338,7 +1407,7 @@
     <t>마을★6 고난도 : 최후의 초대장(高難度：最後の招待状)</t>
   </si>
   <si>
-    <t>入手
+    <t>입수
 鷹見の羽飾り</t>
   </si>
   <si>
@@ -1351,10 +1420,11 @@
     <t>마을★10 고난도 : 설산에 서성이는 굉룡(高難度：雪山に佇む轟竜)</t>
   </si>
   <si>
-    <t>入手
+    <t>입수
 ポッケチケットG
-オトモ装備開放
-マフモフＸネコフードマフモフＸネコベスト</t>
+오토모 장비개방
+マフモフＸネコフード_x000D_
+マフモフＸネコベスト</t>
   </si>
   <si>
     <t>ポッケ村の受付嬢の依頼1</t>
@@ -1363,13 +1433,19 @@
     <t>폿케 마을 여성 접수원의 의뢰1</t>
   </si>
   <si>
-    <t>납품 유쿠모 나무(ユクモの木) x4 가우시카의 뿔(ガウシカの角) x2 거수의 코 가시(巨獣の鼻棘) x1</t>
-  </si>
-  <si>
-    <t>装備開放
-掃棍ミガキヘルパー/ヒーラーシリーズ
-オトモ装備開放
-ポッケネコモップヘルパーネコフードヘルパーネコメイル</t>
+    <t>납품_x000D_
+유쿠모 나무(ユクモの木) x4_x000D_
+가우시카의 뿔(ガウシカの角) x2_x000D_
+거수의 코 가시(巨獣の鼻棘) x1</t>
+  </si>
+  <si>
+    <t>장비개방
+掃棍ミガキ_x000D_
+ヘルパー/ヒーラーシリーズ
+오토모 장비개방
+ポッケネコモップ_x000D_
+ヘルパーネコフード_x000D_
+ヘルパーネコメイル</t>
   </si>
   <si>
     <t>ポッケ村の受付嬢の依頼2</t>
@@ -1381,10 +1457,13 @@
     <t>마을★10 고난도 : 싸움의 중재는 마을을 구한다(高難度：喧嘩の仲裁は村を救う)</t>
   </si>
   <si>
-    <t>装備開放
-ヘルパーＸ/ヒーラーＸシリーズヘルパーＺ/ヒーラーＺシリーズ
-オトモ装備開放
-ポッケＸネコモップヘルパーＸネコフードヘルパーＸネコメイル</t>
+    <t>장비개방
+ヘルパーＸ/ヒーラーＸシリーズ_x000D_
+ヘルパーＺ/ヒーラーＺシリーズ
+오토모 장비개방
+ポッケＸネコモップ_x000D_
+ヘルパーＸネコフード_x000D_
+ヘルパーＸネコメイル</t>
   </si>
   <si>
     <t>ジャンボ村の看板娘の依頼</t>
@@ -1396,10 +1475,13 @@
     <t>집회소★6 도도도도블랑고!(ドドドドブランゴ！)</t>
   </si>
   <si>
-    <t>装備開放
-ヘルパーS/ヒーラーSシリーズヘルパーU/ヒーラーUシリーズ
-オトモ装備開放
-ポッケＳネコモップヘルパーＳネコフードヘルパーＳネコメイル</t>
+    <t>장비개방
+ヘルパーS/ヒーラーSシリーズ_x000D_
+ヘルパーU/ヒーラーUシリーズ
+오토모 장비개방
+ポッケＳネコモップ_x000D_
+ヘルパーＳネコフード_x000D_
+ヘルパーＳネコメイル</t>
   </si>
   <si>
     <t>トレニャーの依頼1</t>
@@ -1411,7 +1493,7 @@
     <t>마을★3 구사막의 영역다툼이다냐!!(旧砂漠の縄張り争いニャ！！)</t>
   </si>
   <si>
-    <t>クエスト報酬
+    <t>퀘스트 보수
 オオ筒ドングリ</t>
   </si>
   <si>
@@ -1424,7 +1506,7 @@
     <t>마을★4 숲과언덕의 정적을 지키는거다냐!!(森丘の静寂を守るのニャ！！)</t>
   </si>
   <si>
-    <t>クエスト報酬
+    <t>퀘스트 보수
 トンガリドングリ</t>
   </si>
   <si>
@@ -1437,7 +1519,7 @@
     <t>마을★6 계류의 패권다툼이다냐!!(渓流の覇権争いニャ！！)</t>
   </si>
   <si>
-    <t>クエスト報酬
+    <t>퀘스트 보수
 アイルー茶釜</t>
   </si>
   <si>
@@ -1450,9 +1532,9 @@
     <t>집회소★6 극비의뢰! 영맹한 용암룡!(極秘依頼！獰猛なる溶岩竜！)</t>
   </si>
   <si>
-    <t>クエスト報酬
+    <t>퀘스트 보수
 EX溶岩竜チケット
-装備開放
+장비개방
 EXラヴァシリーズ</t>
   </si>
   <si>
@@ -1465,9 +1547,9 @@
     <t>집회소★7 굉호풍해(轟虎馮海)</t>
   </si>
   <si>
-    <t>クエスト報酬
+    <t>퀘스트 보수
 EX轟竜チケット
-装備開放
+장비개방
 EXレックスシリーズ</t>
   </si>
   <si>
@@ -1480,11 +1562,11 @@
     <t>마을★6 고난도 : 이상진역(高難度：異常震域)</t>
   </si>
   <si>
-    <t>クエスト報酬
+    <t>퀘스트 보수
 EX轟竜チケットS
-装備開放
+장비개방
 EXレックスSシリーズ
-オトモ装備開放
+오토모 장비개방
 ネコートさんのコート</t>
   </si>
   <si>
@@ -1497,7 +1579,7 @@
     <t>G★4 극천으로부터 온, 무너뜨린 신(極天より来たる、崩せし神)</t>
   </si>
   <si>
-    <t>オトモ装備開放
+    <t>오토모 장비개방
 ネコートさん厚コート</t>
   </si>
   <si>
@@ -1510,11 +1592,10 @@
     <t>집회소★5 빠른 신룡의 수렵피로(疾き迅竜の狩猟披露)</t>
   </si>
   <si>
-    <t>食材
-          ユキヤマツタケ
-狩技開放
-大挑発
-LV2</t>
+    <t>식재_x000D_
+ユキヤマツタケ
+수기개방
+大挑発LV2</t>
   </si>
   <si>
     <t>カリスマ美容師ネコの依頼1</t>
@@ -1526,8 +1607,8 @@
     <t>집회소★3 패션 작렬☆궁극 아프로(パッション炸裂☆究極アフロ)</t>
   </si>
   <si>
-    <t>プーギーの服
-          ひよっこアフロ</t>
+    <t>푸기의 옷_x000D_
+ひよっこアフロ</t>
   </si>
   <si>
     <t>カリスマ美容師ネコの依頼2</t>
@@ -1548,10 +1629,10 @@
     <t>집회소★1 전설의 메뉴에 빼먹어선 안되는 것(伝説のメニューに不可欠なモノ)</t>
   </si>
   <si>
-    <t>食材
-          モグモガーリック
-プーギーの服
-          魅惑のピンク</t>
+    <t>식재
+モグモガーリック
+푸기의 옷_x000D_
+魅惑のピンク</t>
   </si>
   <si>
     <t>さすらいのコックの依頼2</t>
@@ -1563,8 +1644,8 @@
     <t>G★1 앗뜨앗뜨 사막의 순해수렵(アツアツ砂漠の盾蟹狩猟)</t>
   </si>
   <si>
-    <t>食材
-          エンペラーセロリ</t>
+    <t>식재_x000D_
+エンペラーセロリ</t>
   </si>
   <si>
     <t>工房のばあちゃんの依頼1</t>
@@ -1576,7 +1657,7 @@
     <t>마을★6 영웅의 길(英雄への道)</t>
   </si>
   <si>
-    <t>装備開放
+    <t>장비개방
 英雄の双刃</t>
   </si>
   <si>
@@ -1586,13 +1667,16 @@
     <t>공방 할머니의 의뢰2</t>
   </si>
   <si>
-    <t>납품 영맹화엑스(獰猛化エキス)</t>
-  </si>
-  <si>
-    <t>入手
+    <t>납품_x000D_
+영맹화엑스(獰猛化エキス)</t>
+  </si>
+  <si>
+    <t>입수
 七色たんぽぽ x10
-装備開放
-EXザザミシリーズEXギザミシリーズEXブランゴシリーズ</t>
+장비개방
+EXザザミシリーズ_x000D_
+EXギザミシリーズ_x000D_
+EXブランゴシリーズ</t>
   </si>
   <si>
     <t>工房のばあちゃんの依頼3</t>
@@ -1604,6 +1688,9 @@
     <t>마을★6 고난도 : 염왕의 귀환(高難度：炎王の帰還)</t>
   </si>
   <si>
+    <t>없음</t>
+  </si>
+  <si>
     <t>工房のばあちゃんの依頼4</t>
   </si>
   <si>
@@ -1613,7 +1700,7 @@
     <t>G★3 강한 방어구는 소재부터!(強い防具は素材から！)</t>
   </si>
   <si>
-    <t>クエスト報酬
+    <t>퀘스트 보수
 EX老山龍チケット</t>
   </si>
   <si>
@@ -1626,8 +1713,9 @@
     <t>집회소★4 라이벌의 격돌!!(ライバルの激突！！)</t>
   </si>
   <si>
-    <t>装備開放
-奇面案山子棍ガリアチャチャ</t>
+    <t>장비개방
+奇面案山子_x000D_
+棍ガリアチャチャ</t>
   </si>
   <si>
     <t>チャチャの依頼2</t>
@@ -1639,8 +1727,13 @@
     <t>집회소★6 부하・몫・좋은기분♪(子分・取り分・イイ気分♪)</t>
   </si>
   <si>
-    <t>オトモ装備開放
-怪鳥のクックックどんぐりのお面オレチャマの一張羅大猪のドッドッドカニ爪のお面ワガハイのナイスな蓑</t>
+    <t>오토모 장비개방
+怪鳥のクックック_x000D_
+どんぐりのお面_x000D_
+オレチャマの一張羅_x000D_
+大猪のドッドッド_x000D_
+カニ爪のお面_x000D_
+ワガハイのナイスな蓑</t>
   </si>
   <si>
     <t>チャチャの依頼3</t>
@@ -1652,11 +1745,10 @@
     <t>집회소★7 그대의 힘을, 보여주어보아라(汝ノチカラヲ、見セテミヨ)</t>
   </si>
   <si>
-    <t>オトモ装備開放
+    <t>오토모 장비개방
 最高のお面
-狩技開放
-震怒竜怨斬
-LV3</t>
+수기개방_x000D_
+震怒竜怨斬LV3</t>
   </si>
   <si>
     <t>チャチャの依頼4</t>
@@ -1668,8 +1760,13 @@
     <t>G★2 부하의 자각이 부족하다!(子分の自覚が足りないっチャ！)</t>
   </si>
   <si>
-    <t>オトモ装備開放
-大怪鳥のクックックどんぐりの奇面オレチャマの天晴れ着巨大猪のドッドッドカニ爪の奇面ワガハイのナイス大蓑</t>
+    <t>오토모 장비개방
+大怪鳥のクックック_x000D_
+どんぐりの奇面_x000D_
+オレチャマの天晴れ着_x000D_
+巨大猪のドッドッド_x000D_
+カニ爪の奇面_x000D_
+ワガハイのナイス大蓑</t>
   </si>
   <si>
     <t>チャチャの依頼5</t>
@@ -1681,11 +1778,11 @@
     <t>G★3 투기장에서의 최후 테스트!(闘技場での最終テストっチャ！)</t>
   </si>
   <si>
-    <t>クエスト報酬
+    <t>퀘스트 보수
 奇面な仮面
-装備開放
+장비개방
 ニクヤキ銃槍カヤンチャスリンガ
-オトモ装備開放
+오토모 장비개방
 極上のお面</t>
   </si>
   <si>
@@ -1698,7 +1795,7 @@
     <t>마을★6 고난도 : 파랑의 연격!(高難度：青の連撃！)</t>
   </si>
   <si>
-    <t>装備開放
+    <t>장비개방
 ギルドガード蒼シリーズ</t>
   </si>
   <si>
@@ -1711,7 +1808,7 @@
     <t>마을★6 고난도 : 빨강의 맹공!(高難度：赤の猛攻！)</t>
   </si>
   <si>
-    <t>装備開放
+    <t>장비개방
 ギルドガード紅シリーズ</t>
   </si>
   <si>
@@ -1724,8 +1821,9 @@
     <t>G★4 인연의 증거? 설산의 영맹대결전(絆の証？雪山の獰猛大決戦)</t>
   </si>
   <si>
-    <t>装備開放
-Ｇ・ガードＸ蒼シリーズＧ・ガードＸ紅シリーズ</t>
+    <t>장비개방
+Ｇ・ガードＸ蒼シリーズ_x000D_
+Ｇ・ガードＸ紅シリーズ</t>
   </si>
   <si>
     <t>유쿠모 마을(ユクモ村)</t>
@@ -1740,8 +1838,32 @@
     <t>집회소★6 3마리 모이면 영맹와(３頭寄れば獰猛蛙)</t>
   </si>
   <si>
-    <t>装備開放
-アークRシリーズアーティアRシリーズアカムトRシリーズアロイRシリーズインゴットRシリーズエスカドラRシリーズギザミRシリーズキリンRシリーズクシャナRシリーズグリードRシリーズゲリョスRシリーズゴアRシリーズS・ソルRシリーズザザミRシリーズダマスクRシリーズタロスRシリーズデスギアRシリーズハンターRシリーズフィリアRシリーズフルフルRシリーズラギアRシリーズルドロスRシリーズレイアRシリーズレウスRシリーズレックスRシリーズ</t>
+    <t>장비개방
+アークRシリーズ_x000D_
+アーティアRシリーズ_x000D_
+アカムトRシリーズ_x000D_
+アロイRシリーズ_x000D_
+インゴットRシリーズ_x000D_
+エスカドラRシリーズ_x000D_
+ギザミRシリーズ_x000D_
+キリンRシリーズ_x000D_
+クシャナRシリーズ_x000D_
+グリードRシリーズ_x000D_
+ゲリョスRシリーズ_x000D_
+ゴアRシリーズ_x000D_
+S・ソルRシリーズ_x000D_
+ザザミRシリーズ_x000D_
+ダマスクRシリーズ_x000D_
+タロスRシリーズ_x000D_
+デスギアRシリーズ_x000D_
+ハンターRシリーズ_x000D_
+フィリアRシリーズ_x000D_
+フルフルRシリーズ_x000D_
+ラギアRシリーズ_x000D_
+ルドロスRシリーズ_x000D_
+レイアRシリーズ_x000D_
+レウスRシリーズ_x000D_
+レックスRシリーズ</t>
   </si>
   <si>
     <t>ユクモ村の村長の依頼1</t>
@@ -1753,8 +1875,8 @@
     <t>마을★2 계류의 쟈기노스 퇴치(渓流のジャギィノス退治)</t>
   </si>
   <si>
-    <t>入手
-          ユクモ村の村貢献度100pts</t>
+    <t>입수_x000D_
+ユクモ村の村貢献度100pts</t>
   </si>
   <si>
     <t>ユクモ村の村長の依頼2</t>
@@ -1766,10 +1888,12 @@
     <t>마을★2 청웅수 아오아시라(青熊獣アオアシラ)</t>
   </si>
   <si>
-    <t>装備開放
+    <t>장비개방
 ユクモノシリーズ
-オトモ装備開放
-ユクモノネコ木刀ユクモノネコカサユクモノネコドウギ</t>
+오토모 장비개방
+ユクモノネコ木刀_x000D_
+ユクモノネコカサ_x000D_
+ユクモノネコドウギ</t>
   </si>
   <si>
     <t>ユクモ村の村長の依頼3</t>
@@ -1790,7 +1914,7 @@
     <t>마을★3 술렁거리는 숲(ざわめく森)</t>
   </si>
   <si>
-    <t>入手
+    <t>입수
 ユクモチケット x2</t>
   </si>
   <si>
@@ -1803,11 +1927,10 @@
     <t>마을★5 담홍의 포호가 흔들거리는가(淡紅の泡狐がたゆたうか)</t>
   </si>
   <si>
-    <t>入手
+    <t>입수
 ユクモチケット x5
-狩技開放
-アクセルシャワー
-LV2</t>
+수기개방_x000D_
+アクセルシャワーLV2</t>
   </si>
   <si>
     <t>ユクモ村の村長の依頼6</t>
@@ -1819,7 +1942,7 @@
     <t>마을★6 고난도 : 종언을 먹는 자(高難度：終焉を喰らう者)</t>
   </si>
   <si>
-    <t>入手
+    <t>입수
 隼刃の羽飾り</t>
   </si>
   <si>
@@ -1832,10 +1955,12 @@
     <t>마을★10 고난도 : 달밤을 우러르는 뇌랑룡(高難度：月夜を仰ぐ雷狼竜)</t>
   </si>
   <si>
-    <t>入手
+    <t>입수
 ユクモチケットG
-オトモ装備開放
-ユクモノＸネコ扇子ユクモノＸネコカサユクモノＸネコドウギ</t>
+오토모 장비개방
+ユクモノＸネコ扇子_x000D_
+ユクモノＸネコカサ_x000D_
+ユクモノＸネコドウギ</t>
   </si>
   <si>
     <t>ユクモ村の受付嬢の依頼1</t>
@@ -1847,10 +1972,12 @@
     <t>마을★5 찌릿찌릿하는듯합니다×??(ビリビリするらしいです×？？)</t>
   </si>
   <si>
-    <t>装備開放
+    <t>장비개방
 撫子/桔梗シリーズ
-オトモ装備開放
-ユクモノネコ扇子ニャでしこ【布冠】ニャでしこ【花衣】</t>
+오토모 장비개방
+ユクモノネコ扇子_x000D_
+ニャでしこ【布冠】_x000D_
+ニャでしこ【花衣】</t>
   </si>
   <si>
     <t>ユクモ村の受付嬢の依頼2</t>
@@ -1862,10 +1989,11 @@
     <t>G★2 빙글빙글 한다는 듯 합니다(グルグルするらしいです)</t>
   </si>
   <si>
-    <t>装備開放
+    <t>장비개방
 撫子・雅/桔梗・雅シリーズ
-オトモ装備開放
-ニャでしこ雅【布冠】ニャでしこ雅【花衣】</t>
+오토모 장비개방
+ニャでしこ雅【布冠】_x000D_
+ニャでしこ雅【花衣】</t>
   </si>
   <si>
     <t>ユクモ村の看板娘の依頼1</t>
@@ -1877,10 +2005,11 @@
     <t>집회소★7 여성 접수원의 추천! 뇌랑룡×2(受付嬢オススメ！雷狼竜×２)</t>
   </si>
   <si>
-    <t>装備開放
+    <t>장비개방
 撫子・華/桔梗・華シリーズ
-オトモ装備開放
-ニャでしこ華【布冠】ニャでしこ華【花衣】</t>
+오토모 장비개방
+ニャでしこ華【布冠】_x000D_
+ニャでしこ華【花衣】</t>
   </si>
   <si>
     <t>ユクモ村の看板娘の依頼2</t>
@@ -1892,8 +2021,8 @@
     <t>G★1 간판 아가씨 셀렉트 : 유군령의 수수(看板娘セレクト：遺群嶺の水獣)</t>
   </si>
   <si>
-    <t>入手
-          ユクモ村の村貢献度500pts</t>
+    <t>입수_x000D_
+ユクモ村の村貢献度500pts</t>
   </si>
   <si>
     <t>オトモ武具屋の依頼1</t>
@@ -1902,11 +2031,14 @@
     <t>오토모 무구점의 의뢰1</t>
   </si>
   <si>
-    <t>납품 마카라이트 광석(マカライト鉱石) x2 큰 멧돼지의 가죽(大猪の皮) x1</t>
-  </si>
-  <si>
-    <t>オトモ装備開放
-マカネコピック巨大ネコどんぐり</t>
+    <t>납품_x000D_
+마카라이트 광석(マカライト鉱石) x2_x000D_
+큰 멧돼지의 가죽(大猪の皮) x1</t>
+  </si>
+  <si>
+    <t>오토모 장비개방
+マカネコピック_x000D_
+巨大ネコどんぐり</t>
   </si>
   <si>
     <t>オトモ武具屋の依頼2</t>
@@ -1918,8 +2050,9 @@
     <t>집회소★2 무모한 제자의, 뒤처리(無謀な弟子の、後始末)</t>
   </si>
   <si>
-    <t>オトモ装備開放
-ランポスネコピック大タルネコハンマー</t>
+    <t>오토모 장비개방
+ランポスネコピック_x000D_
+大タルネコハンマー</t>
   </si>
   <si>
     <t>オトモ武具屋の依頼3</t>
@@ -1931,8 +2064,9 @@
     <t>집회소★7 무리해버린 제자의, 뒤처리(無理した弟子の、後始末)</t>
   </si>
   <si>
-    <t>オトモ装備開放
-転がし三度笠転がしマント</t>
+    <t>오토모 장비개방
+転がし三度笠_x000D_
+転がしマント</t>
   </si>
   <si>
     <t>オトモ武具屋の依頼4</t>
@@ -1944,8 +2078,9 @@
     <t>G★3 월하뇌명의 기억(月下雷鳴の記憶)</t>
   </si>
   <si>
-    <t>オトモ装備開放
-転々がし三度笠転々がしマント</t>
+    <t>오토모 장비개방
+転々がし三度笠_x000D_
+転々がしマント</t>
   </si>
   <si>
     <t>集会浴場の番台さんの依頼1</t>
@@ -1957,9 +2092,9 @@
     <t>집회소★7 유쿠모의 족욕과 뇌랑룡(ユクモノ足湯と雷狼竜)</t>
   </si>
   <si>
-    <t>クエスト報酬
+    <t>퀘스트 보수
 EX雷狼竜チケット
-装備開放
+장비개방
 EXジンオウシリーズ</t>
   </si>
   <si>
@@ -1972,9 +2107,9 @@
     <t>집회소★7 수증기와 분연과(湯けむりと噴煙と)</t>
   </si>
   <si>
-    <t>クエスト報酬
+    <t>퀘스트 보수
 EX砕竜チケット
-装備開放
+장비개방
 EXブラキシリーズ</t>
   </si>
   <si>
@@ -1987,11 +2122,10 @@
     <t>집회소★7 아직 보지 못한 비탕을 찾아서(まだ見ぬ秘湯をもとめて)</t>
   </si>
   <si>
-    <t>装備開放
+    <t>장비개방
 桐花/三葵シリーズ
-狩技開放
-蟲纏い
-LV3</t>
+수기개방
+蟲纏いLV3</t>
   </si>
   <si>
     <t>集会浴場の番台さんの依頼4</t>
@@ -2003,7 +2137,7 @@
     <t>G★2 몸의 뼛속까지 찌릿찌릿(身体の芯までビッリビリ)</t>
   </si>
   <si>
-    <t>装備開放
+    <t>장비개방
 最高級ユアミシリーズ</t>
   </si>
   <si>
@@ -2016,7 +2150,7 @@
     <t>마을★3 로열 허니문트(ロイヤルハニーハント)</t>
   </si>
   <si>
-    <t>クエスト報酬
+    <t>퀘스트 보수
 コシカケダケ</t>
   </si>
   <si>
@@ -2029,7 +2163,7 @@
     <t>마을★4 스플래쉬・스트림(スプラッシュ・ストリーム)</t>
   </si>
   <si>
-    <t>クエスト報酬
+    <t>퀘스트 보수
 キングサボテン</t>
   </si>
   <si>
@@ -2042,7 +2176,7 @@
     <t>마을★5 일렉트리컬・배틀(エレクトリカル・バトル)</t>
   </si>
   <si>
-    <t>クエスト報酬
+    <t>퀘스트 보수
 オオモロコシ</t>
   </si>
   <si>
@@ -2055,8 +2189,8 @@
     <t>마을★9 정글・페로몬(ジャングル・フェロモン)</t>
   </si>
   <si>
-    <t>食材
-          マスターベーグル</t>
+    <t>식재_x000D_
+マスターベーグル</t>
   </si>
   <si>
     <t>モガの村長の息子の依頼1</t>
@@ -2065,11 +2199,12 @@
     <t>모가 촌장 아들의 의뢰1</t>
   </si>
   <si>
-    <t>납품 생고기(生肉) x3</t>
-  </si>
-  <si>
-    <t>食材
-          モガニ</t>
+    <t>납품_x000D_
+생고기(生肉) x3</t>
+  </si>
+  <si>
+    <t>식재_x000D_
+モガニ</t>
   </si>
   <si>
     <t>モガの村長の息子の依頼2</t>
@@ -2081,7 +2216,7 @@
     <t>마을★4 고도의 새(孤島の鳥)</t>
   </si>
   <si>
-    <t>クエスト報酬
+    <t>퀘스트 보수
 うなりうねり貝</t>
   </si>
   <si>
@@ -2094,7 +2229,7 @@
     <t>집회소★3 고도에 소용돌이치는 공포(孤島に渦巻く恐怖)</t>
   </si>
   <si>
-    <t>クエスト報酬
+    <t>퀘스트 보수
 古代鮫の皮</t>
   </si>
   <si>
@@ -2107,7 +2242,7 @@
     <t>집회소★3 고도를 뒤흔드는 강음(孤島を揺るがす剛音)</t>
   </si>
   <si>
-    <t>クエスト報酬
+    <t>퀘스트 보수
 イチノタチウオ</t>
   </si>
   <si>
@@ -2120,10 +2255,12 @@
     <t>G★4 고도에서 조우! 영맹한 뇌랑룡(孤島で遭遇！獰猛な雷狼竜)</t>
   </si>
   <si>
-    <t>クエスト報酬
+    <t>퀘스트 보수
 大海原の輝石
-装備開放
-ヴァイキングホーンヘリオスＸシリーズセレネＸシリーズ</t>
+장비개방
+ヴァイキングホーン_x000D_
+ヘリオスＸシリーズ_x000D_
+セレネＸシリーズ</t>
   </si>
   <si>
     <t>漁港の女主人の依頼1</t>
@@ -2132,11 +2269,13 @@
     <t>어항 여주인의 의뢰1</t>
   </si>
   <si>
-    <t>납품 튀는정어리(はじけイワシ) x5 지친정어리(シンドイワシ) x2</t>
-  </si>
-  <si>
-    <t>食材
-          モガ大トロ</t>
+    <t>납품_x000D_
+튀는정어리(はじけイワシ) x5_x000D_
+지친정어리(シンドイワシ) x2</t>
+  </si>
+  <si>
+    <t>식재_x000D_
+モガ大トロ</t>
   </si>
   <si>
     <t>漁港の女主人の依頼2</t>
@@ -2148,8 +2287,8 @@
     <t>G★1 강변의 아오아시라 퇴치(川辺のアオアシラ退治)</t>
   </si>
   <si>
-    <t>食材
-          カタマリアワビ</t>
+    <t>식재_x000D_
+カタマリアワビ</t>
   </si>
   <si>
     <t>モガの村の看板娘の依頼1</t>
@@ -2170,10 +2309,11 @@
     <t>집회소★5 고도의 불청객(孤島の迷惑客)</t>
   </si>
   <si>
-    <t>装備開放
+    <t>장비개방
 スカラーシリーズ
-オトモ装備開放
-ガイドネコフードガイドネコスーツ</t>
+오토모 장비개방
+ガイドネコフード_x000D_
+ガイドネコスーツ</t>
   </si>
   <si>
     <t>モガの村の看板娘の依頼3</t>
@@ -2185,10 +2325,11 @@
     <t>G★3 빙아룡이 대발명의 열쇠?(氷牙竜が大発明のカギ？)</t>
   </si>
   <si>
-    <t>装備開放
+    <t>장비개방
 スカラーＸシリーズ
-オトモ装備開放
-ガイドＸネコフードガイドＸネコスーツ</t>
+오토모 장비개방
+ガイドＸネコフード_x000D_
+ガイドＸネコスーツ</t>
   </si>
   <si>
     <t>タンジアの港の看板娘の依頼1</t>
@@ -2200,10 +2341,11 @@
     <t>집회소★5 간・간・간!!!(キモ・キモ・キモ！！！)</t>
   </si>
   <si>
-    <t>装備開放
+    <t>장비개방
 セイラーシリーズ
-オトモ装備開放
-セイラーネコフードセイラーネコスーツ</t>
+오토모 장비개방
+セイラーネコフード_x000D_
+セイラーネコスーツ</t>
   </si>
   <si>
     <t>タンジアの港の看板娘の依頼2</t>
@@ -2221,12 +2363,15 @@
     <t>탄지아 항구 간판 아가씨의 의뢰3</t>
   </si>
   <si>
-    <t>납품 용암룡의 특상 지느러미(溶岩竜の特上ヒレ) x4 어두운 누에(冥カイコ) x5 금강어(金剛魚) x5</t>
-  </si>
-  <si>
-    <t>装備開放
+    <t>납품_x000D_
+용암룡의 특상 지느러미(溶岩竜の特上ヒレ) x4_x000D_
+어두운 누에(冥カイコ) x5_x000D_
+금강어(金剛魚) x5</t>
+  </si>
+  <si>
+    <t>장비개방
 セイラーＸシリーズ
-オトモ装備開放
+오토모 장비개방
 セイラーＸネコフードセイラーＸネコスーツ</t>
   </si>
   <si>
@@ -2236,11 +2381,12 @@
     <t>록락 여관의 의뢰</t>
   </si>
   <si>
-    <t>납품 수수께끼의 뼈(なぞの骨) x5</t>
-  </si>
-  <si>
-    <t>食材
-          ロックラックルミ</t>
+    <t>납품_x000D_
+수수께끼의 뼈(なぞの骨) x5</t>
+  </si>
+  <si>
+    <t>식재_x000D_
+ロックラックルミ</t>
   </si>
   <si>
     <t>孤高の教官の依頼</t>
@@ -2252,8 +2398,8 @@
     <t>마을★6 뇌랑룡은 이렇게 울었다(雷狼竜はかく吠えり)</t>
   </si>
   <si>
-    <t>食材
-          達人ビール</t>
+    <t>식재_x000D_
+達人ビール</t>
   </si>
   <si>
     <t>ぽかぽか島の管理人の依頼1</t>
@@ -2265,8 +2411,8 @@
     <t>마을★2 따끈따끈 죽순 납품(ぽかぽかタケノコ納品)</t>
   </si>
   <si>
-    <t>食材
-          ツチタケノコ</t>
+    <t>식재_x000D_
+ツチタケノコ</t>
   </si>
   <si>
     <t>ぽかぽか島の管理人の依頼2</t>
@@ -2287,8 +2433,8 @@
     <t>마을★3 순해와 조개와 사냥(盾蟹と貝と狩り)</t>
   </si>
   <si>
-    <t>食材
-          モガモ貝</t>
+    <t>식재_x000D_
+モガモ貝</t>
   </si>
   <si>
     <t>モガの村の村長の依頼2</t>
@@ -2300,9 +2446,9 @@
     <t>G★4 영맹한 쇄룡은, 고도에서 무엇을 생각하나(獰猛な砕竜は、孤島で何を思う)</t>
   </si>
   <si>
-    <t>クエスト報酬
+    <t>퀘스트 보수
 大海原の輝石
-装備開放
+장비개방
 ナバルタスク</t>
   </si>
   <si>
@@ -2312,13 +2458,16 @@
     <t>점보 마을 촌장의 의뢰1</t>
   </si>
   <si>
-    <t>납품 유쿠모 온천 달걀(ユクモ温泉たまご) x1 특산 버섯 김치(特産キノコキムチ) x1 빙결정 딸기(氷結晶イチゴ) x1</t>
-  </si>
-  <si>
-    <t>食材
-          ジャンボウ
-プーギーの服
-          はだかの王様</t>
+    <t>납품_x000D_
+유쿠모 온천 달걀(ユクモ温泉たまご) x1_x000D_
+특산 버섯 김치(特産キノコキムチ) x1_x000D_
+빙결정 딸기(氷結晶イチゴ) x1</t>
+  </si>
+  <si>
+    <t>식재_x000D_
+ジャンボウ
+푸기의 옷_x000D_
+はだかの王様</t>
   </si>
   <si>
     <t>ジャンボ村の村長の依頼2</t>
@@ -2330,7 +2479,7 @@
     <t>마을★6 고난도 : 눈보라의 소환자(高難度：吹雪の召還者)</t>
   </si>
   <si>
-    <t>入手
+    <t>입수
 封龍宝剣</t>
   </si>
   <si>
@@ -2343,8 +2492,8 @@
     <t>집회소★2 식재의 가치는 신선도이다(食材の価値は鮮度なり)</t>
   </si>
   <si>
-    <t>食材
-          サイコロミート</t>
+    <t>식재_x000D_
+サイコロミート</t>
   </si>
   <si>
     <t>食材屋の女将の依頼2</t>
@@ -2356,8 +2505,8 @@
     <t>마을★7 제철 식재를 채집해주게!(旬な食材を採らせておくれ！)</t>
   </si>
   <si>
-    <t>食材
-          リュウノテール</t>
+    <t>식재_x000D_
+リュウノテール</t>
   </si>
   <si>
     <t>調合屋のあるじの依頼</t>
@@ -2366,11 +2515,14 @@
     <t>조합점 주인의 의뢰</t>
   </si>
   <si>
-    <t>납품 회어(サシミウオ) x5 뾰족한 이빨(とがった牙) x3 극채색의 체액(極彩色の体液) x1</t>
-  </si>
-  <si>
-    <t>食材
-          五穀豊穣米</t>
+    <t>납품_x000D_
+회어(サシミウオ) x5_x000D_
+뾰족한 이빨(とがった牙) x3_x000D_
+극채색의 체액(極彩色の体液) x1</t>
+  </si>
+  <si>
+    <t>식재_x000D_
+五穀豊穣米</t>
   </si>
   <si>
     <t>ドンドルマの道具屋の依頼1</t>
@@ -2382,10 +2534,10 @@
     <t>집회소★6 환상의 핫플?(幻のハップル？)</t>
   </si>
   <si>
-    <t>食材
-          ハップルアップル
-プーギーの服
-          ドスの気持ち</t>
+    <t>식재_x000D_
+ハップルアップル
+푸기의 옷_x000D_
+ドスの気持ち</t>
   </si>
   <si>
     <t>ドンドルマの道具屋の依頼2</t>
@@ -2397,8 +2549,8 @@
     <t>G★2 지보는 사과왕?(至宝の林檎王？)</t>
   </si>
   <si>
-    <t>食材
-          林檎王【凜護】</t>
+    <t>식재_x000D_
+林檎王【凜護】</t>
   </si>
   <si>
     <t>船大工の親方の依頼</t>
@@ -2410,9 +2562,9 @@
     <t>집회소★6 가노토토스 모험기(ガノトトス冒険記)</t>
   </si>
   <si>
-    <t>食材
-          ブレスワイン
-入手
+    <t>식재_x000D_
+ブレスワイン
+입수
 イカリハンマー</t>
   </si>
   <si>
@@ -2425,8 +2577,8 @@
     <t>마을★4 해앵사앙수해앵(행상수행)(ぎょーしょーしゅぎょー)</t>
   </si>
   <si>
-    <t>食材
-          完熟シナトマト</t>
+    <t>식재_x000D_
+完熟シナトマト</t>
   </si>
   <si>
     <t>まったりアイルーの依頼</t>
@@ -2438,11 +2590,10 @@
     <t>마을★5 빨간 해님 아뜨뜨(赤いおひさまアッチッチ)</t>
   </si>
   <si>
-    <t>食材
-          フワッフワッフル
-狩技開放
-竜の息吹
-LV2</t>
+    <t>식재_x000D_
+フワッフワッフル
+수기개방
+竜の息吹LV2</t>
   </si>
   <si>
     <t>ロックラックガイドの依頼</t>
@@ -2454,8 +2605,8 @@
     <t>마을★3 맛있는 알은 누구를 위해?(おいしい卵は誰のため？)</t>
   </si>
   <si>
-    <t>食材
-          ロックラッカセイ</t>
+    <t>식재_x000D_
+ロックラッカセイ</t>
   </si>
   <si>
     <t>タンジアの港のカシラの依頼</t>
@@ -2467,7 +2618,7 @@
     <t>마을★6 고난도 : 혼신의 도볼베르크(高難度：渾身のドボルベルク)</t>
   </si>
   <si>
-    <t>装備開放
+    <t>장비개방
 ポルトマルク</t>
   </si>
   <si>
@@ -2480,11 +2631,11 @@
     <t>집회소★7 늪지취몽담(沼地酔夢譚)</t>
   </si>
   <si>
-    <t>装備開放
-番傘【秋雨】アイリューシカ瓢弾
-狩技開放
-ブレイドダンス
-LV3</t>
+    <t>장비개방
+番傘【秋雨】_x000D_
+アイリューシカ瓢弾
+수기개방
+ブレイドダンスLV3</t>
   </si>
   <si>
     <t>ミナガルデのご隠居の依頼</t>
@@ -2496,11 +2647,10 @@
     <t>집회소★7 숲과언덕의 검은 안개(森丘の黒い霧)</t>
   </si>
   <si>
-    <t>装備開放
+    <t>장비개방
 大長老の脇差
-狩技開放
-バレットゲイザー
-LV3</t>
+수기개방
+バレットゲイザーLV3</t>
   </si>
   <si>
     <t>ロックラックの長の依頼1</t>
@@ -2512,11 +2662,10 @@
     <t>집회소★7 분노의 포효(憤怒の雄叫び)</t>
   </si>
   <si>
-    <t>装備開放
+    <t>장비개방
 城塞遊撃隊/城塞弓撃隊シリーズ
-狩技開放
-獣宿し【餓狼】
-LV3</t>
+수기개방
+獣宿し【餓狼】LV3</t>
   </si>
   <si>
     <t>ロックラックの長の依頼2</t>
@@ -2528,7 +2677,7 @@
     <t>G★4 인연의 증거! 투기장의 대결전(絆の証！闘技場の大決戦)</t>
   </si>
   <si>
-    <t>装備開放
+    <t>장비개방
 城塞特攻隊/城塞隠密隊シリーズ</t>
   </si>
   <si>
@@ -2541,8 +2690,10 @@
     <t>집회소★5 열사의 싸움은 무기의 소재(熱砂の喧嘩は武器の素)</t>
   </si>
   <si>
-    <t>装備開放
-ヒーローアームズヒーローガンランスヒーローブラスター</t>
+    <t>장비개방
+ヒーローアームズ_x000D_
+ヒーローガンランス_x000D_
+ヒーローブラスター</t>
   </si>
   <si>
     <t>モガの村の老職人の依頼2</t>
@@ -2554,9 +2705,9 @@
     <t>G★4 영맹한 바다의 왕은 무기의 소재(獰猛な海の王者は武器の素)</t>
   </si>
   <si>
-    <t>クエスト報酬
+    <t>퀘스트 보수
 大海原の輝石
-装備開放
+장비개방
 ビクトリアーラ</t>
   </si>
   <si>
@@ -2569,8 +2720,10 @@
     <t>집회소★6 잔뜩 파라 연석탄(たんと掘れ燃石炭)</t>
   </si>
   <si>
-    <t>オトモ装備開放
-マスターネコブレイドマスターネコヘルムマスターネコメイル</t>
+    <t>오토모 장비개방
+マスターネコブレイド_x000D_
+マスターネコヘルム_x000D_
+マスターネコメイル</t>
   </si>
   <si>
     <t>그 외(その他)</t>
@@ -2585,7 +2738,7 @@
     <t>마을★6 고난도 : 사천왕의 개가(高難度：四天王の凱歌)</t>
   </si>
   <si>
-    <t>入手
+    <t>입수
 鶴寿の羽飾り</t>
   </si>
   <si>
@@ -2598,7 +2751,7 @@
     <t>MHX의 모든 투기대회를 클리어</t>
   </si>
   <si>
-    <t>入手
+    <t>입수
 剣聖のピアス</t>
   </si>
   <si>
@@ -2611,7 +2764,7 @@
     <t>MHX의 모든 투기대회를 A랭크 이상으로 클리어</t>
   </si>
   <si>
-    <t>入手
+    <t>입수
 増弾のピアス</t>
   </si>
   <si>
@@ -2624,7 +2777,7 @@
     <t>MHXX의 모든 투기대회를 클리어</t>
   </si>
   <si>
-    <t>入手
+    <t>입수
 虚心のピアス</t>
   </si>
   <si>
@@ -2637,7 +2790,7 @@
     <t>MHXX의 모든 투기대회를 A랭크 이상으로 클리어</t>
   </si>
   <si>
-    <t>入手
+    <t>입수
 切望のピアス</t>
   </si>
   <si>
@@ -2650,7 +2803,7 @@
     <t>마을★10 고난도 : 길드로부터의 시련(高難度：ギルドからの試練)</t>
   </si>
   <si>
-    <t>入手
+    <t>입수
 ベルナ・フィオーレ</t>
   </si>
   <si>
@@ -2663,7 +2816,7 @@
     <t>마을★10 고난도 : 패자의 증명(高難度：覇者の証明)</t>
   </si>
   <si>
-    <t>入手
+    <t>입수
 ココット・アルベロ</t>
   </si>
   <si>
@@ -2676,7 +2829,7 @@
     <t>마을★10 고난도 : 몬스터 헌터(高難度：モンスターハンター)</t>
   </si>
   <si>
-    <t>入手
+    <t>입수
 ポッケ・ネーヴェ</t>
   </si>
   <si>
@@ -2689,7 +2842,7 @@
     <t>마을★10 고난도 : 용역원으로부터의 도전장(高難度：龍歴院からの挑戦状)</t>
   </si>
   <si>
-    <t>入手
+    <t>입수
 ユクモ・テルメ</t>
   </si>
   <si>
@@ -2702,8 +2855,9 @@
     <t>【특수허가】오마수렵의뢰G1(【特殊許可】鏖魔狩猟依頼G1)</t>
   </si>
   <si>
-    <t>入手
-セーリオシリーズシャルマンシリーズ</t>
+    <t>입수
+セーリオシリーズ_x000D_
+シャルマンシリーズ</t>
   </si>
   <si>
     <t>その他11</t>
@@ -2715,8 +2869,12 @@
     <t>마을★10 두려워하라, 붉은 재액의 혜성을(恐れ見よ、赤き災厄の彗星を)</t>
   </si>
   <si>
-    <t>入手
-斬炎のピアス雷電のピアス巨氷のピアス水狐のピアス龍彗のピアス</t>
+    <t>입수
+斬炎のピアス_x000D_
+雷電のピアス_x000D_
+巨氷のピアス_x000D_
+水狐のピアス_x000D_
+龍彗のピアス</t>
   </si>
 </sst>
 </file>
@@ -2752,8 +2910,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3094,8 +3256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="D196" sqref="D196"/>
+    <sheetView tabSelected="1" topLeftCell="D190" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="E201" sqref="E201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3104,7 +3266,7 @@
     <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.5703125" customWidth="1"/>
     <col min="4" max="4" width="100.7109375" customWidth="1"/>
-    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="118.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3124,7 +3286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="60">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3134,14 +3296,14 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="90">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3151,14 +3313,14 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="60">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3171,11 +3333,11 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="30">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3188,11 +3350,11 @@
       <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="90">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3205,11 +3367,11 @@
       <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="30">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3222,11 +3384,11 @@
       <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="45">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -3239,11 +3401,11 @@
       <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="90">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -3256,11 +3418,11 @@
       <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="45">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -3273,11 +3435,11 @@
       <c r="D10" t="s">
         <v>40</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="90">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -3290,11 +3452,11 @@
       <c r="D11" t="s">
         <v>44</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" ht="90">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -3307,11 +3469,11 @@
       <c r="D12" t="s">
         <v>48</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="30">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -3324,11 +3486,11 @@
       <c r="D13" t="s">
         <v>52</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="90">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -3341,11 +3503,11 @@
       <c r="D14" t="s">
         <v>56</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" ht="60">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -3358,11 +3520,11 @@
       <c r="D15" t="s">
         <v>60</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="60">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -3375,11 +3537,11 @@
       <c r="D16" t="s">
         <v>64</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="30">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -3392,11 +3554,11 @@
       <c r="D17" t="s">
         <v>68</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" ht="30">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -3409,11 +3571,11 @@
       <c r="D18" t="s">
         <v>72</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" ht="30">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -3426,11 +3588,11 @@
       <c r="D19" t="s">
         <v>76</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="45">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -3443,11 +3605,11 @@
       <c r="D20" t="s">
         <v>80</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="120">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -3460,11 +3622,11 @@
       <c r="D21" t="s">
         <v>84</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" ht="105">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -3477,11 +3639,11 @@
       <c r="D22" t="s">
         <v>88</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" ht="105">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -3494,11 +3656,11 @@
       <c r="D23" t="s">
         <v>92</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" ht="60">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -3511,11 +3673,11 @@
       <c r="D24" t="s">
         <v>96</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" ht="105">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -3528,11 +3690,11 @@
       <c r="D25" t="s">
         <v>100</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" ht="45">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -3545,7 +3707,7 @@
       <c r="D26" t="s">
         <v>104</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="1" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3566,7 +3728,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" ht="75">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -3579,11 +3741,11 @@
       <c r="D28" t="s">
         <v>112</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" ht="60">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -3596,11 +3758,11 @@
       <c r="D29" t="s">
         <v>116</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" ht="45">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -3613,11 +3775,11 @@
       <c r="D30" t="s">
         <v>120</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" ht="45">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -3630,11 +3792,11 @@
       <c r="D31" t="s">
         <v>124</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" ht="105">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -3647,11 +3809,11 @@
       <c r="D32" t="s">
         <v>128</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" ht="45">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -3664,11 +3826,11 @@
       <c r="D33" t="s">
         <v>132</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" ht="60">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -3681,11 +3843,11 @@
       <c r="D34" t="s">
         <v>136</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" ht="120">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -3698,11 +3860,11 @@
       <c r="D35" t="s">
         <v>140</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" ht="45">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -3715,11 +3877,11 @@
       <c r="D36" t="s">
         <v>144</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" ht="105">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -3732,11 +3894,11 @@
       <c r="D37" t="s">
         <v>148</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" ht="75">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -3749,11 +3911,11 @@
       <c r="D38" t="s">
         <v>152</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" ht="30">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -3766,11 +3928,11 @@
       <c r="D39" t="s">
         <v>156</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" ht="30">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -3783,11 +3945,11 @@
       <c r="D40" t="s">
         <v>160</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" ht="45">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -3800,11 +3962,11 @@
       <c r="D41" t="s">
         <v>164</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" ht="75">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -3817,11 +3979,11 @@
       <c r="D42" t="s">
         <v>168</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" ht="90">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -3834,11 +3996,11 @@
       <c r="D43" t="s">
         <v>172</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" ht="105">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -3851,11 +4013,11 @@
       <c r="D44" t="s">
         <v>176</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" ht="30">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -3868,11 +4030,11 @@
       <c r="D45" t="s">
         <v>180</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" ht="60">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -3885,11 +4047,11 @@
       <c r="D46" t="s">
         <v>184</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" ht="30">
       <c r="A47" t="s">
         <v>186</v>
       </c>
@@ -3902,11 +4064,11 @@
       <c r="D47" t="s">
         <v>189</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" ht="90">
       <c r="A48" t="s">
         <v>186</v>
       </c>
@@ -3919,11 +4081,11 @@
       <c r="D48" t="s">
         <v>193</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" ht="30">
       <c r="A49" t="s">
         <v>186</v>
       </c>
@@ -3936,467 +4098,467 @@
       <c r="D49" t="s">
         <v>197</v>
       </c>
-      <c r="E49" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="E49" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="30">
       <c r="A50" t="s">
         <v>186</v>
       </c>
       <c r="B50" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C50" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D50" t="s">
-        <v>200</v>
-      </c>
-      <c r="E50" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="E50" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="75">
       <c r="A51" t="s">
         <v>186</v>
       </c>
       <c r="B51" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C51" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D51" t="s">
-        <v>204</v>
-      </c>
-      <c r="E51" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="E51" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="30">
       <c r="A52" t="s">
         <v>186</v>
       </c>
       <c r="B52" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C52" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D52" t="s">
-        <v>208</v>
-      </c>
-      <c r="E52" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="E52" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="90">
       <c r="A53" t="s">
         <v>186</v>
       </c>
       <c r="B53" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C53" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D53" t="s">
-        <v>212</v>
-      </c>
-      <c r="E53" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="E53" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="105">
       <c r="A54" t="s">
         <v>186</v>
       </c>
       <c r="B54" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C54" t="s">
-        <v>215</v>
-      </c>
-      <c r="D54" t="s">
         <v>216</v>
       </c>
-      <c r="E54" t="s">
+      <c r="D54" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="E54" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="90">
       <c r="A55" t="s">
         <v>186</v>
       </c>
       <c r="B55" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C55" t="s">
-        <v>219</v>
-      </c>
-      <c r="D55" t="s">
         <v>220</v>
       </c>
-      <c r="E55" t="s">
+      <c r="D55" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="E55" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="75">
       <c r="A56" t="s">
         <v>186</v>
       </c>
       <c r="B56" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C56" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D56" t="s">
-        <v>224</v>
-      </c>
-      <c r="E56" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="E56" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="30">
       <c r="A57" t="s">
         <v>186</v>
       </c>
       <c r="B57" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C57" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D57" t="s">
-        <v>228</v>
-      </c>
-      <c r="E57" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="E57" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="30">
       <c r="A58" t="s">
         <v>186</v>
       </c>
       <c r="B58" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C58" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D58" t="s">
-        <v>232</v>
-      </c>
-      <c r="E58" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="E58" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="45">
       <c r="A59" t="s">
         <v>186</v>
       </c>
       <c r="B59" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C59" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D59" t="s">
-        <v>236</v>
-      </c>
-      <c r="E59" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="E59" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="30">
       <c r="A60" t="s">
         <v>186</v>
       </c>
       <c r="B60" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C60" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D60" t="s">
-        <v>240</v>
-      </c>
-      <c r="E60" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="E60" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="30">
       <c r="A61" t="s">
         <v>186</v>
       </c>
       <c r="B61" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C61" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D61" t="s">
-        <v>244</v>
-      </c>
-      <c r="E61" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="E61" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="60">
       <c r="A62" t="s">
         <v>186</v>
       </c>
       <c r="B62" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C62" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D62" t="s">
-        <v>248</v>
-      </c>
-      <c r="E62" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="E62" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="30">
       <c r="A63" t="s">
         <v>186</v>
       </c>
       <c r="B63" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C63" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D63" t="s">
-        <v>252</v>
-      </c>
-      <c r="E63" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="E63" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="30">
       <c r="A64" t="s">
         <v>186</v>
       </c>
       <c r="B64" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C64" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D64" t="s">
-        <v>256</v>
-      </c>
-      <c r="E64" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="E64" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="30">
       <c r="A65" t="s">
         <v>186</v>
       </c>
       <c r="B65" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C65" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D65" t="s">
-        <v>260</v>
-      </c>
-      <c r="E65" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="E65" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="45">
       <c r="A66" t="s">
         <v>186</v>
       </c>
       <c r="B66" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C66" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D66" t="s">
-        <v>264</v>
-      </c>
-      <c r="E66" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="E66" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="45">
       <c r="A67" t="s">
         <v>186</v>
       </c>
       <c r="B67" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C67" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D67" t="s">
-        <v>268</v>
-      </c>
-      <c r="E67" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="E67" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="60">
       <c r="A68" t="s">
         <v>186</v>
       </c>
       <c r="B68" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C68" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D68" t="s">
-        <v>272</v>
-      </c>
-      <c r="E68" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="E68" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="90">
       <c r="A69" t="s">
         <v>186</v>
       </c>
       <c r="B69" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C69" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D69" t="s">
-        <v>276</v>
-      </c>
-      <c r="E69" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="E69" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="30">
       <c r="A70" t="s">
         <v>186</v>
       </c>
       <c r="B70" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C70" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D70" t="s">
-        <v>280</v>
-      </c>
-      <c r="E70" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="E70" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="30">
       <c r="A71" t="s">
         <v>186</v>
       </c>
       <c r="B71" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C71" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D71" t="s">
-        <v>284</v>
-      </c>
-      <c r="E71" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="E71" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="30">
       <c r="A72" t="s">
         <v>186</v>
       </c>
       <c r="B72" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C72" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D72" t="s">
-        <v>288</v>
-      </c>
-      <c r="E72" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="E72" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="30">
       <c r="A73" t="s">
         <v>186</v>
       </c>
       <c r="B73" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C73" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D73" t="s">
-        <v>292</v>
-      </c>
-      <c r="E73" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="E73" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="30">
       <c r="A74" t="s">
         <v>186</v>
       </c>
       <c r="B74" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C74" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D74" t="s">
-        <v>296</v>
-      </c>
-      <c r="E74" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="E74" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="30">
       <c r="A75" t="s">
         <v>186</v>
       </c>
       <c r="B75" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C75" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D75" t="s">
-        <v>300</v>
-      </c>
-      <c r="E75" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="E75" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="30">
       <c r="A76" t="s">
         <v>186</v>
       </c>
       <c r="B76" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C76" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D76" t="s">
-        <v>304</v>
-      </c>
-      <c r="E76" t="s">
         <v>305</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4404,2019 +4566,2022 @@
         <v>186</v>
       </c>
       <c r="B77" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C77" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D77" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E77" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" ht="30">
       <c r="A78" t="s">
         <v>186</v>
       </c>
       <c r="B78" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C78" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D78" t="s">
-        <v>311</v>
-      </c>
-      <c r="E78" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="E78" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="30">
       <c r="A79" t="s">
         <v>186</v>
       </c>
       <c r="B79" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C79" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D79" t="s">
-        <v>315</v>
-      </c>
-      <c r="E79" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="E79" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="30">
       <c r="A80" t="s">
         <v>186</v>
       </c>
       <c r="B80" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C80" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D80" t="s">
-        <v>319</v>
-      </c>
-      <c r="E80" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="E80" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="75">
       <c r="A81" t="s">
         <v>186</v>
       </c>
       <c r="B81" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C81" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D81" t="s">
-        <v>323</v>
-      </c>
-      <c r="E81" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="E81" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="60">
       <c r="A82" t="s">
         <v>186</v>
       </c>
       <c r="B82" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C82" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D82" t="s">
-        <v>327</v>
-      </c>
-      <c r="E82" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="E82" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="30">
       <c r="A83" t="s">
         <v>186</v>
       </c>
       <c r="B83" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C83" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D83" t="s">
-        <v>331</v>
-      </c>
-      <c r="E83" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="E83" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="60">
       <c r="A84" t="s">
         <v>186</v>
       </c>
       <c r="B84" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C84" t="s">
-        <v>334</v>
-      </c>
-      <c r="D84" t="s">
         <v>335</v>
       </c>
-      <c r="E84" t="s">
+      <c r="D84" s="1" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="E84" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="30">
       <c r="A85" t="s">
         <v>186</v>
       </c>
       <c r="B85" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C85" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D85" t="s">
-        <v>339</v>
-      </c>
-      <c r="E85" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="E85" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="30">
       <c r="A86" t="s">
         <v>186</v>
       </c>
       <c r="B86" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C86" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D86" t="s">
-        <v>343</v>
-      </c>
-      <c r="E86" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="E86" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="120">
       <c r="A87" t="s">
         <v>186</v>
       </c>
       <c r="B87" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C87" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D87" t="s">
-        <v>347</v>
-      </c>
-      <c r="E87" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="E87" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="30">
       <c r="A88" t="s">
         <v>186</v>
       </c>
       <c r="B88" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C88" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D88" t="s">
-        <v>351</v>
-      </c>
-      <c r="E88" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="E88" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="30">
       <c r="A89" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B89" t="s">
+        <v>355</v>
+      </c>
+      <c r="C89" t="s">
+        <v>356</v>
+      </c>
+      <c r="D89" t="s">
+        <v>357</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="75">
+      <c r="A90" t="s">
         <v>354</v>
       </c>
-      <c r="C89" t="s">
-        <v>355</v>
-      </c>
-      <c r="D89" t="s">
-        <v>356</v>
-      </c>
-      <c r="E89" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" t="s">
-        <v>353</v>
-      </c>
       <c r="B90" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C90" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D90" t="s">
-        <v>360</v>
-      </c>
-      <c r="E90" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="E90" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="30">
       <c r="A91" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B91" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C91" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D91" t="s">
-        <v>364</v>
-      </c>
-      <c r="E91" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>365</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="30">
       <c r="A92" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B92" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C92" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D92" t="s">
-        <v>367</v>
-      </c>
-      <c r="E92" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>369</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="75">
       <c r="A93" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B93" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C93" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D93" t="s">
-        <v>371</v>
-      </c>
-      <c r="E93" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>373</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="30">
       <c r="A94" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B94" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C94" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D94" t="s">
-        <v>375</v>
-      </c>
-      <c r="E94" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>377</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="75">
       <c r="A95" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B95" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C95" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D95" t="s">
-        <v>379</v>
-      </c>
-      <c r="E95" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>381</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="105">
       <c r="A96" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B96" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C96" t="s">
-        <v>382</v>
-      </c>
-      <c r="D96" t="s">
-        <v>383</v>
-      </c>
-      <c r="E96" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="D96" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="105">
       <c r="A97" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B97" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C97" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D97" t="s">
-        <v>387</v>
-      </c>
-      <c r="E97" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>389</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="105">
       <c r="A98" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B98" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C98" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D98" t="s">
-        <v>391</v>
-      </c>
-      <c r="E98" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>393</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="30">
       <c r="A99" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B99" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C99" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D99" t="s">
-        <v>395</v>
-      </c>
-      <c r="E99" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>397</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="30">
       <c r="A100" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B100" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C100" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D100" t="s">
-        <v>399</v>
-      </c>
-      <c r="E100" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>401</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="30">
       <c r="A101" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B101" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C101" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D101" t="s">
-        <v>403</v>
-      </c>
-      <c r="E101" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>405</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="60">
       <c r="A102" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B102" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C102" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D102" t="s">
-        <v>407</v>
-      </c>
-      <c r="E102" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>409</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="60">
       <c r="A103" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B103" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C103" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D103" t="s">
-        <v>411</v>
-      </c>
-      <c r="E103" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>413</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="90">
       <c r="A104" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B104" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C104" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D104" t="s">
-        <v>415</v>
-      </c>
-      <c r="E104" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>417</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="30">
       <c r="A105" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B105" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C105" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D105" t="s">
-        <v>419</v>
-      </c>
-      <c r="E105" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>421</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="60">
       <c r="A106" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B106" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C106" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D106" t="s">
-        <v>423</v>
-      </c>
-      <c r="E106" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>425</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="30">
       <c r="A107" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B107" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C107" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D107" t="s">
-        <v>427</v>
-      </c>
-      <c r="E107" t="s">
-        <v>428</v>
+        <v>429</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B108" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C108" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D108" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E108" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" ht="60">
       <c r="A109" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B109" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C109" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D109" t="s">
-        <v>434</v>
-      </c>
-      <c r="E109" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>436</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="30">
       <c r="A110" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B110" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C110" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D110" t="s">
-        <v>438</v>
-      </c>
-      <c r="E110" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>440</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="30">
       <c r="A111" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B111" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C111" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D111" t="s">
-        <v>442</v>
-      </c>
-      <c r="E111" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>444</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="90">
       <c r="A112" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B112" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C112" t="s">
-        <v>445</v>
-      </c>
-      <c r="D112" t="s">
-        <v>446</v>
-      </c>
-      <c r="E112" t="s">
         <v>447</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B113" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C113" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D113" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+        <v>452</v>
+      </c>
+      <c r="E113" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="30">
       <c r="A114" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B114" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C114" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D114" t="s">
-        <v>453</v>
-      </c>
-      <c r="E114" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>456</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="45">
       <c r="A115" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B115" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C115" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D115" t="s">
-        <v>457</v>
-      </c>
-      <c r="E115" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>460</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="105">
       <c r="A116" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B116" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C116" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D116" t="s">
-        <v>461</v>
-      </c>
-      <c r="E116" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+        <v>464</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="60">
       <c r="A117" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B117" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C117" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D117" t="s">
-        <v>465</v>
-      </c>
-      <c r="E117" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+        <v>468</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="105">
       <c r="A118" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B118" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C118" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D118" t="s">
-        <v>469</v>
-      </c>
-      <c r="E118" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+        <v>472</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="90">
       <c r="A119" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B119" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C119" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D119" t="s">
-        <v>473</v>
-      </c>
-      <c r="E119" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+        <v>476</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="30">
       <c r="A120" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B120" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C120" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D120" t="s">
-        <v>477</v>
-      </c>
-      <c r="E120" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <v>480</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="30">
       <c r="A121" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B121" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C121" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D121" t="s">
-        <v>481</v>
-      </c>
-      <c r="E121" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+        <v>484</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="45">
       <c r="A122" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B122" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C122" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D122" t="s">
-        <v>485</v>
-      </c>
-      <c r="E122" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+        <v>488</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="390">
       <c r="A123" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B123" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C123" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="D123" t="s">
+        <v>493</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="30">
+      <c r="A124" t="s">
         <v>490</v>
       </c>
-      <c r="E123" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" t="s">
-        <v>487</v>
-      </c>
       <c r="B124" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C124" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D124" t="s">
-        <v>494</v>
-      </c>
-      <c r="E124" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <v>497</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="90">
       <c r="A125" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B125" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C125" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D125" t="s">
-        <v>498</v>
-      </c>
-      <c r="E125" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <v>501</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="30">
       <c r="A126" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B126" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C126" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D126" t="s">
-        <v>502</v>
-      </c>
-      <c r="E126" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <v>505</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="30">
       <c r="A127" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B127" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C127" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="D127" t="s">
-        <v>505</v>
-      </c>
-      <c r="E127" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+        <v>508</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="60">
       <c r="A128" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B128" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C128" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="D128" t="s">
-        <v>509</v>
-      </c>
-      <c r="E128" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+        <v>512</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="30">
       <c r="A129" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B129" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C129" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="D129" t="s">
-        <v>513</v>
-      </c>
-      <c r="E129" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+        <v>516</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="90">
       <c r="A130" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B130" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C130" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="D130" t="s">
-        <v>517</v>
-      </c>
-      <c r="E130" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+        <v>520</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="90">
       <c r="A131" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B131" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C131" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="D131" t="s">
-        <v>521</v>
-      </c>
-      <c r="E131" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <v>524</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="75">
       <c r="A132" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B132" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C132" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="D132" t="s">
-        <v>525</v>
-      </c>
-      <c r="E132" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+        <v>528</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="75">
       <c r="A133" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B133" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C133" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="D133" t="s">
-        <v>529</v>
-      </c>
-      <c r="E133" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+        <v>532</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="30">
       <c r="A134" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B134" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C134" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="D134" t="s">
-        <v>533</v>
-      </c>
-      <c r="E134" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+        <v>536</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="45">
       <c r="A135" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B135" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C135" t="s">
-        <v>536</v>
-      </c>
-      <c r="D135" t="s">
-        <v>537</v>
-      </c>
-      <c r="E135" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+        <v>539</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="45">
       <c r="A136" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B136" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="C136" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="D136" t="s">
-        <v>541</v>
-      </c>
-      <c r="E136" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+        <v>544</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="45">
       <c r="A137" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B137" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C137" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D137" t="s">
-        <v>545</v>
-      </c>
-      <c r="E137" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+        <v>548</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="45">
       <c r="A138" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B138" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C138" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="D138" t="s">
-        <v>549</v>
-      </c>
-      <c r="E138" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <v>552</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="60">
       <c r="A139" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B139" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="C139" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="D139" t="s">
-        <v>553</v>
-      </c>
-      <c r="E139" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+        <v>556</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="60">
       <c r="A140" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B140" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="C140" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="D140" t="s">
-        <v>557</v>
-      </c>
-      <c r="E140" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+        <v>560</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="60">
       <c r="A141" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B141" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C141" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="D141" t="s">
-        <v>561</v>
-      </c>
-      <c r="E141" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
+        <v>564</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="30">
       <c r="A142" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B142" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C142" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="D142" t="s">
-        <v>565</v>
-      </c>
-      <c r="E142" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+        <v>568</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="30">
       <c r="A143" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B143" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="C143" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="D143" t="s">
-        <v>569</v>
-      </c>
-      <c r="E143" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+        <v>572</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="30">
       <c r="A144" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B144" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C144" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="D144" t="s">
-        <v>573</v>
-      </c>
-      <c r="E144" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+        <v>576</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="30">
       <c r="A145" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B145" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C145" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="D145" t="s">
-        <v>577</v>
-      </c>
-      <c r="E145" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+        <v>580</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="30">
       <c r="A146" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B146" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="C146" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="D146" t="s">
-        <v>581</v>
-      </c>
-      <c r="E146" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+        <v>584</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="30">
       <c r="A147" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B147" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="C147" t="s">
-        <v>584</v>
-      </c>
-      <c r="D147" t="s">
-        <v>585</v>
-      </c>
-      <c r="E147" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
+        <v>587</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="30">
       <c r="A148" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B148" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="C148" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="D148" t="s">
-        <v>589</v>
-      </c>
-      <c r="E148" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+        <v>592</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="30">
       <c r="A149" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B149" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="C149" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="D149" t="s">
-        <v>593</v>
-      </c>
-      <c r="E149" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+        <v>596</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="30">
       <c r="A150" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B150" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="C150" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="D150" t="s">
-        <v>597</v>
-      </c>
-      <c r="E150" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+        <v>600</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="90">
       <c r="A151" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B151" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C151" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="D151" t="s">
-        <v>601</v>
-      </c>
-      <c r="E151" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+        <v>604</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="45">
       <c r="A152" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B152" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="C152" t="s">
-        <v>604</v>
-      </c>
-      <c r="D152" t="s">
-        <v>605</v>
-      </c>
-      <c r="E152" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+        <v>607</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="30">
       <c r="A153" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B153" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="C153" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="D153" t="s">
-        <v>609</v>
-      </c>
-      <c r="E153" t="s">
-        <v>610</v>
+        <v>612</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B154" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="C154" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="D154" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="E154" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" ht="75">
       <c r="A155" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B155" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="C155" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="D155" t="s">
-        <v>616</v>
-      </c>
-      <c r="E155" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+        <v>619</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="75">
       <c r="A156" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B156" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="C156" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="D156" t="s">
-        <v>620</v>
-      </c>
-      <c r="E156" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+        <v>623</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="75">
       <c r="A157" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B157" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="C157" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="D157" t="s">
-        <v>624</v>
-      </c>
-      <c r="E157" t="s">
-        <v>625</v>
+        <v>627</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B158" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="C158" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="D158" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="E158" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" ht="60">
       <c r="A159" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B159" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="C159" t="s">
-        <v>630</v>
-      </c>
-      <c r="D159" t="s">
-        <v>631</v>
-      </c>
-      <c r="E159" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
+        <v>633</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="30">
       <c r="A160" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B160" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="C160" t="s">
-        <v>634</v>
-      </c>
-      <c r="D160" t="s">
-        <v>635</v>
-      </c>
-      <c r="E160" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
+        <v>637</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="30">
       <c r="A161" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B161" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="C161" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="D161" t="s">
-        <v>639</v>
-      </c>
-      <c r="E161" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
+        <v>642</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="30">
       <c r="A162" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B162" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="C162" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="D162" t="s">
-        <v>643</v>
-      </c>
-      <c r="E162" t="s">
-        <v>644</v>
+        <v>646</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B163" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="C163" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="D163" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="E163" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" ht="30">
       <c r="A164" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B164" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="C164" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="D164" t="s">
-        <v>650</v>
-      </c>
-      <c r="E164" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+        <v>653</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="60">
       <c r="A165" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B165" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="C165" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="D165" t="s">
-        <v>654</v>
-      </c>
-      <c r="E165" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+        <v>657</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="60">
       <c r="A166" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B166" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="C166" t="s">
-        <v>657</v>
-      </c>
-      <c r="D166" t="s">
-        <v>658</v>
-      </c>
-      <c r="E166" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
+        <v>660</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="30">
       <c r="A167" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B167" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="C167" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="D167" t="s">
-        <v>662</v>
-      </c>
-      <c r="E167" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
+        <v>665</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="30">
       <c r="A168" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B168" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="C168" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="D168" t="s">
-        <v>666</v>
-      </c>
-      <c r="E168" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
+        <v>669</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="30">
       <c r="A169" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B169" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="C169" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="D169" t="s">
-        <v>670</v>
-      </c>
-      <c r="E169" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
+        <v>673</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="60">
       <c r="A170" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B170" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C170" t="s">
-        <v>673</v>
-      </c>
-      <c r="D170" t="s">
-        <v>674</v>
-      </c>
-      <c r="E170" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+        <v>676</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="60">
       <c r="A171" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B171" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="C171" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D171" t="s">
-        <v>678</v>
-      </c>
-      <c r="E171" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
+        <v>681</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="30">
       <c r="A172" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B172" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="C172" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="D172" t="s">
-        <v>682</v>
-      </c>
-      <c r="E172" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
+        <v>685</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="60">
       <c r="A173" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B173" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="C173" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="D173" t="s">
-        <v>686</v>
-      </c>
-      <c r="E173" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+        <v>689</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="30">
       <c r="A174" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B174" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="C174" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="D174" t="s">
-        <v>690</v>
-      </c>
-      <c r="E174" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
+        <v>693</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="60">
       <c r="A175" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B175" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="C175" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="D175" t="s">
-        <v>694</v>
-      </c>
-      <c r="E175" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
+        <v>697</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="30">
       <c r="A176" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B176" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="C176" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="D176" t="s">
-        <v>698</v>
-      </c>
-      <c r="E176" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
+        <v>701</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="30">
       <c r="A177" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B177" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="C177" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="D177" t="s">
-        <v>702</v>
-      </c>
-      <c r="E177" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
+        <v>705</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="75">
       <c r="A178" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B178" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="C178" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="D178" t="s">
-        <v>706</v>
-      </c>
-      <c r="E178" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
+        <v>709</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="60">
       <c r="A179" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B179" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="C179" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="D179" t="s">
-        <v>710</v>
-      </c>
-      <c r="E179" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
+        <v>713</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="60">
       <c r="A180" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B180" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="C180" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="D180" t="s">
-        <v>714</v>
-      </c>
-      <c r="E180" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
+        <v>717</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="30">
       <c r="A181" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B181" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="C181" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="D181" t="s">
-        <v>718</v>
-      </c>
-      <c r="E181" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
+        <v>721</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="60">
       <c r="A182" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B182" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="C182" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="D182" t="s">
-        <v>722</v>
-      </c>
-      <c r="E182" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
+        <v>725</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="60">
       <c r="A183" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B183" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="C183" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="D183" t="s">
-        <v>726</v>
-      </c>
-      <c r="E183" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
+        <v>729</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="60">
       <c r="A184" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B184" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="C184" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="D184" t="s">
-        <v>730</v>
-      </c>
-      <c r="E184" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
+        <v>733</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="30">
       <c r="A185" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="B185" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="C185" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="D185" t="s">
+        <v>738</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="30">
+      <c r="A186" t="s">
         <v>735</v>
       </c>
-      <c r="E185" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
-      <c r="A186" t="s">
-        <v>732</v>
-      </c>
       <c r="B186" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="C186" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="D186" t="s">
-        <v>739</v>
-      </c>
-      <c r="E186" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
+        <v>742</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="30">
       <c r="A187" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="B187" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="C187" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="D187" t="s">
-        <v>743</v>
-      </c>
-      <c r="E187" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
+        <v>746</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="30">
       <c r="A188" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="B188" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="C188" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="D188" t="s">
-        <v>747</v>
-      </c>
-      <c r="E188" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
+        <v>750</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="30">
       <c r="A189" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="B189" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="C189" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="D189" t="s">
-        <v>751</v>
-      </c>
-      <c r="E189" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
+        <v>754</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="30">
       <c r="A190" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="B190" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="C190" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="D190" t="s">
-        <v>755</v>
-      </c>
-      <c r="E190" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
+        <v>758</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="30">
       <c r="A191" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="B191" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="C191" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="D191" t="s">
-        <v>759</v>
-      </c>
-      <c r="E191" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
+        <v>762</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="30">
       <c r="A192" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="B192" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="C192" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="D192" t="s">
-        <v>763</v>
-      </c>
-      <c r="E192" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
+        <v>766</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="30">
       <c r="A193" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="B193" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="C193" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="D193" t="s">
-        <v>767</v>
-      </c>
-      <c r="E193" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
+        <v>770</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="45">
       <c r="A194" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="B194" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="C194" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="D194" t="s">
-        <v>771</v>
-      </c>
-      <c r="E194" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
+        <v>774</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="90">
       <c r="A195" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="B195" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="C195" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="D195" t="s">
-        <v>775</v>
-      </c>
-      <c r="E195" t="s">
-        <v>776</v>
+        <v>778</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>779</v>
       </c>
     </row>
   </sheetData>

--- a/request.xlsx
+++ b/request.xlsx
@@ -247,7 +247,9 @@
     <t>장비개방
 サージュＸシリーズ
 오토모 장비개방
-サージュＸネコブックサージュＸネコフートサージュＸネコスーツ</t>
+サージュＸネコブック_x000D_
+サージュＸネコフート_x000D_
+サージュＸネコスーツ</t>
   </si>
   <si>
     <t>しっかり者の村人の依頼1</t>
@@ -385,7 +387,9 @@
     <t>장비개방
 ホークＸシリーズ
 오토모 장비개방
-ブレイブＸネコランスブレイブＸネコガレアブレイブＸネコロリカ</t>
+ブレイブＸネコランス_x000D_
+ブレイブＸネコガレア_x000D_
+ブレイブＸネコロリカ</t>
   </si>
   <si>
     <t>キャラバンの看板娘の依頼1</t>
@@ -3256,8 +3260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D190" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="E201" sqref="E201"/>
+    <sheetView tabSelected="1" topLeftCell="D23" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3507,7 +3511,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="60">
+    <row r="15" spans="1:5" ht="90">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -3660,7 +3664,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="60">
+    <row r="24" spans="1:5" ht="90">
       <c r="A24" t="s">
         <v>5</v>
       </c>

--- a/request.xlsx
+++ b/request.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19024"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19105"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="781">
   <si>
     <t>town</t>
   </si>
@@ -47,8 +47,8 @@
   </si>
   <si>
     <t>장비개방
-ウィズダムシリーズ
-ウィズダムＸシリーズ</t>
+위즈덤 시리즈(ウィズダムシリーズ)
+위즈덤Ｘ 시리즈(ウィズダムＸシリーズ)</t>
   </si>
   <si>
     <t>龍識船の受付嬢の依頼</t>
@@ -61,11 +61,11 @@
   </si>
   <si>
     <t>장비개방
-チアフルシリーズ_x000D_
-チアフルＸシリーズ
+치어풀 시리즈(チアフルシリーズ)
+치어풀Ｘ 시리즈(チアフルＸシリーズ)
 오토모 장비개방
-チアフルネコフート_x000D_
-チアフルネコスーツ</t>
+치어풀 고양이 후드(チアフルネコフード)
+치어풀 고양이 슈트(チアフルネコスーツ)</t>
   </si>
   <si>
     <t>タンジアの大会担当の依頼</t>
@@ -78,9 +78,9 @@
   </si>
   <si>
     <t>퀘스트 보수
-太古の注連縄
+태고의 금줄(太古の注連縄)
 장비개방
-夜叉/修羅シリーズ</t>
+야차/수라 시리즈(夜叉/修羅シリーズ)</t>
   </si>
   <si>
     <t>モガの農場アイルーの依頼</t>
@@ -92,8 +92,8 @@
     <t>마을★8 진비료를 손에 넣는거다냐!(珍肥料を手に入れるのニャ！)</t>
   </si>
   <si>
-    <t>식재_x000D_
-砲丸レタス</t>
+    <t>식재
+포환 양상추(砲丸レタス)</t>
   </si>
   <si>
     <t>タルアイルーの依頼</t>
@@ -106,11 +106,11 @@
   </si>
   <si>
     <t>식재
-ポッカウォッカ
+폿카 보드카(ポッカウォッカ)
 퀘스트 보수
-タル用特製木材
+나무통용 특제 목재(タル用特製木材)
 오토모장비개방
-タルネコボディ</t>
+나무통 고양이 바디(タルネコボディ)</t>
   </si>
   <si>
     <t>狩猟船団・赤槍の依頼1</t>
@@ -122,8 +122,8 @@
     <t>마을★9 하늘의 가족・밥을 만들겠습니다(空の家族・メシを作るッス)</t>
   </si>
   <si>
-    <t>식재_x000D_
-珍味・甲冑魚</t>
+    <t>식재
+진미・갑주어(珍味・甲冑魚)</t>
   </si>
   <si>
     <t>狩猟船団・赤槍の依頼2</t>
@@ -136,8 +136,8 @@
   </si>
   <si>
     <t>수기개방
-妖刀羅刹LV2
-射突型裂孔弾LV2</t>
+요도나찰LV2(妖刀羅刹LV2)
+사돌형열공탄LV2(射突型裂孔弾LV2)</t>
   </si>
   <si>
     <t>タンジアの銅鑼担当の依頼1</t>
@@ -150,11 +150,11 @@
   </si>
   <si>
     <t>장비개방
-マリネロシリーズ_x000D_
-マリネロＸシリーズ
+마리네로 시리즈(マリネロシリーズ)
+마리네로Ｘ 시리즈(マリネロＸシリーズ)
 오토모 장비개방
-マリネロネコフード_x000D_
-マリネロネコスーツ</t>
+마리네로 고양이 후드(マリネロネコフード)
+마리네로 고양이 슈트(マリネロネコスーツ)</t>
   </si>
   <si>
     <t>タンジアの銅鑼担当の依頼2</t>
@@ -166,9 +166,9 @@
     <t>G★2 ......원한다면 자격을 보여라(……欲するならば資格を示して)</t>
   </si>
   <si>
-    <t>수기개방_x000D_
-インパクトプルスLV2
-アニマートハイLV2</t>
+    <t>수기개방
+임팩트 펄스LV2(インパクトプルスLV2)
+아니마토 하이LV2(アニマートハイLV2)</t>
   </si>
   <si>
     <t>ベルナ村の村長の依頼</t>
@@ -181,11 +181,11 @@
   </si>
   <si>
     <t>장비개방
-龍歴士Ｘシリーズ
+용역사Ｘ 시리즈(龍歴士Ｘシリーズ)
 오토모 장비개방
-エーデルＸネコロッド_x000D_
-エーデルＸネコツイン_x000D_
-エーデルＸネコフリル</t>
+에델Ｘ 고양이 로드(エーデルＸネコロッド)
+에델Ｘ 고양이 트윈(エーデルＸネコツイン)
+에델Ｘ 고양이 프릴(エーデルＸネコフリル)</t>
   </si>
   <si>
     <t>ベルナ村の受付嬢の依頼1</t>
@@ -198,11 +198,11 @@
   </si>
   <si>
     <t>장비개방
-サージュシリーズ
+사쥬 시리즈(サージュシリーズ)
 오토모 장비개방
-サージュネコブック_x000D_
-サージュネコフート_x000D_
-サージュネコスーツ</t>
+사쥬 고양이 책(サージュネコブック)
+사쥬 고양이 후드(サージュネコフード)
+사쥬 고양이 슈트(サージュネコスーツ)</t>
   </si>
   <si>
     <t>ベルナ村の受付嬢の依頼2</t>
@@ -214,8 +214,8 @@
     <t>마을★4 특별한 고비차 만들기(とびきりのゼンマイティー作り)</t>
   </si>
   <si>
-    <t>식재_x000D_
-ゼンマイ米</t>
+    <t>식재
+고비 쌀(ゼンマイ米)</t>
   </si>
   <si>
     <t>ベルナ村の受付嬢の依頼3</t>
@@ -228,11 +228,11 @@
   </si>
   <si>
     <t>장비개방
-サージュSシリーズ
+사쥬Ｓ 시리즈(サージュＳシリーズ)
 오토모 장비개방
-サージュＳネコブック_x000D_
-サージュＳネコフート_x000D_
-サージュＳネコスーツ</t>
+사쥬Ｓ 고양이 책(サージュＳネコブック)
+사쥬Ｓ 고양이 후드(サージュＳネコフード)
+사쥬Ｓ 고양이 슈트(サージュＳネコスーツ)</t>
   </si>
   <si>
     <t>ベルナ村の受付嬢の依頼4</t>
@@ -245,11 +245,11 @@
   </si>
   <si>
     <t>장비개방
-サージュＸシリーズ
+사쥬Ｘ 시리즈(サージュＸシリーズ)
 오토모 장비개방
-サージュＸネコブック_x000D_
-サージュＸネコフート_x000D_
-サージュＸネコスーツ</t>
+사쥬Ｘ 고양이 책(サージュＸネコブック)
+사쥬Ｘ 고양이 후드(サージュＸネコフード)
+사쥬Ｘ 고양이 슈트(サージュＸネコスーツ)</t>
   </si>
   <si>
     <t>しっかり者の村人の依頼1</t>
@@ -262,9 +262,9 @@
   </si>
   <si>
     <t>입수
-星見の花 x1
+성견의 꽃x1 (星見の花 x1)
 퀘스트 보수
-星見の花</t>
+성견의 꽃(星見の花)</t>
   </si>
   <si>
     <t>しっかり者の村人の依頼2</t>
@@ -276,8 +276,8 @@
     <t>마을★3 무파들의 폭신폭신 털뭉치(ムーファたちのふんわり毛玉)</t>
   </si>
   <si>
-    <t>입수_x000D_
-歴院ポイント500pts</t>
+    <t>입수
+용역원 포인트 500pts(龍歴院ポイント500pts)</t>
   </si>
   <si>
     <t>しっかり者の村人の依頼3</t>
@@ -290,7 +290,7 @@
   </si>
   <si>
     <t>장비개방
-龍歴士シリーズ</t>
+용역사 시리즈(龍歴士シリーズ)</t>
   </si>
   <si>
     <t>チコ村の村長の依頼1</t>
@@ -303,7 +303,7 @@
   </si>
   <si>
     <t>장비개방
-しろねこスタンプ</t>
+하얀 고양이 스탬프(しろねこスタンプ)</t>
   </si>
   <si>
     <t>チコ村の村長の依頼2</t>
@@ -316,8 +316,8 @@
   </si>
   <si>
     <t>장비개방
-アイルーラグドール_x000D_
-メラルーラグドール</t>
+아이루 래그돌(アイルーラグドール)
+메라루 래그돌(メラルーラグドール)</t>
   </si>
   <si>
     <t>キャラバンの団長の依頼1</t>
@@ -330,13 +330,13 @@
   </si>
   <si>
     <t>장비개방
-ブレイブシリーズ
+브레이브 시리즈(ブレイブシリーズ)
 오토모 장비개방
-ブレイブネコランス
-ブレイブネコガレア
-ブレイブネコロリカ
-푸기의 옷_x000D_
-夢追いアミーゴ</t>
+브레이브 고양이 랜스(ブレイブネコランス)
+브레이브 고양이 가레아(ブレイブネコガレア)
+브레이브 고양이 로리카(ブレイブネコロリカ)
+푸기의 옷
+꿈을 쫓는 아미고(夢追いアミーゴ)</t>
   </si>
   <si>
     <t>キャラバンの団長の依頼2</t>
@@ -349,12 +349,12 @@
   </si>
   <si>
     <t>퀘스트 보수
-EX天廻龍チケット
+EX천회룡 티켓(EX天廻龍チケット)
 장비개방
-イサナ船ハンマー！_x000D_
-ホークシリーズ_x000D_
-団長の腕輪_x000D_
-団長の腕輪Ｘ</t>
+이사나선 해머!イサナ船ハンマー！
+호크 시리즈(ホークシリーズ)
+단장의 팔찌(団長の腕輪)
+단장의 팔찌Ｘ(団長の腕輪Ｘ)</t>
   </si>
   <si>
     <t>キャラバンの団長の依頼3</t>
@@ -367,12 +367,12 @@
   </si>
   <si>
     <t>장비개방
-ブレイブSシリーズ_x000D_
-ブレイブＸシリーズ
+브레이브Ｓ 시리즈(ブレイブＳシリーズ)
+브레이브Ｘ 시리즈(ブレイブＸシリーズ)
 오토모 장비개방
-ブレイブＳネコランス_x000D_
-ブレイブＳネコガレア_x000D_
-ブレイブＳネコロリカ</t>
+브레이브Ｓ 고양이 랜스(ブレイブＳネコランス)
+브레이브Ｓ 고양이 가레아(ブレイブＳネコガレア)
+브레이브Ｓ 고양이 로리카(ブレイブＳネコロリカ)</t>
   </si>
   <si>
     <t>キャラバンの団長の依頼4</t>
@@ -385,11 +385,11 @@
   </si>
   <si>
     <t>장비개방
-ホークＸシリーズ
+호크Ｘ 시리즈(ホークＸシリーズ)
 오토모 장비개방
-ブレイブＸネコランス_x000D_
-ブレイブＸネコガレア_x000D_
-ブレイブＸネコロリカ</t>
+브레이브Ｘ 고양이 랜스(ブレイブＸネコランス)
+브레이브Ｘ 고양이 가레아(ブレイブＸネコガレア)
+브레이브Ｘ 고양이 로리카(ブレイブＸネコロリカ)</t>
   </si>
   <si>
     <t>キャラバンの看板娘の依頼1</t>
@@ -402,12 +402,12 @@
   </si>
   <si>
     <t>장비개방
-エコールシリーズ
+에콜 시리즈(エコールシリーズ)
 오토모 장비개방
-エコールネコフード
-エコールネコスーツ
+에콜 고양이 후드(エコールネコフード)
+에콜 고양이 슈트(エコールネコスーツ)
 푸기의 옷
-いやされムーチョ</t>
+치유받는무쵸いやされムーチョ</t>
   </si>
   <si>
     <t>キャラバンの看板娘の依頼2</t>
@@ -420,8 +420,8 @@
   </si>
   <si>
     <t>장비개방
-知略の眼鏡_x000D_
-知略の眼鏡Ｘ</t>
+지략의 안경(知略の眼鏡)
+지략의 안경Ｘ(知略の眼鏡Ｘ)</t>
   </si>
   <si>
     <t>キャラバンの看板娘の依頼3</t>
@@ -433,7 +433,7 @@
     <t>집회소★7 초☆메모장 ~천인룡포획편~(超☆メモ帳～千刃竜捕獲編～)</t>
   </si>
   <si>
-    <t>ルームサービス変更可能</t>
+    <t>룸서비스 변경가능(ルームサービス変更可能)</t>
   </si>
   <si>
     <t>キャラバンの看板娘の依頼4</t>
@@ -446,10 +446,10 @@
   </si>
   <si>
     <t>장비개방
-エコールＸシリーズ
+에콜Ｘ 시리즈(エコールＸシリーズ)
 오토모 장비개방
-エコールＸネコフード_x000D_
-エコールＸネコスーツ</t>
+에콜Ｘ 고양이 후드(エコールＸネコフード)
+에콜Ｘ 고양이 슈트(エコールＸネコスーツ)</t>
   </si>
   <si>
     <t>筆頭リーダーの依頼1</t>
@@ -462,9 +462,9 @@
   </si>
   <si>
     <t>퀘스트 보수
-EX黒蝕竜チケット
+EX흑식룡 티켓(EX黒蝕竜チケット)
 수기개방
-狂竜身(共通)</t>
+광룡신(공통)(狂竜身(共通))</t>
   </si>
   <si>
     <t>筆頭リーダーの依頼2</t>
@@ -477,8 +477,8 @@
   </si>
   <si>
     <t>장비개방
-エースシリーズ_x000D_
-クイーンシリーズ</t>
+에스 시리즈(エースシリーズ)
+퀸 시리즈(クイーンシリーズ)</t>
   </si>
   <si>
     <t>筆頭リーダーの依頼3</t>
@@ -490,9 +490,9 @@
     <t>G★2 밀림의 나르가쿠르가와 대치해라(密林のナルガクルガと対峙せよ)</t>
   </si>
   <si>
-    <t>수기개방_x000D_
-混沌の刃薬LV2
-ラセンザンLV2</t>
+    <t>수기개방
+혼돈의 인약LV2(混沌の刃薬LV2)
+나선참LV2(ラセンザンLV2)</t>
   </si>
   <si>
     <t>筆頭リーダーの依頼4</t>
@@ -505,12 +505,12 @@
   </si>
   <si>
     <t>퀘스트 보수
-混濁した欠片
+혼탁한 조각(混濁した欠片)
 장비개방
-ザッツオール_x000D_
-ウェル_x000D_
-エースＸシリーズ_x000D_
-クイーンＸシリーズ</t>
+That's all(ザッツオール)
+웰(ウェル)
+에스Ｘ 시리즈(エースＸシリーズ)
+퀸Ｘ 시리즈(クイーンＸシリーズ)</t>
   </si>
   <si>
     <t>筆頭ランサーの依頼1</t>
@@ -523,8 +523,8 @@
   </si>
   <si>
     <t>수기개방
-治癒の盾LV2
-AAフレアLV2</t>
+치유의 방패LV2(治癒の盾LV2)
+AA플레어LV2(AAフレアLV2)</t>
   </si>
   <si>
     <t>筆頭ランサーの依頼2</t>
@@ -537,9 +537,9 @@
   </si>
   <si>
     <t>퀘스트 보수
-蝕まれた琥珀
+침식된 호박(蝕まれた琥珀)
 장비개방
-ハイハロウ</t>
+하이하로우(ハイハロウ)</t>
   </si>
   <si>
     <t>筆頭ルーキーの依頼1</t>
@@ -552,13 +552,13 @@
   </si>
   <si>
     <t>퀘스트 보수
-虹色鉱石
+무지개빛 광석(虹色鉱石)
 장비개방
-EXイーオスシリーズ_x000D_
-EXゲネポスシリーズ_x000D_
-EXタロスシリーズ_x000D_
-EXガレオスシリーズ_x000D_
-EXランゴシリーズ</t>
+EX이오스 시리즈(EXイーオスシリーズ)
+EX게네포스 시리즈(EXゲネポスシリーズ)
+EX타로스 시리즈(EXタロスシリーズ)
+EX가레오스 시리즈(EXガレオスシリーズ)
+EX랑고 시리즈(EXランゴシリーズ)</t>
   </si>
   <si>
     <t>筆頭ルーキーの依頼2</t>
@@ -571,8 +571,8 @@
   </si>
   <si>
     <t>수기개방
-テンペストアクスLV2
-チェインソーサーLV2</t>
+템페스트 액스LV2(テンペストアクスLV2)
+체인 소서LV2(チェインソーサーLV2)</t>
   </si>
   <si>
     <t>大老殿の大臣の依頼</t>
@@ -585,12 +585,12 @@
   </si>
   <si>
     <t>장비개방
-ガーディアンＸシリーズ_x000D_
-ガーディアンＺシリーズ
+가디언Ｘ 시리즈(ガーディアンＸシリーズ)
+가디언Ｚ 시리즈(ガーディアンＺシリーズ)
 오토모 장비개방
-悠久に輝く龍頭琴_x000D_
-精霊を宿す髪飾り_x000D_
-まほろばの極衣</t>
+영원히 빛나는 용두금(悠久に輝く龍頭琴)
+졍령이 깃드는 머리장식(精霊を宿す髪飾り)
+마호로바의 극의(まほろばの極衣)</t>
   </si>
   <si>
     <t>伝説の職人の依頼</t>
@@ -603,10 +603,10 @@
   </si>
   <si>
     <t>입수
-カイゼリンシリーズ
+카이제린 시리즈(カイゼリンシリーズ)
 장비개방
-マスターＸシリーズ_x000D_
-桐花・真/三葵・真シリーズ</t>
+마스터Ｘ 시리즈(マスターＸシリーズ)
+동화・진/삼규・진 시리즈(桐花・真/三葵・真シリーズ)</t>
   </si>
   <si>
     <t>ベルナ村の加工屋の依頼1</t>
@@ -619,7 +619,7 @@
   </si>
   <si>
     <t>장비개방
-マスターシリーズ</t>
+마스터 시리즈(マスターシリーズ)</t>
   </si>
   <si>
     <t>ベルナ村の加工屋の依頼2</t>
@@ -632,7 +632,7 @@
   </si>
   <si>
     <t>장비개방
-工房謹製・オオナグリ</t>
+공방근제・오오나구리(工房謹製・オオナグリ)</t>
   </si>
   <si>
     <t>ネコ嬢の依頼1</t>
@@ -645,8 +645,8 @@
   </si>
   <si>
     <t>입수
-ハチミツ x10
-龍歴院ポイント200pts</t>
+벌꿀 x10(ハチミツ x10)
+용역원 포인트 200pts(龍歴院ポイント200pts)</t>
   </si>
   <si>
     <t>ネコ嬢の依頼2</t>
@@ -659,10 +659,10 @@
   </si>
   <si>
     <t>퀘스트 보수
-ふんわり白毛玉
+폭신폭신 하얀 털뭉치(ふんわり白毛玉)
 오토모 장비개방
-プリティネコリボン_x000D_
-プリティネコワンピ</t>
+프리티 고양이 리본(プリティネコリボン)
+프리티 고양이 원피스(プリティネコワンピ)</t>
   </si>
   <si>
     <t>ネコ嬢の依頼3</t>
@@ -675,11 +675,11 @@
   </si>
   <si>
     <t>장비개방
-ムーファＸシリーズ
+무파Ｘ 시리즈(ムーファＸシリーズ)
 오토모 장비개방
-ムーファＸネコウール_x000D_
-ムーファＸネコヘッド_x000D_
-ムーファＸネコスーツ</t>
+무파Ｘ 고양이 울(ムーファＸネコウール)
+무파Ｘ 고양이 헤드(ムーファＸネコヘッド)
+무파Ｘ 고양이 슈트(ムーファＸネコスーツ)</t>
   </si>
   <si>
     <t>酒場の看板娘の依頼(1)</t>
@@ -692,12 +692,12 @@
   </si>
   <si>
     <t>퀘스트 보수
-ふんわり黒毛玉
+폭신폭신 검은 털뭉치(ふんわり黒毛玉)
 오토모 장비개방
-キュートネコリボン_x000D_
-キュートネコワンピ
+큐트 고양이 리본(キュートネコリボン)
+큐트 고양이 원피스(キュートネコワンピ)
 푸기의 옷
-フェニーの服：麗しのフロイライン</t>
+페니의 옷 : 아름다운 프로일라인(フェニーの服：麗しのフロイライン)</t>
   </si>
   <si>
     <t>酒場の看板娘の依頼(2)</t>
@@ -710,7 +710,7 @@
   </si>
   <si>
     <t>입수
-防具合成材・頭 x2</t>
+방어구 합성 소재・머리 x2(防具合成材・頭 x2)</t>
   </si>
   <si>
     <t>ニャント様の依頼</t>
@@ -723,9 +723,9 @@
   </si>
   <si>
     <t>퀘스트 보수
-サンマージ結晶
+섬머지 결정(サンマージ結晶)
 장비개방
-ルーツォ＝スーロ</t>
+루츠오 = 스로(ルーツォ＝スーロ)</t>
   </si>
   <si>
     <t>코코트 마을(ココット村)</t>
@@ -1168,6 +1168,9 @@
   </si>
   <si>
     <t>마을★8 열대에 나타나다, 우라간킨!(熱地に現る、ウラガンキン！)</t>
+  </si>
+  <si>
+    <t>ルームサービス変更可能</t>
   </si>
   <si>
     <t>キャラバンの竜人商人の依頼1</t>
@@ -3260,8 +3263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D23" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4579,7 +4582,7 @@
         <v>309</v>
       </c>
       <c r="E77" t="s">
-        <v>109</v>
+        <v>310</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="30">
@@ -4587,16 +4590,16 @@
         <v>186</v>
       </c>
       <c r="B78" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C78" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D78" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="30">
@@ -4604,16 +4607,16 @@
         <v>186</v>
       </c>
       <c r="B79" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C79" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D79" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="30">
@@ -4621,16 +4624,16 @@
         <v>186</v>
       </c>
       <c r="B80" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C80" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D80" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="75">
@@ -4638,16 +4641,16 @@
         <v>186</v>
       </c>
       <c r="B81" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C81" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D81" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="60">
@@ -4655,16 +4658,16 @@
         <v>186</v>
       </c>
       <c r="B82" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C82" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D82" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="30">
@@ -4672,16 +4675,16 @@
         <v>186</v>
       </c>
       <c r="B83" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C83" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D83" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="60">
@@ -4689,16 +4692,16 @@
         <v>186</v>
       </c>
       <c r="B84" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C84" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="30">
@@ -4706,16 +4709,16 @@
         <v>186</v>
       </c>
       <c r="B85" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C85" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D85" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="30">
@@ -4723,16 +4726,16 @@
         <v>186</v>
       </c>
       <c r="B86" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C86" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D86" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="120">
@@ -4740,16 +4743,16 @@
         <v>186</v>
       </c>
       <c r="B87" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C87" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D87" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="30">
@@ -4757,1835 +4760,1835 @@
         <v>186</v>
       </c>
       <c r="B88" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C88" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D88" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="30">
       <c r="A89" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B89" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C89" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D89" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="75">
       <c r="A90" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B90" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C90" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D90" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="30">
       <c r="A91" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B91" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C91" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D91" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="30">
       <c r="A92" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B92" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C92" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D92" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="75">
       <c r="A93" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B93" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C93" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D93" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="30">
       <c r="A94" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B94" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C94" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D94" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="75">
       <c r="A95" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B95" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C95" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D95" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="105">
       <c r="A96" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B96" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C96" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="105">
       <c r="A97" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B97" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C97" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D97" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="105">
       <c r="A98" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B98" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C98" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D98" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="30">
       <c r="A99" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B99" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C99" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D99" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="30">
       <c r="A100" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B100" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C100" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D100" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="30">
       <c r="A101" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B101" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C101" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D101" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="60">
       <c r="A102" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B102" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C102" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D102" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="60">
       <c r="A103" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B103" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C103" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D103" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="90">
       <c r="A104" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B104" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C104" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D104" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="30">
       <c r="A105" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B105" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C105" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D105" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="60">
       <c r="A106" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B106" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C106" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D106" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="30">
       <c r="A107" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B107" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C107" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D107" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B108" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C108" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D108" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E108" t="s">
-        <v>109</v>
+        <v>310</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="60">
       <c r="A109" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B109" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C109" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D109" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="30">
       <c r="A110" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B110" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C110" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D110" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="30">
       <c r="A111" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B111" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C111" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D111" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="90">
       <c r="A112" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B112" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C112" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B113" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C113" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D113" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E113" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="30">
       <c r="A114" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B114" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C114" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D114" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="45">
       <c r="A115" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B115" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C115" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D115" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="105">
       <c r="A116" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B116" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C116" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D116" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="60">
       <c r="A117" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B117" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C117" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D117" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="105">
       <c r="A118" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B118" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C118" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D118" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="90">
       <c r="A119" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B119" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C119" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D119" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="30">
       <c r="A120" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B120" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C120" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D120" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="30">
       <c r="A121" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B121" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C121" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D121" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="45">
       <c r="A122" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B122" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C122" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D122" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="390">
       <c r="A123" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B123" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C123" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D123" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="30">
       <c r="A124" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B124" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C124" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D124" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="90">
       <c r="A125" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B125" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C125" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D125" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="30">
       <c r="A126" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B126" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C126" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D126" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="30">
       <c r="A127" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B127" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C127" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D127" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="60">
       <c r="A128" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B128" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C128" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D128" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="30">
       <c r="A129" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B129" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C129" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D129" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="90">
       <c r="A130" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B130" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C130" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D130" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="90">
       <c r="A131" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B131" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C131" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D131" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="75">
       <c r="A132" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B132" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C132" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D132" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="75">
       <c r="A133" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B133" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C133" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D133" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="30">
       <c r="A134" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B134" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C134" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D134" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="45">
       <c r="A135" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B135" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C135" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="45">
       <c r="A136" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B136" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C136" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D136" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="45">
       <c r="A137" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B137" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C137" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D137" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="45">
       <c r="A138" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B138" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C138" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D138" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="60">
       <c r="A139" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B139" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C139" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D139" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="60">
       <c r="A140" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B140" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C140" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D140" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="60">
       <c r="A141" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B141" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C141" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D141" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="30">
       <c r="A142" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B142" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C142" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D142" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="30">
       <c r="A143" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B143" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C143" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D143" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="30">
       <c r="A144" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B144" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C144" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D144" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="30">
       <c r="A145" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B145" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C145" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D145" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="30">
       <c r="A146" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B146" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C146" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D146" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="30">
       <c r="A147" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B147" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C147" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="30">
       <c r="A148" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B148" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C148" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D148" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="30">
       <c r="A149" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B149" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C149" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D149" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="30">
       <c r="A150" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B150" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C150" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D150" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="90">
       <c r="A151" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B151" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C151" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D151" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="45">
       <c r="A152" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B152" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C152" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="30">
       <c r="A153" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B153" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C153" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D153" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B154" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C154" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D154" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E154" t="s">
-        <v>109</v>
+        <v>310</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="75">
       <c r="A155" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B155" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C155" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D155" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="75">
       <c r="A156" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B156" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C156" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D156" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="75">
       <c r="A157" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B157" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C157" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D157" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B158" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C158" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D158" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E158" t="s">
-        <v>109</v>
+        <v>310</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="60">
       <c r="A159" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B159" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C159" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="30">
       <c r="A160" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B160" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C160" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="30">
       <c r="A161" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B161" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C161" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D161" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="30">
       <c r="A162" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B162" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C162" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D162" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B163" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C163" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D163" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E163" t="s">
-        <v>109</v>
+        <v>310</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="30">
       <c r="A164" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B164" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C164" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D164" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="60">
       <c r="A165" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B165" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C165" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D165" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="60">
       <c r="A166" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B166" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C166" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="30">
       <c r="A167" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B167" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C167" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D167" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="30">
       <c r="A168" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B168" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C168" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D168" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="30">
       <c r="A169" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B169" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C169" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D169" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="60">
       <c r="A170" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B170" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C170" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="60">
       <c r="A171" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B171" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C171" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D171" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="30">
       <c r="A172" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B172" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C172" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D172" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="60">
       <c r="A173" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B173" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C173" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D173" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="30">
       <c r="A174" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B174" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C174" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D174" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="60">
       <c r="A175" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B175" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C175" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D175" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="30">
       <c r="A176" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B176" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C176" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D176" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="30">
       <c r="A177" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B177" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C177" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D177" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="75">
       <c r="A178" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B178" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C178" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D178" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="60">
       <c r="A179" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B179" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C179" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D179" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="60">
       <c r="A180" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B180" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C180" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D180" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="30">
       <c r="A181" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B181" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C181" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D181" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="60">
       <c r="A182" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B182" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C182" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D182" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="60">
       <c r="A183" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B183" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C183" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D183" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="60">
       <c r="A184" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B184" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C184" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D184" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="30">
       <c r="A185" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B185" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C185" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D185" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="30">
       <c r="A186" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B186" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C186" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D186" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="30">
       <c r="A187" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B187" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C187" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D187" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="30">
       <c r="A188" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B188" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C188" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D188" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="30">
       <c r="A189" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B189" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C189" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D189" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="30">
       <c r="A190" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B190" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C190" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D190" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="30">
       <c r="A191" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B191" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C191" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D191" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="30">
       <c r="A192" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B192" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C192" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D192" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="30">
       <c r="A193" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B193" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C193" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D193" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="45">
       <c r="A194" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B194" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C194" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D194" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="90">
       <c r="A195" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B195" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C195" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D195" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
   </sheetData>

--- a/request.xlsx
+++ b/request.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19105"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19109"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171026"/>
+  <calcPr calcId="179016"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="778">
   <si>
     <t>town</t>
   </si>
@@ -589,7 +589,7 @@
 가디언Ｚ 시리즈(ガーディアンＺシリーズ)
 오토모 장비개방
 영원히 빛나는 용두금(悠久に輝く龍頭琴)
-졍령이 깃드는 머리장식(精霊を宿す髪飾り)
+졍령이 깃든 머리장식(精霊を宿す髪飾り)
 마호로바의 극의(まほろばの極衣)</t>
   </si>
   <si>
@@ -740,8 +740,8 @@
     <t>마을★2 란포스들을 토벌해라!(ランポスたちを討伐せよ！)</t>
   </si>
   <si>
-    <t>입수_x000D_
-ココット村の村貢献度100pts</t>
+    <t>입수
+코코트 마을의 마을 공헌도 100pts(ココット村の村貢献度100pts)</t>
   </si>
   <si>
     <t>ココット村の村長の依頼2</t>
@@ -754,11 +754,11 @@
   </si>
   <si>
     <t>장비개방
-ハントシリーズ
+헌트 시리즈(ハントシリーズ)
 오토모 장비개방
-ハントネコナイフ_x000D_
-ハントネコヘルム_x000D_
-ハントネコメイル</t>
+헌트 고양이 나이프(ハントネコナイフ)
+헌트 고양이 헬름(ハントネコヘルム)
+헌트 고양이 메일(ハントネコメイル)</t>
   </si>
   <si>
     <t>ココット村の村長の依頼3</t>
@@ -770,10 +770,6 @@
     <t>마을★3 대괴조 얀쿡을 쓰러뜨려라!(大怪鳥イャンクックを倒せ！)</t>
   </si>
   <si>
-    <t>입수_x000D_
- 龍歴院ポイント500pts</t>
-  </si>
-  <si>
     <t>ココット村の村長の依頼4</t>
   </si>
   <si>
@@ -784,7 +780,7 @@
   </si>
   <si>
     <t>입수
-ココットチケット x2</t>
+코코트 티켓 x2(ココットチケット x2)</t>
   </si>
   <si>
     <t>ココット村の村長の依頼5</t>
@@ -797,10 +793,10 @@
   </si>
   <si>
     <t>입수
-ココットチケット x5_x000D_
-ココット村のヒーローブレイド
+코코트 티켓 x5(ココットチケット x5)
+코코트 마을의 히어로 블레이드(ココット村のヒーローブレイド)
 수기개방
-バレットゲイザーLV2</t>
+블릿 게이저LV2(バレットゲイザーLV2)</t>
   </si>
   <si>
     <t>ココット村の村長の依頼6</t>
@@ -813,7 +809,7 @@
   </si>
   <si>
     <t>입수
-煌竜剣</t>
+황룡검(煌竜剣)</t>
   </si>
   <si>
     <t>ココット村の村長の依頼7</t>
@@ -825,12 +821,12 @@
     <t>마을★10 고난도 : 숲과언덕에서 화룡은 선회한다(高難度：森丘にて火竜は旋廻す)</t>
   </si>
   <si>
-    <t>입수_x000D_
-ココットチケットG_x000D_
-오토모 장비개방_x000D_
-ハントＸネコナイフ_x000D_
-ハントＸネコヘルム_x000D_
-ハントＸネコメイル</t>
+    <t>입수
+코코트 티켓G(ココットチケットG)
+오토모 장비개방
+헌트Ｘ 고양이 나이프(ハントＸネコナイフ)
+헌트Ｘ 고양이 헬름(ハントＸネコヘルム)
+헌트Ｘ 고양이 메일(ハントＸネコメイル)</t>
   </si>
   <si>
     <t>ココット村の受付嬢の依頼1</t>
@@ -846,12 +842,12 @@
   </si>
   <si>
     <t>장비개방
-ほろ酔いビーア_x000D_
-メイド/プライベートシリーズ
+호로요이 피어(ほろ酔いビーア)
+메이드/프라이빗 시리즈(メイド/プライベートシリーズ)
 오토모 장비개방
-ココットネコビーア_x000D_
-メイドネコフード_x000D_
-メイドネコメイル</t>
+코코트 고양이 피어(ココットネコビーア)
+메이드 고양이 후드(メイドネコフード)
+메이드 고양이 메일(メイドネコメイル)</t>
   </si>
   <si>
     <t>ココット村の受付嬢の依頼2</t>
@@ -867,11 +863,11 @@
   </si>
   <si>
     <t>장비개방
-メイドＸ/プライベートＸシリーズ
+메이드Ｘ/프라이빗Ｘ 시리즈(メイドＸ/プライベートＸシリーズ)
 오토모 장비개방
-ココットＸネコビーア_x000D_
-メイドＸネコフード_x000D_
-メイドＸネコメイル</t>
+코코트Ｘ 고양이 피어(ココットＸネコビーア)
+메이드Ｘ 고양이 후드(メイドＸネコフード)
+메이드Ｘ 고양이 메일(メイドＸネコメイル)</t>
   </si>
   <si>
     <t>ミナガルデの看板娘の依頼1</t>
@@ -884,10 +880,10 @@
   </si>
   <si>
     <t>장비개방
-メイドS/プライベートSシリーズ
+메이드Ｓ/프라이빗Ｓ 시리즈(メイドＳ/プライベートＳシリーズ)
 오토모 장비개방
-メイドＳネコフード_x000D_
-メイドＳネコメイル</t>
+메이드Ｓ 고양이 후드(メイドＳネコフード)
+메이드Ｓ 고양이 메일(メイドＳネコメイル)</t>
   </si>
   <si>
     <t>ミナガルデの看板娘の依頼2</t>
@@ -899,8 +895,8 @@
     <t>마을★9 새치기수주 : 알납품(割り込み受注：卵納品)</t>
   </si>
   <si>
-    <t>입수_x000D_
-ココット村の村貢献度300pts</t>
+    <t>입수
+코코트 마을의 마을 공헌도 300pts(ココット村の村貢献度300pts)</t>
   </si>
   <si>
     <t>ミナガルデの看板娘の依頼3</t>
@@ -913,7 +909,7 @@
   </si>
   <si>
     <t>퀘스트 보수
-EX桃毛獣チケット</t>
+EX도모수 티켓(EX桃毛獣チケット)</t>
   </si>
   <si>
     <t>休息中のハンターの依頼</t>
@@ -926,8 +922,8 @@
   </si>
   <si>
     <t>수기개방
-チャージショットLV2
-身躱し射法LV2</t>
+차지 샷LV2(チャージショットLV2)
+회피사법LV2(身躱し射法LV2)</t>
   </si>
   <si>
     <t>トレジィの依頼1</t>
@@ -940,7 +936,7 @@
   </si>
   <si>
     <t>퀘스트 보수
-オオシッポガエル</t>
+큰 꼬리 개구리(オオシッポガエル)</t>
   </si>
   <si>
     <t>トレジィの依頼2</t>
@@ -953,7 +949,7 @@
   </si>
   <si>
     <t>퀘스트 보수
-ハナスズムシ</t>
+꽃방울벌레(ハナスズムシ)</t>
   </si>
   <si>
     <t>トレジィの依頼3</t>
@@ -966,9 +962,9 @@
   </si>
   <si>
     <t>퀘스트 보수
-キングミート
+킹 미트(キングミート)
 장비개방
-グレイトフルハム</t>
+그레이트풀  햄(グレイトフルハム)</t>
   </si>
   <si>
     <t>トレジィの依頼4</t>
@@ -981,7 +977,7 @@
   </si>
   <si>
     <t>식재
-チョモラン米</t>
+초몰룽쌀(チョモラン米)</t>
   </si>
   <si>
     <t>ヘルブラザーズ・赤鬼の依頼(1)</t>
@@ -994,7 +990,7 @@
   </si>
   <si>
     <t>퀘스트 보수
-EX火竜チケット</t>
+EX화룡 티켓S(EX火竜チケットS)</t>
   </si>
   <si>
     <t>ヘルブラザーズ・赤鬼の依頼(2)</t>
@@ -1006,226 +1002,219 @@
     <t>집회소★7 하늘의 비룡과 육지의 비룡(空の飛竜と陸の飛竜)</t>
   </si>
   <si>
+    <t>ヘルブラザーズ・赤鬼の依頼2</t>
+  </si>
+  <si>
+    <t>헬 브라더스・적귀의 의뢰2</t>
+  </si>
+  <si>
+    <t>마을★9 굉룡 수렵을 시켜주지!(轟竜の狩猟をさせてやるぜ！)</t>
+  </si>
+  <si>
+    <t>장비개방
+크리스탈 록(クリスタルロック)
+알바레드(アルバレッド)</t>
+  </si>
+  <si>
+    <t>ヘルブラザーズ・赤鬼の依頼3</t>
+  </si>
+  <si>
+    <t>헬 브라더스・적귀의 의뢰3</t>
+  </si>
+  <si>
+    <t>G★2 겸해의 수렵을 시켜주지!(鎌蟹の狩猟をさせてやるぜ！)</t>
+  </si>
+  <si>
+    <t>수기개방
+문 브레이크LV2(ムーンブレイクLV2)
+각충강화LV2(覚蟲強化LV2)</t>
+  </si>
+  <si>
+    <t>ドンドルマの守護兵の依頼1</t>
+  </si>
+  <si>
+    <t>돈도르마 수호병의 의뢰1</t>
+  </si>
+  <si>
+    <t>마을★6 고난도 : 흑랑조는 내려앉았다(高難度：黒狼鳥は舞い降りた)</t>
+  </si>
+  <si>
+    <t>장비개방
+가디언 시리즈(ガーディアンシリーズ)
+가디언U 시리즈(ガーディアンUシリーズ)
+가디언 랜스(ガーディアンランス)</t>
+  </si>
+  <si>
+    <t>ドンドルマの守護兵の依頼2</t>
+  </si>
+  <si>
+    <t>돈도르마 수호병의 의뢰2</t>
+  </si>
+  <si>
+    <t>마을★6 고난도 : 대하룡방위작전!(高難度：対霞龍防衛作戦！)</t>
+  </si>
+  <si>
+    <t>장비개방
+용두금(龍頭琴)
+오토모 장비개방
+영원의 용두금(悠久の龍頭琴)
+영혼이 깃든 머리장식(魂を宿す髪飾り)
+마호로바의 옷(まほろばの衣)</t>
+  </si>
+  <si>
+    <t>ドンドルマの守護兵の依頼3</t>
+  </si>
+  <si>
+    <t>돈도르마 수호병의 의뢰3</t>
+  </si>
+  <si>
+    <t>G★1 숲과언덕의 성가신 괴조씨(森丘の迷惑な怪鳥さん)</t>
+  </si>
+  <si>
+    <t>식재
+큰 돈도르 콩(大ドンドル豆)</t>
+  </si>
+  <si>
+    <t>シナト村の長老の依頼</t>
+  </si>
+  <si>
+    <t>시나토 마을 장로의 의뢰</t>
+  </si>
+  <si>
+    <t>집회소★4 안주로 쓸 간은 하얀간(肴のキモはホワイトレバー)</t>
+  </si>
+  <si>
+    <t>식재
+시나토 날치(シナトビウオ)</t>
+  </si>
+  <si>
+    <t>キャラバンの料理長の依頼1</t>
+  </si>
+  <si>
+    <t>캐러밴 요리장의 의뢰1</t>
+  </si>
+  <si>
+    <t>집회소★1 새로운 식재헌터의 탄생!?(新たな食材ハンターの誕生！？)</t>
+  </si>
+  <si>
+    <t>식재
+치코 옥수수(チココーン)</t>
+  </si>
+  <si>
+    <t>キャラバンの料理長の依頼2</t>
+  </si>
+  <si>
+    <t>캐러밴 요리장의 의뢰2</t>
+  </si>
+  <si>
+    <t>마을★9 설산, 설옥, 설합전!!(雪山、雪玉、雪合戦！！)</t>
+  </si>
+  <si>
+    <t>식재
+대음양・용살(大吟醸・龍ころし)</t>
+  </si>
+  <si>
+    <t>キャラバンの料理長の依頼3</t>
+  </si>
+  <si>
+    <t>캐러밴 요리장의 의뢰3</t>
+  </si>
+  <si>
+    <t>G★2 치코마을을 위협하는 수룡을 사냥해라!(チコ村を脅かす水竜を狩れ！)</t>
+  </si>
+  <si>
+    <t>식재
+천연 치코 복어(天然チコフグ)</t>
+  </si>
+  <si>
+    <t>キャラバンの娘の依頼1</t>
+  </si>
+  <si>
+    <t>캐러밴 아가씨의 의뢰1</t>
+  </si>
+  <si>
+    <t>나구리 마을(ナグリ村) 촌장과 대화</t>
+  </si>
+  <si>
+    <t>식재
+앗뜨앗뜨염통(アツアツハツ)</t>
+  </si>
+  <si>
+    <t>キャラバンの娘の依頼2</t>
+  </si>
+  <si>
+    <t>캐러밴 아가씨의 의뢰2</t>
+  </si>
+  <si>
+    <t>집회소★6 마음을 불태워라, 연석탄!(心を燃やせ、燃石炭！)</t>
+  </si>
+  <si>
+    <t>식재
+마그마돈(マグマトン)</t>
+  </si>
+  <si>
+    <t>キャラバンの娘の依頼3</t>
+  </si>
+  <si>
+    <t>캐러밴 아가씨의 의뢰3</t>
+  </si>
+  <si>
+    <t>마을★8 열대에 나타나다, 우라간킨!(熱地に現る、ウラガンキン！)</t>
+  </si>
+  <si>
+    <t>キャラバンの竜人商人の依頼1</t>
+  </si>
+  <si>
+    <t>캐러밴 용인상인의 의뢰1</t>
+  </si>
+  <si>
+    <t>마을★5 게료스한 계절(ゲリョスな季節)</t>
+  </si>
+  <si>
     <t>퀘스트 보수
-EX火竜チケットS</t>
-  </si>
-  <si>
-    <t>ヘルブラザーズ・赤鬼の依頼2</t>
-  </si>
-  <si>
-    <t>헬 브라더스・적귀의 의뢰2</t>
-  </si>
-  <si>
-    <t>마을★9 굉룡 수렵을 시켜주지!(轟竜の狩猟をさせてやるぜ！)</t>
+유쿠모 시라타마코(ユクモ白玉粉)</t>
+  </si>
+  <si>
+    <t>キャラバンの竜人商人の依頼2</t>
+  </si>
+  <si>
+    <t>캐러밴 용인상인의 의뢰2</t>
+  </si>
+  <si>
+    <t>집회소★3 화석에 잠든 태고의 기억(化石に眠る太古の記憶)</t>
+  </si>
+  <si>
+    <t>퀘스트 보수
+봉제인형 세트(ぬいぐるみセット)</t>
+  </si>
+  <si>
+    <t>キャラバンの竜人商人の依頼3</t>
+  </si>
+  <si>
+    <t>캐러밴 용인상인의 의뢰3</t>
+  </si>
+  <si>
+    <t>집회소★5 설산의 주인, 도도블랑고(雪山の主、ドドブランゴ)</t>
+  </si>
+  <si>
+    <t>퀘스트 보수
+대칠성(オオナナホシ)</t>
+  </si>
+  <si>
+    <t>キャラバンの竜人商人の依頼4</t>
+  </si>
+  <si>
+    <t>캐러밴 용인상인의 의뢰4</t>
+  </si>
+  <si>
+    <t>마을★10 유군령을 가로막는 공폭룡(遺群嶺を塞ぐ恐暴竜)</t>
   </si>
   <si>
     <t>장비개방
-クリスタルロック_x000D_
-アルバレッド</t>
-  </si>
-  <si>
-    <t>ヘルブラザーズ・赤鬼の依頼3</t>
-  </si>
-  <si>
-    <t>헬 브라더스・적귀의 의뢰3</t>
-  </si>
-  <si>
-    <t>G★2 겸해의 수렵을 시켜주지!(鎌蟹の狩猟をさせてやるぜ！)</t>
-  </si>
-  <si>
-    <t>수기개방
-ムーンブレイクLV2
-覚蟲強化LV2</t>
-  </si>
-  <si>
-    <t>ドンドルマの守護兵の依頼1</t>
-  </si>
-  <si>
-    <t>돈도르마 수호병의 의뢰1</t>
-  </si>
-  <si>
-    <t>마을★6 고난도 : 흑랑조는 내려앉았다(高難度：黒狼鳥は舞い降りた)</t>
-  </si>
-  <si>
-    <t>장비개방
-ガーディアンシリーズ_x000D_
-ガーディアンUシリーズ_x000D_
-ガーディアンランス</t>
-  </si>
-  <si>
-    <t>ドンドルマの守護兵の依頼2</t>
-  </si>
-  <si>
-    <t>돈도르마 수호병의 의뢰2</t>
-  </si>
-  <si>
-    <t>마을★6 고난도 : 대하룡방위작전!(高難度：対霞龍防衛作戦！)</t>
-  </si>
-  <si>
-    <t>장비개방
-龍頭琴
-오토모 장비개방
-悠久の龍頭琴_x000D_
-魂を宿す髪飾り_x000D_
-まほろばの衣</t>
-  </si>
-  <si>
-    <t>ドンドルマの守護兵の依頼3</t>
-  </si>
-  <si>
-    <t>돈도르마 수호병의 의뢰3</t>
-  </si>
-  <si>
-    <t>G★1 숲과언덕의 성가신 괴조씨(森丘の迷惑な怪鳥さん)</t>
-  </si>
-  <si>
-    <t>식재
-大ドンドル豆</t>
-  </si>
-  <si>
-    <t>シナト村の長老の依頼</t>
-  </si>
-  <si>
-    <t>시나토 마을 장로의 의뢰</t>
-  </si>
-  <si>
-    <t>집회소★4 안주로 쓸 간은 하얀간(肴のキモはホワイトレバー)</t>
-  </si>
-  <si>
-    <t>식재_x000D_
-シナトビウオ</t>
-  </si>
-  <si>
-    <t>キャラバンの料理長の依頼1</t>
-  </si>
-  <si>
-    <t>캐러밴 요리장의 의뢰1</t>
-  </si>
-  <si>
-    <t>집회소★1 새로운 식재헌터의 탄생!?(新たな食材ハンターの誕生！？)</t>
-  </si>
-  <si>
-    <t>식재_x000D_
-チココーン</t>
-  </si>
-  <si>
-    <t>キャラバンの料理長の依頼2</t>
-  </si>
-  <si>
-    <t>캐러밴 요리장의 의뢰2</t>
-  </si>
-  <si>
-    <t>마을★9 설산, 설옥, 설합전!!(雪山、雪玉、雪合戦！！)</t>
-  </si>
-  <si>
-    <t>식재_x000D_
-大吟醸・龍ころし</t>
-  </si>
-  <si>
-    <t>キャラバンの料理長の依頼3</t>
-  </si>
-  <si>
-    <t>캐러밴 요리장의 의뢰3</t>
-  </si>
-  <si>
-    <t>G★2 치코마을을 위협하는 수룡을 사냥해라!(チコ村を脅かす水竜を狩れ！)</t>
-  </si>
-  <si>
-    <t>식재_x000D_
-天然チコフグ</t>
-  </si>
-  <si>
-    <t>キャラバンの娘の依頼1</t>
-  </si>
-  <si>
-    <t>캐러밴 아가씨의 의뢰1</t>
-  </si>
-  <si>
-    <t>나구리 마을(ナグリ村) 촌장과 대화</t>
-  </si>
-  <si>
-    <t>식재_x000D_
-アツアツハツ</t>
-  </si>
-  <si>
-    <t>キャラバンの娘の依頼2</t>
-  </si>
-  <si>
-    <t>캐러밴 아가씨의 의뢰2</t>
-  </si>
-  <si>
-    <t>집회소★6 마음을 불태워라, 연석탄!(心を燃やせ、燃石炭！)</t>
-  </si>
-  <si>
-    <t>식재_x000D_
-マグマトン</t>
-  </si>
-  <si>
-    <t>キャラバンの娘の依頼3</t>
-  </si>
-  <si>
-    <t>캐러밴 아가씨의 의뢰3</t>
-  </si>
-  <si>
-    <t>마을★8 열대에 나타나다, 우라간킨!(熱地に現る、ウラガンキン！)</t>
-  </si>
-  <si>
-    <t>ルームサービス変更可能</t>
-  </si>
-  <si>
-    <t>キャラバンの竜人商人の依頼1</t>
-  </si>
-  <si>
-    <t>캐러밴 용인상인의 의뢰1</t>
-  </si>
-  <si>
-    <t>마을★5 게료스한 계절(ゲリョスな季節)</t>
-  </si>
-  <si>
-    <t>퀘스트 보수
-ユクモ白玉粉</t>
-  </si>
-  <si>
-    <t>キャラバンの竜人商人の依頼2</t>
-  </si>
-  <si>
-    <t>캐러밴 용인상인의 의뢰2</t>
-  </si>
-  <si>
-    <t>집회소★3 화석에 잠든 태고의 기억(化石に眠る太古の記憶)</t>
-  </si>
-  <si>
-    <t>퀘스트 보수
-ぬいぐるみセット</t>
-  </si>
-  <si>
-    <t>キャラバンの竜人商人の依頼3</t>
-  </si>
-  <si>
-    <t>캐러밴 용인상인의 의뢰3</t>
-  </si>
-  <si>
-    <t>집회소★5 설산의 주인, 도도블랑고(雪山の主、ドドブランゴ)</t>
-  </si>
-  <si>
-    <t>퀘스트 보수
-オオナナホシ</t>
-  </si>
-  <si>
-    <t>キャラバンの竜人商人の依頼4</t>
-  </si>
-  <si>
-    <t>캐러밴 용인상인의 의뢰4</t>
-  </si>
-  <si>
-    <t>마을★10 유군령을 가로막는 공폭룡(遺群嶺を塞ぐ恐暴竜)</t>
-  </si>
-  <si>
-    <t>장비개방
-エルドラジェズル_x000D_
-エルドラカノーネ_x000D_
-ジャギィフェイク_x000D_
-ジャギィＸフェイク</t>
+엘도라 제즐(エルドラジェズル)
+엘도라 카노네(エルドラカノーネ)
+쟈기 페이크(ジャギィフェイク)
+쟈기Ｘ 페이크(ジャギィＸフェイク)</t>
   </si>
   <si>
     <t>交易船の船長の依頼1</t>
@@ -1238,9 +1227,9 @@
   </si>
   <si>
     <t>입수
-謎の武器の秘伝書 x1
-푸기의 옷_x000D_
-カエルのマーチ</t>
+수수께끼의 무기 비전서 x1(謎の武器の秘伝書 x1)
+푸기의 옷
+개구리의 행진(カエルのマーチ)</t>
   </si>
   <si>
     <t>交易船の船長の依頼2</t>
@@ -1253,7 +1242,7 @@
   </si>
   <si>
     <t>입수
-謎の重弩の秘伝書 x1</t>
+수수께끼의 중노 비전서 x1(謎の重弩の秘伝書 x1)</t>
   </si>
   <si>
     <t>交易船の船長の依頼3</t>
@@ -1269,8 +1258,8 @@
   </si>
   <si>
     <t>장비개방
-ホクシン/カイエンシリーズ_x000D_
-GXホクシン/GXカイエンシリーズ</t>
+호쿠신/카이엔 시리즈(ホクシン/カイエンシリーズ)
+GX호쿠신/GX카이엔 시리즈(GXホクシン/GXカイエンシリーズ)</t>
   </si>
   <si>
     <t>交易船の船長の依頼4</t>
@@ -1283,7 +1272,7 @@
   </si>
   <si>
     <t>입수
-南蛮刀</t>
+남만도(南蛮刀)</t>
   </si>
   <si>
     <t>バルバレの仕切り役の依頼1</t>
@@ -1296,7 +1285,13 @@
   </si>
   <si>
     <t>입수
-ギルドチケット x5</t>
+길드 티켓 x5(ギルドチケット x5)
+장비개방
+닌자 소드(ニンジャソード)
+인・천/인・지 시리즈(忍・天/忍・地シリーズ)
+인・공/인・해 시리즈(忍・空/忍・海シリーズ)
+수기개방
+음격진LV3(音撃震LV3)</t>
   </si>
   <si>
     <t>バルバレの仕切り役の依頼2</t>
@@ -1308,16 +1303,6 @@
     <t>집회소★7 시련의 귀결점(試練の帰結点)</t>
   </si>
   <si>
-    <t>입수
-ギルドチケット x5
-장비개방
-ニンジャソード_x000D_
-忍・天/忍・地シリーズ_x000D_
-忍・空/忍・海シリーズ
-수기개방
-音撃震LV3</t>
-  </si>
-  <si>
     <t>バルバレの仕切り役の依頼3</t>
   </si>
   <si>
@@ -1328,7 +1313,7 @@
   </si>
   <si>
     <t>장비개방
-忍・極天/忍・極地シリーズ</t>
+인・극천/인・극지 시리즈(忍・極天/忍・極地シリーズ)</t>
   </si>
   <si>
     <t>폿케 마을(ポッケ村)</t>
@@ -1625,6 +1610,9 @@
   </si>
   <si>
     <t>G★2 부딪혀라 삶☆아프로 소울(ぶつけろ生き様☆アフロソウル)</t>
+  </si>
+  <si>
+    <t>ルームサービス変更可能</t>
   </si>
   <si>
     <t>さすらいのコックの依頼1</t>
@@ -3263,8 +3251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="D83" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4106,7 +4094,7 @@
         <v>197</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>198</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="30">
@@ -4114,16 +4102,16 @@
         <v>186</v>
       </c>
       <c r="B50" t="s">
+        <v>198</v>
+      </c>
+      <c r="C50" t="s">
         <v>199</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>200</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="75">
@@ -4131,16 +4119,16 @@
         <v>186</v>
       </c>
       <c r="B51" t="s">
+        <v>202</v>
+      </c>
+      <c r="C51" t="s">
         <v>203</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>204</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="30">
@@ -4148,16 +4136,16 @@
         <v>186</v>
       </c>
       <c r="B52" t="s">
+        <v>206</v>
+      </c>
+      <c r="C52" t="s">
         <v>207</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>208</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="90">
@@ -4165,16 +4153,16 @@
         <v>186</v>
       </c>
       <c r="B53" t="s">
+        <v>210</v>
+      </c>
+      <c r="C53" t="s">
         <v>211</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>212</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="105">
@@ -4182,16 +4170,16 @@
         <v>186</v>
       </c>
       <c r="B54" t="s">
+        <v>214</v>
+      </c>
+      <c r="C54" t="s">
         <v>215</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="90">
@@ -4199,16 +4187,16 @@
         <v>186</v>
       </c>
       <c r="B55" t="s">
+        <v>218</v>
+      </c>
+      <c r="C55" t="s">
         <v>219</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="75">
@@ -4216,16 +4204,16 @@
         <v>186</v>
       </c>
       <c r="B56" t="s">
+        <v>222</v>
+      </c>
+      <c r="C56" t="s">
         <v>223</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>224</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="30">
@@ -4233,16 +4221,16 @@
         <v>186</v>
       </c>
       <c r="B57" t="s">
+        <v>226</v>
+      </c>
+      <c r="C57" t="s">
         <v>227</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>228</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="30">
@@ -4250,16 +4238,16 @@
         <v>186</v>
       </c>
       <c r="B58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C58" t="s">
         <v>231</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>232</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="45">
@@ -4267,16 +4255,16 @@
         <v>186</v>
       </c>
       <c r="B59" t="s">
+        <v>234</v>
+      </c>
+      <c r="C59" t="s">
         <v>235</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>236</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="30">
@@ -4284,16 +4272,16 @@
         <v>186</v>
       </c>
       <c r="B60" t="s">
+        <v>238</v>
+      </c>
+      <c r="C60" t="s">
         <v>239</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>240</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="30">
@@ -4301,16 +4289,16 @@
         <v>186</v>
       </c>
       <c r="B61" t="s">
+        <v>242</v>
+      </c>
+      <c r="C61" t="s">
         <v>243</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>244</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="60">
@@ -4318,16 +4306,16 @@
         <v>186</v>
       </c>
       <c r="B62" t="s">
+        <v>246</v>
+      </c>
+      <c r="C62" t="s">
         <v>247</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>248</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="30">
@@ -4335,16 +4323,16 @@
         <v>186</v>
       </c>
       <c r="B63" t="s">
+        <v>250</v>
+      </c>
+      <c r="C63" t="s">
         <v>251</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>252</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="30">
@@ -4352,16 +4340,16 @@
         <v>186</v>
       </c>
       <c r="B64" t="s">
+        <v>254</v>
+      </c>
+      <c r="C64" t="s">
         <v>255</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>256</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="30">
@@ -4369,16 +4357,16 @@
         <v>186</v>
       </c>
       <c r="B65" t="s">
+        <v>258</v>
+      </c>
+      <c r="C65" t="s">
         <v>259</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>260</v>
       </c>
-      <c r="D65" t="s">
-        <v>261</v>
-      </c>
       <c r="E65" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="45">
@@ -4386,16 +4374,16 @@
         <v>186</v>
       </c>
       <c r="B66" t="s">
+        <v>261</v>
+      </c>
+      <c r="C66" t="s">
+        <v>262</v>
+      </c>
+      <c r="D66" t="s">
         <v>263</v>
       </c>
-      <c r="C66" t="s">
+      <c r="E66" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="D66" t="s">
-        <v>265</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="45">
@@ -4403,16 +4391,16 @@
         <v>186</v>
       </c>
       <c r="B67" t="s">
+        <v>265</v>
+      </c>
+      <c r="C67" t="s">
+        <v>266</v>
+      </c>
+      <c r="D67" t="s">
         <v>267</v>
       </c>
-      <c r="C67" t="s">
+      <c r="E67" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="D67" t="s">
-        <v>269</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="60">
@@ -4420,16 +4408,16 @@
         <v>186</v>
       </c>
       <c r="B68" t="s">
+        <v>269</v>
+      </c>
+      <c r="C68" t="s">
+        <v>270</v>
+      </c>
+      <c r="D68" t="s">
         <v>271</v>
       </c>
-      <c r="C68" t="s">
+      <c r="E68" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="D68" t="s">
-        <v>273</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="90">
@@ -4437,16 +4425,16 @@
         <v>186</v>
       </c>
       <c r="B69" t="s">
+        <v>273</v>
+      </c>
+      <c r="C69" t="s">
+        <v>274</v>
+      </c>
+      <c r="D69" t="s">
         <v>275</v>
       </c>
-      <c r="C69" t="s">
+      <c r="E69" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="D69" t="s">
-        <v>277</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="30">
@@ -4454,16 +4442,16 @@
         <v>186</v>
       </c>
       <c r="B70" t="s">
+        <v>277</v>
+      </c>
+      <c r="C70" t="s">
+        <v>278</v>
+      </c>
+      <c r="D70" t="s">
         <v>279</v>
       </c>
-      <c r="C70" t="s">
+      <c r="E70" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="D70" t="s">
-        <v>281</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="30">
@@ -4471,16 +4459,16 @@
         <v>186</v>
       </c>
       <c r="B71" t="s">
+        <v>281</v>
+      </c>
+      <c r="C71" t="s">
+        <v>282</v>
+      </c>
+      <c r="D71" t="s">
         <v>283</v>
       </c>
-      <c r="C71" t="s">
+      <c r="E71" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="D71" t="s">
-        <v>285</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="30">
@@ -4488,16 +4476,16 @@
         <v>186</v>
       </c>
       <c r="B72" t="s">
+        <v>285</v>
+      </c>
+      <c r="C72" t="s">
+        <v>286</v>
+      </c>
+      <c r="D72" t="s">
         <v>287</v>
       </c>
-      <c r="C72" t="s">
+      <c r="E72" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="D72" t="s">
-        <v>289</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="30">
@@ -4505,16 +4493,16 @@
         <v>186</v>
       </c>
       <c r="B73" t="s">
+        <v>289</v>
+      </c>
+      <c r="C73" t="s">
+        <v>290</v>
+      </c>
+      <c r="D73" t="s">
         <v>291</v>
       </c>
-      <c r="C73" t="s">
+      <c r="E73" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="D73" t="s">
-        <v>293</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="30">
@@ -4522,16 +4510,16 @@
         <v>186</v>
       </c>
       <c r="B74" t="s">
+        <v>293</v>
+      </c>
+      <c r="C74" t="s">
+        <v>294</v>
+      </c>
+      <c r="D74" t="s">
         <v>295</v>
       </c>
-      <c r="C74" t="s">
+      <c r="E74" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="D74" t="s">
-        <v>297</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="30">
@@ -4539,16 +4527,16 @@
         <v>186</v>
       </c>
       <c r="B75" t="s">
+        <v>297</v>
+      </c>
+      <c r="C75" t="s">
+        <v>298</v>
+      </c>
+      <c r="D75" t="s">
         <v>299</v>
       </c>
-      <c r="C75" t="s">
+      <c r="E75" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="D75" t="s">
-        <v>301</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="30">
@@ -4556,16 +4544,16 @@
         <v>186</v>
       </c>
       <c r="B76" t="s">
+        <v>301</v>
+      </c>
+      <c r="C76" t="s">
+        <v>302</v>
+      </c>
+      <c r="D76" t="s">
         <v>303</v>
       </c>
-      <c r="C76" t="s">
+      <c r="E76" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="D76" t="s">
-        <v>305</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4573,16 +4561,16 @@
         <v>186</v>
       </c>
       <c r="B77" t="s">
+        <v>305</v>
+      </c>
+      <c r="C77" t="s">
+        <v>306</v>
+      </c>
+      <c r="D77" t="s">
         <v>307</v>
       </c>
-      <c r="C77" t="s">
-        <v>308</v>
-      </c>
-      <c r="D77" t="s">
-        <v>309</v>
-      </c>
       <c r="E77" t="s">
-        <v>310</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="30">
@@ -4590,16 +4578,16 @@
         <v>186</v>
       </c>
       <c r="B78" t="s">
+        <v>308</v>
+      </c>
+      <c r="C78" t="s">
+        <v>309</v>
+      </c>
+      <c r="D78" t="s">
+        <v>310</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="C78" t="s">
-        <v>312</v>
-      </c>
-      <c r="D78" t="s">
-        <v>313</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="30">
@@ -4607,16 +4595,16 @@
         <v>186</v>
       </c>
       <c r="B79" t="s">
+        <v>312</v>
+      </c>
+      <c r="C79" t="s">
+        <v>313</v>
+      </c>
+      <c r="D79" t="s">
+        <v>314</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="C79" t="s">
-        <v>316</v>
-      </c>
-      <c r="D79" t="s">
-        <v>317</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="30">
@@ -4624,16 +4612,16 @@
         <v>186</v>
       </c>
       <c r="B80" t="s">
+        <v>316</v>
+      </c>
+      <c r="C80" t="s">
+        <v>317</v>
+      </c>
+      <c r="D80" t="s">
+        <v>318</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="C80" t="s">
-        <v>320</v>
-      </c>
-      <c r="D80" t="s">
-        <v>321</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="75">
@@ -4641,16 +4629,16 @@
         <v>186</v>
       </c>
       <c r="B81" t="s">
+        <v>320</v>
+      </c>
+      <c r="C81" t="s">
+        <v>321</v>
+      </c>
+      <c r="D81" t="s">
+        <v>322</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="C81" t="s">
-        <v>324</v>
-      </c>
-      <c r="D81" t="s">
-        <v>325</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="60">
@@ -4658,16 +4646,16 @@
         <v>186</v>
       </c>
       <c r="B82" t="s">
+        <v>324</v>
+      </c>
+      <c r="C82" t="s">
+        <v>325</v>
+      </c>
+      <c r="D82" t="s">
+        <v>326</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="C82" t="s">
-        <v>328</v>
-      </c>
-      <c r="D82" t="s">
-        <v>329</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="30">
@@ -4675,16 +4663,16 @@
         <v>186</v>
       </c>
       <c r="B83" t="s">
+        <v>328</v>
+      </c>
+      <c r="C83" t="s">
+        <v>329</v>
+      </c>
+      <c r="D83" t="s">
+        <v>330</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="C83" t="s">
-        <v>332</v>
-      </c>
-      <c r="D83" t="s">
-        <v>333</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="60">
@@ -4692,16 +4680,16 @@
         <v>186</v>
       </c>
       <c r="B84" t="s">
+        <v>332</v>
+      </c>
+      <c r="C84" t="s">
+        <v>333</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="C84" t="s">
-        <v>336</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="30">
@@ -4709,33 +4697,33 @@
         <v>186</v>
       </c>
       <c r="B85" t="s">
+        <v>336</v>
+      </c>
+      <c r="C85" t="s">
+        <v>337</v>
+      </c>
+      <c r="D85" t="s">
+        <v>338</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C85" t="s">
-        <v>340</v>
-      </c>
-      <c r="D85" t="s">
-        <v>341</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="30">
+    </row>
+    <row r="86" spans="1:5" ht="120">
       <c r="A86" t="s">
         <v>186</v>
       </c>
       <c r="B86" t="s">
+        <v>340</v>
+      </c>
+      <c r="C86" t="s">
+        <v>341</v>
+      </c>
+      <c r="D86" t="s">
+        <v>342</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="C86" t="s">
-        <v>344</v>
-      </c>
-      <c r="D86" t="s">
-        <v>345</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="120">
@@ -4743,16 +4731,16 @@
         <v>186</v>
       </c>
       <c r="B87" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C87" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D87" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="30">
@@ -4760,1835 +4748,1835 @@
         <v>186</v>
       </c>
       <c r="B88" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C88" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D88" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="30">
       <c r="A89" t="s">
+        <v>351</v>
+      </c>
+      <c r="B89" t="s">
+        <v>352</v>
+      </c>
+      <c r="C89" t="s">
+        <v>353</v>
+      </c>
+      <c r="D89" t="s">
+        <v>354</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="B89" t="s">
-        <v>356</v>
-      </c>
-      <c r="C89" t="s">
-        <v>357</v>
-      </c>
-      <c r="D89" t="s">
-        <v>358</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="75">
       <c r="A90" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B90" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C90" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D90" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="30">
       <c r="A91" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B91" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C91" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D91" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="30">
       <c r="A92" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B92" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C92" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D92" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="75">
       <c r="A93" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B93" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C93" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D93" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="30">
       <c r="A94" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B94" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C94" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D94" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="75">
       <c r="A95" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B95" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C95" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D95" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="105">
       <c r="A96" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B96" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C96" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="105">
       <c r="A97" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B97" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C97" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D97" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="105">
       <c r="A98" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B98" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C98" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D98" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="30">
       <c r="A99" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B99" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C99" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D99" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="30">
       <c r="A100" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B100" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C100" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D100" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="30">
       <c r="A101" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B101" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C101" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D101" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="60">
       <c r="A102" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B102" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C102" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D102" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="60">
       <c r="A103" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B103" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C103" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D103" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="90">
       <c r="A104" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B104" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C104" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D104" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="30">
       <c r="A105" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B105" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C105" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D105" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="60">
       <c r="A106" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B106" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C106" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D106" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="30">
       <c r="A107" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B107" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C107" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D107" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B108" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C108" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D108" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E108" t="s">
-        <v>310</v>
+        <v>431</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="60">
       <c r="A109" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B109" t="s">
+        <v>432</v>
+      </c>
+      <c r="C109" t="s">
+        <v>433</v>
+      </c>
+      <c r="D109" t="s">
+        <v>434</v>
+      </c>
+      <c r="E109" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="C109" t="s">
-        <v>436</v>
-      </c>
-      <c r="D109" t="s">
-        <v>437</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="30">
       <c r="A110" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B110" t="s">
+        <v>436</v>
+      </c>
+      <c r="C110" t="s">
+        <v>437</v>
+      </c>
+      <c r="D110" t="s">
+        <v>438</v>
+      </c>
+      <c r="E110" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="C110" t="s">
-        <v>440</v>
-      </c>
-      <c r="D110" t="s">
-        <v>441</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="30">
       <c r="A111" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B111" t="s">
+        <v>440</v>
+      </c>
+      <c r="C111" t="s">
+        <v>441</v>
+      </c>
+      <c r="D111" t="s">
+        <v>442</v>
+      </c>
+      <c r="E111" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="C111" t="s">
-        <v>444</v>
-      </c>
-      <c r="D111" t="s">
-        <v>445</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="90">
       <c r="A112" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B112" t="s">
+        <v>444</v>
+      </c>
+      <c r="C112" t="s">
+        <v>445</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E112" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="C112" t="s">
-        <v>448</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B113" t="s">
+        <v>448</v>
+      </c>
+      <c r="C113" t="s">
+        <v>449</v>
+      </c>
+      <c r="D113" t="s">
+        <v>450</v>
+      </c>
+      <c r="E113" t="s">
         <v>451</v>
-      </c>
-      <c r="C113" t="s">
-        <v>452</v>
-      </c>
-      <c r="D113" t="s">
-        <v>453</v>
-      </c>
-      <c r="E113" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="30">
       <c r="A114" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B114" t="s">
+        <v>452</v>
+      </c>
+      <c r="C114" t="s">
+        <v>453</v>
+      </c>
+      <c r="D114" t="s">
+        <v>454</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="C114" t="s">
-        <v>456</v>
-      </c>
-      <c r="D114" t="s">
-        <v>457</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="45">
       <c r="A115" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B115" t="s">
+        <v>456</v>
+      </c>
+      <c r="C115" t="s">
+        <v>457</v>
+      </c>
+      <c r="D115" t="s">
+        <v>458</v>
+      </c>
+      <c r="E115" s="1" t="s">
         <v>459</v>
-      </c>
-      <c r="C115" t="s">
-        <v>460</v>
-      </c>
-      <c r="D115" t="s">
-        <v>461</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="105">
       <c r="A116" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B116" t="s">
+        <v>460</v>
+      </c>
+      <c r="C116" t="s">
+        <v>461</v>
+      </c>
+      <c r="D116" t="s">
+        <v>462</v>
+      </c>
+      <c r="E116" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="C116" t="s">
-        <v>464</v>
-      </c>
-      <c r="D116" t="s">
-        <v>465</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="60">
       <c r="A117" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B117" t="s">
+        <v>464</v>
+      </c>
+      <c r="C117" t="s">
+        <v>465</v>
+      </c>
+      <c r="D117" t="s">
+        <v>466</v>
+      </c>
+      <c r="E117" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="C117" t="s">
-        <v>468</v>
-      </c>
-      <c r="D117" t="s">
-        <v>469</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="105">
       <c r="A118" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B118" t="s">
+        <v>468</v>
+      </c>
+      <c r="C118" t="s">
+        <v>469</v>
+      </c>
+      <c r="D118" t="s">
+        <v>470</v>
+      </c>
+      <c r="E118" s="1" t="s">
         <v>471</v>
-      </c>
-      <c r="C118" t="s">
-        <v>472</v>
-      </c>
-      <c r="D118" t="s">
-        <v>473</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="90">
       <c r="A119" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B119" t="s">
+        <v>472</v>
+      </c>
+      <c r="C119" t="s">
+        <v>473</v>
+      </c>
+      <c r="D119" t="s">
+        <v>474</v>
+      </c>
+      <c r="E119" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="C119" t="s">
-        <v>476</v>
-      </c>
-      <c r="D119" t="s">
-        <v>477</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="30">
       <c r="A120" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B120" t="s">
+        <v>476</v>
+      </c>
+      <c r="C120" t="s">
+        <v>477</v>
+      </c>
+      <c r="D120" t="s">
+        <v>478</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="C120" t="s">
-        <v>480</v>
-      </c>
-      <c r="D120" t="s">
-        <v>481</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="30">
       <c r="A121" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B121" t="s">
+        <v>480</v>
+      </c>
+      <c r="C121" t="s">
+        <v>481</v>
+      </c>
+      <c r="D121" t="s">
+        <v>482</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="C121" t="s">
-        <v>484</v>
-      </c>
-      <c r="D121" t="s">
-        <v>485</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="45">
       <c r="A122" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B122" t="s">
+        <v>484</v>
+      </c>
+      <c r="C122" t="s">
+        <v>485</v>
+      </c>
+      <c r="D122" t="s">
+        <v>486</v>
+      </c>
+      <c r="E122" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="C122" t="s">
-        <v>488</v>
-      </c>
-      <c r="D122" t="s">
-        <v>489</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="390">
       <c r="A123" t="s">
+        <v>488</v>
+      </c>
+      <c r="B123" t="s">
+        <v>489</v>
+      </c>
+      <c r="C123" t="s">
+        <v>490</v>
+      </c>
+      <c r="D123" t="s">
         <v>491</v>
       </c>
-      <c r="B123" t="s">
+      <c r="E123" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="C123" t="s">
-        <v>493</v>
-      </c>
-      <c r="D123" t="s">
-        <v>494</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="30">
       <c r="A124" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B124" t="s">
+        <v>493</v>
+      </c>
+      <c r="C124" t="s">
+        <v>494</v>
+      </c>
+      <c r="D124" t="s">
+        <v>495</v>
+      </c>
+      <c r="E124" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="C124" t="s">
-        <v>497</v>
-      </c>
-      <c r="D124" t="s">
-        <v>498</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="90">
       <c r="A125" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B125" t="s">
+        <v>497</v>
+      </c>
+      <c r="C125" t="s">
+        <v>498</v>
+      </c>
+      <c r="D125" t="s">
+        <v>499</v>
+      </c>
+      <c r="E125" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="C125" t="s">
-        <v>501</v>
-      </c>
-      <c r="D125" t="s">
-        <v>502</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="30">
       <c r="A126" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B126" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C126" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D126" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="30">
       <c r="A127" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B127" t="s">
+        <v>504</v>
+      </c>
+      <c r="C127" t="s">
+        <v>505</v>
+      </c>
+      <c r="D127" t="s">
+        <v>506</v>
+      </c>
+      <c r="E127" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="C127" t="s">
-        <v>508</v>
-      </c>
-      <c r="D127" t="s">
-        <v>509</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="60">
       <c r="A128" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B128" t="s">
+        <v>508</v>
+      </c>
+      <c r="C128" t="s">
+        <v>509</v>
+      </c>
+      <c r="D128" t="s">
+        <v>510</v>
+      </c>
+      <c r="E128" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="C128" t="s">
-        <v>512</v>
-      </c>
-      <c r="D128" t="s">
-        <v>513</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="30">
       <c r="A129" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B129" t="s">
+        <v>512</v>
+      </c>
+      <c r="C129" t="s">
+        <v>513</v>
+      </c>
+      <c r="D129" t="s">
+        <v>514</v>
+      </c>
+      <c r="E129" s="1" t="s">
         <v>515</v>
-      </c>
-      <c r="C129" t="s">
-        <v>516</v>
-      </c>
-      <c r="D129" t="s">
-        <v>517</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="90">
       <c r="A130" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B130" t="s">
+        <v>516</v>
+      </c>
+      <c r="C130" t="s">
+        <v>517</v>
+      </c>
+      <c r="D130" t="s">
+        <v>518</v>
+      </c>
+      <c r="E130" s="1" t="s">
         <v>519</v>
-      </c>
-      <c r="C130" t="s">
-        <v>520</v>
-      </c>
-      <c r="D130" t="s">
-        <v>521</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="90">
       <c r="A131" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B131" t="s">
+        <v>520</v>
+      </c>
+      <c r="C131" t="s">
+        <v>521</v>
+      </c>
+      <c r="D131" t="s">
+        <v>522</v>
+      </c>
+      <c r="E131" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="C131" t="s">
-        <v>524</v>
-      </c>
-      <c r="D131" t="s">
-        <v>525</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="75">
       <c r="A132" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B132" t="s">
+        <v>524</v>
+      </c>
+      <c r="C132" t="s">
+        <v>525</v>
+      </c>
+      <c r="D132" t="s">
+        <v>526</v>
+      </c>
+      <c r="E132" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="C132" t="s">
-        <v>528</v>
-      </c>
-      <c r="D132" t="s">
-        <v>529</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="75">
       <c r="A133" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B133" t="s">
+        <v>528</v>
+      </c>
+      <c r="C133" t="s">
+        <v>529</v>
+      </c>
+      <c r="D133" t="s">
+        <v>530</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>531</v>
-      </c>
-      <c r="C133" t="s">
-        <v>532</v>
-      </c>
-      <c r="D133" t="s">
-        <v>533</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="30">
       <c r="A134" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B134" t="s">
+        <v>532</v>
+      </c>
+      <c r="C134" t="s">
+        <v>533</v>
+      </c>
+      <c r="D134" t="s">
+        <v>534</v>
+      </c>
+      <c r="E134" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="C134" t="s">
-        <v>536</v>
-      </c>
-      <c r="D134" t="s">
-        <v>537</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="45">
       <c r="A135" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B135" t="s">
+        <v>536</v>
+      </c>
+      <c r="C135" t="s">
+        <v>537</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="C135" t="s">
-        <v>540</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="45">
       <c r="A136" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B136" t="s">
+        <v>540</v>
+      </c>
+      <c r="C136" t="s">
+        <v>541</v>
+      </c>
+      <c r="D136" t="s">
+        <v>542</v>
+      </c>
+      <c r="E136" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="C136" t="s">
-        <v>544</v>
-      </c>
-      <c r="D136" t="s">
-        <v>545</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="45">
       <c r="A137" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B137" t="s">
+        <v>544</v>
+      </c>
+      <c r="C137" t="s">
+        <v>545</v>
+      </c>
+      <c r="D137" t="s">
+        <v>546</v>
+      </c>
+      <c r="E137" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="C137" t="s">
-        <v>548</v>
-      </c>
-      <c r="D137" t="s">
-        <v>549</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="45">
       <c r="A138" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B138" t="s">
+        <v>548</v>
+      </c>
+      <c r="C138" t="s">
+        <v>549</v>
+      </c>
+      <c r="D138" t="s">
+        <v>550</v>
+      </c>
+      <c r="E138" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="C138" t="s">
-        <v>552</v>
-      </c>
-      <c r="D138" t="s">
-        <v>553</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="60">
       <c r="A139" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B139" t="s">
+        <v>552</v>
+      </c>
+      <c r="C139" t="s">
+        <v>553</v>
+      </c>
+      <c r="D139" t="s">
+        <v>554</v>
+      </c>
+      <c r="E139" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="C139" t="s">
-        <v>556</v>
-      </c>
-      <c r="D139" t="s">
-        <v>557</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="60">
       <c r="A140" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B140" t="s">
+        <v>556</v>
+      </c>
+      <c r="C140" t="s">
+        <v>557</v>
+      </c>
+      <c r="D140" t="s">
+        <v>558</v>
+      </c>
+      <c r="E140" s="1" t="s">
         <v>559</v>
-      </c>
-      <c r="C140" t="s">
-        <v>560</v>
-      </c>
-      <c r="D140" t="s">
-        <v>561</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="60">
       <c r="A141" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B141" t="s">
+        <v>560</v>
+      </c>
+      <c r="C141" t="s">
+        <v>561</v>
+      </c>
+      <c r="D141" t="s">
+        <v>562</v>
+      </c>
+      <c r="E141" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="C141" t="s">
-        <v>564</v>
-      </c>
-      <c r="D141" t="s">
-        <v>565</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="30">
       <c r="A142" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B142" t="s">
+        <v>564</v>
+      </c>
+      <c r="C142" t="s">
+        <v>565</v>
+      </c>
+      <c r="D142" t="s">
+        <v>566</v>
+      </c>
+      <c r="E142" s="1" t="s">
         <v>567</v>
-      </c>
-      <c r="C142" t="s">
-        <v>568</v>
-      </c>
-      <c r="D142" t="s">
-        <v>569</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="30">
       <c r="A143" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B143" t="s">
+        <v>568</v>
+      </c>
+      <c r="C143" t="s">
+        <v>569</v>
+      </c>
+      <c r="D143" t="s">
+        <v>570</v>
+      </c>
+      <c r="E143" s="1" t="s">
         <v>571</v>
-      </c>
-      <c r="C143" t="s">
-        <v>572</v>
-      </c>
-      <c r="D143" t="s">
-        <v>573</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="30">
       <c r="A144" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B144" t="s">
+        <v>572</v>
+      </c>
+      <c r="C144" t="s">
+        <v>573</v>
+      </c>
+      <c r="D144" t="s">
+        <v>574</v>
+      </c>
+      <c r="E144" s="1" t="s">
         <v>575</v>
-      </c>
-      <c r="C144" t="s">
-        <v>576</v>
-      </c>
-      <c r="D144" t="s">
-        <v>577</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="30">
       <c r="A145" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B145" t="s">
+        <v>576</v>
+      </c>
+      <c r="C145" t="s">
+        <v>577</v>
+      </c>
+      <c r="D145" t="s">
+        <v>578</v>
+      </c>
+      <c r="E145" s="1" t="s">
         <v>579</v>
-      </c>
-      <c r="C145" t="s">
-        <v>580</v>
-      </c>
-      <c r="D145" t="s">
-        <v>581</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="30">
       <c r="A146" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B146" t="s">
+        <v>580</v>
+      </c>
+      <c r="C146" t="s">
+        <v>581</v>
+      </c>
+      <c r="D146" t="s">
+        <v>582</v>
+      </c>
+      <c r="E146" s="1" t="s">
         <v>583</v>
-      </c>
-      <c r="C146" t="s">
-        <v>584</v>
-      </c>
-      <c r="D146" t="s">
-        <v>585</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="30">
       <c r="A147" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B147" t="s">
+        <v>584</v>
+      </c>
+      <c r="C147" t="s">
+        <v>585</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="E147" s="1" t="s">
         <v>587</v>
-      </c>
-      <c r="C147" t="s">
-        <v>588</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="30">
       <c r="A148" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B148" t="s">
+        <v>588</v>
+      </c>
+      <c r="C148" t="s">
+        <v>589</v>
+      </c>
+      <c r="D148" t="s">
+        <v>590</v>
+      </c>
+      <c r="E148" s="1" t="s">
         <v>591</v>
-      </c>
-      <c r="C148" t="s">
-        <v>592</v>
-      </c>
-      <c r="D148" t="s">
-        <v>593</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="30">
       <c r="A149" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B149" t="s">
+        <v>592</v>
+      </c>
+      <c r="C149" t="s">
+        <v>593</v>
+      </c>
+      <c r="D149" t="s">
+        <v>594</v>
+      </c>
+      <c r="E149" s="1" t="s">
         <v>595</v>
-      </c>
-      <c r="C149" t="s">
-        <v>596</v>
-      </c>
-      <c r="D149" t="s">
-        <v>597</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="30">
       <c r="A150" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B150" t="s">
+        <v>596</v>
+      </c>
+      <c r="C150" t="s">
+        <v>597</v>
+      </c>
+      <c r="D150" t="s">
+        <v>598</v>
+      </c>
+      <c r="E150" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="C150" t="s">
-        <v>600</v>
-      </c>
-      <c r="D150" t="s">
-        <v>601</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="90">
       <c r="A151" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B151" t="s">
+        <v>600</v>
+      </c>
+      <c r="C151" t="s">
+        <v>601</v>
+      </c>
+      <c r="D151" t="s">
+        <v>602</v>
+      </c>
+      <c r="E151" s="1" t="s">
         <v>603</v>
-      </c>
-      <c r="C151" t="s">
-        <v>604</v>
-      </c>
-      <c r="D151" t="s">
-        <v>605</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="45">
       <c r="A152" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B152" t="s">
+        <v>604</v>
+      </c>
+      <c r="C152" t="s">
+        <v>605</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="E152" s="1" t="s">
         <v>607</v>
-      </c>
-      <c r="C152" t="s">
-        <v>608</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="30">
       <c r="A153" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B153" t="s">
+        <v>608</v>
+      </c>
+      <c r="C153" t="s">
+        <v>609</v>
+      </c>
+      <c r="D153" t="s">
+        <v>610</v>
+      </c>
+      <c r="E153" s="1" t="s">
         <v>611</v>
-      </c>
-      <c r="C153" t="s">
-        <v>612</v>
-      </c>
-      <c r="D153" t="s">
-        <v>613</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B154" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C154" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D154" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E154" t="s">
-        <v>310</v>
+        <v>431</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="75">
       <c r="A155" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B155" t="s">
+        <v>615</v>
+      </c>
+      <c r="C155" t="s">
+        <v>616</v>
+      </c>
+      <c r="D155" t="s">
+        <v>617</v>
+      </c>
+      <c r="E155" s="1" t="s">
         <v>618</v>
-      </c>
-      <c r="C155" t="s">
-        <v>619</v>
-      </c>
-      <c r="D155" t="s">
-        <v>620</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="75">
       <c r="A156" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B156" t="s">
+        <v>619</v>
+      </c>
+      <c r="C156" t="s">
+        <v>620</v>
+      </c>
+      <c r="D156" t="s">
+        <v>621</v>
+      </c>
+      <c r="E156" s="1" t="s">
         <v>622</v>
-      </c>
-      <c r="C156" t="s">
-        <v>623</v>
-      </c>
-      <c r="D156" t="s">
-        <v>624</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="75">
       <c r="A157" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B157" t="s">
+        <v>623</v>
+      </c>
+      <c r="C157" t="s">
+        <v>624</v>
+      </c>
+      <c r="D157" t="s">
+        <v>625</v>
+      </c>
+      <c r="E157" s="1" t="s">
         <v>626</v>
-      </c>
-      <c r="C157" t="s">
-        <v>627</v>
-      </c>
-      <c r="D157" t="s">
-        <v>628</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B158" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C158" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D158" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E158" t="s">
-        <v>310</v>
+        <v>431</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="60">
       <c r="A159" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B159" t="s">
+        <v>630</v>
+      </c>
+      <c r="C159" t="s">
+        <v>631</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="E159" s="1" t="s">
         <v>633</v>
-      </c>
-      <c r="C159" t="s">
-        <v>634</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="30">
       <c r="A160" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B160" t="s">
+        <v>634</v>
+      </c>
+      <c r="C160" t="s">
+        <v>635</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="E160" s="1" t="s">
         <v>637</v>
-      </c>
-      <c r="C160" t="s">
-        <v>638</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="30">
       <c r="A161" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B161" t="s">
+        <v>638</v>
+      </c>
+      <c r="C161" t="s">
+        <v>639</v>
+      </c>
+      <c r="D161" t="s">
+        <v>640</v>
+      </c>
+      <c r="E161" s="1" t="s">
         <v>641</v>
-      </c>
-      <c r="C161" t="s">
-        <v>642</v>
-      </c>
-      <c r="D161" t="s">
-        <v>643</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="30">
       <c r="A162" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B162" t="s">
+        <v>642</v>
+      </c>
+      <c r="C162" t="s">
+        <v>643</v>
+      </c>
+      <c r="D162" t="s">
+        <v>644</v>
+      </c>
+      <c r="E162" s="1" t="s">
         <v>645</v>
-      </c>
-      <c r="C162" t="s">
-        <v>646</v>
-      </c>
-      <c r="D162" t="s">
-        <v>647</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B163" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C163" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D163" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E163" t="s">
-        <v>310</v>
+        <v>431</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="30">
       <c r="A164" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B164" t="s">
+        <v>649</v>
+      </c>
+      <c r="C164" t="s">
+        <v>650</v>
+      </c>
+      <c r="D164" t="s">
+        <v>651</v>
+      </c>
+      <c r="E164" s="1" t="s">
         <v>652</v>
-      </c>
-      <c r="C164" t="s">
-        <v>653</v>
-      </c>
-      <c r="D164" t="s">
-        <v>654</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="60">
       <c r="A165" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B165" t="s">
+        <v>653</v>
+      </c>
+      <c r="C165" t="s">
+        <v>654</v>
+      </c>
+      <c r="D165" t="s">
+        <v>655</v>
+      </c>
+      <c r="E165" s="1" t="s">
         <v>656</v>
-      </c>
-      <c r="C165" t="s">
-        <v>657</v>
-      </c>
-      <c r="D165" t="s">
-        <v>658</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="60">
       <c r="A166" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B166" t="s">
+        <v>657</v>
+      </c>
+      <c r="C166" t="s">
+        <v>658</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E166" s="1" t="s">
         <v>660</v>
-      </c>
-      <c r="C166" t="s">
-        <v>661</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="30">
       <c r="A167" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B167" t="s">
+        <v>661</v>
+      </c>
+      <c r="C167" t="s">
+        <v>662</v>
+      </c>
+      <c r="D167" t="s">
+        <v>663</v>
+      </c>
+      <c r="E167" s="1" t="s">
         <v>664</v>
-      </c>
-      <c r="C167" t="s">
-        <v>665</v>
-      </c>
-      <c r="D167" t="s">
-        <v>666</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="30">
       <c r="A168" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B168" t="s">
+        <v>665</v>
+      </c>
+      <c r="C168" t="s">
+        <v>666</v>
+      </c>
+      <c r="D168" t="s">
+        <v>667</v>
+      </c>
+      <c r="E168" s="1" t="s">
         <v>668</v>
-      </c>
-      <c r="C168" t="s">
-        <v>669</v>
-      </c>
-      <c r="D168" t="s">
-        <v>670</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="30">
       <c r="A169" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B169" t="s">
+        <v>669</v>
+      </c>
+      <c r="C169" t="s">
+        <v>670</v>
+      </c>
+      <c r="D169" t="s">
+        <v>671</v>
+      </c>
+      <c r="E169" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="C169" t="s">
-        <v>673</v>
-      </c>
-      <c r="D169" t="s">
-        <v>674</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="60">
       <c r="A170" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B170" t="s">
+        <v>673</v>
+      </c>
+      <c r="C170" t="s">
+        <v>674</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E170" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="C170" t="s">
-        <v>677</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="60">
       <c r="A171" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B171" t="s">
+        <v>677</v>
+      </c>
+      <c r="C171" t="s">
+        <v>678</v>
+      </c>
+      <c r="D171" t="s">
+        <v>679</v>
+      </c>
+      <c r="E171" s="1" t="s">
         <v>680</v>
-      </c>
-      <c r="C171" t="s">
-        <v>681</v>
-      </c>
-      <c r="D171" t="s">
-        <v>682</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="30">
       <c r="A172" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B172" t="s">
+        <v>681</v>
+      </c>
+      <c r="C172" t="s">
+        <v>682</v>
+      </c>
+      <c r="D172" t="s">
+        <v>683</v>
+      </c>
+      <c r="E172" s="1" t="s">
         <v>684</v>
-      </c>
-      <c r="C172" t="s">
-        <v>685</v>
-      </c>
-      <c r="D172" t="s">
-        <v>686</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="60">
       <c r="A173" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B173" t="s">
+        <v>685</v>
+      </c>
+      <c r="C173" t="s">
+        <v>686</v>
+      </c>
+      <c r="D173" t="s">
+        <v>687</v>
+      </c>
+      <c r="E173" s="1" t="s">
         <v>688</v>
-      </c>
-      <c r="C173" t="s">
-        <v>689</v>
-      </c>
-      <c r="D173" t="s">
-        <v>690</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="30">
       <c r="A174" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B174" t="s">
+        <v>689</v>
+      </c>
+      <c r="C174" t="s">
+        <v>690</v>
+      </c>
+      <c r="D174" t="s">
+        <v>691</v>
+      </c>
+      <c r="E174" s="1" t="s">
         <v>692</v>
-      </c>
-      <c r="C174" t="s">
-        <v>693</v>
-      </c>
-      <c r="D174" t="s">
-        <v>694</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="60">
       <c r="A175" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B175" t="s">
+        <v>693</v>
+      </c>
+      <c r="C175" t="s">
+        <v>694</v>
+      </c>
+      <c r="D175" t="s">
+        <v>695</v>
+      </c>
+      <c r="E175" s="1" t="s">
         <v>696</v>
-      </c>
-      <c r="C175" t="s">
-        <v>697</v>
-      </c>
-      <c r="D175" t="s">
-        <v>698</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="30">
       <c r="A176" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B176" t="s">
+        <v>697</v>
+      </c>
+      <c r="C176" t="s">
+        <v>698</v>
+      </c>
+      <c r="D176" t="s">
+        <v>699</v>
+      </c>
+      <c r="E176" s="1" t="s">
         <v>700</v>
-      </c>
-      <c r="C176" t="s">
-        <v>701</v>
-      </c>
-      <c r="D176" t="s">
-        <v>702</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="30">
       <c r="A177" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B177" t="s">
+        <v>701</v>
+      </c>
+      <c r="C177" t="s">
+        <v>702</v>
+      </c>
+      <c r="D177" t="s">
+        <v>703</v>
+      </c>
+      <c r="E177" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="C177" t="s">
-        <v>705</v>
-      </c>
-      <c r="D177" t="s">
-        <v>706</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="75">
       <c r="A178" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B178" t="s">
+        <v>705</v>
+      </c>
+      <c r="C178" t="s">
+        <v>706</v>
+      </c>
+      <c r="D178" t="s">
+        <v>707</v>
+      </c>
+      <c r="E178" s="1" t="s">
         <v>708</v>
-      </c>
-      <c r="C178" t="s">
-        <v>709</v>
-      </c>
-      <c r="D178" t="s">
-        <v>710</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="60">
       <c r="A179" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B179" t="s">
+        <v>709</v>
+      </c>
+      <c r="C179" t="s">
+        <v>710</v>
+      </c>
+      <c r="D179" t="s">
+        <v>711</v>
+      </c>
+      <c r="E179" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="C179" t="s">
-        <v>713</v>
-      </c>
-      <c r="D179" t="s">
-        <v>714</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="60">
       <c r="A180" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B180" t="s">
+        <v>713</v>
+      </c>
+      <c r="C180" t="s">
+        <v>714</v>
+      </c>
+      <c r="D180" t="s">
+        <v>715</v>
+      </c>
+      <c r="E180" s="1" t="s">
         <v>716</v>
-      </c>
-      <c r="C180" t="s">
-        <v>717</v>
-      </c>
-      <c r="D180" t="s">
-        <v>718</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="30">
       <c r="A181" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B181" t="s">
+        <v>717</v>
+      </c>
+      <c r="C181" t="s">
+        <v>718</v>
+      </c>
+      <c r="D181" t="s">
+        <v>719</v>
+      </c>
+      <c r="E181" s="1" t="s">
         <v>720</v>
-      </c>
-      <c r="C181" t="s">
-        <v>721</v>
-      </c>
-      <c r="D181" t="s">
-        <v>722</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="60">
       <c r="A182" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B182" t="s">
+        <v>721</v>
+      </c>
+      <c r="C182" t="s">
+        <v>722</v>
+      </c>
+      <c r="D182" t="s">
+        <v>723</v>
+      </c>
+      <c r="E182" s="1" t="s">
         <v>724</v>
-      </c>
-      <c r="C182" t="s">
-        <v>725</v>
-      </c>
-      <c r="D182" t="s">
-        <v>726</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="60">
       <c r="A183" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B183" t="s">
+        <v>725</v>
+      </c>
+      <c r="C183" t="s">
+        <v>726</v>
+      </c>
+      <c r="D183" t="s">
+        <v>727</v>
+      </c>
+      <c r="E183" s="1" t="s">
         <v>728</v>
-      </c>
-      <c r="C183" t="s">
-        <v>729</v>
-      </c>
-      <c r="D183" t="s">
-        <v>730</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="60">
       <c r="A184" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B184" t="s">
+        <v>729</v>
+      </c>
+      <c r="C184" t="s">
+        <v>730</v>
+      </c>
+      <c r="D184" t="s">
+        <v>731</v>
+      </c>
+      <c r="E184" s="1" t="s">
         <v>732</v>
-      </c>
-      <c r="C184" t="s">
-        <v>733</v>
-      </c>
-      <c r="D184" t="s">
-        <v>734</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="30">
       <c r="A185" t="s">
+        <v>733</v>
+      </c>
+      <c r="B185" t="s">
+        <v>734</v>
+      </c>
+      <c r="C185" t="s">
+        <v>735</v>
+      </c>
+      <c r="D185" t="s">
         <v>736</v>
       </c>
-      <c r="B185" t="s">
+      <c r="E185" s="1" t="s">
         <v>737</v>
-      </c>
-      <c r="C185" t="s">
-        <v>738</v>
-      </c>
-      <c r="D185" t="s">
-        <v>739</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="30">
       <c r="A186" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B186" t="s">
+        <v>738</v>
+      </c>
+      <c r="C186" t="s">
+        <v>739</v>
+      </c>
+      <c r="D186" t="s">
+        <v>740</v>
+      </c>
+      <c r="E186" s="1" t="s">
         <v>741</v>
-      </c>
-      <c r="C186" t="s">
-        <v>742</v>
-      </c>
-      <c r="D186" t="s">
-        <v>743</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="30">
       <c r="A187" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B187" t="s">
+        <v>742</v>
+      </c>
+      <c r="C187" t="s">
+        <v>743</v>
+      </c>
+      <c r="D187" t="s">
+        <v>744</v>
+      </c>
+      <c r="E187" s="1" t="s">
         <v>745</v>
-      </c>
-      <c r="C187" t="s">
-        <v>746</v>
-      </c>
-      <c r="D187" t="s">
-        <v>747</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="30">
       <c r="A188" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B188" t="s">
+        <v>746</v>
+      </c>
+      <c r="C188" t="s">
+        <v>747</v>
+      </c>
+      <c r="D188" t="s">
+        <v>748</v>
+      </c>
+      <c r="E188" s="1" t="s">
         <v>749</v>
-      </c>
-      <c r="C188" t="s">
-        <v>750</v>
-      </c>
-      <c r="D188" t="s">
-        <v>751</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="30">
       <c r="A189" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B189" t="s">
+        <v>750</v>
+      </c>
+      <c r="C189" t="s">
+        <v>751</v>
+      </c>
+      <c r="D189" t="s">
+        <v>752</v>
+      </c>
+      <c r="E189" s="1" t="s">
         <v>753</v>
-      </c>
-      <c r="C189" t="s">
-        <v>754</v>
-      </c>
-      <c r="D189" t="s">
-        <v>755</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="30">
       <c r="A190" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B190" t="s">
+        <v>754</v>
+      </c>
+      <c r="C190" t="s">
+        <v>755</v>
+      </c>
+      <c r="D190" t="s">
+        <v>756</v>
+      </c>
+      <c r="E190" s="1" t="s">
         <v>757</v>
-      </c>
-      <c r="C190" t="s">
-        <v>758</v>
-      </c>
-      <c r="D190" t="s">
-        <v>759</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="30">
       <c r="A191" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B191" t="s">
+        <v>758</v>
+      </c>
+      <c r="C191" t="s">
+        <v>759</v>
+      </c>
+      <c r="D191" t="s">
+        <v>760</v>
+      </c>
+      <c r="E191" s="1" t="s">
         <v>761</v>
-      </c>
-      <c r="C191" t="s">
-        <v>762</v>
-      </c>
-      <c r="D191" t="s">
-        <v>763</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="30">
       <c r="A192" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B192" t="s">
+        <v>762</v>
+      </c>
+      <c r="C192" t="s">
+        <v>763</v>
+      </c>
+      <c r="D192" t="s">
+        <v>764</v>
+      </c>
+      <c r="E192" s="1" t="s">
         <v>765</v>
-      </c>
-      <c r="C192" t="s">
-        <v>766</v>
-      </c>
-      <c r="D192" t="s">
-        <v>767</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="30">
       <c r="A193" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B193" t="s">
+        <v>766</v>
+      </c>
+      <c r="C193" t="s">
+        <v>767</v>
+      </c>
+      <c r="D193" t="s">
+        <v>768</v>
+      </c>
+      <c r="E193" s="1" t="s">
         <v>769</v>
-      </c>
-      <c r="C193" t="s">
-        <v>770</v>
-      </c>
-      <c r="D193" t="s">
-        <v>771</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="45">
       <c r="A194" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B194" t="s">
+        <v>770</v>
+      </c>
+      <c r="C194" t="s">
+        <v>771</v>
+      </c>
+      <c r="D194" t="s">
+        <v>772</v>
+      </c>
+      <c r="E194" s="1" t="s">
         <v>773</v>
-      </c>
-      <c r="C194" t="s">
-        <v>774</v>
-      </c>
-      <c r="D194" t="s">
-        <v>775</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="90">
       <c r="A195" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B195" t="s">
+        <v>774</v>
+      </c>
+      <c r="C195" t="s">
+        <v>775</v>
+      </c>
+      <c r="D195" t="s">
+        <v>776</v>
+      </c>
+      <c r="E195" s="1" t="s">
         <v>777</v>
-      </c>
-      <c r="C195" t="s">
-        <v>778</v>
-      </c>
-      <c r="D195" t="s">
-        <v>779</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>780</v>
       </c>
     </row>
   </sheetData>

--- a/request.xlsx
+++ b/request.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19111"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -1328,8 +1328,8 @@
     <t>마을★2 기아노스들을 토벌해라!(ギアノスたちを討伐せよ！)</t>
   </si>
   <si>
-    <t>입수_x000D_
-ポッケ村の村貢献度100pts</t>
+    <t>입수
+폿케 마을의 마을 공헌도 100pts(ポッケ村の村貢献度100pts)</t>
   </si>
   <si>
     <t>ポッケ村の村長の依頼2</t>
@@ -1342,10 +1342,10 @@
   </si>
   <si>
     <t>장비개방
-マフモフシリーズ
+마후모후 시리즈(マフモフシリーズ)
 오토모 장비개방
-マフモフネコフード_x000D_
-マフモフネコベスト</t>
+마후모후 고양이 후드(マフモフネコフード)
+마후모후 고양이 베스트(マフモフネコベスト)</t>
   </si>
   <si>
     <t>ポッケ村の村長の依頼3</t>
@@ -1357,10 +1357,6 @@
     <t>마을★3 설산에 숨어있는 그림자(雪山に潜む影)</t>
   </si>
   <si>
-    <t>입수_x000D_
-龍歴院ポイント500pts</t>
-  </si>
-  <si>
     <t>ポッケ村の村長の依頼4</t>
   </si>
   <si>
@@ -1371,7 +1367,7 @@
   </si>
   <si>
     <t>입수
-ポッケチケット x2</t>
+폿케 티켓 x2(ポッケチケット x2)</t>
   </si>
   <si>
     <t>ポッケ村の村長の依頼5</t>
@@ -1384,10 +1380,10 @@
   </si>
   <si>
     <t>입수
-ポッケチケット x5_x000D_
-洞窟の巨大剣が採掘可能
-수기개방_x000D_
-タイフーントリガーLV2</t>
+폿케 티켓 x5(ポッケチケット x5)
+동굴의 거대검 채굴가능(洞窟の巨大剣が採掘可能)
+수기개방
+타이푼 트리거 LV2(タイフーントリガーLV2)</t>
   </si>
   <si>
     <t>ポッケ村の村長の依頼6</t>
@@ -1400,7 +1396,7 @@
   </si>
   <si>
     <t>입수
-鷹見の羽飾り</t>
+응견의 깃털 장식(鷹見の羽飾り)</t>
   </si>
   <si>
     <t>ポッケ村の村長の依頼7</t>
@@ -1413,10 +1409,10 @@
   </si>
   <si>
     <t>입수
-ポッケチケットG
+폿케 티켓G(ポッケチケットG)
 오토모 장비개방
-マフモフＸネコフード_x000D_
-マフモフＸネコベスト</t>
+마후모후Ｘ 고양이 후드(マフモフＸネコフード)
+마후모후Ｘ 고양이 베스트(マフモフＸネコベスト)</t>
   </si>
   <si>
     <t>ポッケ村の受付嬢の依頼1</t>
@@ -1432,12 +1428,12 @@
   </si>
   <si>
     <t>장비개방
-掃棍ミガキ_x000D_
-ヘルパー/ヒーラーシリーズ
+소곤닦기(掃棍ミガキ)
+헬퍼/힐러 시리즈(ヘルパー/ヒーラーシリーズ)
 오토모 장비개방
-ポッケネコモップ_x000D_
-ヘルパーネコフード_x000D_
-ヘルパーネコメイル</t>
+폿케 고양이 대걸레(ポッケネコモップ)
+헬퍼 고양이 후드(ヘルパーネコフード)
+헬퍼 고양이 메일(ヘルパーネコメイル)</t>
   </si>
   <si>
     <t>ポッケ村の受付嬢の依頼2</t>
@@ -1450,12 +1446,12 @@
   </si>
   <si>
     <t>장비개방
-ヘルパーＸ/ヒーラーＸシリーズ_x000D_
-ヘルパーＺ/ヒーラーＺシリーズ
+헬퍼Ｘ/힐러Ｘ 시리즈(ヘルパーＸ/ヒーラーＸシリーズ)
+헬퍼Ｚ/힐러Ｚ 시리즈(ヘルパーＺ/ヒーラーＺシリーズ)
 오토모 장비개방
-ポッケＸネコモップ_x000D_
-ヘルパーＸネコフード_x000D_
-ヘルパーＸネコメイル</t>
+폿케Ｘ 고양이 대걸레(ポッケＸネコモップ)
+헬퍼Ｘ 고양이 후드(ヘルパーＸネコフード)
+헬퍼Ｘ 고양이 메일(ヘルパーＸネコメイル)</t>
   </si>
   <si>
     <t>ジャンボ村の看板娘の依頼</t>
@@ -1468,12 +1464,12 @@
   </si>
   <si>
     <t>장비개방
-ヘルパーS/ヒーラーSシリーズ_x000D_
-ヘルパーU/ヒーラーUシリーズ
+헬퍼Ｓ/힐러Ｓ 시리즈(ヘルパーＳ/ヒーラーＳシリーズ)
+헬퍼U/힐러U 시리즈(ヘルパーU/ヒーラーUシリーズ)
 오토모 장비개방
-ポッケＳネコモップ_x000D_
-ヘルパーＳネコフード_x000D_
-ヘルパーＳネコメイル</t>
+폿케Ｓ 고양이 대걸레(ポッケＳネコモップ)
+헬퍼Ｓ 고양이 후드(ヘルパーＳネコフード)
+헬퍼Ｓ 고양이 메일(ヘルパーＳネコメイル)\</t>
   </si>
   <si>
     <t>トレニャーの依頼1</t>
@@ -1486,7 +1482,7 @@
   </si>
   <si>
     <t>퀘스트 보수
-オオ筒ドングリ</t>
+큰 통 도토리(オオ筒ドングリ)</t>
   </si>
   <si>
     <t>トレニャーの依頼2</t>
@@ -1499,7 +1495,7 @@
   </si>
   <si>
     <t>퀘스트 보수
-トンガリドングリ</t>
+톤가리도토리(トンガリドングリ)</t>
   </si>
   <si>
     <t>トレニャーの依頼3</t>
@@ -1512,7 +1508,7 @@
   </si>
   <si>
     <t>퀘스트 보수
-アイルー茶釜</t>
+아이루 차솥(アイルー茶釜)</t>
   </si>
   <si>
     <t>ネコートの依頼1</t>
@@ -1525,9 +1521,9 @@
   </si>
   <si>
     <t>퀘스트 보수
-EX溶岩竜チケット
+EX용암룡 티켓(EX溶岩竜チケット)
 장비개방
-EXラヴァシリーズ</t>
+EX라바 시리즈(EXラヴァシリーズ)</t>
   </si>
   <si>
     <t>ネコートの依頼2</t>
@@ -1540,9 +1536,9 @@
   </si>
   <si>
     <t>퀘스트 보수
-EX轟竜チケット
+EX굉룡 티켓(EX轟竜チケット)
 장비개방
-EXレックスシリーズ</t>
+EX렉스 시리즈(EXレックスシリーズ)</t>
   </si>
   <si>
     <t>ネコートの依頼3</t>
@@ -1555,11 +1551,11 @@
   </si>
   <si>
     <t>퀘스트 보수
-EX轟竜チケットS
+EX굉룡 티켓Ｓ(EX轟竜チケットＳ)
 장비개방
-EXレックスSシリーズ
+EX렉스Ｓ 시리즈(EXレックスＳシリーズ)
 오토모 장비개방
-ネコートさんのコート</t>
+네코트씨의 코트(ネコートさんのコート)</t>
   </si>
   <si>
     <t>ネコートの依頼4</t>
@@ -1572,7 +1568,7 @@
   </si>
   <si>
     <t>오토모 장비개방
-ネコートさん厚コート</t>
+오코토씨의 두꺼운 코트(ネコートさん厚コート)</t>
   </si>
   <si>
     <t>ポッケ村の看板娘の依頼</t>
@@ -1584,10 +1580,10 @@
     <t>집회소★5 빠른 신룡의 수렵피로(疾き迅竜の狩猟披露)</t>
   </si>
   <si>
-    <t>식재_x000D_
-ユキヤマツタケ
+    <t>식재
+설산 송이버섯(ユキヤマツタケ)
 수기개방
-大挑発LV2</t>
+대도발LV2(大挑発LV2)</t>
   </si>
   <si>
     <t>カリスマ美容師ネコの依頼1</t>
@@ -1599,8 +1595,8 @@
     <t>집회소★3 패션 작렬☆궁극 아프로(パッション炸裂☆究極アフロ)</t>
   </si>
   <si>
-    <t>푸기의 옷_x000D_
-ひよっこアフロ</t>
+    <t>푸기의 옷
+애송이 아프로(ひよっこアフロ)</t>
   </si>
   <si>
     <t>カリスマ美容師ネコの依頼2</t>
@@ -1612,9 +1608,6 @@
     <t>G★2 부딪혀라 삶☆아프로 소울(ぶつけろ生き様☆アフロソウル)</t>
   </si>
   <si>
-    <t>ルームサービス変更可能</t>
-  </si>
-  <si>
     <t>さすらいのコックの依頼1</t>
   </si>
   <si>
@@ -1625,9 +1618,9 @@
   </si>
   <si>
     <t>식재
-モグモガーリック
-푸기의 옷_x000D_
-魅惑のピンク</t>
+모가모갈릭(モグモガーリック)
+푸기의 옷
+매혹의 핑크(魅惑のピンク)</t>
   </si>
   <si>
     <t>さすらいのコックの依頼2</t>
@@ -1639,8 +1632,8 @@
     <t>G★1 앗뜨앗뜨 사막의 순해수렵(アツアツ砂漠の盾蟹狩猟)</t>
   </si>
   <si>
-    <t>식재_x000D_
-エンペラーセロリ</t>
+    <t>식재
+엠페러 셀러리(エンペラーセロリ)</t>
   </si>
   <si>
     <t>工房のばあちゃんの依頼1</t>
@@ -1653,7 +1646,7 @@
   </si>
   <si>
     <t>장비개방
-英雄の双刃</t>
+영웅의 쌍인(英雄の双刃)</t>
   </si>
   <si>
     <t>工房のばあちゃんの依頼2</t>
@@ -1667,11 +1660,11 @@
   </si>
   <si>
     <t>입수
-七色たんぽぽ x10
+일곱 빛깔 민들레 x10(七色たんぽぽ x10)
 장비개방
-EXザザミシリーズ_x000D_
-EXギザミシリーズ_x000D_
-EXブランゴシリーズ</t>
+EX자자미 시리즈(EXザザミシリーズ)
+EX기자미 시리즈(EXギザミシリーズ)
+EX블랑고 시리즈(EXブランゴシリーズ)</t>
   </si>
   <si>
     <t>工房のばあちゃんの依頼3</t>
@@ -1696,7 +1689,7 @@
   </si>
   <si>
     <t>퀘스트 보수
-EX老山龍チケット</t>
+EX노산룡 티켓(EX老山龍チケット)</t>
   </si>
   <si>
     <t>チャチャの依頼1</t>
@@ -1709,8 +1702,8 @@
   </si>
   <si>
     <t>장비개방
-奇面案山子_x000D_
-棍ガリアチャチャ</t>
+기면 허수아비(奇面案山子)
+곤 가리아챠챠(棍ガリアチャチャ)</t>
   </si>
   <si>
     <t>チャチャの依頼2</t>
@@ -1723,12 +1716,12 @@
   </si>
   <si>
     <t>오토모 장비개방
-怪鳥のクックック_x000D_
-どんぐりのお面_x000D_
-オレチャマの一張羅_x000D_
-大猪のドッドッド_x000D_
-カニ爪のお面_x000D_
-ワガハイのナイスな蓑</t>
+괴조의 쿡쿡쿡(怪鳥のクックック)
+도토리 탈(どんぐりのお面)
+이몸의 단벌 옷(オレチャマの一張羅)
+큰 맷돼지의 도도도(大猪のドッドッド)
+게 발톱 탈(カニ爪のお面)
+본인의 나이스한 도롱이(ワガハイのナイスな蓑)</t>
   </si>
   <si>
     <t>チャチャの依頼3</t>
@@ -1741,9 +1734,9 @@
   </si>
   <si>
     <t>오토모 장비개방
-最高のお面
-수기개방_x000D_
-震怒竜怨斬LV3</t>
+최고의 탈(最高のお面)
+수기개방
+진노용원참LV3(震怒竜怨斬LV3)</t>
   </si>
   <si>
     <t>チャチャの依頼4</t>
@@ -1756,12 +1749,12 @@
   </si>
   <si>
     <t>오토모 장비개방
-大怪鳥のクックック_x000D_
-どんぐりの奇面_x000D_
-オレチャマの天晴れ着_x000D_
-巨大猪のドッドッド_x000D_
-カニ爪の奇面_x000D_
-ワガハイのナイス大蓑</t>
+대괴조의 쿡쿡쿡(大怪鳥のクックック)
+이상한 도토리 탈(どんぐりの奇面)
+이몸의 훌륭한 옷(オレチャマの天晴れ着)
+거대 맷돼지의 도도도(巨大猪のドッドッド)
+이상한 게 발톱 탈(カニ爪の奇面)
+본인의 나이스한 큰 도롱이(ワガハイのナイス大蓑)</t>
   </si>
   <si>
     <t>チャチャの依頼5</t>
@@ -1774,11 +1767,11 @@
   </si>
   <si>
     <t>퀘스트 보수
-奇面な仮面
+기면한 가면(奇面な仮面)
 장비개방
-ニクヤキ銃槍カヤンチャスリンガ
+고기구이 총창 카얀챠스링가(ニクヤキ銃槍カヤンチャスリンガ)
 오토모 장비개방
-極上のお面</t>
+극상의 탈(極上のお面)</t>
   </si>
   <si>
     <t>ギルドマネージャーの依頼1</t>
@@ -1791,7 +1784,7 @@
   </si>
   <si>
     <t>장비개방
-ギルドガード蒼シリーズ</t>
+길드가드 창 시리즈(ギルドガード蒼シリーズ)</t>
   </si>
   <si>
     <t>ギルドマネージャーの依頼2</t>
@@ -1804,7 +1797,7 @@
   </si>
   <si>
     <t>장비개방
-ギルドガード紅シリーズ</t>
+길드가드 홍 시리즈(ギルドガード紅シリーズ)</t>
   </si>
   <si>
     <t>ギルドマネージャーの依頼3</t>
@@ -1817,8 +1810,8 @@
   </si>
   <si>
     <t>장비개방
-Ｇ・ガードＸ蒼シリーズ_x000D_
-Ｇ・ガードＸ紅シリーズ</t>
+Ｇ・가드Ｘ창 시리즈(Ｇ・ガードＸ蒼シリーズ)
+Ｇ・가드Ｘ홍 시리즈(Ｇ・ガードＸ紅シリーズ)</t>
   </si>
   <si>
     <t>유쿠모 마을(ユクモ村)</t>
@@ -1900,6 +1893,10 @@
     <t>마을★3 로아루도로스를 수렵해라!(ロアルドロスを狩猟せよ！)</t>
   </si>
   <si>
+    <t>입수_x000D_
+龍歴院ポイント500pts</t>
+  </si>
+  <si>
     <t>ユクモ村の村長の依頼4</t>
   </si>
   <si>
@@ -2293,6 +2290,9 @@
   </si>
   <si>
     <t>마을★3 엿차! 버섯납품입니다요!(ほいっ！キノコ納品ですよ！)</t>
+  </si>
+  <si>
+    <t>ルームサービス変更可能</t>
   </si>
   <si>
     <t>モガの村の看板娘の依頼2</t>
@@ -3251,8 +3251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D83" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" topLeftCell="C119" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="E122" sqref="E122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4808,7 +4808,7 @@
         <v>362</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>363</v>
+        <v>69</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="30">
@@ -4816,16 +4816,16 @@
         <v>351</v>
       </c>
       <c r="B92" t="s">
+        <v>363</v>
+      </c>
+      <c r="C92" t="s">
         <v>364</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>365</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="75">
@@ -4833,16 +4833,16 @@
         <v>351</v>
       </c>
       <c r="B93" t="s">
+        <v>367</v>
+      </c>
+      <c r="C93" t="s">
         <v>368</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>369</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="30">
@@ -4850,16 +4850,16 @@
         <v>351</v>
       </c>
       <c r="B94" t="s">
+        <v>371</v>
+      </c>
+      <c r="C94" t="s">
         <v>372</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>373</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="75">
@@ -4867,16 +4867,16 @@
         <v>351</v>
       </c>
       <c r="B95" t="s">
+        <v>375</v>
+      </c>
+      <c r="C95" t="s">
         <v>376</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>377</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="105">
@@ -4884,16 +4884,16 @@
         <v>351</v>
       </c>
       <c r="B96" t="s">
+        <v>379</v>
+      </c>
+      <c r="C96" t="s">
         <v>380</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="105">
@@ -4901,16 +4901,16 @@
         <v>351</v>
       </c>
       <c r="B97" t="s">
+        <v>383</v>
+      </c>
+      <c r="C97" t="s">
         <v>384</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>385</v>
       </c>
-      <c r="D97" t="s">
+      <c r="E97" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="105">
@@ -4918,16 +4918,16 @@
         <v>351</v>
       </c>
       <c r="B98" t="s">
+        <v>387</v>
+      </c>
+      <c r="C98" t="s">
         <v>388</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>389</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E98" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="30">
@@ -4935,16 +4935,16 @@
         <v>351</v>
       </c>
       <c r="B99" t="s">
+        <v>391</v>
+      </c>
+      <c r="C99" t="s">
         <v>392</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>393</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="30">
@@ -4952,16 +4952,16 @@
         <v>351</v>
       </c>
       <c r="B100" t="s">
+        <v>395</v>
+      </c>
+      <c r="C100" t="s">
         <v>396</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>397</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="30">
@@ -4969,16 +4969,16 @@
         <v>351</v>
       </c>
       <c r="B101" t="s">
+        <v>399</v>
+      </c>
+      <c r="C101" t="s">
         <v>400</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>401</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="60">
@@ -4986,16 +4986,16 @@
         <v>351</v>
       </c>
       <c r="B102" t="s">
+        <v>403</v>
+      </c>
+      <c r="C102" t="s">
         <v>404</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>405</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="60">
@@ -5003,16 +5003,16 @@
         <v>351</v>
       </c>
       <c r="B103" t="s">
+        <v>407</v>
+      </c>
+      <c r="C103" t="s">
         <v>408</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>409</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="90">
@@ -5020,16 +5020,16 @@
         <v>351</v>
       </c>
       <c r="B104" t="s">
+        <v>411</v>
+      </c>
+      <c r="C104" t="s">
         <v>412</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>413</v>
       </c>
-      <c r="D104" t="s">
+      <c r="E104" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="30">
@@ -5037,16 +5037,16 @@
         <v>351</v>
       </c>
       <c r="B105" t="s">
+        <v>415</v>
+      </c>
+      <c r="C105" t="s">
         <v>416</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>417</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="60">
@@ -5054,16 +5054,16 @@
         <v>351</v>
       </c>
       <c r="B106" t="s">
+        <v>419</v>
+      </c>
+      <c r="C106" t="s">
         <v>420</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>421</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="30">
@@ -5071,16 +5071,16 @@
         <v>351</v>
       </c>
       <c r="B107" t="s">
+        <v>423</v>
+      </c>
+      <c r="C107" t="s">
         <v>424</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>425</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E107" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -5088,16 +5088,16 @@
         <v>351</v>
       </c>
       <c r="B108" t="s">
+        <v>427</v>
+      </c>
+      <c r="C108" t="s">
         <v>428</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>429</v>
       </c>
-      <c r="D108" t="s">
-        <v>430</v>
-      </c>
       <c r="E108" t="s">
-        <v>431</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="60">
@@ -5105,16 +5105,16 @@
         <v>351</v>
       </c>
       <c r="B109" t="s">
+        <v>430</v>
+      </c>
+      <c r="C109" t="s">
+        <v>431</v>
+      </c>
+      <c r="D109" t="s">
         <v>432</v>
       </c>
-      <c r="C109" t="s">
+      <c r="E109" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="D109" t="s">
-        <v>434</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="30">
@@ -5122,16 +5122,16 @@
         <v>351</v>
       </c>
       <c r="B110" t="s">
+        <v>434</v>
+      </c>
+      <c r="C110" t="s">
+        <v>435</v>
+      </c>
+      <c r="D110" t="s">
         <v>436</v>
       </c>
-      <c r="C110" t="s">
+      <c r="E110" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="D110" t="s">
-        <v>438</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="30">
@@ -5139,16 +5139,16 @@
         <v>351</v>
       </c>
       <c r="B111" t="s">
+        <v>438</v>
+      </c>
+      <c r="C111" t="s">
+        <v>439</v>
+      </c>
+      <c r="D111" t="s">
         <v>440</v>
       </c>
-      <c r="C111" t="s">
+      <c r="E111" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="D111" t="s">
-        <v>442</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="90">
@@ -5156,16 +5156,16 @@
         <v>351</v>
       </c>
       <c r="B112" t="s">
+        <v>442</v>
+      </c>
+      <c r="C112" t="s">
+        <v>443</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C112" t="s">
+      <c r="E112" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -5173,16 +5173,16 @@
         <v>351</v>
       </c>
       <c r="B113" t="s">
+        <v>446</v>
+      </c>
+      <c r="C113" t="s">
+        <v>447</v>
+      </c>
+      <c r="D113" t="s">
         <v>448</v>
       </c>
-      <c r="C113" t="s">
+      <c r="E113" t="s">
         <v>449</v>
-      </c>
-      <c r="D113" t="s">
-        <v>450</v>
-      </c>
-      <c r="E113" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="30">
@@ -5190,16 +5190,16 @@
         <v>351</v>
       </c>
       <c r="B114" t="s">
+        <v>450</v>
+      </c>
+      <c r="C114" t="s">
+        <v>451</v>
+      </c>
+      <c r="D114" t="s">
         <v>452</v>
       </c>
-      <c r="C114" t="s">
+      <c r="E114" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="D114" t="s">
-        <v>454</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="45">
@@ -5207,16 +5207,16 @@
         <v>351</v>
       </c>
       <c r="B115" t="s">
+        <v>454</v>
+      </c>
+      <c r="C115" t="s">
+        <v>455</v>
+      </c>
+      <c r="D115" t="s">
         <v>456</v>
       </c>
-      <c r="C115" t="s">
+      <c r="E115" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="D115" t="s">
-        <v>458</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="105">
@@ -5224,16 +5224,16 @@
         <v>351</v>
       </c>
       <c r="B116" t="s">
+        <v>458</v>
+      </c>
+      <c r="C116" t="s">
+        <v>459</v>
+      </c>
+      <c r="D116" t="s">
         <v>460</v>
       </c>
-      <c r="C116" t="s">
+      <c r="E116" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="D116" t="s">
-        <v>462</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="60">
@@ -5241,16 +5241,16 @@
         <v>351</v>
       </c>
       <c r="B117" t="s">
+        <v>462</v>
+      </c>
+      <c r="C117" t="s">
+        <v>463</v>
+      </c>
+      <c r="D117" t="s">
         <v>464</v>
       </c>
-      <c r="C117" t="s">
+      <c r="E117" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="D117" t="s">
-        <v>466</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="105">
@@ -5258,16 +5258,16 @@
         <v>351</v>
       </c>
       <c r="B118" t="s">
+        <v>466</v>
+      </c>
+      <c r="C118" t="s">
+        <v>467</v>
+      </c>
+      <c r="D118" t="s">
         <v>468</v>
       </c>
-      <c r="C118" t="s">
+      <c r="E118" s="1" t="s">
         <v>469</v>
-      </c>
-      <c r="D118" t="s">
-        <v>470</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="90">
@@ -5275,16 +5275,16 @@
         <v>351</v>
       </c>
       <c r="B119" t="s">
+        <v>470</v>
+      </c>
+      <c r="C119" t="s">
+        <v>471</v>
+      </c>
+      <c r="D119" t="s">
         <v>472</v>
       </c>
-      <c r="C119" t="s">
+      <c r="E119" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="D119" t="s">
-        <v>474</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="30">
@@ -5292,16 +5292,16 @@
         <v>351</v>
       </c>
       <c r="B120" t="s">
+        <v>474</v>
+      </c>
+      <c r="C120" t="s">
+        <v>475</v>
+      </c>
+      <c r="D120" t="s">
         <v>476</v>
       </c>
-      <c r="C120" t="s">
+      <c r="E120" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="D120" t="s">
-        <v>478</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="30">
@@ -5309,16 +5309,16 @@
         <v>351</v>
       </c>
       <c r="B121" t="s">
+        <v>478</v>
+      </c>
+      <c r="C121" t="s">
+        <v>479</v>
+      </c>
+      <c r="D121" t="s">
         <v>480</v>
       </c>
-      <c r="C121" t="s">
+      <c r="E121" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="D121" t="s">
-        <v>482</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="45">
@@ -5326,565 +5326,565 @@
         <v>351</v>
       </c>
       <c r="B122" t="s">
+        <v>482</v>
+      </c>
+      <c r="C122" t="s">
+        <v>483</v>
+      </c>
+      <c r="D122" t="s">
         <v>484</v>
       </c>
-      <c r="C122" t="s">
+      <c r="E122" s="1" t="s">
         <v>485</v>
-      </c>
-      <c r="D122" t="s">
-        <v>486</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="390">
       <c r="A123" t="s">
+        <v>486</v>
+      </c>
+      <c r="B123" t="s">
+        <v>487</v>
+      </c>
+      <c r="C123" t="s">
         <v>488</v>
       </c>
-      <c r="B123" t="s">
+      <c r="D123" t="s">
         <v>489</v>
       </c>
-      <c r="C123" t="s">
+      <c r="E123" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="D123" t="s">
-        <v>491</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="30">
       <c r="A124" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B124" t="s">
+        <v>491</v>
+      </c>
+      <c r="C124" t="s">
+        <v>492</v>
+      </c>
+      <c r="D124" t="s">
         <v>493</v>
       </c>
-      <c r="C124" t="s">
+      <c r="E124" s="1" t="s">
         <v>494</v>
-      </c>
-      <c r="D124" t="s">
-        <v>495</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="90">
       <c r="A125" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B125" t="s">
+        <v>495</v>
+      </c>
+      <c r="C125" t="s">
+        <v>496</v>
+      </c>
+      <c r="D125" t="s">
         <v>497</v>
       </c>
-      <c r="C125" t="s">
+      <c r="E125" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="D125" t="s">
-        <v>499</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="30">
       <c r="A126" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B126" t="s">
+        <v>499</v>
+      </c>
+      <c r="C126" t="s">
+        <v>500</v>
+      </c>
+      <c r="D126" t="s">
         <v>501</v>
       </c>
-      <c r="C126" t="s">
+      <c r="E126" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="D126" t="s">
-        <v>503</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="30">
       <c r="A127" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B127" t="s">
+        <v>503</v>
+      </c>
+      <c r="C127" t="s">
         <v>504</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>505</v>
       </c>
-      <c r="D127" t="s">
+      <c r="E127" s="1" t="s">
         <v>506</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="60">
       <c r="A128" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B128" t="s">
+        <v>507</v>
+      </c>
+      <c r="C128" t="s">
         <v>508</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>509</v>
       </c>
-      <c r="D128" t="s">
+      <c r="E128" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="30">
       <c r="A129" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B129" t="s">
+        <v>511</v>
+      </c>
+      <c r="C129" t="s">
         <v>512</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>513</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E129" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="90">
       <c r="A130" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B130" t="s">
+        <v>515</v>
+      </c>
+      <c r="C130" t="s">
         <v>516</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>517</v>
       </c>
-      <c r="D130" t="s">
+      <c r="E130" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="90">
       <c r="A131" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B131" t="s">
+        <v>519</v>
+      </c>
+      <c r="C131" t="s">
         <v>520</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>521</v>
       </c>
-      <c r="D131" t="s">
+      <c r="E131" s="1" t="s">
         <v>522</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="75">
       <c r="A132" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B132" t="s">
+        <v>523</v>
+      </c>
+      <c r="C132" t="s">
         <v>524</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>525</v>
       </c>
-      <c r="D132" t="s">
+      <c r="E132" s="1" t="s">
         <v>526</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="75">
       <c r="A133" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B133" t="s">
+        <v>527</v>
+      </c>
+      <c r="C133" t="s">
         <v>528</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
         <v>529</v>
       </c>
-      <c r="D133" t="s">
+      <c r="E133" s="1" t="s">
         <v>530</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="30">
       <c r="A134" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B134" t="s">
+        <v>531</v>
+      </c>
+      <c r="C134" t="s">
         <v>532</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
         <v>533</v>
       </c>
-      <c r="D134" t="s">
+      <c r="E134" s="1" t="s">
         <v>534</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="45">
       <c r="A135" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B135" t="s">
+        <v>535</v>
+      </c>
+      <c r="C135" t="s">
         <v>536</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="E135" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="45">
       <c r="A136" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B136" t="s">
+        <v>539</v>
+      </c>
+      <c r="C136" t="s">
         <v>540</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>541</v>
       </c>
-      <c r="D136" t="s">
+      <c r="E136" s="1" t="s">
         <v>542</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="45">
       <c r="A137" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B137" t="s">
+        <v>543</v>
+      </c>
+      <c r="C137" t="s">
         <v>544</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>545</v>
       </c>
-      <c r="D137" t="s">
+      <c r="E137" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="45">
       <c r="A138" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B138" t="s">
+        <v>547</v>
+      </c>
+      <c r="C138" t="s">
         <v>548</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
         <v>549</v>
       </c>
-      <c r="D138" t="s">
+      <c r="E138" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="60">
       <c r="A139" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B139" t="s">
+        <v>551</v>
+      </c>
+      <c r="C139" t="s">
         <v>552</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
         <v>553</v>
       </c>
-      <c r="D139" t="s">
+      <c r="E139" s="1" t="s">
         <v>554</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="60">
       <c r="A140" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B140" t="s">
+        <v>555</v>
+      </c>
+      <c r="C140" t="s">
         <v>556</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
         <v>557</v>
       </c>
-      <c r="D140" t="s">
+      <c r="E140" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="60">
       <c r="A141" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B141" t="s">
+        <v>559</v>
+      </c>
+      <c r="C141" t="s">
         <v>560</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
         <v>561</v>
       </c>
-      <c r="D141" t="s">
+      <c r="E141" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="30">
       <c r="A142" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B142" t="s">
+        <v>563</v>
+      </c>
+      <c r="C142" t="s">
         <v>564</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
         <v>565</v>
       </c>
-      <c r="D142" t="s">
+      <c r="E142" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="30">
       <c r="A143" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B143" t="s">
+        <v>567</v>
+      </c>
+      <c r="C143" t="s">
         <v>568</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
         <v>569</v>
       </c>
-      <c r="D143" t="s">
+      <c r="E143" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="30">
       <c r="A144" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B144" t="s">
+        <v>571</v>
+      </c>
+      <c r="C144" t="s">
         <v>572</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
         <v>573</v>
       </c>
-      <c r="D144" t="s">
+      <c r="E144" s="1" t="s">
         <v>574</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="30">
       <c r="A145" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B145" t="s">
+        <v>575</v>
+      </c>
+      <c r="C145" t="s">
         <v>576</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>577</v>
       </c>
-      <c r="D145" t="s">
+      <c r="E145" s="1" t="s">
         <v>578</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="30">
       <c r="A146" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B146" t="s">
+        <v>579</v>
+      </c>
+      <c r="C146" t="s">
         <v>580</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>581</v>
       </c>
-      <c r="D146" t="s">
+      <c r="E146" s="1" t="s">
         <v>582</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="30">
       <c r="A147" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B147" t="s">
+        <v>583</v>
+      </c>
+      <c r="C147" t="s">
         <v>584</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="E147" s="1" t="s">
         <v>586</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="30">
       <c r="A148" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B148" t="s">
+        <v>587</v>
+      </c>
+      <c r="C148" t="s">
         <v>588</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
         <v>589</v>
       </c>
-      <c r="D148" t="s">
+      <c r="E148" s="1" t="s">
         <v>590</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="30">
       <c r="A149" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B149" t="s">
+        <v>591</v>
+      </c>
+      <c r="C149" t="s">
         <v>592</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
         <v>593</v>
       </c>
-      <c r="D149" t="s">
+      <c r="E149" s="1" t="s">
         <v>594</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="30">
       <c r="A150" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B150" t="s">
+        <v>595</v>
+      </c>
+      <c r="C150" t="s">
         <v>596</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>597</v>
       </c>
-      <c r="D150" t="s">
+      <c r="E150" s="1" t="s">
         <v>598</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="90">
       <c r="A151" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B151" t="s">
+        <v>599</v>
+      </c>
+      <c r="C151" t="s">
         <v>600</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
         <v>601</v>
       </c>
-      <c r="D151" t="s">
+      <c r="E151" s="1" t="s">
         <v>602</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="45">
       <c r="A152" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B152" t="s">
+        <v>603</v>
+      </c>
+      <c r="C152" t="s">
         <v>604</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="E152" s="1" t="s">
         <v>606</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="30">
       <c r="A153" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B153" t="s">
+        <v>607</v>
+      </c>
+      <c r="C153" t="s">
         <v>608</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
         <v>609</v>
       </c>
-      <c r="D153" t="s">
+      <c r="E153" s="1" t="s">
         <v>610</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B154" t="s">
+        <v>611</v>
+      </c>
+      <c r="C154" t="s">
         <v>612</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
         <v>613</v>
       </c>
-      <c r="D154" t="s">
+      <c r="E154" t="s">
         <v>614</v>
-      </c>
-      <c r="E154" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="75">
       <c r="A155" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B155" t="s">
         <v>615</v>
@@ -5901,7 +5901,7 @@
     </row>
     <row r="156" spans="1:5" ht="75">
       <c r="A156" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B156" t="s">
         <v>619</v>
@@ -5918,7 +5918,7 @@
     </row>
     <row r="157" spans="1:5" ht="75">
       <c r="A157" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B157" t="s">
         <v>623</v>
@@ -5935,7 +5935,7 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B158" t="s">
         <v>627</v>
@@ -5947,12 +5947,12 @@
         <v>629</v>
       </c>
       <c r="E158" t="s">
-        <v>431</v>
+        <v>614</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="60">
       <c r="A159" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B159" t="s">
         <v>630</v>
@@ -5969,7 +5969,7 @@
     </row>
     <row r="160" spans="1:5" ht="30">
       <c r="A160" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B160" t="s">
         <v>634</v>
@@ -5986,7 +5986,7 @@
     </row>
     <row r="161" spans="1:5" ht="30">
       <c r="A161" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B161" t="s">
         <v>638</v>
@@ -6003,7 +6003,7 @@
     </row>
     <row r="162" spans="1:5" ht="30">
       <c r="A162" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B162" t="s">
         <v>642</v>
@@ -6020,7 +6020,7 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B163" t="s">
         <v>646</v>
@@ -6032,12 +6032,12 @@
         <v>648</v>
       </c>
       <c r="E163" t="s">
-        <v>431</v>
+        <v>614</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="30">
       <c r="A164" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B164" t="s">
         <v>649</v>
@@ -6054,7 +6054,7 @@
     </row>
     <row r="165" spans="1:5" ht="60">
       <c r="A165" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B165" t="s">
         <v>653</v>
@@ -6071,7 +6071,7 @@
     </row>
     <row r="166" spans="1:5" ht="60">
       <c r="A166" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B166" t="s">
         <v>657</v>
@@ -6088,7 +6088,7 @@
     </row>
     <row r="167" spans="1:5" ht="30">
       <c r="A167" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B167" t="s">
         <v>661</v>
@@ -6105,7 +6105,7 @@
     </row>
     <row r="168" spans="1:5" ht="30">
       <c r="A168" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B168" t="s">
         <v>665</v>
@@ -6122,7 +6122,7 @@
     </row>
     <row r="169" spans="1:5" ht="30">
       <c r="A169" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B169" t="s">
         <v>669</v>
@@ -6139,7 +6139,7 @@
     </row>
     <row r="170" spans="1:5" ht="60">
       <c r="A170" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B170" t="s">
         <v>673</v>
@@ -6156,7 +6156,7 @@
     </row>
     <row r="171" spans="1:5" ht="60">
       <c r="A171" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B171" t="s">
         <v>677</v>
@@ -6173,7 +6173,7 @@
     </row>
     <row r="172" spans="1:5" ht="30">
       <c r="A172" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B172" t="s">
         <v>681</v>
@@ -6190,7 +6190,7 @@
     </row>
     <row r="173" spans="1:5" ht="60">
       <c r="A173" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B173" t="s">
         <v>685</v>
@@ -6207,7 +6207,7 @@
     </row>
     <row r="174" spans="1:5" ht="30">
       <c r="A174" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B174" t="s">
         <v>689</v>
@@ -6224,7 +6224,7 @@
     </row>
     <row r="175" spans="1:5" ht="60">
       <c r="A175" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B175" t="s">
         <v>693</v>
@@ -6241,7 +6241,7 @@
     </row>
     <row r="176" spans="1:5" ht="30">
       <c r="A176" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B176" t="s">
         <v>697</v>
@@ -6258,7 +6258,7 @@
     </row>
     <row r="177" spans="1:5" ht="30">
       <c r="A177" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B177" t="s">
         <v>701</v>
@@ -6275,7 +6275,7 @@
     </row>
     <row r="178" spans="1:5" ht="75">
       <c r="A178" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B178" t="s">
         <v>705</v>
@@ -6292,7 +6292,7 @@
     </row>
     <row r="179" spans="1:5" ht="60">
       <c r="A179" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B179" t="s">
         <v>709</v>
@@ -6309,7 +6309,7 @@
     </row>
     <row r="180" spans="1:5" ht="60">
       <c r="A180" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B180" t="s">
         <v>713</v>
@@ -6326,7 +6326,7 @@
     </row>
     <row r="181" spans="1:5" ht="30">
       <c r="A181" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B181" t="s">
         <v>717</v>
@@ -6343,7 +6343,7 @@
     </row>
     <row r="182" spans="1:5" ht="60">
       <c r="A182" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B182" t="s">
         <v>721</v>
@@ -6360,7 +6360,7 @@
     </row>
     <row r="183" spans="1:5" ht="60">
       <c r="A183" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B183" t="s">
         <v>725</v>
@@ -6377,7 +6377,7 @@
     </row>
     <row r="184" spans="1:5" ht="60">
       <c r="A184" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B184" t="s">
         <v>729</v>

--- a/request.xlsx
+++ b/request.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19112"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="776">
   <si>
     <t>town</t>
   </si>
@@ -433,7 +433,7 @@
     <t>집회소★7 초☆메모장 ~천인룡포획편~(超☆メモ帳～千刃竜捕獲編～)</t>
   </si>
   <si>
-    <t>룸서비스 변경가능(ルームサービス変更可能)</t>
+    <t>룸서비스 변경가능</t>
   </si>
   <si>
     <t>キャラバンの看板娘の依頼4</t>
@@ -1827,30 +1827,30 @@
   </si>
   <si>
     <t>장비개방
-アークRシリーズ_x000D_
-アーティアRシリーズ_x000D_
-アカムトRシリーズ_x000D_
-アロイRシリーズ_x000D_
-インゴットRシリーズ_x000D_
-エスカドラRシリーズ_x000D_
-ギザミRシリーズ_x000D_
-キリンRシリーズ_x000D_
-クシャナRシリーズ_x000D_
-グリードRシリーズ_x000D_
-ゲリョスRシリーズ_x000D_
-ゴアRシリーズ_x000D_
-S・ソルRシリーズ_x000D_
-ザザミRシリーズ_x000D_
-ダマスクRシリーズ_x000D_
-タロスRシリーズ_x000D_
-デスギアRシリーズ_x000D_
-ハンターRシリーズ_x000D_
-フィリアRシリーズ_x000D_
-フルフルRシリーズ_x000D_
-ラギアRシリーズ_x000D_
-ルドロスRシリーズ_x000D_
-レイアRシリーズ_x000D_
-レウスRシリーズ_x000D_
+아크R 시리즈(アークRシリーズ)
+아티아R 시리즈(アーティアRシリーズ)
+아캄토R 시리즈(アカムトRシリーズ)
+아로이R 시리즈(アロイRシリーズ)
+잉곳R 시리즈(インゴットRシリーズ)
+에스카드라R 시리즈(エスカドラRシリーズ)
+기자미R 시리즈(ギザミRシリーズ)
+키린R 시리즈(キリンRシリーズ)
+크샤나R 시리즈(クシャナRシリーズ)
+그리드R 시리즈(グリードRシリーズ)
+게료스R 시리즈(ゲリョスRシリーズ)
+고어R 시리즈(ゴアRシリーズ)
+S・솔R 시리즈(S・ソルRシリーズ)
+자자미R 시리즈(ザザミRシリーズ)
+다마스크R 시리즈(ダマスクRシリーズ)
+타로스R 시리즈(タロスRシリーズ)
+데스기어R 시리즈(デスギアRシリーズ)
+헌터R 시리즈(ハンターRシリーズ)
+필리아R 시리즈(フィリアRシリーズ)
+푸르푸르R 시리즈(フルフルRシリーズ)
+라기아R 시리즈(ラギアRシリーズ)
+루도로스R 시리즈(ルドロスRシリーズ)
+레이아R 시리즈(レイアRシリーズ)
+レウスRシリーズ
 レックスRシリーズ</t>
   </si>
   <si>
@@ -1863,8 +1863,8 @@
     <t>마을★2 계류의 쟈기노스 퇴치(渓流のジャギィノス退治)</t>
   </si>
   <si>
-    <t>입수_x000D_
-ユクモ村の村貢献度100pts</t>
+    <t>입수
+유쿠모 마을의 마을 공헌도 100pts(ユクモ村の村貢献度100pts)</t>
   </si>
   <si>
     <t>ユクモ村の村長の依頼2</t>
@@ -1877,11 +1877,11 @@
   </si>
   <si>
     <t>장비개방
-ユクモノシリーズ
+유쿠모노 시리즈(ユクモノシリーズ)
 오토모 장비개방
-ユクモノネコ木刀_x000D_
-ユクモノネコカサ_x000D_
-ユクモノネコドウギ</t>
+유쿠모노 고양이 목도(ユクモノネコ木刀)
+유쿠모노 고양이 우산(ユクモノネコカサ)
+유쿠모노 고양이 동의(ユクモノネコドウギ)</t>
   </si>
   <si>
     <t>ユクモ村の村長の依頼3</t>
@@ -1893,10 +1893,6 @@
     <t>마을★3 로아루도로스를 수렵해라!(ロアルドロスを狩猟せよ！)</t>
   </si>
   <si>
-    <t>입수_x000D_
-龍歴院ポイント500pts</t>
-  </si>
-  <si>
     <t>ユクモ村の村長の依頼4</t>
   </si>
   <si>
@@ -1907,7 +1903,7 @@
   </si>
   <si>
     <t>입수
-ユクモチケット x2</t>
+유쿠모 티켓 x2(ユクモチケット x2)</t>
   </si>
   <si>
     <t>ユクモ村の村長の依頼5</t>
@@ -1920,9 +1916,9 @@
   </si>
   <si>
     <t>입수
-ユクモチケット x5
-수기개방_x000D_
-アクセルシャワーLV2</t>
+유쿠모 티켓 x5(ユクモチケット x5)
+수기개방
+액셀 샤워LV2(アクセルシャワーLV2)</t>
   </si>
   <si>
     <t>ユクモ村の村長の依頼6</t>
@@ -1935,7 +1931,7 @@
   </si>
   <si>
     <t>입수
-隼刃の羽飾り</t>
+준인의 깃털 장식(隼刃の羽飾り)</t>
   </si>
   <si>
     <t>ユクモ村の村長の依頼7</t>
@@ -1948,11 +1944,11 @@
   </si>
   <si>
     <t>입수
-ユクモチケットG
+유쿠모 티켓 G(ユクモチケットG)
 오토모 장비개방
-ユクモノＸネコ扇子_x000D_
-ユクモノＸネコカサ_x000D_
-ユクモノＸネコドウギ</t>
+유쿠모노Ｘ 고양이 부채(ユクモノＸネコ扇子)
+유쿠모노Ｘ 고양이 우산(ユクモノＸネコカサ)
+유쿠모노Ｘ 고양이 동의(ユクモノＸネコドウギ)</t>
   </si>
   <si>
     <t>ユクモ村の受付嬢の依頼1</t>
@@ -1965,11 +1961,11 @@
   </si>
   <si>
     <t>장비개방
-撫子/桔梗シリーズ
+나데시코/키쿄우 시리즈(撫子/桔梗シリーズ)
 오토모 장비개방
-ユクモノネコ扇子_x000D_
-ニャでしこ【布冠】_x000D_
-ニャでしこ【花衣】</t>
+유쿠모노 고양이 부채(ユクモノネコ扇子)
+냐데시코【포관】(ニャでしこ【布冠】)
+냐데시코【화의】(ニャでしこ【花衣】)</t>
   </si>
   <si>
     <t>ユクモ村の受付嬢の依頼2</t>
@@ -1982,10 +1978,10 @@
   </si>
   <si>
     <t>장비개방
-撫子・雅/桔梗・雅シリーズ
+나데시코・아/키쿄우・아 시리즈(撫子・雅/桔梗・雅シリーズ)
 오토모 장비개방
-ニャでしこ雅【布冠】_x000D_
-ニャでしこ雅【花衣】</t>
+냐데시코아【포관】(ニャでしこ雅【布冠】)
+냐데시코아【화의】(ニャでしこ雅【花衣】)</t>
   </si>
   <si>
     <t>ユクモ村の看板娘の依頼1</t>
@@ -1998,10 +1994,10 @@
   </si>
   <si>
     <t>장비개방
-撫子・華/桔梗・華シリーズ
+나데시코・화/키쿄우・화 시리즈(撫子・華/桔梗・華シリーズ)
 오토모 장비개방
-ニャでしこ華【布冠】_x000D_
-ニャでしこ華【花衣】</t>
+냐데시코화【포관】(ニャでしこ華【布冠】)
+냐데시코화【화의】(ニャでしこ華【花衣】)</t>
   </si>
   <si>
     <t>ユクモ村の看板娘の依頼2</t>
@@ -2013,8 +2009,8 @@
     <t>G★1 간판 아가씨 셀렉트 : 유군령의 수수(看板娘セレクト：遺群嶺の水獣)</t>
   </si>
   <si>
-    <t>입수_x000D_
-ユクモ村の村貢献度500pts</t>
+    <t>입수
+유쿠모 마을의 마을 공헌도 500pts(ユクモ村の村貢献度500pts)</t>
   </si>
   <si>
     <t>オトモ武具屋の依頼1</t>
@@ -2029,8 +2025,8 @@
   </si>
   <si>
     <t>오토모 장비개방
-マカネコピック_x000D_
-巨大ネコどんぐり</t>
+마카 고양이 피크(マカネコピック)
+거대 고양이 도토리(巨大ネコどんぐり)</t>
   </si>
   <si>
     <t>オトモ武具屋の依頼2</t>
@@ -2043,8 +2039,8 @@
   </si>
   <si>
     <t>오토모 장비개방
-ランポスネコピック_x000D_
-大タルネコハンマー</t>
+란포스 고양이 피크(ランポスネコピック)
+큰 통 고양이 해머(大タルネコハンマー)</t>
   </si>
   <si>
     <t>オトモ武具屋の依頼3</t>
@@ -2057,8 +2053,8 @@
   </si>
   <si>
     <t>오토모 장비개방
-転がし三度笠_x000D_
-転がしマント</t>
+굴림 삿갓(転がし三度笠)
+굴림 망토(転がしマント)</t>
   </si>
   <si>
     <t>オトモ武具屋の依頼4</t>
@@ -2071,8 +2067,8 @@
   </si>
   <si>
     <t>오토모 장비개방
-転々がし三度笠_x000D_
-転々がしマント</t>
+굴림굴림 삿갓(転々がし三度笠)
+굴림굴림 망토(転々がしマント)</t>
   </si>
   <si>
     <t>集会浴場の番台さんの依頼1</t>
@@ -2085,9 +2081,9 @@
   </si>
   <si>
     <t>퀘스트 보수
-EX雷狼竜チケット
+EX뇌랑룡 티켓(EX雷狼竜チケット)
 장비개방
-EXジンオウシリーズ</t>
+EX진오우가 시리즈(EXジンオウシリーズ)</t>
   </si>
   <si>
     <t>集会浴場の番台さんの依頼2</t>
@@ -2100,9 +2096,9 @@
   </si>
   <si>
     <t>퀘스트 보수
-EX砕竜チケット
+EX 쇄룡 티켓(EX砕竜チケット)
 장비개방
-EXブラキシリーズ</t>
+EX 브라키 시리즈(EXブラキシリーズ)</t>
   </si>
   <si>
     <t>集会浴場の番台さんの依頼3</t>
@@ -2115,9 +2111,9 @@
   </si>
   <si>
     <t>장비개방
-桐花/三葵シリーズ
+동화/삼규 시리즈(桐花/三葵シリーズ)
 수기개방
-蟲纏いLV3</t>
+벌레 두르기LV3(蟲纏いLV3)</t>
   </si>
   <si>
     <t>集会浴場の番台さんの依頼4</t>
@@ -2130,7 +2126,7 @@
   </si>
   <si>
     <t>장비개방
-最高級ユアミシリーズ</t>
+최고급 유아미 시리즈(最高級ユアミシリーズ)</t>
   </si>
   <si>
     <t>モガの村の農場長の依頼1</t>
@@ -2143,7 +2139,7 @@
   </si>
   <si>
     <t>퀘스트 보수
-コシカケダケ</t>
+의자 버섯(コシカケダケ)</t>
   </si>
   <si>
     <t>モガの村の農場長の依頼2</t>
@@ -2156,7 +2152,7 @@
   </si>
   <si>
     <t>퀘스트 보수
-キングサボテン</t>
+킹 선인장(キングサボテン)</t>
   </si>
   <si>
     <t>モガの村の農場長の依頼3</t>
@@ -2169,7 +2165,7 @@
   </si>
   <si>
     <t>퀘스트 보수
-オオモロコシ</t>
+큰 수수(オオモロコシ)</t>
   </si>
   <si>
     <t>モガの村の農場長の依頼4</t>
@@ -2181,8 +2177,8 @@
     <t>마을★9 정글・페로몬(ジャングル・フェロモン)</t>
   </si>
   <si>
-    <t>식재_x000D_
-マスターベーグル</t>
+    <t>식재
+마스터 베이글(マスターベーグル)</t>
   </si>
   <si>
     <t>モガの村長の息子の依頼1</t>
@@ -2195,8 +2191,8 @@
 생고기(生肉) x3</t>
   </si>
   <si>
-    <t>식재_x000D_
-モガニ</t>
+    <t>식재
+모가니(モガニ)</t>
   </si>
   <si>
     <t>モガの村長の息子の依頼2</t>
@@ -2209,7 +2205,7 @@
   </si>
   <si>
     <t>퀘스트 보수
-うなりうねり貝</t>
+으르렁으르렁조개(うなりうねり貝)</t>
   </si>
   <si>
     <t>モガの村長の息子の依頼3</t>
@@ -2222,7 +2218,7 @@
   </si>
   <si>
     <t>퀘스트 보수
-古代鮫の皮</t>
+고대상어의 가죽(古代鮫の皮)</t>
   </si>
   <si>
     <t>モガの村長の息子の依頼4</t>
@@ -2235,7 +2231,7 @@
   </si>
   <si>
     <t>퀘스트 보수
-イチノタチウオ</t>
+가장 뛰어난 갈치(イチノタチウオ)</t>
   </si>
   <si>
     <t>モガの村長の息子の依頼5</t>
@@ -2248,11 +2244,11 @@
   </si>
   <si>
     <t>퀘스트 보수
-大海原の輝石
+대해원의 휘석(大海原の輝石)
 장비개방
-ヴァイキングホーン_x000D_
-ヘリオスＸシリーズ_x000D_
-セレネＸシリーズ</t>
+바이킹 혼(ヴァイキングホーン)
+베리오스Ｘ 시리즈(ヘリオスＸシリーズ)
+셀레네Ｘ 시리즈(セレネＸシリーズ)</t>
   </si>
   <si>
     <t>漁港の女主人の依頼1</t>
@@ -2266,8 +2262,8 @@
 지친정어리(シンドイワシ) x2</t>
   </si>
   <si>
-    <t>식재_x000D_
-モガ大トロ</t>
+    <t>식재
+모가 큰 다랑어(モガ大トロ)</t>
   </si>
   <si>
     <t>漁港の女主人の依頼2</t>
@@ -2279,8 +2275,8 @@
     <t>G★1 강변의 아오아시라 퇴치(川辺のアオアシラ退治)</t>
   </si>
   <si>
-    <t>식재_x000D_
-カタマリアワビ</t>
+    <t>식재
+덩어리 전복(カタマリアワビ)</t>
   </si>
   <si>
     <t>モガの村の看板娘の依頼1</t>
@@ -2292,9 +2288,6 @@
     <t>마을★3 엿차! 버섯납품입니다요!(ほいっ！キノコ納品ですよ！)</t>
   </si>
   <si>
-    <t>ルームサービス変更可能</t>
-  </si>
-  <si>
     <t>モガの村の看板娘の依頼2</t>
   </si>
   <si>
@@ -2305,10 +2298,10 @@
   </si>
   <si>
     <t>장비개방
-スカラーシリーズ
+스칼라 시리즈(スカラーシリーズ)
 오토모 장비개방
-ガイドネコフード_x000D_
-ガイドネコスーツ</t>
+가이드 고양이 후드(ガイドネコフード)
+가이드 고양이 슈트(ガイドネコスーツ)</t>
   </si>
   <si>
     <t>モガの村の看板娘の依頼3</t>
@@ -2321,10 +2314,10 @@
   </si>
   <si>
     <t>장비개방
-スカラーＸシリーズ
+스칼라Ｘ 시리즈(スカラーＸシリーズ)
 오토모 장비개방
-ガイドＸネコフード_x000D_
-ガイドＸネコスーツ</t>
+가이드Ｘ 고양이 후드(ガイドＸネコフード)
+가이드Ｘ 고양이 슈트(ガイドＸネコスーツ)</t>
   </si>
   <si>
     <t>タンジアの港の看板娘の依頼1</t>
@@ -2337,10 +2330,10 @@
   </si>
   <si>
     <t>장비개방
-セイラーシリーズ
+세일러 시리즈(セイラーシリーズ)
 오토모 장비개방
-セイラーネコフード_x000D_
-セイラーネコスーツ</t>
+세일러 고양이 후드(セイラーネコフード)
+세일러 고양이 슈트(セイラーネコスーツ)</t>
   </si>
   <si>
     <t>タンジアの港の看板娘の依頼2</t>
@@ -2365,9 +2358,10 @@
   </si>
   <si>
     <t>장비개방
-セイラーＸシリーズ
+세일러Ｘ 시리즈(セイラーＸシリーズ)
 오토모 장비개방
-セイラーＸネコフードセイラーＸネコスーツ</t>
+세일러Ｘ 고양이 후드(セイラーＸネコフード)_x000D_
+세일러Ｘ 고양이 슈트(セイラーＸネコスーツ)</t>
   </si>
   <si>
     <t>ロックラックの宿屋の依頼</t>
@@ -2380,8 +2374,8 @@
 수수께끼의 뼈(なぞの骨) x5</t>
   </si>
   <si>
-    <t>식재_x000D_
-ロックラックルミ</t>
+    <t>식재
+록락 호두(ロックラックルミ)</t>
   </si>
   <si>
     <t>孤高の教官の依頼</t>
@@ -2393,8 +2387,8 @@
     <t>마을★6 뇌랑룡은 이렇게 울었다(雷狼竜はかく吠えり)</t>
   </si>
   <si>
-    <t>식재_x000D_
-達人ビール</t>
+    <t>식재
+달인 맥주(達人ビール)</t>
   </si>
   <si>
     <t>ぽかぽか島の管理人の依頼1</t>
@@ -2406,8 +2400,8 @@
     <t>마을★2 따끈따끈 죽순 납품(ぽかぽかタケノコ納品)</t>
   </si>
   <si>
-    <t>식재_x000D_
-ツチタケノコ</t>
+    <t>식재
+땅 죽순(ツチタケノコ)</t>
   </si>
   <si>
     <t>ぽかぽか島の管理人の依頼2</t>
@@ -2428,8 +2422,8 @@
     <t>마을★3 순해와 조개와 사냥(盾蟹と貝と狩り)</t>
   </si>
   <si>
-    <t>식재_x000D_
-モガモ貝</t>
+    <t>식재
+모가모 조개(モガモ貝)</t>
   </si>
   <si>
     <t>モガの村の村長の依頼2</t>
@@ -2442,9 +2436,9 @@
   </si>
   <si>
     <t>퀘스트 보수
-大海原の輝石
+대해원의 휘석(大海原の輝石)
 장비개방
-ナバルタスク</t>
+나발타스크(ナバルタスク)</t>
   </si>
   <si>
     <t>ジャンボ村の村長の依頼1</t>
@@ -2459,10 +2453,10 @@
 빙결정 딸기(氷結晶イチゴ) x1</t>
   </si>
   <si>
-    <t>식재_x000D_
-ジャンボウ
-푸기의 옷_x000D_
-はだかの王様</t>
+    <t>식재
+점보우(ジャンボウ)
+푸기의 옷
+벌거벗은 임금님(はだかの王様)</t>
   </si>
   <si>
     <t>ジャンボ村の村長の依頼2</t>
@@ -2475,7 +2469,7 @@
   </si>
   <si>
     <t>입수
-封龍宝剣</t>
+봉룡보검(封龍宝剣)</t>
   </si>
   <si>
     <t>食材屋の女将の依頼1</t>
@@ -2487,8 +2481,8 @@
     <t>집회소★2 식재의 가치는 신선도이다(食材の価値は鮮度なり)</t>
   </si>
   <si>
-    <t>식재_x000D_
-サイコロミート</t>
+    <t>식재
+주사위 고기(サイコロミート)</t>
   </si>
   <si>
     <t>食材屋の女将の依頼2</t>
@@ -2500,8 +2494,8 @@
     <t>마을★7 제철 식재를 채집해주게!(旬な食材を採らせておくれ！)</t>
   </si>
   <si>
-    <t>식재_x000D_
-リュウノテール</t>
+    <t>식재
+용 꼬리(リュウノテール)</t>
   </si>
   <si>
     <t>調合屋のあるじの依頼</t>
@@ -2516,8 +2510,8 @@
 극채색의 체액(極彩色の体液) x1</t>
   </si>
   <si>
-    <t>식재_x000D_
-五穀豊穣米</t>
+    <t>식재
+오곡풍양미(五穀豊穣米)</t>
   </si>
   <si>
     <t>ドンドルマの道具屋の依頼1</t>
@@ -2529,10 +2523,10 @@
     <t>집회소★6 환상의 핫플?(幻のハップル？)</t>
   </si>
   <si>
-    <t>식재_x000D_
-ハップルアップル
-푸기의 옷_x000D_
-ドスの気持ち</t>
+    <t>식재
+하플애플(ハップルアップル)
+푸기의 옷
+도스의 기분(ドスの気持ち)</t>
   </si>
   <si>
     <t>ドンドルマの道具屋の依頼2</t>
@@ -2544,8 +2538,8 @@
     <t>G★2 지보는 사과왕?(至宝の林檎王？)</t>
   </si>
   <si>
-    <t>식재_x000D_
-林檎王【凜護】</t>
+    <t>식재
+사과왕【름호】(林檎王【凜護】)</t>
   </si>
   <si>
     <t>船大工の親方の依頼</t>
@@ -2557,10 +2551,10 @@
     <t>집회소★6 가노토토스 모험기(ガノトトス冒険記)</t>
   </si>
   <si>
-    <t>식재_x000D_
-ブレスワイン
+    <t>식재
+브레스 와인(ブレスワイン)
 입수
-イカリハンマー</t>
+분노의 해머(イカリハンマー)</t>
   </si>
   <si>
     <t>シナト村の女の子の依頼</t>
@@ -2572,8 +2566,8 @@
     <t>마을★4 해앵사앙수해앵(행상수행)(ぎょーしょーしゅぎょー)</t>
   </si>
   <si>
-    <t>식재_x000D_
-完熟シナトマト</t>
+    <t>식재
+완숙 시나토 토마토(完熟シナトマト)</t>
   </si>
   <si>
     <t>まったりアイルーの依頼</t>
@@ -2585,10 +2579,10 @@
     <t>마을★5 빨간 해님 아뜨뜨(赤いおひさまアッチッチ)</t>
   </si>
   <si>
-    <t>식재_x000D_
-フワッフワッフル
+    <t>식재
+둥실둥실와플(フワッフワッフル)
 수기개방
-竜の息吹LV2</t>
+용의숨결LV2(竜の息吹LV2)</t>
   </si>
   <si>
     <t>ロックラックガイドの依頼</t>
@@ -2600,8 +2594,8 @@
     <t>마을★3 맛있는 알은 누구를 위해?(おいしい卵は誰のため？)</t>
   </si>
   <si>
-    <t>식재_x000D_
-ロックラッカセイ</t>
+    <t>식재
+록락 땅콩(ロックラッカセイ)</t>
   </si>
   <si>
     <t>タンジアの港のカシラの依頼</t>
@@ -2614,7 +2608,7 @@
   </si>
   <si>
     <t>장비개방
-ポルトマルク</t>
+폴트마르크(ポルトマルク)</t>
   </si>
   <si>
     <t>ギルドマネージャーの依頼</t>
@@ -2627,10 +2621,10 @@
   </si>
   <si>
     <t>장비개방
-番傘【秋雨】_x000D_
-アイリューシカ瓢弾
+지우산【추우】(番傘【秋雨】)
+아이류시카 표탄(アイリューシカ瓢弾)
 수기개방
-ブレイドダンスLV3</t>
+블레이드 댄스LV3(ブレイドダンスLV3)</t>
   </si>
   <si>
     <t>ミナガルデのご隠居の依頼</t>
@@ -2643,9 +2637,9 @@
   </si>
   <si>
     <t>장비개방
-大長老の脇差
+대장로의 작은 요도(大長老の脇差)
 수기개방
-バレットゲイザーLV3</t>
+블릿 게이저LV3(バレットゲイザーLV3)</t>
   </si>
   <si>
     <t>ロックラックの長の依頼1</t>
@@ -2658,9 +2652,9 @@
   </si>
   <si>
     <t>장비개방
-城塞遊撃隊/城塞弓撃隊シリーズ
+성채유격대/성채궁격대 시리즈(城塞遊撃隊/城塞弓撃隊シリーズ)
 수기개방
-獣宿し【餓狼】LV3</t>
+짐승깃들기【아랑】LV3(獣宿し【餓狼】LV3)</t>
   </si>
   <si>
     <t>ロックラックの長の依頼2</t>
@@ -2673,7 +2667,7 @@
   </si>
   <si>
     <t>장비개방
-城塞特攻隊/城塞隠密隊シリーズ</t>
+성채특공대/성채은밀대 시리즈(城塞特攻隊/城塞隠密隊シリーズ)</t>
   </si>
   <si>
     <t>モガの村の老職人の依頼1</t>
@@ -2686,9 +2680,9 @@
   </si>
   <si>
     <t>장비개방
-ヒーローアームズ_x000D_
-ヒーローガンランス_x000D_
-ヒーローブラスター</t>
+히어로 암즈(ヒーローアームズ)
+히어로 건랜스(ヒーローガンランス)
+히어로 블래스터(ヒーローブラスター)</t>
   </si>
   <si>
     <t>モガの村の老職人の依頼2</t>
@@ -2701,7 +2695,7 @@
   </si>
   <si>
     <t>퀘스트 보수
-大海原の輝石
+대해원의 휘석(大海原の輝石)
 장비개방
 ビクトリアーラ</t>
   </si>
@@ -2716,9 +2710,9 @@
   </si>
   <si>
     <t>오토모 장비개방
-マスターネコブレイド_x000D_
-マスターネコヘルム_x000D_
-マスターネコメイル</t>
+마스터 고양이 블레이드(マスターネコブレイド)
+마스터 고양이 헬름(マスターネコヘルム)
+마스터 고양이 메일(マスターネコメイル)</t>
   </si>
   <si>
     <t>그 외(その他)</t>
@@ -3251,8 +3245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C119" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="E122" sqref="E122"/>
+    <sheetView tabSelected="1" topLeftCell="D179" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="E183" sqref="E183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5403,7 +5397,7 @@
         <v>501</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>502</v>
+        <v>69</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="30">
@@ -5411,16 +5405,16 @@
         <v>486</v>
       </c>
       <c r="B127" t="s">
+        <v>502</v>
+      </c>
+      <c r="C127" t="s">
         <v>503</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>504</v>
       </c>
-      <c r="D127" t="s">
+      <c r="E127" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="60">
@@ -5428,16 +5422,16 @@
         <v>486</v>
       </c>
       <c r="B128" t="s">
+        <v>506</v>
+      </c>
+      <c r="C128" t="s">
         <v>507</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>508</v>
       </c>
-      <c r="D128" t="s">
+      <c r="E128" s="1" t="s">
         <v>509</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="30">
@@ -5445,16 +5439,16 @@
         <v>486</v>
       </c>
       <c r="B129" t="s">
+        <v>510</v>
+      </c>
+      <c r="C129" t="s">
         <v>511</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>512</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E129" s="1" t="s">
         <v>513</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="90">
@@ -5462,16 +5456,16 @@
         <v>486</v>
       </c>
       <c r="B130" t="s">
+        <v>514</v>
+      </c>
+      <c r="C130" t="s">
         <v>515</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>516</v>
       </c>
-      <c r="D130" t="s">
+      <c r="E130" s="1" t="s">
         <v>517</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="90">
@@ -5479,16 +5473,16 @@
         <v>486</v>
       </c>
       <c r="B131" t="s">
+        <v>518</v>
+      </c>
+      <c r="C131" t="s">
         <v>519</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>520</v>
       </c>
-      <c r="D131" t="s">
+      <c r="E131" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="75">
@@ -5496,16 +5490,16 @@
         <v>486</v>
       </c>
       <c r="B132" t="s">
+        <v>522</v>
+      </c>
+      <c r="C132" t="s">
         <v>523</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>524</v>
       </c>
-      <c r="D132" t="s">
+      <c r="E132" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="75">
@@ -5513,16 +5507,16 @@
         <v>486</v>
       </c>
       <c r="B133" t="s">
+        <v>526</v>
+      </c>
+      <c r="C133" t="s">
         <v>527</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
         <v>528</v>
       </c>
-      <c r="D133" t="s">
+      <c r="E133" s="1" t="s">
         <v>529</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="30">
@@ -5530,16 +5524,16 @@
         <v>486</v>
       </c>
       <c r="B134" t="s">
+        <v>530</v>
+      </c>
+      <c r="C134" t="s">
         <v>531</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
         <v>532</v>
       </c>
-      <c r="D134" t="s">
+      <c r="E134" s="1" t="s">
         <v>533</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="45">
@@ -5547,16 +5541,16 @@
         <v>486</v>
       </c>
       <c r="B135" t="s">
+        <v>534</v>
+      </c>
+      <c r="C135" t="s">
         <v>535</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="E135" s="1" t="s">
         <v>537</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="45">
@@ -5564,16 +5558,16 @@
         <v>486</v>
       </c>
       <c r="B136" t="s">
+        <v>538</v>
+      </c>
+      <c r="C136" t="s">
         <v>539</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>540</v>
       </c>
-      <c r="D136" t="s">
+      <c r="E136" s="1" t="s">
         <v>541</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="45">
@@ -5581,16 +5575,16 @@
         <v>486</v>
       </c>
       <c r="B137" t="s">
+        <v>542</v>
+      </c>
+      <c r="C137" t="s">
         <v>543</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>544</v>
       </c>
-      <c r="D137" t="s">
+      <c r="E137" s="1" t="s">
         <v>545</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="45">
@@ -5598,16 +5592,16 @@
         <v>486</v>
       </c>
       <c r="B138" t="s">
+        <v>546</v>
+      </c>
+      <c r="C138" t="s">
         <v>547</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
         <v>548</v>
       </c>
-      <c r="D138" t="s">
+      <c r="E138" s="1" t="s">
         <v>549</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="60">
@@ -5615,16 +5609,16 @@
         <v>486</v>
       </c>
       <c r="B139" t="s">
+        <v>550</v>
+      </c>
+      <c r="C139" t="s">
         <v>551</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
         <v>552</v>
       </c>
-      <c r="D139" t="s">
+      <c r="E139" s="1" t="s">
         <v>553</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="60">
@@ -5632,16 +5626,16 @@
         <v>486</v>
       </c>
       <c r="B140" t="s">
+        <v>554</v>
+      </c>
+      <c r="C140" t="s">
         <v>555</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
         <v>556</v>
       </c>
-      <c r="D140" t="s">
+      <c r="E140" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="60">
@@ -5649,16 +5643,16 @@
         <v>486</v>
       </c>
       <c r="B141" t="s">
+        <v>558</v>
+      </c>
+      <c r="C141" t="s">
         <v>559</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
         <v>560</v>
       </c>
-      <c r="D141" t="s">
+      <c r="E141" s="1" t="s">
         <v>561</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="30">
@@ -5666,16 +5660,16 @@
         <v>486</v>
       </c>
       <c r="B142" t="s">
+        <v>562</v>
+      </c>
+      <c r="C142" t="s">
         <v>563</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
         <v>564</v>
       </c>
-      <c r="D142" t="s">
+      <c r="E142" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="30">
@@ -5683,16 +5677,16 @@
         <v>486</v>
       </c>
       <c r="B143" t="s">
+        <v>566</v>
+      </c>
+      <c r="C143" t="s">
         <v>567</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
         <v>568</v>
       </c>
-      <c r="D143" t="s">
+      <c r="E143" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="30">
@@ -5700,16 +5694,16 @@
         <v>486</v>
       </c>
       <c r="B144" t="s">
+        <v>570</v>
+      </c>
+      <c r="C144" t="s">
         <v>571</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
         <v>572</v>
       </c>
-      <c r="D144" t="s">
+      <c r="E144" s="1" t="s">
         <v>573</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="30">
@@ -5717,16 +5711,16 @@
         <v>486</v>
       </c>
       <c r="B145" t="s">
+        <v>574</v>
+      </c>
+      <c r="C145" t="s">
         <v>575</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>576</v>
       </c>
-      <c r="D145" t="s">
+      <c r="E145" s="1" t="s">
         <v>577</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="30">
@@ -5734,16 +5728,16 @@
         <v>486</v>
       </c>
       <c r="B146" t="s">
+        <v>578</v>
+      </c>
+      <c r="C146" t="s">
         <v>579</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>580</v>
       </c>
-      <c r="D146" t="s">
+      <c r="E146" s="1" t="s">
         <v>581</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="30">
@@ -5751,16 +5745,16 @@
         <v>486</v>
       </c>
       <c r="B147" t="s">
+        <v>582</v>
+      </c>
+      <c r="C147" t="s">
         <v>583</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="E147" s="1" t="s">
         <v>585</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="30">
@@ -5768,16 +5762,16 @@
         <v>486</v>
       </c>
       <c r="B148" t="s">
+        <v>586</v>
+      </c>
+      <c r="C148" t="s">
         <v>587</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
         <v>588</v>
       </c>
-      <c r="D148" t="s">
+      <c r="E148" s="1" t="s">
         <v>589</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="30">
@@ -5785,16 +5779,16 @@
         <v>486</v>
       </c>
       <c r="B149" t="s">
+        <v>590</v>
+      </c>
+      <c r="C149" t="s">
         <v>591</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
         <v>592</v>
       </c>
-      <c r="D149" t="s">
+      <c r="E149" s="1" t="s">
         <v>593</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="30">
@@ -5802,16 +5796,16 @@
         <v>486</v>
       </c>
       <c r="B150" t="s">
+        <v>594</v>
+      </c>
+      <c r="C150" t="s">
         <v>595</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>596</v>
       </c>
-      <c r="D150" t="s">
+      <c r="E150" s="1" t="s">
         <v>597</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="90">
@@ -5819,16 +5813,16 @@
         <v>486</v>
       </c>
       <c r="B151" t="s">
+        <v>598</v>
+      </c>
+      <c r="C151" t="s">
         <v>599</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
         <v>600</v>
       </c>
-      <c r="D151" t="s">
+      <c r="E151" s="1" t="s">
         <v>601</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="45">
@@ -5836,16 +5830,16 @@
         <v>486</v>
       </c>
       <c r="B152" t="s">
+        <v>602</v>
+      </c>
+      <c r="C152" t="s">
         <v>603</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="E152" s="1" t="s">
         <v>605</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="30">
@@ -5853,16 +5847,16 @@
         <v>486</v>
       </c>
       <c r="B153" t="s">
+        <v>606</v>
+      </c>
+      <c r="C153" t="s">
         <v>607</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
         <v>608</v>
       </c>
-      <c r="D153" t="s">
+      <c r="E153" s="1" t="s">
         <v>609</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5870,16 +5864,16 @@
         <v>486</v>
       </c>
       <c r="B154" t="s">
+        <v>610</v>
+      </c>
+      <c r="C154" t="s">
         <v>611</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
         <v>612</v>
       </c>
-      <c r="D154" t="s">
-        <v>613</v>
-      </c>
       <c r="E154" t="s">
-        <v>614</v>
+        <v>109</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="75">
@@ -5887,16 +5881,16 @@
         <v>486</v>
       </c>
       <c r="B155" t="s">
+        <v>613</v>
+      </c>
+      <c r="C155" t="s">
+        <v>614</v>
+      </c>
+      <c r="D155" t="s">
         <v>615</v>
       </c>
-      <c r="C155" t="s">
+      <c r="E155" s="1" t="s">
         <v>616</v>
-      </c>
-      <c r="D155" t="s">
-        <v>617</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="75">
@@ -5904,16 +5898,16 @@
         <v>486</v>
       </c>
       <c r="B156" t="s">
+        <v>617</v>
+      </c>
+      <c r="C156" t="s">
+        <v>618</v>
+      </c>
+      <c r="D156" t="s">
         <v>619</v>
       </c>
-      <c r="C156" t="s">
+      <c r="E156" s="1" t="s">
         <v>620</v>
-      </c>
-      <c r="D156" t="s">
-        <v>621</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="75">
@@ -5921,16 +5915,16 @@
         <v>486</v>
       </c>
       <c r="B157" t="s">
+        <v>621</v>
+      </c>
+      <c r="C157" t="s">
+        <v>622</v>
+      </c>
+      <c r="D157" t="s">
         <v>623</v>
       </c>
-      <c r="C157" t="s">
+      <c r="E157" s="1" t="s">
         <v>624</v>
-      </c>
-      <c r="D157" t="s">
-        <v>625</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5938,33 +5932,33 @@
         <v>486</v>
       </c>
       <c r="B158" t="s">
+        <v>625</v>
+      </c>
+      <c r="C158" t="s">
+        <v>626</v>
+      </c>
+      <c r="D158" t="s">
         <v>627</v>
       </c>
-      <c r="C158" t="s">
-        <v>628</v>
-      </c>
-      <c r="D158" t="s">
-        <v>629</v>
-      </c>
       <c r="E158" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="60">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="75">
       <c r="A159" t="s">
         <v>486</v>
       </c>
       <c r="B159" t="s">
+        <v>628</v>
+      </c>
+      <c r="C159" t="s">
+        <v>629</v>
+      </c>
+      <c r="D159" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="C159" t="s">
+      <c r="E159" s="1" t="s">
         <v>631</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="30">
@@ -5972,16 +5966,16 @@
         <v>486</v>
       </c>
       <c r="B160" t="s">
+        <v>632</v>
+      </c>
+      <c r="C160" t="s">
+        <v>633</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="C160" t="s">
+      <c r="E160" s="1" t="s">
         <v>635</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="30">
@@ -5989,16 +5983,16 @@
         <v>486</v>
       </c>
       <c r="B161" t="s">
+        <v>636</v>
+      </c>
+      <c r="C161" t="s">
+        <v>637</v>
+      </c>
+      <c r="D161" t="s">
         <v>638</v>
       </c>
-      <c r="C161" t="s">
+      <c r="E161" s="1" t="s">
         <v>639</v>
-      </c>
-      <c r="D161" t="s">
-        <v>640</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="30">
@@ -6006,16 +6000,16 @@
         <v>486</v>
       </c>
       <c r="B162" t="s">
+        <v>640</v>
+      </c>
+      <c r="C162" t="s">
+        <v>641</v>
+      </c>
+      <c r="D162" t="s">
         <v>642</v>
       </c>
-      <c r="C162" t="s">
+      <c r="E162" s="1" t="s">
         <v>643</v>
-      </c>
-      <c r="D162" t="s">
-        <v>644</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -6023,16 +6017,16 @@
         <v>486</v>
       </c>
       <c r="B163" t="s">
+        <v>644</v>
+      </c>
+      <c r="C163" t="s">
+        <v>645</v>
+      </c>
+      <c r="D163" t="s">
         <v>646</v>
       </c>
-      <c r="C163" t="s">
-        <v>647</v>
-      </c>
-      <c r="D163" t="s">
-        <v>648</v>
-      </c>
       <c r="E163" t="s">
-        <v>614</v>
+        <v>109</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="30">
@@ -6040,16 +6034,16 @@
         <v>486</v>
       </c>
       <c r="B164" t="s">
+        <v>647</v>
+      </c>
+      <c r="C164" t="s">
+        <v>648</v>
+      </c>
+      <c r="D164" t="s">
         <v>649</v>
       </c>
-      <c r="C164" t="s">
+      <c r="E164" s="1" t="s">
         <v>650</v>
-      </c>
-      <c r="D164" t="s">
-        <v>651</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="60">
@@ -6057,16 +6051,16 @@
         <v>486</v>
       </c>
       <c r="B165" t="s">
+        <v>651</v>
+      </c>
+      <c r="C165" t="s">
+        <v>652</v>
+      </c>
+      <c r="D165" t="s">
         <v>653</v>
       </c>
-      <c r="C165" t="s">
+      <c r="E165" s="1" t="s">
         <v>654</v>
-      </c>
-      <c r="D165" t="s">
-        <v>655</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="60">
@@ -6074,16 +6068,16 @@
         <v>486</v>
       </c>
       <c r="B166" t="s">
+        <v>655</v>
+      </c>
+      <c r="C166" t="s">
+        <v>656</v>
+      </c>
+      <c r="D166" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="C166" t="s">
+      <c r="E166" s="1" t="s">
         <v>658</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="30">
@@ -6091,16 +6085,16 @@
         <v>486</v>
       </c>
       <c r="B167" t="s">
+        <v>659</v>
+      </c>
+      <c r="C167" t="s">
+        <v>660</v>
+      </c>
+      <c r="D167" t="s">
         <v>661</v>
       </c>
-      <c r="C167" t="s">
+      <c r="E167" s="1" t="s">
         <v>662</v>
-      </c>
-      <c r="D167" t="s">
-        <v>663</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="30">
@@ -6108,16 +6102,16 @@
         <v>486</v>
       </c>
       <c r="B168" t="s">
+        <v>663</v>
+      </c>
+      <c r="C168" t="s">
+        <v>664</v>
+      </c>
+      <c r="D168" t="s">
         <v>665</v>
       </c>
-      <c r="C168" t="s">
+      <c r="E168" s="1" t="s">
         <v>666</v>
-      </c>
-      <c r="D168" t="s">
-        <v>667</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="30">
@@ -6125,16 +6119,16 @@
         <v>486</v>
       </c>
       <c r="B169" t="s">
+        <v>667</v>
+      </c>
+      <c r="C169" t="s">
+        <v>668</v>
+      </c>
+      <c r="D169" t="s">
         <v>669</v>
       </c>
-      <c r="C169" t="s">
+      <c r="E169" s="1" t="s">
         <v>670</v>
-      </c>
-      <c r="D169" t="s">
-        <v>671</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="60">
@@ -6142,16 +6136,16 @@
         <v>486</v>
       </c>
       <c r="B170" t="s">
+        <v>671</v>
+      </c>
+      <c r="C170" t="s">
+        <v>672</v>
+      </c>
+      <c r="D170" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="C170" t="s">
+      <c r="E170" s="1" t="s">
         <v>674</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="60">
@@ -6159,16 +6153,16 @@
         <v>486</v>
       </c>
       <c r="B171" t="s">
+        <v>675</v>
+      </c>
+      <c r="C171" t="s">
+        <v>676</v>
+      </c>
+      <c r="D171" t="s">
         <v>677</v>
       </c>
-      <c r="C171" t="s">
+      <c r="E171" s="1" t="s">
         <v>678</v>
-      </c>
-      <c r="D171" t="s">
-        <v>679</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="30">
@@ -6176,16 +6170,16 @@
         <v>486</v>
       </c>
       <c r="B172" t="s">
+        <v>679</v>
+      </c>
+      <c r="C172" t="s">
+        <v>680</v>
+      </c>
+      <c r="D172" t="s">
         <v>681</v>
       </c>
-      <c r="C172" t="s">
+      <c r="E172" s="1" t="s">
         <v>682</v>
-      </c>
-      <c r="D172" t="s">
-        <v>683</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="60">
@@ -6193,16 +6187,16 @@
         <v>486</v>
       </c>
       <c r="B173" t="s">
+        <v>683</v>
+      </c>
+      <c r="C173" t="s">
+        <v>684</v>
+      </c>
+      <c r="D173" t="s">
         <v>685</v>
       </c>
-      <c r="C173" t="s">
+      <c r="E173" s="1" t="s">
         <v>686</v>
-      </c>
-      <c r="D173" t="s">
-        <v>687</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="30">
@@ -6210,16 +6204,16 @@
         <v>486</v>
       </c>
       <c r="B174" t="s">
+        <v>687</v>
+      </c>
+      <c r="C174" t="s">
+        <v>688</v>
+      </c>
+      <c r="D174" t="s">
         <v>689</v>
       </c>
-      <c r="C174" t="s">
+      <c r="E174" s="1" t="s">
         <v>690</v>
-      </c>
-      <c r="D174" t="s">
-        <v>691</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="60">
@@ -6227,16 +6221,16 @@
         <v>486</v>
       </c>
       <c r="B175" t="s">
+        <v>691</v>
+      </c>
+      <c r="C175" t="s">
+        <v>692</v>
+      </c>
+      <c r="D175" t="s">
         <v>693</v>
       </c>
-      <c r="C175" t="s">
+      <c r="E175" s="1" t="s">
         <v>694</v>
-      </c>
-      <c r="D175" t="s">
-        <v>695</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="30">
@@ -6244,16 +6238,16 @@
         <v>486</v>
       </c>
       <c r="B176" t="s">
+        <v>695</v>
+      </c>
+      <c r="C176" t="s">
+        <v>696</v>
+      </c>
+      <c r="D176" t="s">
         <v>697</v>
       </c>
-      <c r="C176" t="s">
+      <c r="E176" s="1" t="s">
         <v>698</v>
-      </c>
-      <c r="D176" t="s">
-        <v>699</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="30">
@@ -6261,16 +6255,16 @@
         <v>486</v>
       </c>
       <c r="B177" t="s">
+        <v>699</v>
+      </c>
+      <c r="C177" t="s">
+        <v>700</v>
+      </c>
+      <c r="D177" t="s">
         <v>701</v>
       </c>
-      <c r="C177" t="s">
+      <c r="E177" s="1" t="s">
         <v>702</v>
-      </c>
-      <c r="D177" t="s">
-        <v>703</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="75">
@@ -6278,16 +6272,16 @@
         <v>486</v>
       </c>
       <c r="B178" t="s">
+        <v>703</v>
+      </c>
+      <c r="C178" t="s">
+        <v>704</v>
+      </c>
+      <c r="D178" t="s">
         <v>705</v>
       </c>
-      <c r="C178" t="s">
+      <c r="E178" s="1" t="s">
         <v>706</v>
-      </c>
-      <c r="D178" t="s">
-        <v>707</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="60">
@@ -6295,16 +6289,16 @@
         <v>486</v>
       </c>
       <c r="B179" t="s">
+        <v>707</v>
+      </c>
+      <c r="C179" t="s">
+        <v>708</v>
+      </c>
+      <c r="D179" t="s">
         <v>709</v>
       </c>
-      <c r="C179" t="s">
+      <c r="E179" s="1" t="s">
         <v>710</v>
-      </c>
-      <c r="D179" t="s">
-        <v>711</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="60">
@@ -6312,16 +6306,16 @@
         <v>486</v>
       </c>
       <c r="B180" t="s">
+        <v>711</v>
+      </c>
+      <c r="C180" t="s">
+        <v>712</v>
+      </c>
+      <c r="D180" t="s">
         <v>713</v>
       </c>
-      <c r="C180" t="s">
+      <c r="E180" s="1" t="s">
         <v>714</v>
-      </c>
-      <c r="D180" t="s">
-        <v>715</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="30">
@@ -6329,16 +6323,16 @@
         <v>486</v>
       </c>
       <c r="B181" t="s">
+        <v>715</v>
+      </c>
+      <c r="C181" t="s">
+        <v>716</v>
+      </c>
+      <c r="D181" t="s">
         <v>717</v>
       </c>
-      <c r="C181" t="s">
+      <c r="E181" s="1" t="s">
         <v>718</v>
-      </c>
-      <c r="D181" t="s">
-        <v>719</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="60">
@@ -6346,16 +6340,16 @@
         <v>486</v>
       </c>
       <c r="B182" t="s">
+        <v>719</v>
+      </c>
+      <c r="C182" t="s">
+        <v>720</v>
+      </c>
+      <c r="D182" t="s">
         <v>721</v>
       </c>
-      <c r="C182" t="s">
+      <c r="E182" s="1" t="s">
         <v>722</v>
-      </c>
-      <c r="D182" t="s">
-        <v>723</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="60">
@@ -6363,16 +6357,16 @@
         <v>486</v>
       </c>
       <c r="B183" t="s">
+        <v>723</v>
+      </c>
+      <c r="C183" t="s">
+        <v>724</v>
+      </c>
+      <c r="D183" t="s">
         <v>725</v>
       </c>
-      <c r="C183" t="s">
+      <c r="E183" s="1" t="s">
         <v>726</v>
-      </c>
-      <c r="D183" t="s">
-        <v>727</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="60">
@@ -6380,203 +6374,203 @@
         <v>486</v>
       </c>
       <c r="B184" t="s">
+        <v>727</v>
+      </c>
+      <c r="C184" t="s">
+        <v>728</v>
+      </c>
+      <c r="D184" t="s">
         <v>729</v>
       </c>
-      <c r="C184" t="s">
+      <c r="E184" s="1" t="s">
         <v>730</v>
-      </c>
-      <c r="D184" t="s">
-        <v>731</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="30">
       <c r="A185" t="s">
+        <v>731</v>
+      </c>
+      <c r="B185" t="s">
+        <v>732</v>
+      </c>
+      <c r="C185" t="s">
         <v>733</v>
       </c>
-      <c r="B185" t="s">
+      <c r="D185" t="s">
         <v>734</v>
       </c>
-      <c r="C185" t="s">
+      <c r="E185" s="1" t="s">
         <v>735</v>
-      </c>
-      <c r="D185" t="s">
-        <v>736</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="30">
       <c r="A186" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B186" t="s">
+        <v>736</v>
+      </c>
+      <c r="C186" t="s">
+        <v>737</v>
+      </c>
+      <c r="D186" t="s">
         <v>738</v>
       </c>
-      <c r="C186" t="s">
+      <c r="E186" s="1" t="s">
         <v>739</v>
-      </c>
-      <c r="D186" t="s">
-        <v>740</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="30">
       <c r="A187" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B187" t="s">
+        <v>740</v>
+      </c>
+      <c r="C187" t="s">
+        <v>741</v>
+      </c>
+      <c r="D187" t="s">
         <v>742</v>
       </c>
-      <c r="C187" t="s">
+      <c r="E187" s="1" t="s">
         <v>743</v>
-      </c>
-      <c r="D187" t="s">
-        <v>744</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="30">
       <c r="A188" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B188" t="s">
+        <v>744</v>
+      </c>
+      <c r="C188" t="s">
+        <v>745</v>
+      </c>
+      <c r="D188" t="s">
         <v>746</v>
       </c>
-      <c r="C188" t="s">
+      <c r="E188" s="1" t="s">
         <v>747</v>
-      </c>
-      <c r="D188" t="s">
-        <v>748</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="30">
       <c r="A189" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B189" t="s">
+        <v>748</v>
+      </c>
+      <c r="C189" t="s">
+        <v>749</v>
+      </c>
+      <c r="D189" t="s">
         <v>750</v>
       </c>
-      <c r="C189" t="s">
+      <c r="E189" s="1" t="s">
         <v>751</v>
-      </c>
-      <c r="D189" t="s">
-        <v>752</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="30">
       <c r="A190" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B190" t="s">
+        <v>752</v>
+      </c>
+      <c r="C190" t="s">
+        <v>753</v>
+      </c>
+      <c r="D190" t="s">
         <v>754</v>
       </c>
-      <c r="C190" t="s">
+      <c r="E190" s="1" t="s">
         <v>755</v>
-      </c>
-      <c r="D190" t="s">
-        <v>756</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="30">
       <c r="A191" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B191" t="s">
+        <v>756</v>
+      </c>
+      <c r="C191" t="s">
+        <v>757</v>
+      </c>
+      <c r="D191" t="s">
         <v>758</v>
       </c>
-      <c r="C191" t="s">
+      <c r="E191" s="1" t="s">
         <v>759</v>
-      </c>
-      <c r="D191" t="s">
-        <v>760</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="30">
       <c r="A192" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B192" t="s">
+        <v>760</v>
+      </c>
+      <c r="C192" t="s">
+        <v>761</v>
+      </c>
+      <c r="D192" t="s">
         <v>762</v>
       </c>
-      <c r="C192" t="s">
+      <c r="E192" s="1" t="s">
         <v>763</v>
-      </c>
-      <c r="D192" t="s">
-        <v>764</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="30">
       <c r="A193" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B193" t="s">
+        <v>764</v>
+      </c>
+      <c r="C193" t="s">
+        <v>765</v>
+      </c>
+      <c r="D193" t="s">
         <v>766</v>
       </c>
-      <c r="C193" t="s">
+      <c r="E193" s="1" t="s">
         <v>767</v>
-      </c>
-      <c r="D193" t="s">
-        <v>768</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="45">
       <c r="A194" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B194" t="s">
+        <v>768</v>
+      </c>
+      <c r="C194" t="s">
+        <v>769</v>
+      </c>
+      <c r="D194" t="s">
         <v>770</v>
       </c>
-      <c r="C194" t="s">
+      <c r="E194" s="1" t="s">
         <v>771</v>
-      </c>
-      <c r="D194" t="s">
-        <v>772</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="90">
       <c r="A195" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B195" t="s">
+        <v>772</v>
+      </c>
+      <c r="C195" t="s">
+        <v>773</v>
+      </c>
+      <c r="D195" t="s">
         <v>774</v>
       </c>
-      <c r="C195" t="s">
+      <c r="E195" s="1" t="s">
         <v>775</v>
-      </c>
-      <c r="D195" t="s">
-        <v>776</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>777</v>
       </c>
     </row>
   </sheetData>

--- a/request.xlsx
+++ b/request.xlsx
@@ -2728,7 +2728,7 @@
   </si>
   <si>
     <t>입수
-鶴寿の羽飾り</t>
+학수의 깃털 장식(鶴寿の羽飾り)</t>
   </si>
   <si>
     <t>その他2</t>
@@ -2741,7 +2741,7 @@
   </si>
   <si>
     <t>입수
-剣聖のピアス</t>
+검성의 피어스(剣聖のピアス)</t>
   </si>
   <si>
     <t>その他3</t>
@@ -2754,7 +2754,7 @@
   </si>
   <si>
     <t>입수
-増弾のピアス</t>
+증탄의 피어스(増弾のピアス)</t>
   </si>
   <si>
     <t>その他4</t>
@@ -2767,7 +2767,7 @@
   </si>
   <si>
     <t>입수
-虚心のピアス</t>
+허심의 피어스(虚心のピアス)</t>
   </si>
   <si>
     <t>その他5</t>
@@ -2780,7 +2780,7 @@
   </si>
   <si>
     <t>입수
-切望のピアス</t>
+절망의 피어스(切望のピアス)</t>
   </si>
   <si>
     <t>その他6</t>
@@ -2793,7 +2793,7 @@
   </si>
   <si>
     <t>입수
-ベルナ・フィオーレ</t>
+베르나・피오레(ベルナ・フィオーレ)</t>
   </si>
   <si>
     <t>その他7</t>
@@ -2806,7 +2806,7 @@
   </si>
   <si>
     <t>입수
-ココット・アルベロ</t>
+코코트・알베로(ココット・アルベロ)</t>
   </si>
   <si>
     <t>その他8</t>
@@ -2819,7 +2819,7 @@
   </si>
   <si>
     <t>입수
-ポッケ・ネーヴェ</t>
+폿케・네베(ポッケ・ネーヴェ)</t>
   </si>
   <si>
     <t>その他9</t>
@@ -2832,7 +2832,7 @@
   </si>
   <si>
     <t>입수
-ユクモ・テルメ</t>
+유쿠모・테르메(ユクモ・テルメ)</t>
   </si>
   <si>
     <t>その他10</t>
@@ -2845,8 +2845,8 @@
   </si>
   <si>
     <t>입수
-セーリオシリーズ_x000D_
-シャルマンシリーズ</t>
+세리오 시리즈(セーリオシリーズ)
+샬만 시리즈(シャルマンシリーズ)</t>
   </si>
   <si>
     <t>その他11</t>
@@ -2859,11 +2859,11 @@
   </si>
   <si>
     <t>입수
-斬炎のピアス_x000D_
-雷電のピアス_x000D_
-巨氷のピアス_x000D_
-水狐のピアス_x000D_
-龍彗のピアス</t>
+참염의 피어스(斬炎のピアス)
+뇌전의 피어스(雷電のピアス)
+거빙의 피어스(巨氷のピアス)
+수호의 피어스(水狐のピアス)
+용혜의 피어스(龍彗のピアス)</t>
   </si>
 </sst>
 </file>
@@ -3245,8 +3245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D179" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="E183" sqref="E183"/>
+    <sheetView tabSelected="1" topLeftCell="D185" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="E189" sqref="E189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
